--- a/Moduleplanning-template.xlsx
+++ b/Moduleplanning-template.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$4:$P$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$7:$P$67</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -24,7 +24,7 @@
     <author>Eugene Chiong</author>
   </authors>
   <commentList>
-    <comment ref="B4" authorId="0">
+    <comment ref="B7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="0">
+    <comment ref="C7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -73,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0">
+    <comment ref="D7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -98,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0">
+    <comment ref="E7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -122,7 +122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="0">
+    <comment ref="F7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -146,7 +146,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="0">
+    <comment ref="G7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -170,7 +170,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0">
+    <comment ref="H7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -194,7 +194,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0">
+    <comment ref="I7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -218,7 +218,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="0">
+    <comment ref="J7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -243,7 +243,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K4" authorId="0">
+    <comment ref="K7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -268,7 +268,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M4" authorId="0">
+    <comment ref="M7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -293,7 +293,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N4" authorId="0">
+    <comment ref="N7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -318,7 +318,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O4" authorId="0">
+    <comment ref="O7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -342,7 +342,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P4" authorId="0">
+    <comment ref="P7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -367,7 +367,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC12" authorId="0">
+    <comment ref="AC15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -391,7 +391,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE12" authorId="0">
+    <comment ref="AE15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -415,7 +415,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF12" authorId="0">
+    <comment ref="AF15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -444,7 +444,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="95">
   <si>
     <t>Module code</t>
   </si>
@@ -515,9 +515,6 @@
     <t>CS3230</t>
   </si>
   <si>
-    <t>IS1103</t>
-  </si>
-  <si>
     <t>ST2334</t>
   </si>
   <si>
@@ -527,18 +524,9 @@
     <t>CS3241</t>
   </si>
   <si>
-    <t>CS4247</t>
-  </si>
-  <si>
-    <t>CS4243</t>
-  </si>
-  <si>
     <t>CS3343</t>
   </si>
   <si>
-    <t>CS4340</t>
-  </si>
-  <si>
     <t>Level 5000 MCs</t>
   </si>
   <si>
@@ -656,9 +644,6 @@
     <t>Module Weight</t>
   </si>
   <si>
-    <t>CS3247</t>
-  </si>
-  <si>
     <t>Module</t>
   </si>
   <si>
@@ -674,39 +659,12 @@
     <t>CS2010R</t>
   </si>
   <si>
-    <t>CS5343</t>
-  </si>
-  <si>
-    <t>CS3240</t>
-  </si>
-  <si>
-    <t>CS3242</t>
-  </si>
-  <si>
     <t>LSM1302</t>
   </si>
   <si>
-    <t>CP4101</t>
-  </si>
-  <si>
     <t>GEK1055</t>
   </si>
   <si>
-    <t>CS3283</t>
-  </si>
-  <si>
-    <t>PH2110</t>
-  </si>
-  <si>
-    <t>CS4345</t>
-  </si>
-  <si>
-    <t>CS3246</t>
-  </si>
-  <si>
-    <t>CS3284</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -728,24 +686,9 @@
     <t>Focus Area</t>
   </si>
   <si>
-    <t>Media Tech</t>
-  </si>
-  <si>
-    <t>Final Year Project</t>
-  </si>
-  <si>
     <t>Graduation Criteria</t>
   </si>
   <si>
-    <t>CS3244</t>
-  </si>
-  <si>
-    <t>NCC1000</t>
-  </si>
-  <si>
-    <t>IS2104</t>
-  </si>
-  <si>
     <t>Copyright 2013 Eugene Chiong</t>
   </si>
   <si>
@@ -783,6 +726,9 @@
   </si>
   <si>
     <t xml:space="preserve">Hope you find this tool useful! </t>
+  </si>
+  <si>
+    <t>NUS Module Planner</t>
   </si>
 </sst>
 </file>
@@ -792,7 +738,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -849,8 +795,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="24"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -923,6 +876,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9F9F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="56">
     <border>
@@ -1616,7 +1575,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1875,10 +1834,105 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1903,9 +1957,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1945,98 +1996,11 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2044,6 +2008,24 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="18">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -2112,23 +2094,6 @@
         <horizontal/>
       </border>
       <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -2433,6 +2398,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFF9F9F9"/>
+      <color rgb="FFFFFBEF"/>
       <color rgb="FF99CCFF"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FFCCFFCC"/>
@@ -2441,8 +2408,6 @@
       <color rgb="FF66FFFF"/>
       <color rgb="FFA6F4CF"/>
       <color rgb="FF8DF3CA"/>
-      <color rgb="FFE6E6E6"/>
-      <color rgb="FFFFD9D9"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2454,10 +2419,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="MainTable" displayName="MainTable" ref="B4:P64" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15">
-  <autoFilter ref="B4:P64"/>
-  <sortState ref="B5:P57">
-    <sortCondition ref="J4:J57"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="MainTable" displayName="MainTable" ref="B7:P67" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15">
+  <autoFilter ref="B7:P67"/>
+  <sortState ref="B5:P64">
+    <sortCondition ref="J4:J64"/>
   </sortState>
   <tableColumns count="15">
     <tableColumn id="1" name="Module code" dataDxfId="14"/>
@@ -2470,18 +2435,18 @@
     <tableColumn id="8" name="Level 6000 MCs" dataDxfId="7"/>
     <tableColumn id="9" name="Semester" dataDxfId="6"/>
     <tableColumn id="10" name="Grade" dataDxfId="5"/>
-    <tableColumn id="11" name="Grade value" dataDxfId="4">
-      <calculatedColumnFormula>IF(K5="A+",5,IF(K5="A",5,IF(K5="A-",4.5,IF(K5="B+",4,IF(K5="B",3.5,IF(K5="B-",3,IF(K5="C+",2.5,IF(K5="C",2,IF(K5="D+",1.5,IF(K5="D",1,IF(K5="F",0,"")))))))))))</calculatedColumnFormula>
+    <tableColumn id="11" name="Grade value" dataDxfId="0">
+      <calculatedColumnFormula>IF(K8="A+",5,IF(K8="A",5,IF(K8="A-",4.5,IF(K8="B+",4,IF(K8="B",3.5,IF(K8="B-",3,IF(K8="C+",2.5,IF(K8="C",2,IF(K8="D+",1.5,IF(K8="D",1,IF(K8="F",0,IF(K8="P",0,""))))))))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="S/U" dataDxfId="3"/>
-    <tableColumn id="13" name="Effective MCs" dataDxfId="2">
-      <calculatedColumnFormula>IF(M5="N",SUM(D5:I5),IF(M5="Y",IF(L5&lt;2,0,SUM(D5:I5)),""))</calculatedColumnFormula>
+    <tableColumn id="12" name="S/U" dataDxfId="4"/>
+    <tableColumn id="13" name="Effective MCs" dataDxfId="3">
+      <calculatedColumnFormula>IF(M8="N",SUM(D8:I8),IF(M8="Y",IF(L8&lt;2,0,SUM(D8:I8)),""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="MC Footprint" dataDxfId="1">
-      <calculatedColumnFormula>IF(M5="Y",0,N5)</calculatedColumnFormula>
+    <tableColumn id="14" name="MC Footprint" dataDxfId="2">
+      <calculatedColumnFormula>IF(M8="Y",0,N8)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="Module Weight" dataDxfId="0">
-      <calculatedColumnFormula>IF(OR(L5="",O5=""),"",O5*L5)</calculatedColumnFormula>
+    <tableColumn id="15" name="Module Weight" dataDxfId="1">
+      <calculatedColumnFormula>IF(OR(L8="",O8=""),"",O8*L8)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2776,10 +2741,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:AF69"/>
+  <dimension ref="A2:AF72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q49" sqref="Q49"/>
+    <sheetView tabSelected="1" topLeftCell="G4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2798,371 +2763,190 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>61</v>
-      </c>
+      <c r="B2" s="161" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
     </row>
-    <row r="3" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>63</v>
-      </c>
+    <row r="3" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B3" s="161"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="161"/>
+      <c r="H3" s="161"/>
+      <c r="I3" s="161"/>
     </row>
-    <row r="4" spans="2:32" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="J4" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="M4" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="N4" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="P4" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="S4" s="137" t="s">
-        <v>40</v>
-      </c>
-      <c r="T4" s="138"/>
-      <c r="U4" s="138"/>
-      <c r="V4" s="138"/>
-      <c r="W4" s="138"/>
-      <c r="X4" s="138"/>
-      <c r="Y4" s="138"/>
-      <c r="Z4" s="138"/>
-      <c r="AA4" s="138"/>
-      <c r="AB4" s="138"/>
-      <c r="AC4" s="138"/>
-      <c r="AD4" s="138"/>
-      <c r="AE4" s="138"/>
-      <c r="AF4" s="139"/>
-    </row>
-    <row r="5" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="87" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="88" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="89">
-        <v>5</v>
-      </c>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="97">
-        <v>1</v>
-      </c>
-      <c r="K5" s="84" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" s="2">
-        <f t="shared" ref="L5:L36" si="0">IF(K5="A+",5,IF(K5="A",5,IF(K5="A-",4.5,IF(K5="B+",4,IF(K5="B",3.5,IF(K5="B-",3,IF(K5="C+",2.5,IF(K5="C",2,IF(K5="D+",1.5,IF(K5="D",1,IF(K5="F",0,"")))))))))))</f>
-        <v>5</v>
-      </c>
-      <c r="M5" s="82" t="s">
-        <v>87</v>
-      </c>
-      <c r="N5" s="3">
-        <f t="shared" ref="N5:N36" si="1">IF(M5="N",SUM(D5:I5),IF(M5="Y",IF(L5&lt;2,0,SUM(D5:I5)),""))</f>
-        <v>5</v>
-      </c>
-      <c r="O5" s="3">
-        <f t="shared" ref="O5:O36" si="2">IF(M5="Y",0,N5)</f>
-        <v>0</v>
-      </c>
-      <c r="P5" s="3">
-        <f t="shared" ref="P5:P36" si="3">IF(OR(L5="",O5=""),"",O5*L5)</f>
-        <v>0</v>
-      </c>
-      <c r="S5" s="73" t="s">
-        <v>42</v>
-      </c>
-      <c r="T5" s="74" t="s">
-        <v>32</v>
-      </c>
-      <c r="U5" s="74" t="s">
-        <v>35</v>
-      </c>
-      <c r="V5" s="74" t="s">
-        <v>41</v>
-      </c>
-      <c r="W5" s="74" t="s">
-        <v>33</v>
-      </c>
-      <c r="X5" s="74" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y5" s="74" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z5" s="74" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA5" s="74" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB5" s="74" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC5" s="74" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD5" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE5" s="131" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF5" s="134">
-        <f>IF(SUM(O5:O64)=0,0,ROUND(SUM(P5:P64)/SUM(O5:O64),2))</f>
-        <v>5</v>
+    <row r="5" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="90" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="92">
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="2:32" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="98">
+      <c r="G7" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="O7" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="P7" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="S7" s="117" t="s">
+        <v>36</v>
+      </c>
+      <c r="T7" s="118"/>
+      <c r="U7" s="118"/>
+      <c r="V7" s="118"/>
+      <c r="W7" s="118"/>
+      <c r="X7" s="118"/>
+      <c r="Y7" s="118"/>
+      <c r="Z7" s="118"/>
+      <c r="AA7" s="118"/>
+      <c r="AB7" s="118"/>
+      <c r="AC7" s="118"/>
+      <c r="AD7" s="118"/>
+      <c r="AE7" s="118"/>
+      <c r="AF7" s="119"/>
+    </row>
+    <row r="8" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="88" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="89">
+        <v>5</v>
+      </c>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="97">
         <v>1</v>
       </c>
-      <c r="K6" s="85" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" s="2">
-        <f t="shared" si="0"/>
-        <v>3.5</v>
-      </c>
-      <c r="M6" s="82" t="s">
-        <v>87</v>
-      </c>
-      <c r="N6" s="3">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="O6" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P6" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S6" s="76">
-        <f>COUNTIF(MainTable[Grade],S5)</f>
-        <v>0</v>
-      </c>
-      <c r="T6" s="77">
-        <f>COUNTIF(MainTable[Grade],T5)</f>
-        <v>2</v>
-      </c>
-      <c r="U6" s="77">
-        <f>COUNTIF(MainTable[Grade],U5)</f>
-        <v>0</v>
-      </c>
-      <c r="V6" s="77">
-        <f>COUNTIF(MainTable[Grade],V5)</f>
-        <v>2</v>
-      </c>
-      <c r="W6" s="77">
-        <f>COUNTIF(MainTable[Grade],W5)</f>
-        <v>1</v>
-      </c>
-      <c r="X6" s="77">
-        <f>COUNTIF(MainTable[Grade],X5)</f>
-        <v>1</v>
-      </c>
-      <c r="Y6" s="77">
-        <f>COUNTIF(MainTable[Grade],Y5)</f>
-        <v>1</v>
-      </c>
-      <c r="Z6" s="77">
-        <f>COUNTIF(MainTable[Grade],Z5)</f>
-        <v>0</v>
-      </c>
-      <c r="AA6" s="77">
-        <f>COUNTIF(MainTable[Grade],AA5)</f>
-        <v>1</v>
-      </c>
-      <c r="AB6" s="77">
-        <f>COUNTIF(MainTable[Grade],AB5)</f>
-        <v>1</v>
-      </c>
-      <c r="AC6" s="77">
-        <f>COUNTIF(MainTable[Grade],AC5)</f>
-        <v>1</v>
-      </c>
-      <c r="AD6" s="78">
-        <f>COUNTIF(MainTable[Grade],AD5)</f>
-        <v>0</v>
-      </c>
-      <c r="AE6" s="132"/>
-      <c r="AF6" s="135"/>
-    </row>
-    <row r="7" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B7" s="90" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="92">
-        <v>4</v>
-      </c>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="98">
-        <v>1</v>
-      </c>
-      <c r="K7" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="M7" s="82" t="s">
-        <v>87</v>
-      </c>
-      <c r="N7" s="3">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="O7" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P7" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S7" s="145" t="s">
-        <v>68</v>
-      </c>
-      <c r="T7" s="146"/>
-      <c r="U7" s="146"/>
-      <c r="V7" s="146"/>
-      <c r="W7" s="146"/>
-      <c r="X7" s="146"/>
-      <c r="Y7" s="146"/>
-      <c r="Z7" s="146"/>
-      <c r="AA7" s="146"/>
-      <c r="AB7" s="146"/>
-      <c r="AC7" s="146"/>
-      <c r="AD7" s="147"/>
-      <c r="AE7" s="132"/>
-      <c r="AF7" s="135"/>
-    </row>
-    <row r="8" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="90" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="91" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" s="92">
-        <v>4</v>
-      </c>
-      <c r="E8" s="92"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="92"/>
-      <c r="J8" s="98">
-        <v>1</v>
-      </c>
-      <c r="K8" s="85" t="s">
+      <c r="K8" s="84" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" ref="L8:L39" si="0">IF(K8="A+",5,IF(K8="A",5,IF(K8="A-",4.5,IF(K8="B+",4,IF(K8="B",3.5,IF(K8="B-",3,IF(K8="C+",2.5,IF(K8="C",2,IF(K8="D+",1.5,IF(K8="D",1,IF(K8="F",0,IF(K8="P",0,""))))))))))))</f>
+        <v>5</v>
+      </c>
+      <c r="M8" s="82" t="s">
+        <v>90</v>
+      </c>
+      <c r="N8" s="3">
+        <f>IF(M8="N",SUM(D8:I8),IF(M8="Y",IF(L8&lt;2,0,SUM(D8:I8)),""))</f>
+        <v>5</v>
+      </c>
+      <c r="O8" s="3">
+        <f>IF(M8="Y",0,N8)</f>
+        <v>5</v>
+      </c>
+      <c r="P8" s="3">
+        <f>IF(OR(L8="",O8=""),"",O8*L8)</f>
+        <v>25</v>
+      </c>
+      <c r="S8" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="T8" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="U8" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="V8" s="74" t="s">
+        <v>37</v>
+      </c>
+      <c r="W8" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="X8" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y8" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z8" s="74" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA8" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="L8" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="M8" s="82" t="s">
-        <v>87</v>
-      </c>
-      <c r="N8" s="3">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="O8" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P8" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S8" s="148"/>
-      <c r="T8" s="149"/>
-      <c r="U8" s="149"/>
-      <c r="V8" s="149"/>
-      <c r="W8" s="149"/>
-      <c r="X8" s="149"/>
-      <c r="Y8" s="149"/>
-      <c r="Z8" s="149"/>
-      <c r="AA8" s="149"/>
-      <c r="AB8" s="149"/>
-      <c r="AC8" s="149"/>
-      <c r="AD8" s="150"/>
-      <c r="AE8" s="132"/>
-      <c r="AF8" s="135"/>
+      <c r="AB8" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC8" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD8" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE8" s="111" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF8" s="114">
+        <f>IF(SUM(O8:O67)=0,0,ROUND(SUM(P8:P67)/SUM(O8:O67),2))</f>
+        <v>2.92</v>
+      </c>
     </row>
     <row r="9" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="90" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C9" s="91" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D9" s="92">
         <v>4</v>
@@ -3176,155 +2960,141 @@
         <v>1</v>
       </c>
       <c r="K9" s="85" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="L9" s="2">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="M9" s="82" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="N9" s="3">
-        <f t="shared" si="1"/>
+        <f>IF(M9="N",SUM(D9:I9),IF(M9="Y",IF(L9&lt;2,0,SUM(D9:I9)),""))</f>
         <v>4</v>
       </c>
       <c r="O9" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>IF(M9="Y",0,N9)</f>
+        <v>4</v>
       </c>
       <c r="P9" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S9" s="151"/>
-      <c r="T9" s="152"/>
-      <c r="U9" s="7">
+        <f>IF(OR(L9="",O9=""),"",O9*L9)</f>
+        <v>18</v>
+      </c>
+      <c r="S9" s="76">
+        <f>COUNTIF(MainTable[Grade],S8)</f>
         <v>1</v>
       </c>
-      <c r="V9" s="7">
-        <v>2</v>
-      </c>
-      <c r="W9" s="7">
-        <v>3</v>
-      </c>
-      <c r="X9" s="7">
-        <v>4</v>
-      </c>
-      <c r="Y9" s="7">
-        <v>5</v>
-      </c>
-      <c r="Z9" s="7">
-        <v>6</v>
-      </c>
-      <c r="AA9" s="7">
-        <v>7</v>
-      </c>
-      <c r="AB9" s="7">
-        <v>8</v>
-      </c>
-      <c r="AC9" s="7">
-        <v>9</v>
-      </c>
-      <c r="AD9" s="10">
-        <v>10</v>
-      </c>
-      <c r="AE9" s="132"/>
-      <c r="AF9" s="135"/>
+      <c r="T9" s="77">
+        <f>COUNTIF(MainTable[Grade],T8)</f>
+        <v>1</v>
+      </c>
+      <c r="U9" s="77">
+        <f>COUNTIF(MainTable[Grade],U8)</f>
+        <v>1</v>
+      </c>
+      <c r="V9" s="77">
+        <f>COUNTIF(MainTable[Grade],V8)</f>
+        <v>1</v>
+      </c>
+      <c r="W9" s="77">
+        <f>COUNTIF(MainTable[Grade],W8)</f>
+        <v>1</v>
+      </c>
+      <c r="X9" s="77">
+        <f>COUNTIF(MainTable[Grade],X8)</f>
+        <v>1</v>
+      </c>
+      <c r="Y9" s="77">
+        <f>COUNTIF(MainTable[Grade],Y8)</f>
+        <v>1</v>
+      </c>
+      <c r="Z9" s="77">
+        <f>COUNTIF(MainTable[Grade],Z8)</f>
+        <v>1</v>
+      </c>
+      <c r="AA9" s="77">
+        <f>COUNTIF(MainTable[Grade],AA8)</f>
+        <v>1</v>
+      </c>
+      <c r="AB9" s="77">
+        <f>COUNTIF(MainTable[Grade],AB8)</f>
+        <v>1</v>
+      </c>
+      <c r="AC9" s="77">
+        <f>COUNTIF(MainTable[Grade],AC8)</f>
+        <v>1</v>
+      </c>
+      <c r="AD9" s="78">
+        <f>COUNTIF(MainTable[Grade],AD8)</f>
+        <v>1</v>
+      </c>
+      <c r="AE9" s="112"/>
+      <c r="AF9" s="115"/>
     </row>
     <row r="10" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B10" s="90" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C10" s="91" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92">
+        <v>12</v>
+      </c>
+      <c r="D10" s="92">
         <v>4</v>
       </c>
+      <c r="E10" s="92"/>
       <c r="F10" s="92"/>
       <c r="G10" s="92"/>
       <c r="H10" s="92"/>
       <c r="I10" s="92"/>
       <c r="J10" s="98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K10" s="85" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L10" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M10" s="82" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="N10" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>IF(M10="N",SUM(D10:I10),IF(M10="Y",IF(L10&lt;2,0,SUM(D10:I10)),""))</f>
+        <v>4</v>
       </c>
       <c r="O10" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>IF(M10="Y",0,N10)</f>
+        <v>4</v>
       </c>
       <c r="P10" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S10" s="153" t="s">
+        <f>IF(OR(L10="",O10=""),"",O10*L10)</f>
+        <v>20</v>
+      </c>
+      <c r="S10" s="125" t="s">
         <v>64</v>
       </c>
-      <c r="T10" s="154"/>
-      <c r="U10" s="8">
-        <f>SUMIFS(MainTable[Effective MCs],MainTable[Semester],U9)</f>
-        <v>21</v>
-      </c>
-      <c r="V10" s="8">
-        <f>SUMIFS(MainTable[Effective MCs],MainTable[Semester],V9)</f>
-        <v>0</v>
-      </c>
-      <c r="W10" s="8">
-        <f>SUMIFS(MainTable[Effective MCs],MainTable[Semester],W9)</f>
-        <v>0</v>
-      </c>
-      <c r="X10" s="8">
-        <f>SUMIFS(MainTable[Effective MCs],MainTable[Semester],X9)</f>
-        <v>4</v>
-      </c>
-      <c r="Y10" s="8">
-        <f>SUMIFS(MainTable[Effective MCs],MainTable[Semester],Y9)</f>
-        <v>4</v>
-      </c>
-      <c r="Z10" s="8">
-        <f>SUMIFS(MainTable[Effective MCs],MainTable[Semester],Z9)</f>
-        <v>0</v>
-      </c>
-      <c r="AA10" s="8">
-        <f>SUMIFS(MainTable[Effective MCs],MainTable[Semester],AA9)</f>
-        <v>0</v>
-      </c>
-      <c r="AB10" s="8">
-        <f>SUMIFS(MainTable[Effective MCs],MainTable[Semester],AB9)</f>
-        <v>0</v>
-      </c>
-      <c r="AC10" s="8">
-        <f>SUMIFS(MainTable[Effective MCs],MainTable[Semester],AC9)</f>
-        <v>0</v>
-      </c>
-      <c r="AD10" s="11">
-        <f>SUMIFS(MainTable[Effective MCs],MainTable[Semester],AD9)</f>
-        <v>0</v>
-      </c>
-      <c r="AE10" s="132"/>
-      <c r="AF10" s="135"/>
+      <c r="T10" s="126"/>
+      <c r="U10" s="126"/>
+      <c r="V10" s="126"/>
+      <c r="W10" s="126"/>
+      <c r="X10" s="126"/>
+      <c r="Y10" s="126"/>
+      <c r="Z10" s="126"/>
+      <c r="AA10" s="126"/>
+      <c r="AB10" s="126"/>
+      <c r="AC10" s="126"/>
+      <c r="AD10" s="127"/>
+      <c r="AE10" s="112"/>
+      <c r="AF10" s="115"/>
     </row>
     <row r="11" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="90" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C11" s="91" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="D11" s="92">
         <v>4</v>
@@ -3335,160 +3105,128 @@
       <c r="H11" s="92"/>
       <c r="I11" s="92"/>
       <c r="J11" s="98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K11" s="85" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="L11" s="2">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="M11" s="82" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="N11" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>IF(M11="N",SUM(D11:I11),IF(M11="Y",IF(L11&lt;2,0,SUM(D11:I11)),""))</f>
+        <v>4</v>
       </c>
       <c r="O11" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>IF(M11="Y",0,N11)</f>
+        <v>4</v>
       </c>
       <c r="P11" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S11" s="155" t="s">
-        <v>88</v>
-      </c>
-      <c r="T11" s="156"/>
-      <c r="U11" s="9">
-        <f>IF(SUMIFS(MainTable[MC Footprint],MainTable[Semester],U9)=0,0,IF(U10=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Semester],U9)/SUMIFS(MainTable[MC Footprint],MainTable[Semester],U9),2)))</f>
-        <v>0</v>
-      </c>
-      <c r="V11" s="9">
-        <f>IF(SUMIFS(MainTable[MC Footprint],MainTable[Semester],V9)=0,0,IF(V10=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Semester],V9)/SUMIFS(MainTable[MC Footprint],MainTable[Semester],V9),2)))</f>
-        <v>0</v>
-      </c>
-      <c r="W11" s="9">
-        <f>IF(SUMIFS(MainTable[MC Footprint],MainTable[Semester],W9)=0,0,IF(W10=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Semester],W9)/SUMIFS(MainTable[MC Footprint],MainTable[Semester],W9),2)))</f>
-        <v>0</v>
-      </c>
-      <c r="X11" s="9">
-        <f>IF(SUMIFS(MainTable[MC Footprint],MainTable[Semester],X9)=0,0,IF(X10=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Semester],X9)/SUMIFS(MainTable[MC Footprint],MainTable[Semester],X9),2)))</f>
-        <v>5</v>
-      </c>
-      <c r="Y11" s="9">
-        <f>IF(SUMIFS(MainTable[MC Footprint],MainTable[Semester],Y9)=0,0,IF(Y10=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Semester],Y9)/SUMIFS(MainTable[MC Footprint],MainTable[Semester],Y9),2)))</f>
-        <v>0</v>
-      </c>
-      <c r="Z11" s="9">
-        <f>IF(SUMIFS(MainTable[MC Footprint],MainTable[Semester],Z9)=0,0,IF(Z10=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Semester],Z9)/SUMIFS(MainTable[MC Footprint],MainTable[Semester],Z9),2)))</f>
-        <v>0</v>
-      </c>
-      <c r="AA11" s="9">
-        <f>IF(SUMIFS(MainTable[MC Footprint],MainTable[Semester],AA9)=0,0,IF(AA10=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Semester],AA9)/SUMIFS(MainTable[MC Footprint],MainTable[Semester],AA9),2)))</f>
-        <v>0</v>
-      </c>
-      <c r="AB11" s="9">
-        <f>IF(SUMIFS(MainTable[MC Footprint],MainTable[Semester],AB9)=0,0,IF(AB10=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Semester],AB9)/SUMIFS(MainTable[MC Footprint],MainTable[Semester],AB9),2)))</f>
-        <v>0</v>
-      </c>
-      <c r="AC11" s="9">
-        <f>IF(SUMIFS(MainTable[MC Footprint],MainTable[Semester],AC9)=0,0,IF(AC10=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Semester],AC9)/SUMIFS(MainTable[MC Footprint],MainTable[Semester],AC9),2)))</f>
-        <v>0</v>
-      </c>
-      <c r="AD11" s="12">
-        <f>IF(SUMIFS(MainTable[MC Footprint],MainTable[Semester],AD9)=0,0,IF(AD10=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Semester],AD9)/SUMIFS(MainTable[MC Footprint],MainTable[Semester],AD9),2)))</f>
-        <v>0</v>
-      </c>
-      <c r="AE11" s="133"/>
-      <c r="AF11" s="136"/>
+        <f>IF(OR(L11="",O11=""),"",O11*L11)</f>
+        <v>16</v>
+      </c>
+      <c r="S11" s="128"/>
+      <c r="T11" s="129"/>
+      <c r="U11" s="129"/>
+      <c r="V11" s="129"/>
+      <c r="W11" s="129"/>
+      <c r="X11" s="129"/>
+      <c r="Y11" s="129"/>
+      <c r="Z11" s="129"/>
+      <c r="AA11" s="129"/>
+      <c r="AB11" s="129"/>
+      <c r="AC11" s="129"/>
+      <c r="AD11" s="130"/>
+      <c r="AE11" s="112"/>
+      <c r="AF11" s="115"/>
     </row>
-    <row r="12" spans="2:32" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="90" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="C12" s="91" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="93"/>
-      <c r="E12" s="92">
+        <v>14</v>
+      </c>
+      <c r="D12" s="92">
         <v>4</v>
       </c>
+      <c r="E12" s="92"/>
       <c r="F12" s="92"/>
       <c r="G12" s="92"/>
       <c r="H12" s="92"/>
       <c r="I12" s="92"/>
       <c r="J12" s="98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K12" s="85" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="L12" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M12" s="82" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="N12" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>IF(M12="N",SUM(D12:I12),IF(M12="Y",IF(L12&lt;2,0,SUM(D12:I12)),""))</f>
+        <v>4</v>
       </c>
       <c r="O12" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>IF(M12="Y",0,N12)</f>
+        <v>4</v>
       </c>
       <c r="P12" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S12" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="T12" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="U12" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="V12" s="157" t="s">
+        <f>IF(OR(L12="",O12=""),"",O12*L12)</f>
+        <v>12</v>
+      </c>
+      <c r="S12" s="131"/>
+      <c r="T12" s="132"/>
+      <c r="U12" s="7">
+        <v>1</v>
+      </c>
+      <c r="V12" s="7">
+        <v>2</v>
+      </c>
+      <c r="W12" s="7">
+        <v>3</v>
+      </c>
+      <c r="X12" s="7">
+        <v>4</v>
+      </c>
+      <c r="Y12" s="7">
+        <v>5</v>
+      </c>
+      <c r="Z12" s="7">
+        <v>6</v>
+      </c>
+      <c r="AA12" s="7">
         <v>7</v>
       </c>
-      <c r="W12" s="158"/>
-      <c r="X12" s="21"/>
-      <c r="Y12" s="144" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z12" s="143"/>
-      <c r="AA12" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB12" s="79" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC12" s="142" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD12" s="143"/>
-      <c r="AE12" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="AF12" s="57" t="s">
-        <v>107</v>
-      </c>
+      <c r="AB12" s="7">
+        <v>8</v>
+      </c>
+      <c r="AC12" s="7">
+        <v>9</v>
+      </c>
+      <c r="AD12" s="10">
+        <v>10</v>
+      </c>
+      <c r="AE12" s="112"/>
+      <c r="AF12" s="115"/>
     </row>
     <row r="13" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B13" s="90" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C13" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="93"/>
+        <v>77</v>
+      </c>
+      <c r="D13" s="92"/>
       <c r="E13" s="92">
         <v>4</v>
       </c>
@@ -3499,242 +3237,245 @@
       <c r="J13" s="98">
         <v>2</v>
       </c>
-      <c r="K13" s="85"/>
-      <c r="L13" s="2" t="str">
+      <c r="K13" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="L13" s="2">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M13" s="82"/>
-      <c r="N13" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O13" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="P13" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="S13" s="65" t="s">
-        <v>55</v>
-      </c>
-      <c r="T13" s="66">
-        <f>SUM(MainTable[Level 1000 MCs])</f>
-        <v>45</v>
-      </c>
-      <c r="U13" s="68">
-        <f>SUMIFS(MainTable[Level 1000 MCs],MainTable[Effective MCs],"&gt;0")</f>
+        <v>2</v>
+      </c>
+      <c r="M13" s="82" t="s">
+        <v>90</v>
+      </c>
+      <c r="N13" s="3">
+        <f>IF(M13="N",SUM(D13:I13),IF(M13="Y",IF(L13&lt;2,0,SUM(D13:I13)),""))</f>
+        <v>4</v>
+      </c>
+      <c r="O13" s="3">
+        <f>IF(M13="Y",0,N13)</f>
+        <v>4</v>
+      </c>
+      <c r="P13" s="13">
+        <f>IF(OR(L13="",O13=""),"",O13*L13)</f>
+        <v>8</v>
+      </c>
+      <c r="S13" s="133" t="s">
+        <v>60</v>
+      </c>
+      <c r="T13" s="134"/>
+      <c r="U13" s="8">
+        <f>SUMIFS(MainTable[Effective MCs],MainTable[Semester],U12)</f>
         <v>21</v>
       </c>
-      <c r="V13" s="140" t="s">
-        <v>64</v>
-      </c>
-      <c r="W13" s="141"/>
-      <c r="X13" s="53">
-        <f>SUM(MainTable[Effective MCs])</f>
-        <v>29</v>
-      </c>
-      <c r="Y13" s="51" t="str">
-        <f t="array" ref="Y13">IFERROR(INDEX(MainTable[Type], MATCH(MIN(_xlfn.MODE.MULT(IF((MainTable[Type]&lt;&gt;"")*NOT(COUNTIF($Y$12:$Y12, MainTable[Type])), (COUNTIF(MainTable[Type], "&lt;"&amp;MainTable[Type])+1)*{1,1}))), IF((MainTable[Type]&lt;&gt;""),COUNTIF(MainTable[Type], "&lt;"&amp;MainTable[Type])+{1}), 0)), "")</f>
-        <v>Focus Area</v>
-      </c>
-      <c r="Z13" s="58"/>
-      <c r="AA13" s="63">
-        <f>IF(Y13="","",COUNTIF(MainTable[Type],Y13))</f>
-        <v>8</v>
-      </c>
-      <c r="AB13" s="59">
-        <f>IF(AA13="","",COUNTIFS(MainTable[Type],Y13,MainTable[Effective MCs],"&gt;0"))</f>
-        <v>1</v>
-      </c>
-      <c r="AC13" s="159">
-        <f>IF(Y13="","",IF(SUM(MainTable[Module Weight])=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Type],Y13)/SUM(MainTable[Module Weight]),2)))</f>
-        <v>1</v>
-      </c>
-      <c r="AD13" s="159"/>
-      <c r="AE13" s="103">
-        <f>IF(AA13="","",AB13/AA13)</f>
-        <v>0.125</v>
-      </c>
-      <c r="AF13" s="57">
-        <f>IF(Y13="","",IF(SUMIFS(MainTable[MC Footprint],MainTable[Type],Y13)=0,"-",ROUND(SUMIFS(MainTable[Module Weight],MainTable[Type],Y13)/SUMIFS(MainTable[MC Footprint],MainTable[Type],Y13),2)))</f>
-        <v>5</v>
-      </c>
+      <c r="V13" s="8">
+        <f>SUMIFS(MainTable[Effective MCs],MainTable[Semester],V12)</f>
+        <v>12</v>
+      </c>
+      <c r="W13" s="8">
+        <f>SUMIFS(MainTable[Effective MCs],MainTable[Semester],W12)</f>
+        <v>9</v>
+      </c>
+      <c r="X13" s="8">
+        <f>SUMIFS(MainTable[Effective MCs],MainTable[Semester],X12)</f>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="8">
+        <f>SUMIFS(MainTable[Effective MCs],MainTable[Semester],Y12)</f>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="8">
+        <f>SUMIFS(MainTable[Effective MCs],MainTable[Semester],Z12)</f>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="8">
+        <f>SUMIFS(MainTable[Effective MCs],MainTable[Semester],AA12)</f>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="8">
+        <f>SUMIFS(MainTable[Effective MCs],MainTable[Semester],AB12)</f>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="8">
+        <f>SUMIFS(MainTable[Effective MCs],MainTable[Semester],AC12)</f>
+        <v>0</v>
+      </c>
+      <c r="AD13" s="11">
+        <f>SUMIFS(MainTable[Effective MCs],MainTable[Semester],AD12)</f>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="112"/>
+      <c r="AF13" s="115"/>
     </row>
-    <row r="14" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="90" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="C14" s="91" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92">
-        <v>1</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D14" s="92">
+        <v>4</v>
+      </c>
+      <c r="E14" s="92"/>
       <c r="F14" s="92"/>
       <c r="G14" s="92"/>
       <c r="H14" s="92"/>
       <c r="I14" s="92"/>
       <c r="J14" s="98">
-        <v>3</v>
-      </c>
-      <c r="K14" s="85"/>
-      <c r="L14" s="2" t="str">
+        <v>2</v>
+      </c>
+      <c r="K14" s="85" t="s">
+        <v>41</v>
+      </c>
+      <c r="L14" s="2">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M14" s="82"/>
-      <c r="N14" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O14" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="P14" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="S14" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="T14" s="20">
-        <f>SUM(MainTable[Level 2000 MCs])</f>
-        <v>37</v>
-      </c>
-      <c r="U14" s="69">
-        <f>SUMIFS(MainTable[Level 2000 MCs],MainTable[Effective MCs],"&gt;0")</f>
+        <v>1.5</v>
+      </c>
+      <c r="M14" s="82" t="s">
+        <v>90</v>
+      </c>
+      <c r="N14" s="3">
+        <f>IF(M14="N",SUM(D14:I14),IF(M14="Y",IF(L14&lt;2,0,SUM(D14:I14)),""))</f>
         <v>4</v>
       </c>
-      <c r="V14" s="109" t="s">
-        <v>89</v>
-      </c>
-      <c r="W14" s="110"/>
-      <c r="X14" s="53">
-        <f>COUNTA(MainTable[Grade])</f>
-        <v>10</v>
-      </c>
-      <c r="Y14" s="50" t="str">
-        <f t="array" ref="Y14">IFERROR(INDEX(MainTable[Type], MATCH(MIN(_xlfn.MODE.MULT(IF((MainTable[Type]&lt;&gt;"")*NOT(COUNTIF($Y$12:$Y13, MainTable[Type])), (COUNTIF(MainTable[Type], "&lt;"&amp;MainTable[Type])+1)*{1,1}))), IF((MainTable[Type]&lt;&gt;""),COUNTIF(MainTable[Type], "&lt;"&amp;MainTable[Type])+{1}), 0)), "")</f>
-        <v>Foundation</v>
-      </c>
-      <c r="Z14" s="54"/>
-      <c r="AA14" s="22">
-        <f>IF(Y14="","",COUNTIF(MainTable[Type],Y14))</f>
-        <v>8</v>
-      </c>
-      <c r="AB14" s="55">
-        <f>IF(AA14="","",COUNTIFS(MainTable[Type],Y14,MainTable[Effective MCs],"&gt;0"))</f>
-        <v>3</v>
-      </c>
-      <c r="AC14" s="117">
-        <f>IF(Y14="","",IF(SUM(MainTable[Module Weight])=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Type],Y14)/SUM(MainTable[Module Weight]),2)))</f>
+      <c r="O14" s="3">
+        <f>IF(M14="Y",0,N14)</f>
+        <v>4</v>
+      </c>
+      <c r="P14" s="13">
+        <f>IF(OR(L14="",O14=""),"",O14*L14)</f>
+        <v>6</v>
+      </c>
+      <c r="S14" s="135" t="s">
+        <v>74</v>
+      </c>
+      <c r="T14" s="136"/>
+      <c r="U14" s="9">
+        <f>IF(SUMIFS(MainTable[MC Footprint],MainTable[Semester],U12)=0,0,IF(U13=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Semester],U12)/SUMIFS(MainTable[MC Footprint],MainTable[Semester],U12),2)))</f>
+        <v>4.33</v>
+      </c>
+      <c r="V14" s="9">
+        <f>IF(SUMIFS(MainTable[MC Footprint],MainTable[Semester],V12)=0,0,IF(V13=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Semester],V12)/SUMIFS(MainTable[MC Footprint],MainTable[Semester],V12),2)))</f>
+        <v>1.5</v>
+      </c>
+      <c r="W14" s="9">
+        <f>IF(SUMIFS(MainTable[MC Footprint],MainTable[Semester],W12)=0,0,IF(W13=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Semester],W12)/SUMIFS(MainTable[MC Footprint],MainTable[Semester],W12),2)))</f>
+        <v>1.5</v>
+      </c>
+      <c r="X14" s="9">
+        <f>IF(SUMIFS(MainTable[MC Footprint],MainTable[Semester],X12)=0,0,IF(X13=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Semester],X12)/SUMIFS(MainTable[MC Footprint],MainTable[Semester],X12),2)))</f>
         <v>0</v>
       </c>
-      <c r="AD14" s="117"/>
-      <c r="AE14" s="104">
-        <f t="shared" ref="AE14:AE24" si="4">IF(AA14="","",AB14/AA14)</f>
-        <v>0.375</v>
-      </c>
-      <c r="AF14" s="100" t="str">
-        <f>IF(Y14="","",IF(SUMIFS(MainTable[MC Footprint],MainTable[Type],Y14)=0,"-",ROUND(SUMIFS(MainTable[Module Weight],MainTable[Type],Y14)/SUMIFS(MainTable[MC Footprint],MainTable[Type],Y14),2)))</f>
-        <v>-</v>
-      </c>
+      <c r="Y14" s="9">
+        <f>IF(SUMIFS(MainTable[MC Footprint],MainTable[Semester],Y12)=0,0,IF(Y13=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Semester],Y12)/SUMIFS(MainTable[MC Footprint],MainTable[Semester],Y12),2)))</f>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="9">
+        <f>IF(SUMIFS(MainTable[MC Footprint],MainTable[Semester],Z12)=0,0,IF(Z13=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Semester],Z12)/SUMIFS(MainTable[MC Footprint],MainTable[Semester],Z12),2)))</f>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="9">
+        <f>IF(SUMIFS(MainTable[MC Footprint],MainTable[Semester],AA12)=0,0,IF(AA13=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Semester],AA12)/SUMIFS(MainTable[MC Footprint],MainTable[Semester],AA12),2)))</f>
+        <v>0</v>
+      </c>
+      <c r="AB14" s="9">
+        <f>IF(SUMIFS(MainTable[MC Footprint],MainTable[Semester],AB12)=0,0,IF(AB13=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Semester],AB12)/SUMIFS(MainTable[MC Footprint],MainTable[Semester],AB12),2)))</f>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="9">
+        <f>IF(SUMIFS(MainTable[MC Footprint],MainTable[Semester],AC12)=0,0,IF(AC13=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Semester],AC12)/SUMIFS(MainTable[MC Footprint],MainTable[Semester],AC12),2)))</f>
+        <v>0</v>
+      </c>
+      <c r="AD14" s="12">
+        <f>IF(SUMIFS(MainTable[MC Footprint],MainTable[Semester],AD12)=0,0,IF(AD13=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Semester],AD12)/SUMIFS(MainTable[MC Footprint],MainTable[Semester],AD12),2)))</f>
+        <v>0</v>
+      </c>
+      <c r="AE14" s="113"/>
+      <c r="AF14" s="116"/>
     </row>
-    <row r="15" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:32" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="90" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C15" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="92">
+        <v>46</v>
+      </c>
+      <c r="D15" s="93"/>
+      <c r="E15" s="92">
         <v>4</v>
       </c>
-      <c r="E15" s="92"/>
       <c r="F15" s="92"/>
       <c r="G15" s="92"/>
       <c r="H15" s="92"/>
       <c r="I15" s="92"/>
       <c r="J15" s="98">
-        <v>3</v>
-      </c>
-      <c r="K15" s="85"/>
-      <c r="L15" s="2" t="str">
+        <v>2</v>
+      </c>
+      <c r="K15" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="L15" s="2">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M15" s="82"/>
-      <c r="N15" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O15" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="P15" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="S15" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="T15" s="20">
-        <f>SUM(MainTable[Level 3000 MCs])</f>
-        <v>40</v>
-      </c>
-      <c r="U15" s="69">
-        <f>SUMIFS(MainTable[Level 3000 MCs],MainTable[Effective MCs],"&gt;0")</f>
-        <v>4</v>
-      </c>
-      <c r="V15" s="109" t="s">
-        <v>65</v>
-      </c>
-      <c r="W15" s="110"/>
-      <c r="X15" s="53">
-        <f>SUM(T13:T26)</f>
-        <v>154</v>
-      </c>
-      <c r="Y15" s="50" t="str">
-        <f t="array" ref="Y15">IFERROR(INDEX(MainTable[Type], MATCH(MIN(_xlfn.MODE.MULT(IF((MainTable[Type]&lt;&gt;"")*NOT(COUNTIF($Y$12:$Y14, MainTable[Type])), (COUNTIF(MainTable[Type], "&lt;"&amp;MainTable[Type])+1)*{1,1}))), IF((MainTable[Type]&lt;&gt;""),COUNTIF(MainTable[Type], "&lt;"&amp;MainTable[Type])+{1}), 0)), "")</f>
-        <v>UE</v>
-      </c>
-      <c r="Z15" s="54"/>
-      <c r="AA15" s="22">
-        <f>IF(Y15="","",COUNTIF(MainTable[Type],Y15))</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="82" t="s">
+        <v>73</v>
+      </c>
+      <c r="N15" s="3">
+        <f>IF(M15="N",SUM(D15:I15),IF(M15="Y",IF(L15&lt;2,0,SUM(D15:I15)),""))</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <f>IF(M15="Y",0,N15)</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="13">
+        <f>IF(OR(L15="",O15=""),"",O15*L15)</f>
+        <v>0</v>
+      </c>
+      <c r="S15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="T15" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="U15" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="V15" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="AB15" s="55">
-        <f>IF(AA15="","",COUNTIFS(MainTable[Type],Y15,MainTable[Effective MCs],"&gt;0"))</f>
-        <v>0</v>
-      </c>
-      <c r="AC15" s="117">
-        <f>IF(Y15="","",IF(SUM(MainTable[Module Weight])=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Type],Y15)/SUM(MainTable[Module Weight]),2)))</f>
-        <v>0</v>
-      </c>
-      <c r="AD15" s="117"/>
-      <c r="AE15" s="104">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AF15" s="100" t="str">
-        <f>IF(Y15="","",IF(SUMIFS(MainTable[MC Footprint],MainTable[Type],Y15)=0,"-",ROUND(SUMIFS(MainTable[Module Weight],MainTable[Type],Y15)/SUMIFS(MainTable[MC Footprint],MainTable[Type],Y15),2)))</f>
-        <v>-</v>
+      <c r="W15" s="138"/>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="124" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z15" s="123"/>
+      <c r="AA15" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB15" s="79" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC15" s="122" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD15" s="123"/>
+      <c r="AE15" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF15" s="57" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B16" s="90" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C16" s="91" t="s">
-        <v>92</v>
-      </c>
-      <c r="D16" s="92"/>
+        <v>12</v>
+      </c>
+      <c r="D16" s="93"/>
       <c r="E16" s="92">
         <v>4</v>
       </c>
@@ -3743,83 +3484,87 @@
       <c r="H16" s="92"/>
       <c r="I16" s="92"/>
       <c r="J16" s="98">
+        <v>2</v>
+      </c>
+      <c r="K16" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="L16" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M16" s="82" t="s">
+        <v>90</v>
+      </c>
+      <c r="N16" s="3">
+        <f>IF(M16="N",SUM(D16:I16),IF(M16="Y",IF(L16&lt;2,0,SUM(D16:I16)),""))</f>
+        <v>4</v>
+      </c>
+      <c r="O16" s="3">
+        <f>IF(M16="Y",0,N16)</f>
+        <v>4</v>
+      </c>
+      <c r="P16" s="13">
+        <f>IF(OR(L16="",O16=""),"",O16*L16)</f>
+        <v>4</v>
+      </c>
+      <c r="S16" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="T16" s="66">
+        <f>SUM(MainTable[Level 1000 MCs])</f>
+        <v>41</v>
+      </c>
+      <c r="U16" s="68">
+        <f>SUMIFS(MainTable[Level 1000 MCs],MainTable[Effective MCs],"&gt;0")</f>
+        <v>29</v>
+      </c>
+      <c r="V16" s="120" t="s">
+        <v>60</v>
+      </c>
+      <c r="W16" s="121"/>
+      <c r="X16" s="53">
+        <f>SUM(MainTable[Effective MCs])</f>
+        <v>42</v>
+      </c>
+      <c r="Y16" s="51" t="str">
+        <f t="array" ref="Y16">IFERROR(INDEX(MainTable[Type], MATCH(MIN(_xlfn.MODE.MULT(IF((MainTable[Type]&lt;&gt;"")*NOT(COUNTIF($Y$15:$Y15, MainTable[Type])), (COUNTIF(MainTable[Type], "&lt;"&amp;MainTable[Type])+1)*{1,1}))), IF((MainTable[Type]&lt;&gt;""),COUNTIF(MainTable[Type], "&lt;"&amp;MainTable[Type])+{1}), 0)), "")</f>
+        <v>Foundation</v>
+      </c>
+      <c r="Z16" s="58"/>
+      <c r="AA16" s="63">
+        <f>IF(Y16="","",COUNTIF(MainTable[Type],Y16))</f>
+        <v>7</v>
+      </c>
+      <c r="AB16" s="59">
+        <f>IF(AA16="","",COUNTIFS(MainTable[Type],Y16,MainTable[Effective MCs],"&gt;0"))</f>
         <v>3</v>
       </c>
-      <c r="K16" s="85"/>
-      <c r="L16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M16" s="82"/>
-      <c r="N16" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O16" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="P16" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="S16" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="T16" s="20">
-        <f>SUM(MainTable[Level 4000 MCs])</f>
-        <v>28</v>
-      </c>
-      <c r="U16" s="69">
-        <f>SUMIFS(MainTable[Level 4000 MCs],MainTable[Effective MCs],"&gt;0")</f>
-        <v>0</v>
-      </c>
-      <c r="V16" s="109" t="s">
-        <v>90</v>
-      </c>
-      <c r="W16" s="110"/>
-      <c r="X16" s="53">
-        <f>COUNTA(MainTable[Module code])</f>
-        <v>38</v>
-      </c>
-      <c r="Y16" s="50" t="str">
-        <f t="array" ref="Y16">IFERROR(INDEX(MainTable[Type], MATCH(MIN(_xlfn.MODE.MULT(IF((MainTable[Type]&lt;&gt;"")*NOT(COUNTIF($Y$12:$Y15, MainTable[Type])), (COUNTIF(MainTable[Type], "&lt;"&amp;MainTable[Type])+1)*{1,1}))), IF((MainTable[Type]&lt;&gt;""),COUNTIF(MainTable[Type], "&lt;"&amp;MainTable[Type])+{1}), 0)), "")</f>
-        <v>Science</v>
-      </c>
-      <c r="Z16" s="54"/>
-      <c r="AA16" s="22">
-        <f>IF(Y16="","",COUNTIF(MainTable[Type],Y16))</f>
-        <v>5</v>
-      </c>
-      <c r="AB16" s="55">
-        <f>IF(AA16="","",COUNTIFS(MainTable[Type],Y16,MainTable[Effective MCs],"&gt;0"))</f>
-        <v>2</v>
-      </c>
-      <c r="AC16" s="117">
+      <c r="AC16" s="139">
         <f>IF(Y16="","",IF(SUM(MainTable[Module Weight])=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Type],Y16)/SUM(MainTable[Module Weight]),2)))</f>
-        <v>0</v>
-      </c>
-      <c r="AD16" s="117"/>
-      <c r="AE16" s="104">
-        <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
-      <c r="AF16" s="100" t="str">
+      <c r="AD16" s="139"/>
+      <c r="AE16" s="103">
+        <f>IF(AA16="","",AB16/AA16)</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="AF16" s="57">
         <f>IF(Y16="","",IF(SUMIFS(MainTable[MC Footprint],MainTable[Type],Y16)=0,"-",ROUND(SUMIFS(MainTable[Module Weight],MainTable[Type],Y16)/SUMIFS(MainTable[MC Footprint],MainTable[Type],Y16),2)))</f>
-        <v>-</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="17" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B17" s="90" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C17" s="91" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="92">
-        <v>4</v>
-      </c>
-      <c r="E17" s="92"/>
+        <v>58</v>
+      </c>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92">
+        <v>1</v>
+      </c>
       <c r="F17" s="92"/>
       <c r="G17" s="92"/>
       <c r="H17" s="92"/>
@@ -3827,81 +3572,85 @@
       <c r="J17" s="98">
         <v>3</v>
       </c>
-      <c r="K17" s="85"/>
-      <c r="L17" s="2" t="str">
+      <c r="K17" s="85" t="s">
+        <v>29</v>
+      </c>
+      <c r="L17" s="2">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M17" s="82"/>
-      <c r="N17" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O17" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="P17" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <v>3.5</v>
+      </c>
+      <c r="M17" s="82" t="s">
+        <v>90</v>
+      </c>
+      <c r="N17" s="3">
+        <f>IF(M17="N",SUM(D17:I17),IF(M17="Y",IF(L17&lt;2,0,SUM(D17:I17)),""))</f>
+        <v>1</v>
+      </c>
+      <c r="O17" s="3">
+        <f>IF(M17="Y",0,N17)</f>
+        <v>1</v>
+      </c>
+      <c r="P17" s="13">
+        <f>IF(OR(L17="",O17=""),"",O17*L17)</f>
+        <v>3.5</v>
       </c>
       <c r="S17" s="52" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="T17" s="20">
-        <f>SUM(MainTable[Level 5000 MCs])</f>
-        <v>4</v>
+        <f>SUM(MainTable[Level 2000 MCs])</f>
+        <v>29</v>
       </c>
       <c r="U17" s="69">
-        <f>SUMIFS(MainTable[Level 5000 MCs],MainTable[Effective MCs],"&gt;0")</f>
-        <v>0</v>
-      </c>
-      <c r="V17" s="109" t="s">
-        <v>105</v>
-      </c>
-      <c r="W17" s="110"/>
-      <c r="X17" s="80">
-        <f>COUNTIF(MainTable[S/U],"Y")</f>
-        <v>9</v>
+        <f>SUMIFS(MainTable[Level 2000 MCs],MainTable[Effective MCs],"&gt;0")</f>
+        <v>13</v>
+      </c>
+      <c r="V17" s="140" t="s">
+        <v>75</v>
+      </c>
+      <c r="W17" s="141"/>
+      <c r="X17" s="53">
+        <f>COUNTA(MainTable[Grade])</f>
+        <v>12</v>
       </c>
       <c r="Y17" s="50" t="str">
-        <f t="array" ref="Y17">IFERROR(INDEX(MainTable[Type], MATCH(MIN(_xlfn.MODE.MULT(IF((MainTable[Type]&lt;&gt;"")*NOT(COUNTIF($Y$12:$Y16, MainTable[Type])), (COUNTIF(MainTable[Type], "&lt;"&amp;MainTable[Type])+1)*{1,1}))), IF((MainTable[Type]&lt;&gt;""),COUNTIF(MainTable[Type], "&lt;"&amp;MainTable[Type])+{1}), 0)), "")</f>
-        <v>Breadth</v>
+        <f t="array" ref="Y17">IFERROR(INDEX(MainTable[Type], MATCH(MIN(_xlfn.MODE.MULT(IF((MainTable[Type]&lt;&gt;"")*NOT(COUNTIF($Y$15:$Y16, MainTable[Type])), (COUNTIF(MainTable[Type], "&lt;"&amp;MainTable[Type])+1)*{1,1}))), IF((MainTable[Type]&lt;&gt;""),COUNTIF(MainTable[Type], "&lt;"&amp;MainTable[Type])+{1}), 0)), "")</f>
+        <v>Science</v>
       </c>
       <c r="Z17" s="54"/>
       <c r="AA17" s="22">
         <f>IF(Y17="","",COUNTIF(MainTable[Type],Y17))</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AB17" s="55">
         <f>IF(AA17="","",COUNTIFS(MainTable[Type],Y17,MainTable[Effective MCs],"&gt;0"))</f>
+        <v>5</v>
+      </c>
+      <c r="AC17" s="109">
+        <f>IF(Y17="","",IF(SUM(MainTable[Module Weight])=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Type],Y17)/SUM(MainTable[Module Weight]),2)))</f>
+        <v>0.47</v>
+      </c>
+      <c r="AD17" s="109"/>
+      <c r="AE17" s="104">
+        <f t="shared" ref="AE17:AE27" si="1">IF(AA17="","",AB17/AA17)</f>
         <v>1</v>
       </c>
-      <c r="AC17" s="117">
-        <f>IF(Y17="","",IF(SUM(MainTable[Module Weight])=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Type],Y17)/SUM(MainTable[Module Weight]),2)))</f>
-        <v>0</v>
-      </c>
-      <c r="AD17" s="117"/>
-      <c r="AE17" s="104">
-        <f t="shared" si="4"/>
-        <v>0.5</v>
-      </c>
-      <c r="AF17" s="100" t="str">
+      <c r="AF17" s="100">
         <f>IF(Y17="","",IF(SUMIFS(MainTable[MC Footprint],MainTable[Type],Y17)=0,"-",ROUND(SUMIFS(MainTable[Module Weight],MainTable[Type],Y17)/SUMIFS(MainTable[MC Footprint],MainTable[Type],Y17),2)))</f>
-        <v>-</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="18" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B18" s="90" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="C18" s="91" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18" s="92"/>
-      <c r="E18" s="92">
+        <v>12</v>
+      </c>
+      <c r="D18" s="92">
         <v>4</v>
       </c>
+      <c r="E18" s="92"/>
       <c r="F18" s="92"/>
       <c r="G18" s="92"/>
       <c r="H18" s="92"/>
@@ -3909,41 +3658,50 @@
       <c r="J18" s="98">
         <v>3</v>
       </c>
-      <c r="K18" s="85"/>
-      <c r="L18" s="2" t="str">
+      <c r="K18" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="L18" s="2">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M18" s="82"/>
-      <c r="N18" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O18" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="P18" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <v>2.5</v>
+      </c>
+      <c r="M18" s="82" t="s">
+        <v>90</v>
+      </c>
+      <c r="N18" s="3">
+        <f>IF(M18="N",SUM(D18:I18),IF(M18="Y",IF(L18&lt;2,0,SUM(D18:I18)),""))</f>
+        <v>4</v>
+      </c>
+      <c r="O18" s="3">
+        <f>IF(M18="Y",0,N18)</f>
+        <v>4</v>
+      </c>
+      <c r="P18" s="13">
+        <f>IF(OR(L18="",O18=""),"",O18*L18)</f>
+        <v>10</v>
       </c>
       <c r="S18" s="52" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="T18" s="20">
-        <f>SUM(MainTable[Level 6000 MCs])</f>
+        <f>SUM(MainTable[Level 3000 MCs])</f>
+        <v>12</v>
+      </c>
+      <c r="U18" s="69">
+        <f>SUMIFS(MainTable[Level 3000 MCs],MainTable[Effective MCs],"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="U18" s="69">
-        <f>SUMIFS(MainTable[Level 6000 MCs],MainTable[Effective MCs],"&gt;0")</f>
-        <v>0</v>
-      </c>
-      <c r="V18" s="109"/>
-      <c r="W18" s="110"/>
-      <c r="X18" s="53"/>
+      <c r="V18" s="140" t="s">
+        <v>61</v>
+      </c>
+      <c r="W18" s="141"/>
+      <c r="X18" s="53">
+        <f>SUM(T16:T29)</f>
+        <v>82</v>
+      </c>
       <c r="Y18" s="50" t="str">
-        <f t="array" ref="Y18">IFERROR(INDEX(MainTable[Type], MATCH(MIN(_xlfn.MODE.MULT(IF((MainTable[Type]&lt;&gt;"")*NOT(COUNTIF($Y$12:$Y17, MainTable[Type])), (COUNTIF(MainTable[Type], "&lt;"&amp;MainTable[Type])+1)*{1,1}))), IF((MainTable[Type]&lt;&gt;""),COUNTIF(MainTable[Type], "&lt;"&amp;MainTable[Type])+{1}), 0)), "")</f>
-        <v>GEM</v>
+        <f t="array" ref="Y18">IFERROR(INDEX(MainTable[Type], MATCH(MIN(_xlfn.MODE.MULT(IF((MainTable[Type]&lt;&gt;"")*NOT(COUNTIF($Y$15:$Y17, MainTable[Type])), (COUNTIF(MainTable[Type], "&lt;"&amp;MainTable[Type])+1)*{1,1}))), IF((MainTable[Type]&lt;&gt;""),COUNTIF(MainTable[Type], "&lt;"&amp;MainTable[Type])+{1}), 0)), "")</f>
+        <v>Focus Area</v>
       </c>
       <c r="Z18" s="54"/>
       <c r="AA18" s="22">
@@ -3954,13 +3712,13 @@
         <f>IF(AA18="","",COUNTIFS(MainTable[Type],Y18,MainTable[Effective MCs],"&gt;0"))</f>
         <v>0</v>
       </c>
-      <c r="AC18" s="117">
+      <c r="AC18" s="109">
         <f>IF(Y18="","",IF(SUM(MainTable[Module Weight])=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Type],Y18)/SUM(MainTable[Module Weight]),2)))</f>
         <v>0</v>
       </c>
-      <c r="AD18" s="117"/>
+      <c r="AD18" s="109"/>
       <c r="AE18" s="104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF18" s="100" t="str">
@@ -3970,10 +3728,10 @@
     </row>
     <row r="19" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B19" s="90" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C19" s="91" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D19" s="92"/>
       <c r="E19" s="92">
@@ -3986,33 +3744,50 @@
       <c r="J19" s="98">
         <v>3</v>
       </c>
-      <c r="K19" s="85"/>
-      <c r="L19" s="2" t="str">
+      <c r="K19" s="85" t="s">
+        <v>49</v>
+      </c>
+      <c r="L19" s="2">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M19" s="82"/>
-      <c r="N19" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O19" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="P19" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="S19" s="52"/>
-      <c r="T19" s="20"/>
-      <c r="U19" s="69"/>
-      <c r="V19" s="48"/>
-      <c r="W19" s="49"/>
-      <c r="X19" s="53"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="82" t="s">
+        <v>90</v>
+      </c>
+      <c r="N19" s="3">
+        <f>IF(M19="N",SUM(D19:I19),IF(M19="Y",IF(L19&lt;2,0,SUM(D19:I19)),""))</f>
+        <v>4</v>
+      </c>
+      <c r="O19" s="3">
+        <f>IF(M19="Y",0,N19)</f>
+        <v>4</v>
+      </c>
+      <c r="P19" s="13">
+        <f>IF(OR(L19="",O19=""),"",O19*L19)</f>
+        <v>0</v>
+      </c>
+      <c r="S19" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="T19" s="20">
+        <f>SUM(MainTable[Level 4000 MCs])</f>
+        <v>0</v>
+      </c>
+      <c r="U19" s="69">
+        <f>SUMIFS(MainTable[Level 4000 MCs],MainTable[Effective MCs],"&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="V19" s="140" t="s">
+        <v>76</v>
+      </c>
+      <c r="W19" s="141"/>
+      <c r="X19" s="53">
+        <f>COUNTA(MainTable[Module code])</f>
+        <v>21</v>
+      </c>
       <c r="Y19" s="50" t="str">
-        <f t="array" ref="Y19">IFERROR(INDEX(MainTable[Type], MATCH(MIN(_xlfn.MODE.MULT(IF((MainTable[Type]&lt;&gt;"")*NOT(COUNTIF($Y$12:$Y18, MainTable[Type])), (COUNTIF(MainTable[Type], "&lt;"&amp;MainTable[Type])+1)*{1,1}))), IF((MainTable[Type]&lt;&gt;""),COUNTIF(MainTable[Type], "&lt;"&amp;MainTable[Type])+{1}), 0)), "")</f>
-        <v>IT Professionalism</v>
+        <f t="array" ref="Y19">IFERROR(INDEX(MainTable[Type], MATCH(MIN(_xlfn.MODE.MULT(IF((MainTable[Type]&lt;&gt;"")*NOT(COUNTIF($Y$15:$Y18, MainTable[Type])), (COUNTIF(MainTable[Type], "&lt;"&amp;MainTable[Type])+1)*{1,1}))), IF((MainTable[Type]&lt;&gt;""),COUNTIF(MainTable[Type], "&lt;"&amp;MainTable[Type])+{1}), 0)), "")</f>
+        <v>GEM</v>
       </c>
       <c r="Z19" s="54"/>
       <c r="AA19" s="22">
@@ -4023,13 +3798,13 @@
         <f>IF(AA19="","",COUNTIFS(MainTable[Type],Y19,MainTable[Effective MCs],"&gt;0"))</f>
         <v>0</v>
       </c>
-      <c r="AC19" s="117">
+      <c r="AC19" s="109">
         <f>IF(Y19="","",IF(SUM(MainTable[Module Weight])=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Type],Y19)/SUM(MainTable[Module Weight]),2)))</f>
         <v>0</v>
       </c>
-      <c r="AD19" s="117"/>
+      <c r="AD19" s="109"/>
       <c r="AE19" s="104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF19" s="100" t="str">
@@ -4039,15 +3814,15 @@
     </row>
     <row r="20" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B20" s="90" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="C20" s="91" t="s">
-        <v>91</v>
-      </c>
-      <c r="D20" s="92"/>
-      <c r="E20" s="92">
+        <v>24</v>
+      </c>
+      <c r="D20" s="92">
         <v>4</v>
       </c>
+      <c r="E20" s="92"/>
       <c r="F20" s="92"/>
       <c r="G20" s="92"/>
       <c r="H20" s="92"/>
@@ -4062,26 +3837,39 @@
       </c>
       <c r="M20" s="82"/>
       <c r="N20" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(M20="N",SUM(D20:I20),IF(M20="Y",IF(L20&lt;2,0,SUM(D20:I20)),""))</f>
         <v/>
       </c>
       <c r="O20" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(M20="Y",0,N20)</f>
         <v/>
       </c>
       <c r="P20" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="S20" s="52"/>
-      <c r="T20" s="20"/>
-      <c r="U20" s="69"/>
-      <c r="V20" s="48"/>
-      <c r="W20" s="49"/>
-      <c r="X20" s="53"/>
+        <f>IF(OR(L20="",O20=""),"",O20*L20)</f>
+        <v/>
+      </c>
+      <c r="S20" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="T20" s="20">
+        <f>SUM(MainTable[Level 5000 MCs])</f>
+        <v>0</v>
+      </c>
+      <c r="U20" s="69">
+        <f>SUMIFS(MainTable[Level 5000 MCs],MainTable[Effective MCs],"&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="V20" s="140" t="s">
+        <v>86</v>
+      </c>
+      <c r="W20" s="141"/>
+      <c r="X20" s="80">
+        <f>COUNTIF(MainTable[S/U],"Y")</f>
+        <v>1</v>
+      </c>
       <c r="Y20" s="50" t="str">
-        <f t="array" ref="Y20">IFERROR(INDEX(MainTable[Type], MATCH(MIN(_xlfn.MODE.MULT(IF((MainTable[Type]&lt;&gt;"")*NOT(COUNTIF($Y$12:$Y19, MainTable[Type])), (COUNTIF(MainTable[Type], "&lt;"&amp;MainTable[Type])+1)*{1,1}))), IF((MainTable[Type]&lt;&gt;""),COUNTIF(MainTable[Type], "&lt;"&amp;MainTable[Type])+{1}), 0)), "")</f>
-        <v>Media Tech</v>
+        <f t="array" ref="Y20">IFERROR(INDEX(MainTable[Type], MATCH(MIN(_xlfn.MODE.MULT(IF((MainTable[Type]&lt;&gt;"")*NOT(COUNTIF($Y$15:$Y19, MainTable[Type])), (COUNTIF(MainTable[Type], "&lt;"&amp;MainTable[Type])+1)*{1,1}))), IF((MainTable[Type]&lt;&gt;""),COUNTIF(MainTable[Type], "&lt;"&amp;MainTable[Type])+{1}), 0)), "")</f>
+        <v>UE</v>
       </c>
       <c r="Z20" s="54"/>
       <c r="AA20" s="22">
@@ -4090,39 +3878,39 @@
       </c>
       <c r="AB20" s="55">
         <f>IF(AA20="","",COUNTIFS(MainTable[Type],Y20,MainTable[Effective MCs],"&gt;0"))</f>
-        <v>0</v>
-      </c>
-      <c r="AC20" s="117">
+        <v>1</v>
+      </c>
+      <c r="AC20" s="109">
         <f>IF(Y20="","",IF(SUM(MainTable[Module Weight])=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Type],Y20)/SUM(MainTable[Module Weight]),2)))</f>
-        <v>0</v>
-      </c>
-      <c r="AD20" s="117"/>
+        <v>0.03</v>
+      </c>
+      <c r="AD20" s="109"/>
       <c r="AE20" s="104">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AF20" s="100" t="str">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="AF20" s="100">
         <f>IF(Y20="","",IF(SUMIFS(MainTable[MC Footprint],MainTable[Type],Y20)=0,"-",ROUND(SUMIFS(MainTable[Module Weight],MainTable[Type],Y20)/SUMIFS(MainTable[MC Footprint],MainTable[Type],Y20),2)))</f>
-        <v>-</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="21" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B21" s="90" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="C21" s="91" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="92">
+        <v>77</v>
+      </c>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92">
         <v>4</v>
       </c>
-      <c r="E21" s="92"/>
       <c r="F21" s="92"/>
       <c r="G21" s="92"/>
       <c r="H21" s="92"/>
       <c r="I21" s="92"/>
       <c r="J21" s="98">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K21" s="85"/>
       <c r="L21" s="2" t="str">
@@ -4131,26 +3919,34 @@
       </c>
       <c r="M21" s="82"/>
       <c r="N21" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(M21="N",SUM(D21:I21),IF(M21="Y",IF(L21&lt;2,0,SUM(D21:I21)),""))</f>
         <v/>
       </c>
       <c r="O21" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(M21="Y",0,N21)</f>
         <v/>
       </c>
       <c r="P21" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="S21" s="52"/>
-      <c r="T21" s="20"/>
-      <c r="U21" s="69"/>
-      <c r="V21" s="48"/>
-      <c r="W21" s="49"/>
+        <f>IF(OR(L21="",O21=""),"",O21*L21)</f>
+        <v/>
+      </c>
+      <c r="S21" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="T21" s="20">
+        <f>SUM(MainTable[Level 6000 MCs])</f>
+        <v>0</v>
+      </c>
+      <c r="U21" s="69">
+        <f>SUMIFS(MainTable[Level 6000 MCs],MainTable[Effective MCs],"&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="V21" s="140"/>
+      <c r="W21" s="141"/>
       <c r="X21" s="53"/>
       <c r="Y21" s="50" t="str">
-        <f t="array" ref="Y21">IFERROR(INDEX(MainTable[Type], MATCH(MIN(_xlfn.MODE.MULT(IF((MainTable[Type]&lt;&gt;"")*NOT(COUNTIF($Y$12:$Y20, MainTable[Type])), (COUNTIF(MainTable[Type], "&lt;"&amp;MainTable[Type])+1)*{1,1}))), IF((MainTable[Type]&lt;&gt;""),COUNTIF(MainTable[Type], "&lt;"&amp;MainTable[Type])+{1}), 0)), "")</f>
-        <v>Final Year Project</v>
+        <f t="array" ref="Y21">IFERROR(INDEX(MainTable[Type], MATCH(MIN(_xlfn.MODE.MULT(IF((MainTable[Type]&lt;&gt;"")*NOT(COUNTIF($Y$15:$Y20, MainTable[Type])), (COUNTIF(MainTable[Type], "&lt;"&amp;MainTable[Type])+1)*{1,1}))), IF((MainTable[Type]&lt;&gt;""),COUNTIF(MainTable[Type], "&lt;"&amp;MainTable[Type])+{1}), 0)), "")</f>
+        <v>Breadth</v>
       </c>
       <c r="Z21" s="54"/>
       <c r="AA21" s="22">
@@ -4159,39 +3955,39 @@
       </c>
       <c r="AB21" s="55">
         <f>IF(AA21="","",COUNTIFS(MainTable[Type],Y21,MainTable[Effective MCs],"&gt;0"))</f>
-        <v>0</v>
-      </c>
-      <c r="AC21" s="117">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="109">
         <f>IF(Y21="","",IF(SUM(MainTable[Module Weight])=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Type],Y21)/SUM(MainTable[Module Weight]),2)))</f>
-        <v>0</v>
-      </c>
-      <c r="AD21" s="117"/>
+        <v>0.1</v>
+      </c>
+      <c r="AD21" s="109"/>
       <c r="AE21" s="104">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AF21" s="100" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AF21" s="100">
         <f>IF(Y21="","",IF(SUMIFS(MainTable[MC Footprint],MainTable[Type],Y21)=0,"-",ROUND(SUMIFS(MainTable[Module Weight],MainTable[Type],Y21)/SUMIFS(MainTable[MC Footprint],MainTable[Type],Y21),2)))</f>
-        <v>-</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B22" s="90" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="C22" s="91" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="92">
+        <v>77</v>
+      </c>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92">
         <v>4</v>
       </c>
-      <c r="E22" s="92"/>
       <c r="F22" s="92"/>
       <c r="G22" s="92"/>
       <c r="H22" s="92"/>
       <c r="I22" s="92"/>
       <c r="J22" s="98">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K22" s="85"/>
       <c r="L22" s="2" t="str">
@@ -4200,15 +3996,15 @@
       </c>
       <c r="M22" s="82"/>
       <c r="N22" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(M22="N",SUM(D22:I22),IF(M22="Y",IF(L22&lt;2,0,SUM(D22:I22)),""))</f>
         <v/>
       </c>
       <c r="O22" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(M22="Y",0,N22)</f>
         <v/>
       </c>
       <c r="P22" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(L22="",O22=""),"",O22*L22)</f>
         <v/>
       </c>
       <c r="S22" s="52"/>
@@ -4218,8 +4014,8 @@
       <c r="W22" s="49"/>
       <c r="X22" s="53"/>
       <c r="Y22" s="50" t="str">
-        <f t="array" ref="Y22">IFERROR(INDEX(MainTable[Type], MATCH(MIN(_xlfn.MODE.MULT(IF((MainTable[Type]&lt;&gt;"")*NOT(COUNTIF($Y$12:$Y21, MainTable[Type])), (COUNTIF(MainTable[Type], "&lt;"&amp;MainTable[Type])+1)*{1,1}))), IF((MainTable[Type]&lt;&gt;""),COUNTIF(MainTable[Type], "&lt;"&amp;MainTable[Type])+{1}), 0)), "")</f>
-        <v>Singapore Studies</v>
+        <f t="array" ref="Y22">IFERROR(INDEX(MainTable[Type], MATCH(MIN(_xlfn.MODE.MULT(IF((MainTable[Type]&lt;&gt;"")*NOT(COUNTIF($Y$15:$Y21, MainTable[Type])), (COUNTIF(MainTable[Type], "&lt;"&amp;MainTable[Type])+1)*{1,1}))), IF((MainTable[Type]&lt;&gt;""),COUNTIF(MainTable[Type], "&lt;"&amp;MainTable[Type])+{1}), 0)), "")</f>
+        <v>IT Professionalism</v>
       </c>
       <c r="Z22" s="54"/>
       <c r="AA22" s="22">
@@ -4228,39 +4024,39 @@
       </c>
       <c r="AB22" s="55">
         <f>IF(AA22="","",COUNTIFS(MainTable[Type],Y22,MainTable[Effective MCs],"&gt;0"))</f>
-        <v>0</v>
-      </c>
-      <c r="AC22" s="117">
+        <v>1</v>
+      </c>
+      <c r="AC22" s="109">
         <f>IF(Y22="","",IF(SUM(MainTable[Module Weight])=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Type],Y22)/SUM(MainTable[Module Weight]),2)))</f>
         <v>0</v>
       </c>
-      <c r="AD22" s="117"/>
+      <c r="AD22" s="109"/>
       <c r="AE22" s="104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AF22" s="100">
+        <f>IF(Y22="","",IF(SUMIFS(MainTable[MC Footprint],MainTable[Type],Y22)=0,"-",ROUND(SUMIFS(MainTable[Module Weight],MainTable[Type],Y22)/SUMIFS(MainTable[MC Footprint],MainTable[Type],Y22),2)))</f>
         <v>0</v>
-      </c>
-      <c r="AF22" s="100" t="str">
-        <f>IF(Y22="","",IF(SUMIFS(MainTable[MC Footprint],MainTable[Type],Y22)=0,"-",ROUND(SUMIFS(MainTable[Module Weight],MainTable[Type],Y22)/SUMIFS(MainTable[MC Footprint],MainTable[Type],Y22),2)))</f>
-        <v>-</v>
       </c>
     </row>
     <row r="23" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B23" s="90" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" s="91" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="D23" s="92"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="92">
+      <c r="E23" s="92">
         <v>4</v>
       </c>
+      <c r="F23" s="92"/>
       <c r="G23" s="92"/>
       <c r="H23" s="92"/>
       <c r="I23" s="92"/>
       <c r="J23" s="98">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K23" s="85"/>
       <c r="L23" s="2" t="str">
@@ -4269,15 +4065,15 @@
       </c>
       <c r="M23" s="82"/>
       <c r="N23" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(M23="N",SUM(D23:I23),IF(M23="Y",IF(L23&lt;2,0,SUM(D23:I23)),""))</f>
         <v/>
       </c>
       <c r="O23" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(M23="Y",0,N23)</f>
         <v/>
       </c>
       <c r="P23" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(L23="",O23=""),"",O23*L23)</f>
         <v/>
       </c>
       <c r="S23" s="52"/>
@@ -4287,117 +4083,113 @@
       <c r="W23" s="49"/>
       <c r="X23" s="53"/>
       <c r="Y23" s="50" t="str">
-        <f t="array" ref="Y23">IFERROR(INDEX(MainTable[Type], MATCH(MIN(_xlfn.MODE.MULT(IF((MainTable[Type]&lt;&gt;"")*NOT(COUNTIF($Y$12:$Y22, MainTable[Type])), (COUNTIF(MainTable[Type], "&lt;"&amp;MainTable[Type])+1)*{1,1}))), IF((MainTable[Type]&lt;&gt;""),COUNTIF(MainTable[Type], "&lt;"&amp;MainTable[Type])+{1}), 0)), "")</f>
-        <v/>
+        <f t="array" ref="Y23">IFERROR(INDEX(MainTable[Type], MATCH(MIN(_xlfn.MODE.MULT(IF((MainTable[Type]&lt;&gt;"")*NOT(COUNTIF($Y$15:$Y22, MainTable[Type])), (COUNTIF(MainTable[Type], "&lt;"&amp;MainTable[Type])+1)*{1,1}))), IF((MainTable[Type]&lt;&gt;""),COUNTIF(MainTable[Type], "&lt;"&amp;MainTable[Type])+{1}), 0)), "")</f>
+        <v>Singapore Studies</v>
       </c>
       <c r="Z23" s="54"/>
-      <c r="AA23" s="22" t="str">
+      <c r="AA23" s="22">
         <f>IF(Y23="","",COUNTIF(MainTable[Type],Y23))</f>
-        <v/>
-      </c>
-      <c r="AB23" s="55" t="str">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="55">
         <f>IF(AA23="","",COUNTIFS(MainTable[Type],Y23,MainTable[Effective MCs],"&gt;0"))</f>
-        <v/>
-      </c>
-      <c r="AC23" s="117" t="str">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="109">
         <f>IF(Y23="","",IF(SUM(MainTable[Module Weight])=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Type],Y23)/SUM(MainTable[Module Weight]),2)))</f>
-        <v/>
-      </c>
-      <c r="AD23" s="117"/>
-      <c r="AE23" s="104" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="AD23" s="109"/>
+      <c r="AE23" s="104">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AF23" s="100" t="str">
         <f>IF(Y23="","",IF(SUMIFS(MainTable[MC Footprint],MainTable[Type],Y23)=0,"-",ROUND(SUMIFS(MainTable[Module Weight],MainTable[Type],Y23)/SUMIFS(MainTable[MC Footprint],MainTable[Type],Y23),2)))</f>
-        <v/>
+        <v>-</v>
       </c>
     </row>
-    <row r="24" spans="2:32" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B24" s="90" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="C24" s="91" t="s">
-        <v>93</v>
-      </c>
-      <c r="D24" s="92"/>
+        <v>58</v>
+      </c>
+      <c r="D24" s="92">
+        <v>4</v>
+      </c>
       <c r="E24" s="92"/>
-      <c r="F24" s="92">
-        <v>4</v>
-      </c>
+      <c r="F24" s="92"/>
       <c r="G24" s="92"/>
       <c r="H24" s="92"/>
       <c r="I24" s="92"/>
       <c r="J24" s="98">
         <v>4</v>
       </c>
-      <c r="K24" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="L24" s="2">
+      <c r="K24" s="85"/>
+      <c r="L24" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="M24" s="82" t="s">
-        <v>109</v>
-      </c>
-      <c r="N24" s="3">
+        <v/>
+      </c>
+      <c r="M24" s="82"/>
+      <c r="N24" s="3" t="str">
+        <f>IF(M24="N",SUM(D24:I24),IF(M24="Y",IF(L24&lt;2,0,SUM(D24:I24)),""))</f>
+        <v/>
+      </c>
+      <c r="O24" s="3" t="str">
+        <f>IF(M24="Y",0,N24)</f>
+        <v/>
+      </c>
+      <c r="P24" s="13" t="str">
+        <f>IF(OR(L24="",O24=""),"",O24*L24)</f>
+        <v/>
+      </c>
+      <c r="S24" s="52"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="69"/>
+      <c r="V24" s="48"/>
+      <c r="W24" s="49"/>
+      <c r="X24" s="53"/>
+      <c r="Y24" s="50" t="str">
+        <f t="array" ref="Y24">IFERROR(INDEX(MainTable[Type], MATCH(MIN(_xlfn.MODE.MULT(IF((MainTable[Type]&lt;&gt;"")*NOT(COUNTIF($Y$15:$Y23, MainTable[Type])), (COUNTIF(MainTable[Type], "&lt;"&amp;MainTable[Type])+1)*{1,1}))), IF((MainTable[Type]&lt;&gt;""),COUNTIF(MainTable[Type], "&lt;"&amp;MainTable[Type])+{1}), 0)), "")</f>
+        <v/>
+      </c>
+      <c r="Z24" s="54"/>
+      <c r="AA24" s="22" t="str">
+        <f>IF(Y24="","",COUNTIF(MainTable[Type],Y24))</f>
+        <v/>
+      </c>
+      <c r="AB24" s="55" t="str">
+        <f>IF(AA24="","",COUNTIFS(MainTable[Type],Y24,MainTable[Effective MCs],"&gt;0"))</f>
+        <v/>
+      </c>
+      <c r="AC24" s="109" t="str">
+        <f>IF(Y24="","",IF(SUM(MainTable[Module Weight])=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Type],Y24)/SUM(MainTable[Module Weight]),2)))</f>
+        <v/>
+      </c>
+      <c r="AD24" s="109"/>
+      <c r="AE24" s="104" t="str">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="O24" s="3">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="P24" s="13">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="S24" s="52"/>
-      <c r="T24" s="67"/>
-      <c r="U24" s="70"/>
-      <c r="V24" s="71"/>
-      <c r="W24" s="72"/>
-      <c r="X24" s="53"/>
-      <c r="Y24" s="60" t="str">
-        <f t="array" ref="Y24">IFERROR(INDEX(MainTable[Type], MATCH(MIN(_xlfn.MODE.MULT(IF((MainTable[Type]&lt;&gt;"")*NOT(COUNTIF($Y$12:$Y23, MainTable[Type])), (COUNTIF(MainTable[Type], "&lt;"&amp;MainTable[Type])+1)*{1,1}))), IF((MainTable[Type]&lt;&gt;""),COUNTIF(MainTable[Type], "&lt;"&amp;MainTable[Type])+{1}), 0)), "")</f>
-        <v/>
-      </c>
-      <c r="Z24" s="61"/>
-      <c r="AA24" s="64" t="str">
-        <f>IF(Y24="","",COUNTIF(MainTable[Type],Y24))</f>
-        <v/>
-      </c>
-      <c r="AB24" s="62" t="str">
-        <f>IF(AA24="","",COUNTIFS(MainTable[Type],Y24,MainTable[Effective MCs],"&gt;0"))</f>
-        <v/>
-      </c>
-      <c r="AC24" s="161" t="str">
-        <f>IF(Y24="","",IF(SUM(MainTable[Module Weight])=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Type],Y24)/SUM(MainTable[Module Weight]),2)))</f>
-        <v/>
-      </c>
-      <c r="AD24" s="161"/>
-      <c r="AE24" s="105" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AF24" s="101" t="str">
+        <v/>
+      </c>
+      <c r="AF24" s="100" t="str">
         <f>IF(Y24="","",IF(SUMIFS(MainTable[MC Footprint],MainTable[Type],Y24)=0,"-",ROUND(SUMIFS(MainTable[Module Weight],MainTable[Type],Y24)/SUMIFS(MainTable[MC Footprint],MainTable[Type],Y24),2)))</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B25" s="90" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="C25" s="91" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" s="92"/>
+        <v>24</v>
+      </c>
+      <c r="D25" s="92">
+        <v>4</v>
+      </c>
       <c r="E25" s="92"/>
-      <c r="F25" s="92">
-        <v>4</v>
-      </c>
+      <c r="F25" s="92"/>
       <c r="G25" s="92"/>
       <c r="H25" s="92"/>
       <c r="I25" s="92"/>
@@ -4411,106 +4203,136 @@
       </c>
       <c r="M25" s="82"/>
       <c r="N25" s="3" t="str">
+        <f>IF(M25="N",SUM(D25:I25),IF(M25="Y",IF(L25&lt;2,0,SUM(D25:I25)),""))</f>
+        <v/>
+      </c>
+      <c r="O25" s="3" t="str">
+        <f>IF(M25="Y",0,N25)</f>
+        <v/>
+      </c>
+      <c r="P25" s="13" t="str">
+        <f>IF(OR(L25="",O25=""),"",O25*L25)</f>
+        <v/>
+      </c>
+      <c r="S25" s="52"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="69"/>
+      <c r="V25" s="48"/>
+      <c r="W25" s="49"/>
+      <c r="X25" s="53"/>
+      <c r="Y25" s="50" t="str">
+        <f t="array" ref="Y25">IFERROR(INDEX(MainTable[Type], MATCH(MIN(_xlfn.MODE.MULT(IF((MainTable[Type]&lt;&gt;"")*NOT(COUNTIF($Y$15:$Y24, MainTable[Type])), (COUNTIF(MainTable[Type], "&lt;"&amp;MainTable[Type])+1)*{1,1}))), IF((MainTable[Type]&lt;&gt;""),COUNTIF(MainTable[Type], "&lt;"&amp;MainTable[Type])+{1}), 0)), "")</f>
+        <v/>
+      </c>
+      <c r="Z25" s="54"/>
+      <c r="AA25" s="22" t="str">
+        <f>IF(Y25="","",COUNTIF(MainTable[Type],Y25))</f>
+        <v/>
+      </c>
+      <c r="AB25" s="55" t="str">
+        <f>IF(AA25="","",COUNTIFS(MainTable[Type],Y25,MainTable[Effective MCs],"&gt;0"))</f>
+        <v/>
+      </c>
+      <c r="AC25" s="109" t="str">
+        <f>IF(Y25="","",IF(SUM(MainTable[Module Weight])=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Type],Y25)/SUM(MainTable[Module Weight]),2)))</f>
+        <v/>
+      </c>
+      <c r="AD25" s="109"/>
+      <c r="AE25" s="104" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O25" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="P25" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="S25" s="122" t="s">
-        <v>96</v>
-      </c>
-      <c r="T25" s="123"/>
-      <c r="U25" s="123"/>
-      <c r="V25" s="124"/>
-      <c r="W25" s="124"/>
-      <c r="X25" s="123"/>
-      <c r="Y25" s="124"/>
-      <c r="Z25" s="124"/>
-      <c r="AA25" s="124"/>
-      <c r="AB25" s="124"/>
-      <c r="AC25" s="124"/>
-      <c r="AD25" s="124"/>
-      <c r="AE25" s="124"/>
-      <c r="AF25" s="125"/>
+      <c r="AF25" s="100" t="str">
+        <f>IF(Y25="","",IF(SUMIFS(MainTable[MC Footprint],MainTable[Type],Y25)=0,"-",ROUND(SUMIFS(MainTable[Module Weight],MainTable[Type],Y25)/SUMIFS(MainTable[MC Footprint],MainTable[Type],Y25),2)))</f>
+        <v/>
+      </c>
     </row>
-    <row r="26" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B26" s="90" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="C26" s="91" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="D26" s="92"/>
-      <c r="E26" s="92">
+      <c r="E26" s="92"/>
+      <c r="F26" s="92">
         <v>4</v>
       </c>
-      <c r="F26" s="92"/>
       <c r="G26" s="92"/>
       <c r="H26" s="92"/>
       <c r="I26" s="92"/>
       <c r="J26" s="98">
-        <v>5</v>
-      </c>
-      <c r="K26" s="85" t="s">
-        <v>41</v>
-      </c>
-      <c r="L26" s="2">
+        <v>4</v>
+      </c>
+      <c r="K26" s="85"/>
+      <c r="L26" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="M26" s="82" t="s">
-        <v>87</v>
-      </c>
-      <c r="N26" s="3">
+        <v/>
+      </c>
+      <c r="M26" s="82"/>
+      <c r="N26" s="3" t="str">
+        <f>IF(M26="N",SUM(D26:I26),IF(M26="Y",IF(L26&lt;2,0,SUM(D26:I26)),""))</f>
+        <v/>
+      </c>
+      <c r="O26" s="3" t="str">
+        <f>IF(M26="Y",0,N26)</f>
+        <v/>
+      </c>
+      <c r="P26" s="13" t="str">
+        <f>IF(OR(L26="",O26=""),"",O26*L26)</f>
+        <v/>
+      </c>
+      <c r="S26" s="52"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="69"/>
+      <c r="V26" s="48"/>
+      <c r="W26" s="49"/>
+      <c r="X26" s="53"/>
+      <c r="Y26" s="50" t="str">
+        <f t="array" ref="Y26">IFERROR(INDEX(MainTable[Type], MATCH(MIN(_xlfn.MODE.MULT(IF((MainTable[Type]&lt;&gt;"")*NOT(COUNTIF($Y$15:$Y25, MainTable[Type])), (COUNTIF(MainTable[Type], "&lt;"&amp;MainTable[Type])+1)*{1,1}))), IF((MainTable[Type]&lt;&gt;""),COUNTIF(MainTable[Type], "&lt;"&amp;MainTable[Type])+{1}), 0)), "")</f>
+        <v/>
+      </c>
+      <c r="Z26" s="54"/>
+      <c r="AA26" s="22" t="str">
+        <f>IF(Y26="","",COUNTIF(MainTable[Type],Y26))</f>
+        <v/>
+      </c>
+      <c r="AB26" s="55" t="str">
+        <f>IF(AA26="","",COUNTIFS(MainTable[Type],Y26,MainTable[Effective MCs],"&gt;0"))</f>
+        <v/>
+      </c>
+      <c r="AC26" s="109" t="str">
+        <f>IF(Y26="","",IF(SUM(MainTable[Module Weight])=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Type],Y26)/SUM(MainTable[Module Weight]),2)))</f>
+        <v/>
+      </c>
+      <c r="AD26" s="109"/>
+      <c r="AE26" s="104" t="str">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="O26" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P26" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S26" s="126"/>
-      <c r="T26" s="127"/>
-      <c r="U26" s="127"/>
-      <c r="V26" s="127"/>
-      <c r="W26" s="127"/>
-      <c r="X26" s="127"/>
-      <c r="Y26" s="127"/>
-      <c r="Z26" s="127"/>
-      <c r="AA26" s="127"/>
-      <c r="AB26" s="127"/>
-      <c r="AC26" s="127"/>
-      <c r="AD26" s="127"/>
-      <c r="AE26" s="127"/>
-      <c r="AF26" s="128"/>
+        <v/>
+      </c>
+      <c r="AF26" s="100" t="str">
+        <f>IF(Y26="","",IF(SUMIFS(MainTable[MC Footprint],MainTable[Type],Y26)=0,"-",ROUND(SUMIFS(MainTable[Module Weight],MainTable[Type],Y26)/SUMIFS(MainTable[MC Footprint],MainTable[Type],Y26),2)))</f>
+        <v/>
+      </c>
     </row>
-    <row r="27" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:32" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="90" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="C27" s="91" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="D27" s="92"/>
       <c r="E27" s="92"/>
-      <c r="F27" s="92"/>
-      <c r="G27" s="92">
+      <c r="F27" s="92">
         <v>4</v>
       </c>
+      <c r="G27" s="92"/>
       <c r="H27" s="92"/>
       <c r="I27" s="92"/>
       <c r="J27" s="98">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K27" s="85"/>
       <c r="L27" s="2" t="str">
@@ -4519,70 +4341,67 @@
       </c>
       <c r="M27" s="82"/>
       <c r="N27" s="3" t="str">
+        <f>IF(M27="N",SUM(D27:I27),IF(M27="Y",IF(L27&lt;2,0,SUM(D27:I27)),""))</f>
+        <v/>
+      </c>
+      <c r="O27" s="3" t="str">
+        <f>IF(M27="Y",0,N27)</f>
+        <v/>
+      </c>
+      <c r="P27" s="13" t="str">
+        <f>IF(OR(L27="",O27=""),"",O27*L27)</f>
+        <v/>
+      </c>
+      <c r="S27" s="52"/>
+      <c r="T27" s="67"/>
+      <c r="U27" s="70"/>
+      <c r="V27" s="71"/>
+      <c r="W27" s="72"/>
+      <c r="X27" s="53"/>
+      <c r="Y27" s="60" t="str">
+        <f t="array" ref="Y27">IFERROR(INDEX(MainTable[Type], MATCH(MIN(_xlfn.MODE.MULT(IF((MainTable[Type]&lt;&gt;"")*NOT(COUNTIF($Y$15:$Y26, MainTable[Type])), (COUNTIF(MainTable[Type], "&lt;"&amp;MainTable[Type])+1)*{1,1}))), IF((MainTable[Type]&lt;&gt;""),COUNTIF(MainTable[Type], "&lt;"&amp;MainTable[Type])+{1}), 0)), "")</f>
+        <v/>
+      </c>
+      <c r="Z27" s="61"/>
+      <c r="AA27" s="64" t="str">
+        <f>IF(Y27="","",COUNTIF(MainTable[Type],Y27))</f>
+        <v/>
+      </c>
+      <c r="AB27" s="62" t="str">
+        <f>IF(AA27="","",COUNTIFS(MainTable[Type],Y27,MainTable[Effective MCs],"&gt;0"))</f>
+        <v/>
+      </c>
+      <c r="AC27" s="110" t="str">
+        <f>IF(Y27="","",IF(SUM(MainTable[Module Weight])=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Type],Y27)/SUM(MainTable[Module Weight]),2)))</f>
+        <v/>
+      </c>
+      <c r="AD27" s="110"/>
+      <c r="AE27" s="105" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O27" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="P27" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="S27" s="111" t="str">
-        <f>IF(Y13="","",Y13)</f>
-        <v>Focus Area</v>
-      </c>
-      <c r="T27" s="112"/>
-      <c r="U27" s="111" t="str">
-        <f>IF(Y14="","",Y14)</f>
-        <v>Foundation</v>
-      </c>
-      <c r="V27" s="112"/>
-      <c r="W27" s="111" t="str">
-        <f>IF(Y15="","",Y15)</f>
-        <v>UE</v>
-      </c>
-      <c r="X27" s="129"/>
-      <c r="Y27" s="111" t="str">
-        <f>IF(Y16="","",Y16)</f>
-        <v>Science</v>
-      </c>
-      <c r="Z27" s="112"/>
-      <c r="AA27" s="115" t="str">
-        <f>IF(Y17="","",Y17)</f>
-        <v>Breadth</v>
-      </c>
-      <c r="AB27" s="129"/>
-      <c r="AC27" s="111" t="str">
-        <f>IF(Y18="","",Y18)</f>
-        <v>GEM</v>
-      </c>
-      <c r="AD27" s="112"/>
-      <c r="AE27" s="115" t="str">
-        <f>IF(Y19="","",Y19)</f>
-        <v>IT Professionalism</v>
-      </c>
-      <c r="AF27" s="112"/>
+      <c r="AF27" s="101" t="str">
+        <f>IF(Y27="","",IF(SUMIFS(MainTable[MC Footprint],MainTable[Type],Y27)=0,"-",ROUND(SUMIFS(MainTable[Module Weight],MainTable[Type],Y27)/SUMIFS(MainTable[MC Footprint],MainTable[Type],Y27),2)))</f>
+        <v/>
+      </c>
     </row>
-    <row r="28" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B28" s="90" t="s">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="C28" s="91" t="s">
-        <v>62</v>
-      </c>
-      <c r="D28" s="92">
-        <v>0</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="D28" s="92"/>
       <c r="E28" s="92"/>
-      <c r="F28" s="92"/>
+      <c r="F28" s="92">
+        <v>4</v>
+      </c>
       <c r="G28" s="92"/>
       <c r="H28" s="92"/>
       <c r="I28" s="92"/>
       <c r="J28" s="98">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K28" s="85"/>
       <c r="L28" s="2" t="str">
@@ -4591,50 +4410,44 @@
       </c>
       <c r="M28" s="82"/>
       <c r="N28" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(M28="N",SUM(D28:I28),IF(M28="Y",IF(L28&lt;2,0,SUM(D28:I28)),""))</f>
         <v/>
       </c>
       <c r="O28" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(M28="Y",0,N28)</f>
         <v/>
       </c>
       <c r="P28" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="S28" s="113"/>
-      <c r="T28" s="114"/>
-      <c r="U28" s="113"/>
-      <c r="V28" s="114"/>
-      <c r="W28" s="113"/>
-      <c r="X28" s="130"/>
-      <c r="Y28" s="113"/>
-      <c r="Z28" s="114"/>
-      <c r="AA28" s="116"/>
-      <c r="AB28" s="130"/>
-      <c r="AC28" s="113"/>
-      <c r="AD28" s="114"/>
-      <c r="AE28" s="116"/>
-      <c r="AF28" s="114"/>
+        <f>IF(OR(L28="",O28=""),"",O28*L28)</f>
+        <v/>
+      </c>
+      <c r="S28" s="152" t="s">
+        <v>80</v>
+      </c>
+      <c r="T28" s="153"/>
+      <c r="U28" s="153"/>
+      <c r="V28" s="154"/>
+      <c r="W28" s="154"/>
+      <c r="X28" s="153"/>
+      <c r="Y28" s="154"/>
+      <c r="Z28" s="154"/>
+      <c r="AA28" s="154"/>
+      <c r="AB28" s="154"/>
+      <c r="AC28" s="154"/>
+      <c r="AD28" s="154"/>
+      <c r="AE28" s="154"/>
+      <c r="AF28" s="155"/>
     </row>
-    <row r="29" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B29" s="90" t="s">
-        <v>97</v>
-      </c>
-      <c r="C29" s="91" t="s">
-        <v>62</v>
-      </c>
+    <row r="29" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="90"/>
+      <c r="C29" s="91"/>
       <c r="D29" s="92"/>
       <c r="E29" s="92"/>
-      <c r="F29" s="92">
-        <v>4</v>
-      </c>
+      <c r="F29" s="92"/>
       <c r="G29" s="92"/>
       <c r="H29" s="92"/>
       <c r="I29" s="92"/>
-      <c r="J29" s="98">
-        <v>5</v>
-      </c>
+      <c r="J29" s="98"/>
       <c r="K29" s="85"/>
       <c r="L29" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4642,78 +4455,42 @@
       </c>
       <c r="M29" s="82"/>
       <c r="N29" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(M29="N",SUM(D29:I29),IF(M29="Y",IF(L29&lt;2,0,SUM(D29:I29)),""))</f>
         <v/>
       </c>
       <c r="O29" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(M29="Y",0,N29)</f>
         <v/>
       </c>
       <c r="P29" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="S29" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="T29" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="U29" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="V29" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="W29" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="X29" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y29" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z29" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA29" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB29" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC29" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD29" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE29" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF29" s="26" t="s">
-        <v>72</v>
-      </c>
+        <f>IF(OR(L29="",O29=""),"",O29*L29)</f>
+        <v/>
+      </c>
+      <c r="S29" s="156"/>
+      <c r="T29" s="157"/>
+      <c r="U29" s="157"/>
+      <c r="V29" s="157"/>
+      <c r="W29" s="157"/>
+      <c r="X29" s="157"/>
+      <c r="Y29" s="157"/>
+      <c r="Z29" s="157"/>
+      <c r="AA29" s="157"/>
+      <c r="AB29" s="157"/>
+      <c r="AC29" s="157"/>
+      <c r="AD29" s="157"/>
+      <c r="AE29" s="157"/>
+      <c r="AF29" s="158"/>
     </row>
     <row r="30" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B30" s="90" t="s">
-        <v>85</v>
-      </c>
-      <c r="C30" s="91" t="s">
-        <v>62</v>
-      </c>
+      <c r="B30" s="90"/>
+      <c r="C30" s="91"/>
       <c r="D30" s="92"/>
       <c r="E30" s="92"/>
-      <c r="F30" s="92">
-        <v>4</v>
-      </c>
+      <c r="F30" s="92"/>
       <c r="G30" s="92"/>
       <c r="H30" s="92"/>
       <c r="I30" s="92"/>
-      <c r="J30" s="98">
-        <v>5</v>
-      </c>
+      <c r="J30" s="98"/>
       <c r="K30" s="85"/>
       <c r="L30" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4721,92 +4498,63 @@
       </c>
       <c r="M30" s="82"/>
       <c r="N30" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(M30="N",SUM(D30:I30),IF(M30="Y",IF(L30&lt;2,0,SUM(D30:I30)),""))</f>
         <v/>
       </c>
       <c r="O30" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(M30="Y",0,N30)</f>
         <v/>
       </c>
       <c r="P30" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="S30" s="102" t="str">
-        <f t="array" ref="S30">IF($S$27="","",IF(ROWS(S$30:S30)&gt;$AA$13,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$13,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(S$30:S30)))))</f>
-        <v>CS3241</v>
-      </c>
-      <c r="T30" s="28" t="str">
-        <f>IF(S30="","",IF(COUNTIFS(MainTable[Module code],S30,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
-        <v>Yes</v>
-      </c>
-      <c r="U30" s="29" t="str">
-        <f t="array" ref="U30">IF($U$27="","",IF(ROWS(U$30:U30)&gt;$AA$14,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$14,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(U$30:U30)))))</f>
-        <v>CS1101S</v>
-      </c>
-      <c r="V30" s="34" t="str">
-        <f>IF(U30="","",IF(COUNTIFS(MainTable[Module code],U30,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
-        <v>Yes</v>
-      </c>
-      <c r="W30" s="27" t="str">
-        <f t="array" ref="W30">IF($W$27="","",IF(ROWS(W$30:W30)&gt;$AA$15,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$15,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(W$30:W30)))))</f>
-        <v>CS2010R</v>
-      </c>
-      <c r="X30" s="36" t="str">
-        <f>IF(W30="","",IF(COUNTIFS(MainTable[Module code],W30,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
-        <v>No</v>
-      </c>
-      <c r="Y30" s="27" t="str">
-        <f t="array" ref="Y30">IF($Y$27="","",IF(ROWS(Y$30:Y30)&gt;$AA$16,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$16,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(Y$30:Y30)))))</f>
-        <v>MA1521</v>
-      </c>
-      <c r="Z30" s="28" t="str">
-        <f>IF(Y30="","",IF(COUNTIFS(MainTable[Module code],Y30,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
-        <v>Yes</v>
-      </c>
-      <c r="AA30" s="29" t="str">
-        <f t="array" ref="AA30">IF($AA$27="","",IF(ROWS($AA$30:AA30)&gt;$AA$17,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$17,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(AA$30:AA30)))))</f>
-        <v>SC1101E</v>
-      </c>
-      <c r="AB30" s="36" t="str">
-        <f>IF(AA30="","",IF(COUNTIFS(MainTable[Module code],AA30,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
-        <v>Yes</v>
-      </c>
-      <c r="AC30" s="27" t="str">
-        <f t="array" ref="AC30">IF($AC$27="","",IF(ROWS($AC$30:AC30)&gt;$AA$18,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$18,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(AC$30:AC30)))))</f>
-        <v>GEK1508</v>
-      </c>
-      <c r="AD30" s="28" t="str">
-        <f>IF(AC30="","",IF(COUNTIFS(MainTable[Module code],AC30,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
-        <v>No</v>
-      </c>
-      <c r="AE30" s="29" t="str">
-        <f t="array" ref="AE30">IF($AE$27="","",IF(ROWS($AE$30:AE30)&gt;$AA$19,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$19,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(AE$30:AE30)))))</f>
-        <v>CS2101</v>
-      </c>
-      <c r="AF30" s="28" t="str">
-        <f>IF(AE30="","",IF(COUNTIFS(MainTable[Module code],AE30,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
-        <v>No</v>
-      </c>
+        <f>IF(OR(L30="",O30=""),"",O30*L30)</f>
+        <v/>
+      </c>
+      <c r="S30" s="142" t="str">
+        <f>IF(Y16="","",Y16)</f>
+        <v>Foundation</v>
+      </c>
+      <c r="T30" s="143"/>
+      <c r="U30" s="142" t="str">
+        <f>IF(Y17="","",Y17)</f>
+        <v>Science</v>
+      </c>
+      <c r="V30" s="143"/>
+      <c r="W30" s="142" t="str">
+        <f>IF(Y18="","",Y18)</f>
+        <v>Focus Area</v>
+      </c>
+      <c r="X30" s="159"/>
+      <c r="Y30" s="142" t="str">
+        <f>IF(Y19="","",Y19)</f>
+        <v>GEM</v>
+      </c>
+      <c r="Z30" s="143"/>
+      <c r="AA30" s="146" t="str">
+        <f>IF(Y20="","",Y20)</f>
+        <v>UE</v>
+      </c>
+      <c r="AB30" s="159"/>
+      <c r="AC30" s="142" t="str">
+        <f>IF(Y21="","",Y21)</f>
+        <v>Breadth</v>
+      </c>
+      <c r="AD30" s="143"/>
+      <c r="AE30" s="146" t="str">
+        <f>IF(Y22="","",Y22)</f>
+        <v>IT Professionalism</v>
+      </c>
+      <c r="AF30" s="143"/>
     </row>
-    <row r="31" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B31" s="90" t="s">
-        <v>82</v>
-      </c>
-      <c r="C31" s="91" t="s">
-        <v>94</v>
-      </c>
+    <row r="31" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="90"/>
+      <c r="C31" s="91"/>
       <c r="D31" s="92"/>
       <c r="E31" s="92"/>
-      <c r="F31" s="92">
-        <v>4</v>
-      </c>
+      <c r="F31" s="92"/>
       <c r="G31" s="92"/>
       <c r="H31" s="92"/>
       <c r="I31" s="92"/>
-      <c r="J31" s="98">
-        <v>5</v>
-      </c>
+      <c r="J31" s="98"/>
       <c r="K31" s="85"/>
       <c r="L31" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4814,92 +4562,42 @@
       </c>
       <c r="M31" s="82"/>
       <c r="N31" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(M31="N",SUM(D31:I31),IF(M31="Y",IF(L31&lt;2,0,SUM(D31:I31)),""))</f>
         <v/>
       </c>
       <c r="O31" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(M31="Y",0,N31)</f>
         <v/>
       </c>
       <c r="P31" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="S31" s="27" t="str">
-        <f t="array" ref="S31">IF($S$27="","",IF(ROWS(S$30:S31)&gt;$AA$13,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$13,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(S$30:S31)))))</f>
-        <v>CS3343</v>
-      </c>
-      <c r="T31" s="28" t="str">
-        <f>IF(S31="","",IF(COUNTIFS(MainTable[Module code],S31,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
-        <v>No</v>
-      </c>
-      <c r="U31" s="29" t="str">
-        <f t="array" ref="U31">IF($U$27="","",IF(ROWS(U$30:U31)&gt;$AA$14,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$14,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(U$30:U31)))))</f>
-        <v>CS1231</v>
-      </c>
-      <c r="V31" s="34" t="str">
-        <f>IF(U31="","",IF(COUNTIFS(MainTable[Module code],U31,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
-        <v>Yes</v>
-      </c>
-      <c r="W31" s="27" t="str">
-        <f t="array" ref="W31">IF($W$27="","",IF(ROWS(W$30:W31)&gt;$AA$15,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$15,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(W$30:W31)))))</f>
-        <v>LSM1302</v>
-      </c>
-      <c r="X31" s="36" t="str">
-        <f>IF(W31="","",IF(COUNTIFS(MainTable[Module code],W31,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
-        <v>No</v>
-      </c>
-      <c r="Y31" s="27" t="str">
-        <f t="array" ref="Y31">IF($Y$27="","",IF(ROWS(Y$30:Y31)&gt;$AA$16,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$16,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(Y$30:Y31)))))</f>
-        <v>PC1432</v>
-      </c>
-      <c r="Z31" s="28" t="str">
-        <f>IF(Y31="","",IF(COUNTIFS(MainTable[Module code],Y31,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
-        <v>Yes</v>
-      </c>
-      <c r="AA31" s="29" t="str">
-        <f t="array" ref="AA31">IF($AA$27="","",IF(ROWS($AA$30:AA31)&gt;$AA$17,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$17,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(AA$30:AA31)))))</f>
-        <v>PH2110</v>
-      </c>
-      <c r="AB31" s="36" t="str">
-        <f>IF(AA31="","",IF(COUNTIFS(MainTable[Module code],AA31,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
-        <v>No</v>
-      </c>
-      <c r="AC31" s="27" t="str">
-        <f t="array" ref="AC31">IF($AC$27="","",IF(ROWS($AC$30:AC31)&gt;$AA$18,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$18,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(AC$30:AC31)))))</f>
-        <v>GEK1055</v>
-      </c>
-      <c r="AD31" s="28" t="str">
-        <f>IF(AC31="","",IF(COUNTIFS(MainTable[Module code],AC31,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
-        <v>No</v>
-      </c>
-      <c r="AE31" s="29" t="str">
-        <f t="array" ref="AE31">IF($AE$27="","",IF(ROWS($AE$30:AE31)&gt;$AA$19,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$19,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(AE$30:AE31)))))</f>
-        <v>IS1103</v>
-      </c>
-      <c r="AF31" s="28" t="str">
-        <f>IF(AE31="","",IF(COUNTIFS(MainTable[Module code],AE31,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
-        <v>No</v>
-      </c>
+        <f>IF(OR(L31="",O31=""),"",O31*L31)</f>
+        <v/>
+      </c>
+      <c r="S31" s="144"/>
+      <c r="T31" s="145"/>
+      <c r="U31" s="144"/>
+      <c r="V31" s="145"/>
+      <c r="W31" s="144"/>
+      <c r="X31" s="160"/>
+      <c r="Y31" s="144"/>
+      <c r="Z31" s="145"/>
+      <c r="AA31" s="147"/>
+      <c r="AB31" s="160"/>
+      <c r="AC31" s="144"/>
+      <c r="AD31" s="145"/>
+      <c r="AE31" s="147"/>
+      <c r="AF31" s="145"/>
     </row>
     <row r="32" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B32" s="90" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="91" t="s">
-        <v>92</v>
-      </c>
-      <c r="D32" s="92">
-        <v>4</v>
-      </c>
+      <c r="B32" s="90"/>
+      <c r="C32" s="91"/>
+      <c r="D32" s="92"/>
       <c r="E32" s="92"/>
       <c r="F32" s="92"/>
       <c r="G32" s="92"/>
       <c r="H32" s="92"/>
       <c r="I32" s="92"/>
-      <c r="J32" s="98">
-        <v>5</v>
-      </c>
+      <c r="J32" s="98"/>
       <c r="K32" s="85"/>
       <c r="L32" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4907,92 +4605,70 @@
       </c>
       <c r="M32" s="82"/>
       <c r="N32" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(M32="N",SUM(D32:I32),IF(M32="Y",IF(L32&lt;2,0,SUM(D32:I32)),""))</f>
         <v/>
       </c>
       <c r="O32" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(M32="Y",0,N32)</f>
         <v/>
       </c>
       <c r="P32" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="S32" s="27" t="str">
-        <f t="array" ref="S32">IF($S$27="","",IF(ROWS(S$30:S32)&gt;$AA$13,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$13,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(S$30:S32)))))</f>
-        <v>CS3240</v>
-      </c>
-      <c r="T32" s="28" t="str">
-        <f>IF(S32="","",IF(COUNTIFS(MainTable[Module code],S32,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
-        <v>No</v>
-      </c>
-      <c r="U32" s="29" t="str">
-        <f t="array" ref="U32">IF($U$27="","",IF(ROWS(U$30:U32)&gt;$AA$14,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$14,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(U$30:U32)))))</f>
-        <v>CS2100</v>
-      </c>
-      <c r="V32" s="34" t="str">
-        <f>IF(U32="","",IF(COUNTIFS(MainTable[Module code],U32,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
-        <v>No</v>
-      </c>
-      <c r="W32" s="27" t="str">
-        <f t="array" ref="W32">IF($W$27="","",IF(ROWS(W$30:W32)&gt;$AA$15,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$15,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(W$30:W32)))))</f>
-        <v>CS4345</v>
-      </c>
-      <c r="X32" s="36" t="str">
-        <f>IF(W32="","",IF(COUNTIFS(MainTable[Module code],W32,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
-        <v>No</v>
-      </c>
-      <c r="Y32" s="27" t="str">
-        <f t="array" ref="Y32">IF($Y$27="","",IF(ROWS(Y$30:Y32)&gt;$AA$16,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$16,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(Y$30:Y32)))))</f>
-        <v>MA1101R</v>
-      </c>
-      <c r="Z32" s="28" t="str">
-        <f>IF(Y32="","",IF(COUNTIFS(MainTable[Module code],Y32,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
-        <v>No</v>
-      </c>
-      <c r="AA32" s="29" t="str">
-        <f t="array" ref="AA32">IF($AA$27="","",IF(ROWS($AA$30:AA32)&gt;$AA$17,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$17,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(AA$30:AA32)))))</f>
-        <v/>
-      </c>
-      <c r="AB32" s="36" t="str">
-        <f>IF(AA32="","",IF(COUNTIFS(MainTable[Module code],AA32,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
-        <v/>
-      </c>
-      <c r="AC32" s="27" t="str">
-        <f t="array" ref="AC32">IF($AC$27="","",IF(ROWS($AC$30:AC32)&gt;$AA$18,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$18,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(AC$30:AC32)))))</f>
-        <v/>
-      </c>
-      <c r="AD32" s="28" t="str">
-        <f>IF(AC32="","",IF(COUNTIFS(MainTable[Module code],AC32,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
-        <v/>
-      </c>
-      <c r="AE32" s="29" t="str">
-        <f t="array" ref="AE32">IF($AE$27="","",IF(ROWS($AE$30:AE32)&gt;$AA$19,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$19,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(AE$30:AE32)))))</f>
-        <v/>
-      </c>
-      <c r="AF32" s="28" t="str">
-        <f>IF(AE32="","",IF(COUNTIFS(MainTable[Module code],AE32,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
-        <v/>
+        <f>IF(OR(L32="",O32=""),"",O32*L32)</f>
+        <v/>
+      </c>
+      <c r="S32" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="T32" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="U32" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="V32" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="W32" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="X32" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y32" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z32" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA32" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB32" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC32" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD32" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE32" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF32" s="26" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B33" s="90" t="s">
-        <v>77</v>
-      </c>
-      <c r="C33" s="91" t="s">
-        <v>93</v>
-      </c>
+      <c r="B33" s="90"/>
+      <c r="C33" s="91"/>
       <c r="D33" s="92"/>
       <c r="E33" s="92"/>
-      <c r="F33" s="92">
-        <v>4</v>
-      </c>
+      <c r="F33" s="92"/>
       <c r="G33" s="92"/>
       <c r="H33" s="92"/>
       <c r="I33" s="92"/>
-      <c r="J33" s="98">
-        <v>5</v>
-      </c>
+      <c r="J33" s="98"/>
       <c r="K33" s="85"/>
       <c r="L33" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5000,92 +4676,84 @@
       </c>
       <c r="M33" s="82"/>
       <c r="N33" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(M33="N",SUM(D33:I33),IF(M33="Y",IF(L33&lt;2,0,SUM(D33:I33)),""))</f>
         <v/>
       </c>
       <c r="O33" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(M33="Y",0,N33)</f>
         <v/>
       </c>
       <c r="P33" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="S33" s="27" t="str">
-        <f t="array" ref="S33">IF($S$27="","",IF(ROWS(S$30:S33)&gt;$AA$13,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$13,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(S$30:S33)))))</f>
-        <v>CS4243</v>
+        <f>IF(OR(L33="",O33=""),"",O33*L33)</f>
+        <v/>
+      </c>
+      <c r="S33" s="102" t="str">
+        <f t="array" ref="S33">IF($S$30="","",IF(ROWS(S$33:S33)&gt;$AA$16,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$16,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(S$33:S33)))))</f>
+        <v>CS1101S</v>
       </c>
       <c r="T33" s="28" t="str">
         <f>IF(S33="","",IF(COUNTIFS(MainTable[Module code],S33,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="U33" s="29" t="str">
-        <f t="array" ref="U33">IF($U$27="","",IF(ROWS(U$30:U33)&gt;$AA$14,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$14,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(U$30:U33)))))</f>
-        <v>CS2103T</v>
+        <f t="array" ref="U33">IF($U$30="","",IF(ROWS(U$33:U33)&gt;$AA$17,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$17,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(U$33:U33)))))</f>
+        <v>MA1521</v>
       </c>
       <c r="V33" s="34" t="str">
         <f>IF(U33="","",IF(COUNTIFS(MainTable[Module code],U33,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="W33" s="27" t="str">
-        <f t="array" ref="W33">IF($W$27="","",IF(ROWS(W$30:W33)&gt;$AA$15,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$15,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(W$30:W33)))))</f>
-        <v>NCC1000</v>
+        <f t="array" ref="W33">IF($W$30="","",IF(ROWS(W$33:W33)&gt;$AA$18,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$18,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(W$33:W33)))))</f>
+        <v>CS3241</v>
       </c>
       <c r="X33" s="36" t="str">
         <f>IF(W33="","",IF(COUNTIFS(MainTable[Module code],W33,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
         <v>No</v>
       </c>
       <c r="Y33" s="27" t="str">
-        <f t="array" ref="Y33">IF($Y$27="","",IF(ROWS(Y$30:Y33)&gt;$AA$16,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$16,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(Y$30:Y33)))))</f>
-        <v>ST2334</v>
+        <f t="array" ref="Y33">IF($Y$30="","",IF(ROWS(Y$33:Y33)&gt;$AA$19,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$19,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(Y$33:Y33)))))</f>
+        <v>GEK1508</v>
       </c>
       <c r="Z33" s="28" t="str">
         <f>IF(Y33="","",IF(COUNTIFS(MainTable[Module code],Y33,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
         <v>No</v>
       </c>
       <c r="AA33" s="29" t="str">
-        <f t="array" ref="AA33">IF($AA$27="","",IF(ROWS($AA$30:AA33)&gt;$AA$17,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$17,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(AA$30:AA33)))))</f>
-        <v/>
+        <f t="array" ref="AA33">IF($AA$30="","",IF(ROWS($AA$33:AA33)&gt;$AA$20,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$20,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(AA$33:AA33)))))</f>
+        <v>CS2010R</v>
       </c>
       <c r="AB33" s="36" t="str">
         <f>IF(AA33="","",IF(COUNTIFS(MainTable[Module code],AA33,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
-        <v/>
+        <v>Yes</v>
       </c>
       <c r="AC33" s="27" t="str">
-        <f t="array" ref="AC33">IF($AC$27="","",IF(ROWS($AC$30:AC33)&gt;$AA$18,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$18,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(AC$30:AC33)))))</f>
-        <v/>
+        <f t="array" ref="AC33">IF($AC$30="","",IF(ROWS($AC$33:AC33)&gt;$AA$21,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$21,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(AC$33:AC33)))))</f>
+        <v>SC1101E</v>
       </c>
       <c r="AD33" s="28" t="str">
         <f>IF(AC33="","",IF(COUNTIFS(MainTable[Module code],AC33,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
-        <v/>
+        <v>Yes</v>
       </c>
       <c r="AE33" s="29" t="str">
-        <f t="array" ref="AE33">IF($AE$27="","",IF(ROWS($AE$30:AE33)&gt;$AA$19,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$19,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(AE$30:AE33)))))</f>
-        <v/>
+        <f t="array" ref="AE33">IF($AE$30="","",IF(ROWS($AE$33:AE33)&gt;$AA$22,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$22,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(AE$33:AE33)))))</f>
+        <v>CS2101</v>
       </c>
       <c r="AF33" s="28" t="str">
         <f>IF(AE33="","",IF(COUNTIFS(MainTable[Module code],AE33,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
-        <v/>
+        <v>Yes</v>
       </c>
     </row>
     <row r="34" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B34" s="90" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="91" t="s">
-        <v>93</v>
-      </c>
+      <c r="B34" s="90"/>
+      <c r="C34" s="91"/>
       <c r="D34" s="92"/>
       <c r="E34" s="92"/>
       <c r="F34" s="92"/>
-      <c r="G34" s="92">
-        <v>4</v>
-      </c>
+      <c r="G34" s="92"/>
       <c r="H34" s="92"/>
       <c r="I34" s="92"/>
-      <c r="J34" s="98">
-        <v>5</v>
-      </c>
+      <c r="J34" s="98"/>
       <c r="K34" s="85"/>
       <c r="L34" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5093,59 +4761,59 @@
       </c>
       <c r="M34" s="82"/>
       <c r="N34" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(M34="N",SUM(D34:I34),IF(M34="Y",IF(L34&lt;2,0,SUM(D34:I34)),""))</f>
         <v/>
       </c>
       <c r="O34" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(M34="Y",0,N34)</f>
         <v/>
       </c>
       <c r="P34" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(L34="",O34=""),"",O34*L34)</f>
         <v/>
       </c>
       <c r="S34" s="27" t="str">
-        <f t="array" ref="S34">IF($S$27="","",IF(ROWS(S$30:S34)&gt;$AA$13,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$13,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(S$30:S34)))))</f>
-        <v>CS3242</v>
+        <f t="array" ref="S34">IF($S$30="","",IF(ROWS(S$33:S34)&gt;$AA$16,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$16,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(S$33:S34)))))</f>
+        <v>CS1231</v>
       </c>
       <c r="T34" s="28" t="str">
         <f>IF(S34="","",IF(COUNTIFS(MainTable[Module code],S34,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="U34" s="29" t="str">
-        <f t="array" ref="U34">IF($U$27="","",IF(ROWS(U$30:U34)&gt;$AA$14,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$14,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(U$30:U34)))))</f>
-        <v>CS2105</v>
+        <f t="array" ref="U34">IF($U$30="","",IF(ROWS(U$33:U34)&gt;$AA$17,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$17,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(U$33:U34)))))</f>
+        <v>PC1432</v>
       </c>
       <c r="V34" s="34" t="str">
         <f>IF(U34="","",IF(COUNTIFS(MainTable[Module code],U34,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="W34" s="27" t="str">
-        <f t="array" ref="W34">IF($W$27="","",IF(ROWS(W$30:W34)&gt;$AA$15,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$15,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(W$30:W34)))))</f>
-        <v>CS3244</v>
+        <f t="array" ref="W34">IF($W$30="","",IF(ROWS(W$33:W34)&gt;$AA$18,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$18,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(W$33:W34)))))</f>
+        <v>CS3343</v>
       </c>
       <c r="X34" s="36" t="str">
         <f>IF(W34="","",IF(COUNTIFS(MainTable[Module code],W34,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
         <v>No</v>
       </c>
       <c r="Y34" s="27" t="str">
-        <f t="array" ref="Y34">IF($Y$27="","",IF(ROWS(Y$30:Y34)&gt;$AA$16,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$16,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(Y$30:Y34)))))</f>
-        <v>PC1431</v>
+        <f t="array" ref="Y34">IF($Y$30="","",IF(ROWS(Y$33:Y34)&gt;$AA$19,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$19,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(Y$33:Y34)))))</f>
+        <v>GEK1055</v>
       </c>
       <c r="Z34" s="28" t="str">
         <f>IF(Y34="","",IF(COUNTIFS(MainTable[Module code],Y34,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
         <v>No</v>
       </c>
       <c r="AA34" s="29" t="str">
-        <f t="array" ref="AA34">IF($AA$27="","",IF(ROWS($AA$30:AA34)&gt;$AA$17,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$17,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(AA$30:AA34)))))</f>
-        <v/>
+        <f t="array" ref="AA34">IF($AA$30="","",IF(ROWS($AA$33:AA34)&gt;$AA$20,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$20,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(AA$33:AA34)))))</f>
+        <v>LSM1302</v>
       </c>
       <c r="AB34" s="36" t="str">
         <f>IF(AA34="","",IF(COUNTIFS(MainTable[Module code],AA34,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
-        <v/>
+        <v>No</v>
       </c>
       <c r="AC34" s="27" t="str">
-        <f t="array" ref="AC34">IF($AC$27="","",IF(ROWS($AC$30:AC34)&gt;$AA$18,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$18,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(AC$30:AC34)))))</f>
+        <f t="array" ref="AC34">IF($AC$30="","",IF(ROWS($AC$33:AC34)&gt;$AA$21,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$21,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(AC$33:AC34)))))</f>
         <v/>
       </c>
       <c r="AD34" s="28" t="str">
@@ -5153,7 +4821,7 @@
         <v/>
       </c>
       <c r="AE34" s="29" t="str">
-        <f t="array" ref="AE34">IF($AE$27="","",IF(ROWS($AE$30:AE34)&gt;$AA$19,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$19,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(AE$30:AE34)))))</f>
+        <f t="array" ref="AE34">IF($AE$30="","",IF(ROWS($AE$33:AE34)&gt;$AA$22,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$22,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(AE$33:AE34)))))</f>
         <v/>
       </c>
       <c r="AF34" s="28" t="str">
@@ -5162,23 +4830,15 @@
       </c>
     </row>
     <row r="35" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B35" s="90" t="s">
-        <v>86</v>
-      </c>
-      <c r="C35" s="91" t="s">
-        <v>94</v>
-      </c>
+      <c r="B35" s="90"/>
+      <c r="C35" s="91"/>
       <c r="D35" s="92"/>
       <c r="E35" s="92"/>
-      <c r="F35" s="92">
-        <v>4</v>
-      </c>
+      <c r="F35" s="92"/>
       <c r="G35" s="92"/>
       <c r="H35" s="92"/>
       <c r="I35" s="92"/>
-      <c r="J35" s="98">
-        <v>6</v>
-      </c>
+      <c r="J35" s="98"/>
       <c r="K35" s="85"/>
       <c r="L35" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5186,43 +4846,43 @@
       </c>
       <c r="M35" s="82"/>
       <c r="N35" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(M35="N",SUM(D35:I35),IF(M35="Y",IF(L35&lt;2,0,SUM(D35:I35)),""))</f>
         <v/>
       </c>
       <c r="O35" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(M35="Y",0,N35)</f>
         <v/>
       </c>
       <c r="P35" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(L35="",O35=""),"",O35*L35)</f>
         <v/>
       </c>
       <c r="S35" s="27" t="str">
-        <f t="array" ref="S35">IF($S$27="","",IF(ROWS(S$30:S35)&gt;$AA$13,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$13,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(S$30:S35)))))</f>
-        <v>CS3247</v>
+        <f t="array" ref="S35">IF($S$30="","",IF(ROWS(S$33:S35)&gt;$AA$16,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$16,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(S$33:S35)))))</f>
+        <v>CS2100</v>
       </c>
       <c r="T35" s="28" t="str">
         <f>IF(S35="","",IF(COUNTIFS(MainTable[Module code],S35,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="U35" s="29" t="str">
-        <f t="array" ref="U35">IF($U$27="","",IF(ROWS(U$30:U35)&gt;$AA$14,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$14,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(U$30:U35)))))</f>
-        <v>CS2106</v>
+        <f t="array" ref="U35">IF($U$30="","",IF(ROWS(U$33:U35)&gt;$AA$17,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$17,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(U$33:U35)))))</f>
+        <v>MA1101R</v>
       </c>
       <c r="V35" s="34" t="str">
         <f>IF(U35="","",IF(COUNTIFS(MainTable[Module code],U35,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="W35" s="27" t="str">
-        <f t="array" ref="W35">IF($W$27="","",IF(ROWS(W$30:W35)&gt;$AA$15,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$15,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(W$30:W35)))))</f>
-        <v>CS3246</v>
+        <f t="array" ref="W35">IF($W$30="","",IF(ROWS(W$33:W35)&gt;$AA$18,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$18,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(W$33:W35)))))</f>
+        <v/>
       </c>
       <c r="X35" s="36" t="str">
         <f>IF(W35="","",IF(COUNTIFS(MainTable[Module code],W35,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
-        <v>No</v>
+        <v/>
       </c>
       <c r="Y35" s="27" t="str">
-        <f t="array" ref="Y35">IF($Y$27="","",IF(ROWS(Y$30:Y35)&gt;$AA$16,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$16,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(Y$30:Y35)))))</f>
+        <f t="array" ref="Y35">IF($Y$30="","",IF(ROWS(Y$33:Y35)&gt;$AA$19,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$19,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(Y$33:Y35)))))</f>
         <v/>
       </c>
       <c r="Z35" s="28" t="str">
@@ -5230,7 +4890,7 @@
         <v/>
       </c>
       <c r="AA35" s="29" t="str">
-        <f t="array" ref="AA35">IF($AA$27="","",IF(ROWS($AA$30:AA35)&gt;$AA$17,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$17,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(AA$30:AA35)))))</f>
+        <f t="array" ref="AA35">IF($AA$30="","",IF(ROWS($AA$33:AA35)&gt;$AA$20,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$20,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(AA$33:AA35)))))</f>
         <v/>
       </c>
       <c r="AB35" s="36" t="str">
@@ -5238,7 +4898,7 @@
         <v/>
       </c>
       <c r="AC35" s="27" t="str">
-        <f t="array" ref="AC35">IF($AC$27="","",IF(ROWS($AC$30:AC35)&gt;$AA$18,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$18,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(AC$30:AC35)))))</f>
+        <f t="array" ref="AC35">IF($AC$30="","",IF(ROWS($AC$33:AC35)&gt;$AA$21,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$21,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(AC$33:AC35)))))</f>
         <v/>
       </c>
       <c r="AD35" s="28" t="str">
@@ -5246,7 +4906,7 @@
         <v/>
       </c>
       <c r="AE35" s="29" t="str">
-        <f t="array" ref="AE35">IF($AE$27="","",IF(ROWS($AE$30:AE35)&gt;$AA$19,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$19,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(AE$30:AE35)))))</f>
+        <f t="array" ref="AE35">IF($AE$30="","",IF(ROWS($AE$33:AE35)&gt;$AA$22,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$22,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(AE$33:AE35)))))</f>
         <v/>
       </c>
       <c r="AF35" s="28" t="str">
@@ -5255,23 +4915,15 @@
       </c>
     </row>
     <row r="36" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B36" s="90" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" s="91" t="s">
-        <v>93</v>
-      </c>
+      <c r="B36" s="90"/>
+      <c r="C36" s="91"/>
       <c r="D36" s="92"/>
       <c r="E36" s="92"/>
-      <c r="F36" s="92">
-        <v>4</v>
-      </c>
+      <c r="F36" s="92"/>
       <c r="G36" s="92"/>
       <c r="H36" s="92"/>
       <c r="I36" s="92"/>
-      <c r="J36" s="98">
-        <v>6</v>
-      </c>
+      <c r="J36" s="98"/>
       <c r="K36" s="85"/>
       <c r="L36" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5279,43 +4931,43 @@
       </c>
       <c r="M36" s="82"/>
       <c r="N36" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(M36="N",SUM(D36:I36),IF(M36="Y",IF(L36&lt;2,0,SUM(D36:I36)),""))</f>
         <v/>
       </c>
       <c r="O36" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(M36="Y",0,N36)</f>
         <v/>
       </c>
       <c r="P36" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(L36="",O36=""),"",O36*L36)</f>
         <v/>
       </c>
       <c r="S36" s="27" t="str">
-        <f t="array" ref="S36">IF($S$27="","",IF(ROWS(S$30:S36)&gt;$AA$13,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$13,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(S$30:S36)))))</f>
-        <v>CS4247</v>
+        <f t="array" ref="S36">IF($S$30="","",IF(ROWS(S$33:S36)&gt;$AA$16,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$16,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(S$33:S36)))))</f>
+        <v>CS2103T</v>
       </c>
       <c r="T36" s="28" t="str">
         <f>IF(S36="","",IF(COUNTIFS(MainTable[Module code],S36,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
         <v>No</v>
       </c>
       <c r="U36" s="29" t="str">
-        <f t="array" ref="U36">IF($U$27="","",IF(ROWS(U$30:U36)&gt;$AA$14,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$14,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(U$30:U36)))))</f>
-        <v>CS3230</v>
+        <f t="array" ref="U36">IF($U$30="","",IF(ROWS(U$33:U36)&gt;$AA$17,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$17,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(U$33:U36)))))</f>
+        <v>ST2334</v>
       </c>
       <c r="V36" s="34" t="str">
         <f>IF(U36="","",IF(COUNTIFS(MainTable[Module code],U36,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="W36" s="27" t="str">
-        <f t="array" ref="W36">IF($W$27="","",IF(ROWS(W$30:W36)&gt;$AA$15,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$15,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(W$30:W36)))))</f>
-        <v>CS5343</v>
+        <f t="array" ref="W36">IF($W$30="","",IF(ROWS(W$33:W36)&gt;$AA$18,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$18,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(W$33:W36)))))</f>
+        <v/>
       </c>
       <c r="X36" s="36" t="str">
         <f>IF(W36="","",IF(COUNTIFS(MainTable[Module code],W36,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
-        <v>No</v>
+        <v/>
       </c>
       <c r="Y36" s="27" t="str">
-        <f t="array" ref="Y36">IF($Y$27="","",IF(ROWS(Y$30:Y36)&gt;$AA$16,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$16,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(Y$30:Y36)))))</f>
+        <f t="array" ref="Y36">IF($Y$30="","",IF(ROWS(Y$33:Y36)&gt;$AA$19,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$19,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(Y$33:Y36)))))</f>
         <v/>
       </c>
       <c r="Z36" s="28" t="str">
@@ -5323,7 +4975,7 @@
         <v/>
       </c>
       <c r="AA36" s="29" t="str">
-        <f t="array" ref="AA36">IF($AA$27="","",IF(ROWS($AA$30:AA36)&gt;$AA$17,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$17,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(AA$30:AA36)))))</f>
+        <f t="array" ref="AA36">IF($AA$30="","",IF(ROWS($AA$33:AA36)&gt;$AA$20,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$20,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(AA$33:AA36)))))</f>
         <v/>
       </c>
       <c r="AB36" s="36" t="str">
@@ -5331,7 +4983,7 @@
         <v/>
       </c>
       <c r="AC36" s="27" t="str">
-        <f t="array" ref="AC36">IF($AC$27="","",IF(ROWS($AC$30:AC36)&gt;$AA$18,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$18,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(AC$30:AC36)))))</f>
+        <f t="array" ref="AC36">IF($AC$30="","",IF(ROWS($AC$33:AC36)&gt;$AA$21,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$21,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(AC$33:AC36)))))</f>
         <v/>
       </c>
       <c r="AD36" s="28" t="str">
@@ -5339,7 +4991,7 @@
         <v/>
       </c>
       <c r="AE36" s="29" t="str">
-        <f t="array" ref="AE36">IF($AE$27="","",IF(ROWS($AE$30:AE36)&gt;$AA$19,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$19,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(AE$30:AE36)))))</f>
+        <f t="array" ref="AE36">IF($AE$30="","",IF(ROWS($AE$33:AE36)&gt;$AA$22,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$22,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(AE$33:AE36)))))</f>
         <v/>
       </c>
       <c r="AF36" s="28" t="str">
@@ -5348,67 +5000,59 @@
       </c>
     </row>
     <row r="37" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B37" s="90" t="s">
-        <v>70</v>
-      </c>
-      <c r="C37" s="91" t="s">
-        <v>93</v>
-      </c>
+      <c r="B37" s="90"/>
+      <c r="C37" s="91"/>
       <c r="D37" s="92"/>
       <c r="E37" s="92"/>
-      <c r="F37" s="92">
-        <v>4</v>
-      </c>
+      <c r="F37" s="92"/>
       <c r="G37" s="92"/>
       <c r="H37" s="92"/>
       <c r="I37" s="92"/>
-      <c r="J37" s="98">
-        <v>6</v>
-      </c>
+      <c r="J37" s="98"/>
       <c r="K37" s="85"/>
       <c r="L37" s="2" t="str">
-        <f t="shared" ref="L37:L64" si="5">IF(K37="A+",5,IF(K37="A",5,IF(K37="A-",4.5,IF(K37="B+",4,IF(K37="B",3.5,IF(K37="B-",3,IF(K37="C+",2.5,IF(K37="C",2,IF(K37="D+",1.5,IF(K37="D",1,IF(K37="F",0,"")))))))))))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="M37" s="82"/>
       <c r="N37" s="3" t="str">
-        <f t="shared" ref="N37:N64" si="6">IF(M37="N",SUM(D37:I37),IF(M37="Y",IF(L37&lt;2,0,SUM(D37:I37)),""))</f>
+        <f>IF(M37="N",SUM(D37:I37),IF(M37="Y",IF(L37&lt;2,0,SUM(D37:I37)),""))</f>
         <v/>
       </c>
       <c r="O37" s="3" t="str">
-        <f t="shared" ref="O37:O64" si="7">IF(M37="Y",0,N37)</f>
+        <f>IF(M37="Y",0,N37)</f>
         <v/>
       </c>
       <c r="P37" s="13" t="str">
-        <f t="shared" ref="P37:P64" si="8">IF(OR(L37="",O37=""),"",O37*L37)</f>
+        <f>IF(OR(L37="",O37=""),"",O37*L37)</f>
         <v/>
       </c>
       <c r="S37" s="27" t="str">
-        <f t="array" ref="S37">IF($S$27="","",IF(ROWS(S$30:S37)&gt;$AA$13,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$13,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(S$30:S37)))))</f>
-        <v>CS4340</v>
+        <f t="array" ref="S37">IF($S$30="","",IF(ROWS(S$33:S37)&gt;$AA$16,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$16,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(S$33:S37)))))</f>
+        <v>CS2105</v>
       </c>
       <c r="T37" s="28" t="str">
         <f>IF(S37="","",IF(COUNTIFS(MainTable[Module code],S37,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
         <v>No</v>
       </c>
       <c r="U37" s="29" t="str">
-        <f t="array" ref="U37">IF($U$27="","",IF(ROWS(U$30:U37)&gt;$AA$14,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$14,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(U$30:U37)))))</f>
-        <v>IS2104</v>
+        <f t="array" ref="U37">IF($U$30="","",IF(ROWS(U$33:U37)&gt;$AA$17,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$17,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(U$33:U37)))))</f>
+        <v>PC1431</v>
       </c>
       <c r="V37" s="34" t="str">
         <f>IF(U37="","",IF(COUNTIFS(MainTable[Module code],U37,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
         <v>Yes</v>
       </c>
       <c r="W37" s="27" t="str">
-        <f t="array" ref="W37">IF($W$27="","",IF(ROWS(W$30:W37)&gt;$AA$15,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$15,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(W$30:W37)))))</f>
-        <v/>
-      </c>
-      <c r="X37" s="28" t="str">
+        <f t="array" ref="W37">IF($W$30="","",IF(ROWS(W$33:W37)&gt;$AA$18,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$18,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(W$33:W37)))))</f>
+        <v/>
+      </c>
+      <c r="X37" s="36" t="str">
         <f>IF(W37="","",IF(COUNTIFS(MainTable[Module code],W37,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="Y37" s="27" t="str">
-        <f t="array" ref="Y37">IF($Y$27="","",IF(ROWS(Y$30:Y37)&gt;$AA$16,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$16,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(Y$30:Y37)))))</f>
+        <f t="array" ref="Y37">IF($Y$30="","",IF(ROWS(Y$33:Y37)&gt;$AA$19,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$19,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(Y$33:Y37)))))</f>
         <v/>
       </c>
       <c r="Z37" s="28" t="str">
@@ -5416,7 +5060,7 @@
         <v/>
       </c>
       <c r="AA37" s="29" t="str">
-        <f t="array" ref="AA37">IF($AA$27="","",IF(ROWS($AA$30:AA37)&gt;$AA$17,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$17,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(AA$30:AA37)))))</f>
+        <f t="array" ref="AA37">IF($AA$30="","",IF(ROWS($AA$33:AA37)&gt;$AA$20,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$20,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(AA$33:AA37)))))</f>
         <v/>
       </c>
       <c r="AB37" s="36" t="str">
@@ -5424,7 +5068,7 @@
         <v/>
       </c>
       <c r="AC37" s="27" t="str">
-        <f t="array" ref="AC37">IF($AC$27="","",IF(ROWS($AC$30:AC37)&gt;$AA$18,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$18,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(AC$30:AC37)))))</f>
+        <f t="array" ref="AC37">IF($AC$30="","",IF(ROWS($AC$33:AC37)&gt;$AA$21,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$21,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(AC$33:AC37)))))</f>
         <v/>
       </c>
       <c r="AD37" s="28" t="str">
@@ -5432,7 +5076,7 @@
         <v/>
       </c>
       <c r="AE37" s="29" t="str">
-        <f t="array" ref="AE37">IF($AE$27="","",IF(ROWS($AE$30:AE37)&gt;$AA$19,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$19,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(AE$30:AE37)))))</f>
+        <f t="array" ref="AE37">IF($AE$30="","",IF(ROWS($AE$33:AE37)&gt;$AA$22,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$22,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(AE$33:AE37)))))</f>
         <v/>
       </c>
       <c r="AF37" s="28" t="str">
@@ -5441,51 +5085,43 @@
       </c>
     </row>
     <row r="38" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B38" s="90" t="s">
-        <v>27</v>
-      </c>
-      <c r="C38" s="91" t="s">
-        <v>93</v>
-      </c>
+      <c r="B38" s="90"/>
+      <c r="C38" s="91"/>
       <c r="D38" s="92"/>
       <c r="E38" s="92"/>
       <c r="F38" s="92"/>
-      <c r="G38" s="92">
-        <v>4</v>
-      </c>
+      <c r="G38" s="92"/>
       <c r="H38" s="92"/>
       <c r="I38" s="92"/>
-      <c r="J38" s="98">
-        <v>6</v>
-      </c>
+      <c r="J38" s="98"/>
       <c r="K38" s="85"/>
       <c r="L38" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="M38" s="82"/>
       <c r="N38" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(M38="N",SUM(D38:I38),IF(M38="Y",IF(L38&lt;2,0,SUM(D38:I38)),""))</f>
         <v/>
       </c>
       <c r="O38" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(M38="Y",0,N38)</f>
         <v/>
       </c>
       <c r="P38" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(OR(L38="",O38=""),"",O38*L38)</f>
         <v/>
       </c>
       <c r="S38" s="27" t="str">
-        <f t="array" ref="S38">IF($S$27="","",IF(ROWS(S$30:S38)&gt;$AA$13,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$13,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(S$30:S38)))))</f>
-        <v/>
+        <f t="array" ref="S38">IF($S$30="","",IF(ROWS(S$33:S38)&gt;$AA$16,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$16,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(S$33:S38)))))</f>
+        <v>CS2106</v>
       </c>
       <c r="T38" s="28" t="str">
         <f>IF(S38="","",IF(COUNTIFS(MainTable[Module code],S38,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
-        <v/>
+        <v>No</v>
       </c>
       <c r="U38" s="29" t="str">
-        <f t="array" ref="U38">IF($U$27="","",IF(ROWS(U$30:U38)&gt;$AA$14,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$14,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(U$30:U38)))))</f>
+        <f t="array" ref="U38">IF($U$30="","",IF(ROWS(U$33:U38)&gt;$AA$17,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$17,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(U$33:U38)))))</f>
         <v/>
       </c>
       <c r="V38" s="34" t="str">
@@ -5493,7 +5129,7 @@
         <v/>
       </c>
       <c r="W38" s="27" t="str">
-        <f t="array" ref="W38">IF($W$27="","",IF(ROWS(W$30:W38)&gt;$AA$15,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$15,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(W$30:W38)))))</f>
+        <f t="array" ref="W38">IF($W$30="","",IF(ROWS(W$33:W38)&gt;$AA$18,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$18,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(W$33:W38)))))</f>
         <v/>
       </c>
       <c r="X38" s="36" t="str">
@@ -5501,7 +5137,7 @@
         <v/>
       </c>
       <c r="Y38" s="27" t="str">
-        <f t="array" ref="Y38">IF($Y$27="","",IF(ROWS(Y$30:Y38)&gt;$AA$16,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$16,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(Y$30:Y38)))))</f>
+        <f t="array" ref="Y38">IF($Y$30="","",IF(ROWS(Y$33:Y38)&gt;$AA$19,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$19,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(Y$33:Y38)))))</f>
         <v/>
       </c>
       <c r="Z38" s="28" t="str">
@@ -5509,7 +5145,7 @@
         <v/>
       </c>
       <c r="AA38" s="29" t="str">
-        <f t="array" ref="AA38">IF($AA$27="","",IF(ROWS($AA$30:AA38)&gt;$AA$17,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$17,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(AA$30:AA38)))))</f>
+        <f t="array" ref="AA38">IF($AA$30="","",IF(ROWS($AA$33:AA38)&gt;$AA$20,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$20,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(AA$33:AA38)))))</f>
         <v/>
       </c>
       <c r="AB38" s="36" t="str">
@@ -5517,7 +5153,7 @@
         <v/>
       </c>
       <c r="AC38" s="27" t="str">
-        <f t="array" ref="AC38">IF($AC$27="","",IF(ROWS($AC$30:AC38)&gt;$AA$18,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$18,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(AC$30:AC38)))))</f>
+        <f t="array" ref="AC38">IF($AC$30="","",IF(ROWS($AC$33:AC38)&gt;$AA$21,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$21,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(AC$33:AC38)))))</f>
         <v/>
       </c>
       <c r="AD38" s="28" t="str">
@@ -5525,7 +5161,7 @@
         <v/>
       </c>
       <c r="AE38" s="29" t="str">
-        <f t="array" ref="AE38">IF($AE$27="","",IF(ROWS($AE$30:AE38)&gt;$AA$19,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$19,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(AE$30:AE38)))))</f>
+        <f t="array" ref="AE38">IF($AE$30="","",IF(ROWS($AE$33:AE38)&gt;$AA$22,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$22,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(AE$33:AE38)))))</f>
         <v/>
       </c>
       <c r="AF38" s="28" t="str">
@@ -5534,51 +5170,43 @@
       </c>
     </row>
     <row r="39" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B39" s="90" t="s">
-        <v>30</v>
-      </c>
-      <c r="C39" s="91" t="s">
-        <v>93</v>
-      </c>
+      <c r="B39" s="90"/>
+      <c r="C39" s="91"/>
       <c r="D39" s="92"/>
       <c r="E39" s="92"/>
       <c r="F39" s="92"/>
-      <c r="G39" s="92">
-        <v>4</v>
-      </c>
+      <c r="G39" s="92"/>
       <c r="H39" s="92"/>
       <c r="I39" s="92"/>
-      <c r="J39" s="98">
-        <v>6</v>
-      </c>
+      <c r="J39" s="98"/>
       <c r="K39" s="85"/>
       <c r="L39" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="M39" s="82"/>
       <c r="N39" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(M39="N",SUM(D39:I39),IF(M39="Y",IF(L39&lt;2,0,SUM(D39:I39)),""))</f>
         <v/>
       </c>
       <c r="O39" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(M39="Y",0,N39)</f>
         <v/>
       </c>
       <c r="P39" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(OR(L39="",O39=""),"",O39*L39)</f>
         <v/>
       </c>
       <c r="S39" s="27" t="str">
-        <f t="array" ref="S39">IF($S$27="","",IF(ROWS(S$30:S39)&gt;$AA$13,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$13,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(S$30:S39)))))</f>
-        <v/>
+        <f t="array" ref="S39">IF($S$30="","",IF(ROWS(S$33:S39)&gt;$AA$16,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$16,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(S$33:S39)))))</f>
+        <v>CS3230</v>
       </c>
       <c r="T39" s="28" t="str">
         <f>IF(S39="","",IF(COUNTIFS(MainTable[Module code],S39,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
-        <v/>
+        <v>No</v>
       </c>
       <c r="U39" s="29" t="str">
-        <f t="array" ref="U39">IF($U$27="","",IF(ROWS(U$30:U39)&gt;$AA$14,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$14,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(U$30:U39)))))</f>
+        <f t="array" ref="U39">IF($U$30="","",IF(ROWS(U$33:U39)&gt;$AA$17,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$17,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(U$33:U39)))))</f>
         <v/>
       </c>
       <c r="V39" s="34" t="str">
@@ -5586,7 +5214,7 @@
         <v/>
       </c>
       <c r="W39" s="27" t="str">
-        <f t="array" ref="W39">IF($W$27="","",IF(ROWS(W$30:W39)&gt;$AA$15,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$15,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(W$30:W39)))))</f>
+        <f t="array" ref="W39">IF($W$30="","",IF(ROWS(W$33:W39)&gt;$AA$18,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$18,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(W$33:W39)))))</f>
         <v/>
       </c>
       <c r="X39" s="36" t="str">
@@ -5594,7 +5222,7 @@
         <v/>
       </c>
       <c r="Y39" s="27" t="str">
-        <f t="array" ref="Y39">IF($Y$27="","",IF(ROWS(Y$30:Y39)&gt;$AA$16,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$16,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(Y$30:Y39)))))</f>
+        <f t="array" ref="Y39">IF($Y$30="","",IF(ROWS(Y$33:Y39)&gt;$AA$19,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$19,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(Y$33:Y39)))))</f>
         <v/>
       </c>
       <c r="Z39" s="28" t="str">
@@ -5602,7 +5230,7 @@
         <v/>
       </c>
       <c r="AA39" s="29" t="str">
-        <f t="array" ref="AA39">IF($AA$27="","",IF(ROWS($AA$30:AA39)&gt;$AA$17,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$17,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(AA$30:AA39)))))</f>
+        <f t="array" ref="AA39">IF($AA$30="","",IF(ROWS($AA$33:AA39)&gt;$AA$20,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$20,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(AA$33:AA39)))))</f>
         <v/>
       </c>
       <c r="AB39" s="36" t="str">
@@ -5610,7 +5238,7 @@
         <v/>
       </c>
       <c r="AC39" s="27" t="str">
-        <f t="array" ref="AC39">IF($AC$27="","",IF(ROWS($AC$30:AC39)&gt;$AA$18,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$18,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(AC$30:AC39)))))</f>
+        <f t="array" ref="AC39">IF($AC$30="","",IF(ROWS($AC$33:AC39)&gt;$AA$21,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$21,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(AC$33:AC39)))))</f>
         <v/>
       </c>
       <c r="AD39" s="28" t="str">
@@ -5618,7 +5246,7 @@
         <v/>
       </c>
       <c r="AE39" s="29" t="str">
-        <f t="array" ref="AE39">IF($AE$27="","",IF(ROWS($AE$30:AE39)&gt;$AA$19,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$19,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(AE$30:AE39)))))</f>
+        <f t="array" ref="AE39">IF($AE$30="","",IF(ROWS($AE$33:AE39)&gt;$AA$22,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$22,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(AE$33:AE39)))))</f>
         <v/>
       </c>
       <c r="AF39" s="28" t="str">
@@ -5626,44 +5254,36 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="90" t="s">
-        <v>80</v>
-      </c>
-      <c r="C40" s="91" t="s">
-        <v>95</v>
-      </c>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B40" s="90"/>
+      <c r="C40" s="91"/>
       <c r="D40" s="92"/>
       <c r="E40" s="92"/>
       <c r="F40" s="92"/>
-      <c r="G40" s="92">
-        <v>12</v>
-      </c>
+      <c r="G40" s="92"/>
       <c r="H40" s="92"/>
       <c r="I40" s="92"/>
-      <c r="J40" s="98">
-        <v>6</v>
-      </c>
+      <c r="J40" s="98"/>
       <c r="K40" s="85"/>
       <c r="L40" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="L40:L71" si="2">IF(K40="A+",5,IF(K40="A",5,IF(K40="A-",4.5,IF(K40="B+",4,IF(K40="B",3.5,IF(K40="B-",3,IF(K40="C+",2.5,IF(K40="C",2,IF(K40="D+",1.5,IF(K40="D",1,IF(K40="F",0,IF(K40="P",0,""))))))))))))</f>
         <v/>
       </c>
       <c r="M40" s="82"/>
       <c r="N40" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(M40="N",SUM(D40:I40),IF(M40="Y",IF(L40&lt;2,0,SUM(D40:I40)),""))</f>
         <v/>
       </c>
       <c r="O40" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(M40="Y",0,N40)</f>
         <v/>
       </c>
       <c r="P40" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(OR(L40="",O40=""),"",O40*L40)</f>
         <v/>
       </c>
       <c r="S40" s="27" t="str">
-        <f t="array" ref="S40">IF($S$27="","",IF(ROWS(S$30:S40)&gt;$AA$13,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$13,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(S$30:S40)))))</f>
+        <f t="array" ref="S40">IF($S$30="","",IF(ROWS(S$33:S40)&gt;$AA$16,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$16,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(S$33:S40)))))</f>
         <v/>
       </c>
       <c r="T40" s="28" t="str">
@@ -5671,7 +5291,7 @@
         <v/>
       </c>
       <c r="U40" s="29" t="str">
-        <f t="array" ref="U40">IF($U$27="","",IF(ROWS(U$30:U40)&gt;$AA$14,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$14,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(U$30:U40)))))</f>
+        <f t="array" ref="U40">IF($U$30="","",IF(ROWS(U$33:U40)&gt;$AA$17,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$17,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(U$33:U40)))))</f>
         <v/>
       </c>
       <c r="V40" s="34" t="str">
@@ -5679,15 +5299,15 @@
         <v/>
       </c>
       <c r="W40" s="27" t="str">
-        <f t="array" ref="W40">IF($W$27="","",IF(ROWS(W$30:W40)&gt;$AA$15,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$15,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(W$30:W40)))))</f>
-        <v/>
-      </c>
-      <c r="X40" s="36" t="str">
+        <f t="array" ref="W40">IF($W$30="","",IF(ROWS(W$33:W40)&gt;$AA$18,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$18,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(W$33:W40)))))</f>
+        <v/>
+      </c>
+      <c r="X40" s="28" t="str">
         <f>IF(W40="","",IF(COUNTIFS(MainTable[Module code],W40,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="Y40" s="27" t="str">
-        <f t="array" ref="Y40">IF($Y$27="","",IF(ROWS(Y$30:Y40)&gt;$AA$16,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$16,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(Y$30:Y40)))))</f>
+        <f t="array" ref="Y40">IF($Y$30="","",IF(ROWS(Y$33:Y40)&gt;$AA$19,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$19,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(Y$33:Y40)))))</f>
         <v/>
       </c>
       <c r="Z40" s="28" t="str">
@@ -5695,7 +5315,7 @@
         <v/>
       </c>
       <c r="AA40" s="29" t="str">
-        <f t="array" ref="AA40">IF($AA$27="","",IF(ROWS($AA$30:AA40)&gt;$AA$17,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$17,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(AA$30:AA40)))))</f>
+        <f t="array" ref="AA40">IF($AA$30="","",IF(ROWS($AA$33:AA40)&gt;$AA$20,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$20,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(AA$33:AA40)))))</f>
         <v/>
       </c>
       <c r="AB40" s="36" t="str">
@@ -5703,7 +5323,7 @@
         <v/>
       </c>
       <c r="AC40" s="27" t="str">
-        <f t="array" ref="AC40">IF($AC$27="","",IF(ROWS($AC$30:AC40)&gt;$AA$18,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$18,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(AC$30:AC40)))))</f>
+        <f t="array" ref="AC40">IF($AC$30="","",IF(ROWS($AC$33:AC40)&gt;$AA$21,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$21,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(AC$33:AC40)))))</f>
         <v/>
       </c>
       <c r="AD40" s="28" t="str">
@@ -5711,7 +5331,7 @@
         <v/>
       </c>
       <c r="AE40" s="29" t="str">
-        <f t="array" ref="AE40">IF($AE$27="","",IF(ROWS($AE$30:AE40)&gt;$AA$19,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$19,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(AE$30:AE40)))))</f>
+        <f t="array" ref="AE40">IF($AE$30="","",IF(ROWS($AE$33:AE40)&gt;$AA$22,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$22,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(AE$33:AE40)))))</f>
         <v/>
       </c>
       <c r="AF40" s="28" t="str">
@@ -5720,43 +5340,35 @@
       </c>
     </row>
     <row r="41" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B41" s="90" t="s">
-        <v>76</v>
-      </c>
-      <c r="C41" s="91" t="s">
-        <v>62</v>
-      </c>
+      <c r="B41" s="90"/>
+      <c r="C41" s="91"/>
       <c r="D41" s="92"/>
       <c r="E41" s="92"/>
       <c r="F41" s="92"/>
       <c r="G41" s="92"/>
-      <c r="H41" s="92">
-        <v>4</v>
-      </c>
+      <c r="H41" s="92"/>
       <c r="I41" s="92"/>
-      <c r="J41" s="98">
-        <v>7</v>
-      </c>
+      <c r="J41" s="98"/>
       <c r="K41" s="85"/>
       <c r="L41" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M41" s="82"/>
       <c r="N41" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(M41="N",SUM(D41:I41),IF(M41="Y",IF(L41&lt;2,0,SUM(D41:I41)),""))</f>
         <v/>
       </c>
       <c r="O41" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(M41="Y",0,N41)</f>
         <v/>
       </c>
       <c r="P41" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(OR(L41="",O41=""),"",O41*L41)</f>
         <v/>
       </c>
       <c r="S41" s="27" t="str">
-        <f t="array" ref="S41">IF($S$27="","",IF(ROWS(S$30:S41)&gt;$AA$13,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$13,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(S$30:S41)))))</f>
+        <f t="array" ref="S41">IF($S$30="","",IF(ROWS(S$33:S41)&gt;$AA$16,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$16,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(S$33:S41)))))</f>
         <v/>
       </c>
       <c r="T41" s="28" t="str">
@@ -5764,77 +5376,84 @@
         <v/>
       </c>
       <c r="U41" s="29" t="str">
-        <f t="array" ref="U41">IF($U$27="","",IF(ROWS(U$30:U41)&gt;$AA$14,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$14,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(U$30:U41)))))</f>
+        <f t="array" ref="U41">IF($U$30="","",IF(ROWS(U$33:U41)&gt;$AA$17,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$17,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(U$33:U41)))))</f>
         <v/>
       </c>
       <c r="V41" s="34" t="str">
         <f>IF(U41="","",IF(COUNTIFS(MainTable[Module code],U41,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
         <v/>
       </c>
-      <c r="W41" s="118" t="str">
-        <f>IF(Y20="","",Y20)</f>
-        <v>Media Tech</v>
-      </c>
-      <c r="X41" s="119"/>
-      <c r="Y41" s="118" t="str">
-        <f>IF(Y21="","",Y21)</f>
-        <v>Final Year Project</v>
-      </c>
-      <c r="Z41" s="119"/>
-      <c r="AA41" s="118" t="str">
-        <f>IF(Y22="","",Y22)</f>
-        <v>Singapore Studies</v>
-      </c>
-      <c r="AB41" s="119"/>
-      <c r="AC41" s="118" t="str">
-        <f>IF(Y23="","",Y23)</f>
-        <v/>
-      </c>
-      <c r="AD41" s="119"/>
-      <c r="AE41" s="118" t="str">
-        <f>IF(Y24="","",Y24)</f>
-        <v/>
-      </c>
-      <c r="AF41" s="119"/>
+      <c r="W41" s="27" t="str">
+        <f t="array" ref="W41">IF($W$30="","",IF(ROWS(W$33:W41)&gt;$AA$18,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$18,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(W$33:W41)))))</f>
+        <v/>
+      </c>
+      <c r="X41" s="36" t="str">
+        <f>IF(W41="","",IF(COUNTIFS(MainTable[Module code],W41,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <v/>
+      </c>
+      <c r="Y41" s="27" t="str">
+        <f t="array" ref="Y41">IF($Y$30="","",IF(ROWS(Y$33:Y41)&gt;$AA$19,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$19,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(Y$33:Y41)))))</f>
+        <v/>
+      </c>
+      <c r="Z41" s="28" t="str">
+        <f>IF(Y41="","",IF(COUNTIFS(MainTable[Module code],Y41,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <v/>
+      </c>
+      <c r="AA41" s="29" t="str">
+        <f t="array" ref="AA41">IF($AA$30="","",IF(ROWS($AA$33:AA41)&gt;$AA$20,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$20,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(AA$33:AA41)))))</f>
+        <v/>
+      </c>
+      <c r="AB41" s="36" t="str">
+        <f>IF(AA41="","",IF(COUNTIFS(MainTable[Module code],AA41,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <v/>
+      </c>
+      <c r="AC41" s="27" t="str">
+        <f t="array" ref="AC41">IF($AC$30="","",IF(ROWS($AC$33:AC41)&gt;$AA$21,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$21,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(AC$33:AC41)))))</f>
+        <v/>
+      </c>
+      <c r="AD41" s="28" t="str">
+        <f>IF(AC41="","",IF(COUNTIFS(MainTable[Module code],AC41,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <v/>
+      </c>
+      <c r="AE41" s="29" t="str">
+        <f t="array" ref="AE41">IF($AE$30="","",IF(ROWS($AE$33:AE41)&gt;$AA$22,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$22,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(AE$33:AE41)))))</f>
+        <v/>
+      </c>
+      <c r="AF41" s="28" t="str">
+        <f>IF(AE41="","",IF(COUNTIFS(MainTable[Module code],AE41,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <v/>
+      </c>
     </row>
-    <row r="42" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="90" t="s">
-        <v>83</v>
-      </c>
-      <c r="C42" s="91" t="s">
-        <v>14</v>
-      </c>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B42" s="90"/>
+      <c r="C42" s="91"/>
       <c r="D42" s="92"/>
-      <c r="E42" s="92">
-        <v>4</v>
-      </c>
+      <c r="E42" s="92"/>
       <c r="F42" s="92"/>
       <c r="G42" s="92"/>
       <c r="H42" s="92"/>
       <c r="I42" s="92"/>
-      <c r="J42" s="98">
-        <v>7</v>
-      </c>
+      <c r="J42" s="98"/>
       <c r="K42" s="85"/>
       <c r="L42" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M42" s="82"/>
       <c r="N42" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(M42="N",SUM(D42:I42),IF(M42="Y",IF(L42&lt;2,0,SUM(D42:I42)),""))</f>
         <v/>
       </c>
       <c r="O42" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(M42="Y",0,N42)</f>
         <v/>
       </c>
       <c r="P42" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(OR(L42="",O42=""),"",O42*L42)</f>
         <v/>
       </c>
       <c r="S42" s="27" t="str">
-        <f t="array" ref="S42">IF($S$27="","",IF(ROWS(S$30:S42)&gt;$AA$13,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$13,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(S$30:S42)))))</f>
+        <f t="array" ref="S42">IF($S$30="","",IF(ROWS(S$33:S42)&gt;$AA$16,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$16,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(S$33:S42)))))</f>
         <v/>
       </c>
       <c r="T42" s="28" t="str">
@@ -5842,25 +5461,55 @@
         <v/>
       </c>
       <c r="U42" s="29" t="str">
-        <f t="array" ref="U42">IF($U$27="","",IF(ROWS(U$30:U42)&gt;$AA$14,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$14,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(U$30:U42)))))</f>
+        <f t="array" ref="U42">IF($U$30="","",IF(ROWS(U$33:U42)&gt;$AA$17,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$17,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(U$33:U42)))))</f>
         <v/>
       </c>
       <c r="V42" s="34" t="str">
         <f>IF(U42="","",IF(COUNTIFS(MainTable[Module code],U42,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
         <v/>
       </c>
-      <c r="W42" s="120"/>
-      <c r="X42" s="121"/>
-      <c r="Y42" s="120"/>
-      <c r="Z42" s="121"/>
-      <c r="AA42" s="120"/>
-      <c r="AB42" s="121"/>
-      <c r="AC42" s="120"/>
-      <c r="AD42" s="121"/>
-      <c r="AE42" s="120"/>
-      <c r="AF42" s="121"/>
+      <c r="W42" s="27" t="str">
+        <f t="array" ref="W42">IF($W$30="","",IF(ROWS(W$33:W42)&gt;$AA$18,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$18,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(W$33:W42)))))</f>
+        <v/>
+      </c>
+      <c r="X42" s="36" t="str">
+        <f>IF(W42="","",IF(COUNTIFS(MainTable[Module code],W42,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <v/>
+      </c>
+      <c r="Y42" s="27" t="str">
+        <f t="array" ref="Y42">IF($Y$30="","",IF(ROWS(Y$33:Y42)&gt;$AA$19,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$19,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(Y$33:Y42)))))</f>
+        <v/>
+      </c>
+      <c r="Z42" s="28" t="str">
+        <f>IF(Y42="","",IF(COUNTIFS(MainTable[Module code],Y42,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <v/>
+      </c>
+      <c r="AA42" s="29" t="str">
+        <f t="array" ref="AA42">IF($AA$30="","",IF(ROWS($AA$33:AA42)&gt;$AA$20,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$20,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(AA$33:AA42)))))</f>
+        <v/>
+      </c>
+      <c r="AB42" s="36" t="str">
+        <f>IF(AA42="","",IF(COUNTIFS(MainTable[Module code],AA42,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <v/>
+      </c>
+      <c r="AC42" s="27" t="str">
+        <f t="array" ref="AC42">IF($AC$30="","",IF(ROWS($AC$33:AC42)&gt;$AA$21,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$21,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(AC$33:AC42)))))</f>
+        <v/>
+      </c>
+      <c r="AD42" s="28" t="str">
+        <f>IF(AC42="","",IF(COUNTIFS(MainTable[Module code],AC42,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <v/>
+      </c>
+      <c r="AE42" s="29" t="str">
+        <f t="array" ref="AE42">IF($AE$30="","",IF(ROWS($AE$33:AE42)&gt;$AA$22,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$22,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(AE$33:AE42)))))</f>
+        <v/>
+      </c>
+      <c r="AF42" s="28" t="str">
+        <f>IF(AE42="","",IF(COUNTIFS(MainTable[Module code],AE42,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <v/>
+      </c>
     </row>
-    <row r="43" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="90"/>
       <c r="C43" s="91"/>
       <c r="D43" s="92"/>
@@ -5872,24 +5521,24 @@
       <c r="J43" s="98"/>
       <c r="K43" s="85"/>
       <c r="L43" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M43" s="82"/>
       <c r="N43" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(M43="N",SUM(D43:I43),IF(M43="Y",IF(L43&lt;2,0,SUM(D43:I43)),""))</f>
         <v/>
       </c>
       <c r="O43" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(M43="Y",0,N43)</f>
         <v/>
       </c>
       <c r="P43" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(OR(L43="",O43=""),"",O43*L43)</f>
         <v/>
       </c>
       <c r="S43" s="27" t="str">
-        <f t="array" ref="S43">IF($S$27="","",IF(ROWS(S$30:S43)&gt;$AA$13,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$13,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(S$30:S43)))))</f>
+        <f t="array" ref="S43">IF($S$30="","",IF(ROWS(S$33:S43)&gt;$AA$16,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$16,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(S$33:S43)))))</f>
         <v/>
       </c>
       <c r="T43" s="28" t="str">
@@ -5897,7 +5546,7 @@
         <v/>
       </c>
       <c r="U43" s="29" t="str">
-        <f t="array" ref="U43">IF($U$27="","",IF(ROWS(U$30:U43)&gt;$AA$14,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$14,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(U$30:U43)))))</f>
+        <f t="array" ref="U43">IF($U$30="","",IF(ROWS(U$33:U43)&gt;$AA$17,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$17,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(U$33:U43)))))</f>
         <v/>
       </c>
       <c r="V43" s="34" t="str">
@@ -5905,31 +5554,31 @@
         <v/>
       </c>
       <c r="W43" s="27" t="str">
-        <f t="array" ref="W43">IF($W$41="","",IF(ROWS(W$43:W43)&gt;$AA$20,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$20,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(W$43:W43)))))</f>
-        <v>CS3283</v>
-      </c>
-      <c r="X43" s="28" t="str">
+        <f t="array" ref="W43">IF($W$30="","",IF(ROWS(W$33:W43)&gt;$AA$18,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$18,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(W$33:W43)))))</f>
+        <v/>
+      </c>
+      <c r="X43" s="36" t="str">
         <f>IF(W43="","",IF(COUNTIFS(MainTable[Module code],W43,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
-        <v>No</v>
+        <v/>
       </c>
       <c r="Y43" s="27" t="str">
-        <f t="array" ref="Y43">IF($Y$41="","",IF(ROWS(Y$43:Y43)&gt;$AA$21,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$21,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(Y$43:Y43)))))</f>
-        <v>CP4101</v>
+        <f t="array" ref="Y43">IF($Y$30="","",IF(ROWS(Y$33:Y43)&gt;$AA$19,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$19,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(Y$33:Y43)))))</f>
+        <v/>
       </c>
       <c r="Z43" s="28" t="str">
         <f>IF(Y43="","",IF(COUNTIFS(MainTable[Module code],Y43,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
-        <v>No</v>
+        <v/>
       </c>
       <c r="AA43" s="29" t="str">
-        <f t="array" ref="AA43">IF($AA$41="","",IF(ROWS(AA$43:AA43)&gt;$AA$22,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$22,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(AA$43:AA43)))))</f>
-        <v>SSB2216</v>
+        <f t="array" ref="AA43">IF($AA$30="","",IF(ROWS($AA$33:AA43)&gt;$AA$20,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$20,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(AA$33:AA43)))))</f>
+        <v/>
       </c>
       <c r="AB43" s="36" t="str">
         <f>IF(AA43="","",IF(COUNTIFS(MainTable[Module code],AA43,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
-        <v>No</v>
+        <v/>
       </c>
       <c r="AC43" s="27" t="str">
-        <f t="array" ref="AC43">IF($AC$41="","",IF(ROWS(AC$43:AC43)&gt;$AA$23,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$23,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(AC$43:AC43)))))</f>
+        <f t="array" ref="AC43">IF($AC$30="","",IF(ROWS($AC$33:AC43)&gt;$AA$21,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$21,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(AC$33:AC43)))))</f>
         <v/>
       </c>
       <c r="AD43" s="28" t="str">
@@ -5937,7 +5586,7 @@
         <v/>
       </c>
       <c r="AE43" s="29" t="str">
-        <f t="array" ref="AE43">IF(AE41="","",IF(ROWS(AE$43:AE43)&gt;$AA$24,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$24,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(AE$43:AE43)))))</f>
+        <f t="array" ref="AE43">IF($AE$30="","",IF(ROWS($AE$33:AE43)&gt;$AA$22,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$22,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(AE$33:AE43)))))</f>
         <v/>
       </c>
       <c r="AF43" s="28" t="str">
@@ -5945,7 +5594,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B44" s="90"/>
       <c r="C44" s="91"/>
       <c r="D44" s="92"/>
@@ -5957,24 +5606,24 @@
       <c r="J44" s="98"/>
       <c r="K44" s="85"/>
       <c r="L44" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M44" s="82"/>
       <c r="N44" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(M44="N",SUM(D44:I44),IF(M44="Y",IF(L44&lt;2,0,SUM(D44:I44)),""))</f>
         <v/>
       </c>
       <c r="O44" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(M44="Y",0,N44)</f>
         <v/>
       </c>
       <c r="P44" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(OR(L44="",O44=""),"",O44*L44)</f>
         <v/>
       </c>
       <c r="S44" s="27" t="str">
-        <f t="array" ref="S44">IF($S$27="","",IF(ROWS(S$30:S44)&gt;$AA$13,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$13,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(S$30:S44)))))</f>
+        <f t="array" ref="S44">IF($S$30="","",IF(ROWS(S$33:S44)&gt;$AA$16,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$16,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(S$33:S44)))))</f>
         <v/>
       </c>
       <c r="T44" s="28" t="str">
@@ -5982,55 +5631,40 @@
         <v/>
       </c>
       <c r="U44" s="29" t="str">
-        <f t="array" ref="U44">IF($U$27="","",IF(ROWS(U$30:U44)&gt;$AA$14,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$14,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(U$30:U44)))))</f>
+        <f t="array" ref="U44">IF($U$30="","",IF(ROWS(U$33:U44)&gt;$AA$17,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$17,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(U$33:U44)))))</f>
         <v/>
       </c>
       <c r="V44" s="34" t="str">
         <f>IF(U44="","",IF(COUNTIFS(MainTable[Module code],U44,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
         <v/>
       </c>
-      <c r="W44" s="27" t="str">
-        <f t="array" ref="W44">IF($W$41="","",IF(ROWS(W$43:W44)&gt;$AA$20,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$20,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(W$43:W44)))))</f>
-        <v>CS3284</v>
-      </c>
-      <c r="X44" s="28" t="str">
-        <f>IF(W44="","",IF(COUNTIFS(MainTable[Module code],W44,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
-        <v>No</v>
-      </c>
-      <c r="Y44" s="27" t="str">
-        <f t="array" ref="Y44">IF($Y$41="","",IF(ROWS(Y$43:Y44)&gt;$AA$21,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$21,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(Y$43:Y44)))))</f>
-        <v/>
-      </c>
-      <c r="Z44" s="28" t="str">
-        <f>IF(Y44="","",IF(COUNTIFS(MainTable[Module code],Y44,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
-        <v/>
-      </c>
-      <c r="AA44" s="29" t="str">
-        <f t="array" ref="AA44">IF($AA$41="","",IF(ROWS(AA$43:AA44)&gt;$AA$22,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$22,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(AA$43:AA44)))))</f>
-        <v/>
-      </c>
-      <c r="AB44" s="36" t="str">
-        <f>IF(AA44="","",IF(COUNTIFS(MainTable[Module code],AA44,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
-        <v/>
-      </c>
-      <c r="AC44" s="27" t="str">
-        <f t="array" ref="AC44">IF($AC$41="","",IF(ROWS(AC$43:AC44)&gt;$AA$23,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$23,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(AC$43:AC44)))))</f>
-        <v/>
-      </c>
-      <c r="AD44" s="28" t="str">
-        <f>IF(AC44="","",IF(COUNTIFS(MainTable[Module code],AC44,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
-        <v/>
-      </c>
-      <c r="AE44" s="29" t="str">
-        <f t="array" ref="AE44">IF(AE42="","",IF(ROWS(AE$43:AE44)&gt;$AA$24,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$24,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(AE$43:AE44)))))</f>
-        <v/>
-      </c>
-      <c r="AF44" s="28" t="str">
-        <f>IF(AE44="","",IF(COUNTIFS(MainTable[Module code],AE44,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
-        <v/>
-      </c>
+      <c r="W44" s="148" t="str">
+        <f>IF(Y23="","",Y23)</f>
+        <v>Singapore Studies</v>
+      </c>
+      <c r="X44" s="149"/>
+      <c r="Y44" s="148" t="str">
+        <f>IF(Y24="","",Y24)</f>
+        <v/>
+      </c>
+      <c r="Z44" s="149"/>
+      <c r="AA44" s="148" t="str">
+        <f>IF(Y25="","",Y25)</f>
+        <v/>
+      </c>
+      <c r="AB44" s="149"/>
+      <c r="AC44" s="148" t="str">
+        <f>IF(Y26="","",Y26)</f>
+        <v/>
+      </c>
+      <c r="AD44" s="149"/>
+      <c r="AE44" s="148" t="str">
+        <f>IF(Y27="","",Y27)</f>
+        <v/>
+      </c>
+      <c r="AF44" s="149"/>
     </row>
-    <row r="45" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="90"/>
       <c r="C45" s="91"/>
       <c r="D45" s="92"/>
@@ -6042,24 +5676,24 @@
       <c r="J45" s="98"/>
       <c r="K45" s="85"/>
       <c r="L45" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M45" s="82"/>
       <c r="N45" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(M45="N",SUM(D45:I45),IF(M45="Y",IF(L45&lt;2,0,SUM(D45:I45)),""))</f>
         <v/>
       </c>
       <c r="O45" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(M45="Y",0,N45)</f>
         <v/>
       </c>
       <c r="P45" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(OR(L45="",O45=""),"",O45*L45)</f>
         <v/>
       </c>
       <c r="S45" s="27" t="str">
-        <f t="array" ref="S45">IF($S$27="","",IF(ROWS(S$30:S45)&gt;$AA$13,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$13,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(S$30:S45)))))</f>
+        <f t="array" ref="S45">IF($S$30="","",IF(ROWS(S$33:S45)&gt;$AA$16,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$16,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(S$33:S45)))))</f>
         <v/>
       </c>
       <c r="T45" s="28" t="str">
@@ -6067,53 +5701,23 @@
         <v/>
       </c>
       <c r="U45" s="29" t="str">
-        <f t="array" ref="U45">IF($U$27="","",IF(ROWS(U$30:U45)&gt;$AA$14,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$14,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(U$30:U45)))))</f>
+        <f t="array" ref="U45">IF($U$30="","",IF(ROWS(U$33:U45)&gt;$AA$17,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$17,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(U$33:U45)))))</f>
         <v/>
       </c>
       <c r="V45" s="34" t="str">
         <f>IF(U45="","",IF(COUNTIFS(MainTable[Module code],U45,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
         <v/>
       </c>
-      <c r="W45" s="27" t="str">
-        <f t="array" ref="W45">IF($W$41="","",IF(ROWS(W$43:W45)&gt;$AA$20,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$20,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(W$43:W45)))))</f>
-        <v/>
-      </c>
-      <c r="X45" s="28" t="str">
-        <f>IF(W45="","",IF(COUNTIFS(MainTable[Module code],W45,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
-        <v/>
-      </c>
-      <c r="Y45" s="27" t="str">
-        <f t="array" ref="Y45">IF($Y$41="","",IF(ROWS(Y$43:Y45)&gt;$AA$21,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$21,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(Y$43:Y45)))))</f>
-        <v/>
-      </c>
-      <c r="Z45" s="28" t="str">
-        <f>IF(Y45="","",IF(COUNTIFS(MainTable[Module code],Y45,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
-        <v/>
-      </c>
-      <c r="AA45" s="29" t="str">
-        <f t="array" ref="AA45">IF($AA$41="","",IF(ROWS(AA$43:AA45)&gt;$AA$22,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$22,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(AA$43:AA45)))))</f>
-        <v/>
-      </c>
-      <c r="AB45" s="36" t="str">
-        <f>IF(AA45="","",IF(COUNTIFS(MainTable[Module code],AA45,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
-        <v/>
-      </c>
-      <c r="AC45" s="27" t="str">
-        <f t="array" ref="AC45">IF($AC$41="","",IF(ROWS(AC$43:AC45)&gt;$AA$23,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$23,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(AC$43:AC45)))))</f>
-        <v/>
-      </c>
-      <c r="AD45" s="28" t="str">
-        <f>IF(AC45="","",IF(COUNTIFS(MainTable[Module code],AC45,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
-        <v/>
-      </c>
-      <c r="AE45" s="29" t="str">
-        <f t="array" ref="AE45">IF(AE43="","",IF(ROWS(AE$43:AE45)&gt;$AA$24,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$24,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(AE$43:AE45)))))</f>
-        <v/>
-      </c>
-      <c r="AF45" s="28" t="str">
-        <f>IF(AE45="","",IF(COUNTIFS(MainTable[Module code],AE45,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
-        <v/>
-      </c>
+      <c r="W45" s="150"/>
+      <c r="X45" s="151"/>
+      <c r="Y45" s="150"/>
+      <c r="Z45" s="151"/>
+      <c r="AA45" s="150"/>
+      <c r="AB45" s="151"/>
+      <c r="AC45" s="150"/>
+      <c r="AD45" s="151"/>
+      <c r="AE45" s="150"/>
+      <c r="AF45" s="151"/>
     </row>
     <row r="46" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B46" s="90"/>
@@ -6127,24 +5731,24 @@
       <c r="J46" s="98"/>
       <c r="K46" s="85"/>
       <c r="L46" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M46" s="82"/>
       <c r="N46" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(M46="N",SUM(D46:I46),IF(M46="Y",IF(L46&lt;2,0,SUM(D46:I46)),""))</f>
         <v/>
       </c>
       <c r="O46" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(M46="Y",0,N46)</f>
         <v/>
       </c>
       <c r="P46" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(OR(L46="",O46=""),"",O46*L46)</f>
         <v/>
       </c>
       <c r="S46" s="27" t="str">
-        <f t="array" ref="S46">IF($S$27="","",IF(ROWS(S$30:S46)&gt;$AA$13,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$13,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(S$30:S46)))))</f>
+        <f t="array" ref="S46">IF($S$30="","",IF(ROWS(S$33:S46)&gt;$AA$16,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$16,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(S$33:S46)))))</f>
         <v/>
       </c>
       <c r="T46" s="28" t="str">
@@ -6152,7 +5756,7 @@
         <v/>
       </c>
       <c r="U46" s="29" t="str">
-        <f t="array" ref="U46">IF($U$27="","",IF(ROWS(U$30:U46)&gt;$AA$14,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$14,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(U$30:U46)))))</f>
+        <f t="array" ref="U46">IF($U$30="","",IF(ROWS(U$33:U46)&gt;$AA$17,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$17,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(U$33:U46)))))</f>
         <v/>
       </c>
       <c r="V46" s="34" t="str">
@@ -6160,15 +5764,15 @@
         <v/>
       </c>
       <c r="W46" s="27" t="str">
-        <f t="array" ref="W46">IF($W$41="","",IF(ROWS(W$43:W46)&gt;$AA$20,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$20,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(W$43:W46)))))</f>
-        <v/>
+        <f t="array" ref="W46">IF($W$44="","",IF(ROWS(W$46:W46)&gt;$AA$23,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$23,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(W$46:W46)))))</f>
+        <v>SSB2216</v>
       </c>
       <c r="X46" s="28" t="str">
         <f>IF(W46="","",IF(COUNTIFS(MainTable[Module code],W46,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
-        <v/>
+        <v>No</v>
       </c>
       <c r="Y46" s="27" t="str">
-        <f t="array" ref="Y46">IF($Y$41="","",IF(ROWS(Y$43:Y46)&gt;$AA$21,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$21,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(Y$43:Y46)))))</f>
+        <f t="array" ref="Y46">IF($Y$44="","",IF(ROWS(Y$46:Y46)&gt;$AA$24,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$24,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(Y$46:Y46)))))</f>
         <v/>
       </c>
       <c r="Z46" s="28" t="str">
@@ -6176,7 +5780,7 @@
         <v/>
       </c>
       <c r="AA46" s="29" t="str">
-        <f t="array" ref="AA46">IF($AA$41="","",IF(ROWS(AA$43:AA46)&gt;$AA$22,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$22,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(AA$43:AA46)))))</f>
+        <f t="array" ref="AA46">IF($AA$44="","",IF(ROWS(AA$46:AA46)&gt;$AA$25,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$25,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(AA$46:AA46)))))</f>
         <v/>
       </c>
       <c r="AB46" s="36" t="str">
@@ -6184,7 +5788,7 @@
         <v/>
       </c>
       <c r="AC46" s="27" t="str">
-        <f t="array" ref="AC46">IF($AC$41="","",IF(ROWS(AC$43:AC46)&gt;$AA$23,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$23,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(AC$43:AC46)))))</f>
+        <f t="array" ref="AC46">IF($AC$44="","",IF(ROWS(AC$46:AC46)&gt;$AA$26,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$26,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(AC$46:AC46)))))</f>
         <v/>
       </c>
       <c r="AD46" s="28" t="str">
@@ -6192,7 +5796,7 @@
         <v/>
       </c>
       <c r="AE46" s="29" t="str">
-        <f t="array" ref="AE46">IF(AE44="","",IF(ROWS(AE$43:AE46)&gt;$AA$24,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$24,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(AE$43:AE46)))))</f>
+        <f t="array" ref="AE46">IF(AE44="","",IF(ROWS(AE$46:AE46)&gt;$AA$27,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$27,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(AE$46:AE46)))))</f>
         <v/>
       </c>
       <c r="AF46" s="28" t="str">
@@ -6212,24 +5816,24 @@
       <c r="J47" s="98"/>
       <c r="K47" s="85"/>
       <c r="L47" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M47" s="82"/>
       <c r="N47" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(M47="N",SUM(D47:I47),IF(M47="Y",IF(L47&lt;2,0,SUM(D47:I47)),""))</f>
         <v/>
       </c>
       <c r="O47" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(M47="Y",0,N47)</f>
         <v/>
       </c>
       <c r="P47" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(OR(L47="",O47=""),"",O47*L47)</f>
         <v/>
       </c>
       <c r="S47" s="27" t="str">
-        <f t="array" ref="S47">IF($S$27="","",IF(ROWS(S$30:S47)&gt;$AA$13,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$13,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(S$30:S47)))))</f>
+        <f t="array" ref="S47">IF($S$30="","",IF(ROWS(S$33:S47)&gt;$AA$16,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$16,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(S$33:S47)))))</f>
         <v/>
       </c>
       <c r="T47" s="28" t="str">
@@ -6237,7 +5841,7 @@
         <v/>
       </c>
       <c r="U47" s="29" t="str">
-        <f t="array" ref="U47">IF($U$27="","",IF(ROWS(U$30:U47)&gt;$AA$14,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$14,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(U$30:U47)))))</f>
+        <f t="array" ref="U47">IF($U$30="","",IF(ROWS(U$33:U47)&gt;$AA$17,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$17,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(U$33:U47)))))</f>
         <v/>
       </c>
       <c r="V47" s="34" t="str">
@@ -6245,7 +5849,7 @@
         <v/>
       </c>
       <c r="W47" s="27" t="str">
-        <f t="array" ref="W47">IF($W$41="","",IF(ROWS(W$43:W47)&gt;$AA$20,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$20,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(W$43:W47)))))</f>
+        <f t="array" ref="W47">IF($W$44="","",IF(ROWS(W$46:W47)&gt;$AA$23,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$23,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(W$46:W47)))))</f>
         <v/>
       </c>
       <c r="X47" s="28" t="str">
@@ -6253,7 +5857,7 @@
         <v/>
       </c>
       <c r="Y47" s="27" t="str">
-        <f t="array" ref="Y47">IF($Y$41="","",IF(ROWS(Y$43:Y47)&gt;$AA$21,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$21,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(Y$43:Y47)))))</f>
+        <f t="array" ref="Y47">IF($Y$44="","",IF(ROWS(Y$46:Y47)&gt;$AA$24,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$24,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(Y$46:Y47)))))</f>
         <v/>
       </c>
       <c r="Z47" s="28" t="str">
@@ -6261,7 +5865,7 @@
         <v/>
       </c>
       <c r="AA47" s="29" t="str">
-        <f t="array" ref="AA47">IF($AA$41="","",IF(ROWS(AA$43:AA47)&gt;$AA$22,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$22,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(AA$43:AA47)))))</f>
+        <f t="array" ref="AA47">IF($AA$44="","",IF(ROWS(AA$46:AA47)&gt;$AA$25,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$25,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(AA$46:AA47)))))</f>
         <v/>
       </c>
       <c r="AB47" s="36" t="str">
@@ -6269,7 +5873,7 @@
         <v/>
       </c>
       <c r="AC47" s="27" t="str">
-        <f t="array" ref="AC47">IF($AC$41="","",IF(ROWS(AC$43:AC47)&gt;$AA$23,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$23,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(AC$43:AC47)))))</f>
+        <f t="array" ref="AC47">IF($AC$44="","",IF(ROWS(AC$46:AC47)&gt;$AA$26,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$26,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(AC$46:AC47)))))</f>
         <v/>
       </c>
       <c r="AD47" s="28" t="str">
@@ -6277,7 +5881,7 @@
         <v/>
       </c>
       <c r="AE47" s="29" t="str">
-        <f t="array" ref="AE47">IF(AE45="","",IF(ROWS(AE$43:AE47)&gt;$AA$24,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$24,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(AE$43:AE47)))))</f>
+        <f t="array" ref="AE47">IF(AE45="","",IF(ROWS(AE$46:AE47)&gt;$AA$27,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$27,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(AE$46:AE47)))))</f>
         <v/>
       </c>
       <c r="AF47" s="28" t="str">
@@ -6285,7 +5889,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B48" s="90"/>
       <c r="C48" s="91"/>
       <c r="D48" s="92"/>
@@ -6297,75 +5901,75 @@
       <c r="J48" s="98"/>
       <c r="K48" s="85"/>
       <c r="L48" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M48" s="82"/>
       <c r="N48" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(M48="N",SUM(D48:I48),IF(M48="Y",IF(L48&lt;2,0,SUM(D48:I48)),""))</f>
         <v/>
       </c>
       <c r="O48" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(M48="Y",0,N48)</f>
         <v/>
       </c>
       <c r="P48" s="13" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="S48" s="30" t="str">
-        <f t="array" ref="S48">IF($S$27="","",IF(ROWS(S$30:S48)&gt;$AA$13,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$13,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(S$30:S48)))))</f>
-        <v/>
-      </c>
-      <c r="T48" s="31" t="str">
+        <f>IF(OR(L48="",O48=""),"",O48*L48)</f>
+        <v/>
+      </c>
+      <c r="S48" s="27" t="str">
+        <f t="array" ref="S48">IF($S$30="","",IF(ROWS(S$33:S48)&gt;$AA$16,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$16,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(S$33:S48)))))</f>
+        <v/>
+      </c>
+      <c r="T48" s="28" t="str">
         <f>IF(S48="","",IF(COUNTIFS(MainTable[Module code],S48,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
         <v/>
       </c>
-      <c r="U48" s="32" t="str">
-        <f t="array" ref="U48">IF($U$27="","",IF(ROWS(U$30:U48)&gt;$AA$14,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$14,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(U$30:U48)))))</f>
-        <v/>
-      </c>
-      <c r="V48" s="39" t="str">
+      <c r="U48" s="29" t="str">
+        <f t="array" ref="U48">IF($U$30="","",IF(ROWS(U$33:U48)&gt;$AA$17,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$17,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(U$33:U48)))))</f>
+        <v/>
+      </c>
+      <c r="V48" s="34" t="str">
         <f>IF(U48="","",IF(COUNTIFS(MainTable[Module code],U48,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
         <v/>
       </c>
-      <c r="W48" s="30" t="str">
-        <f t="array" ref="W48">IF($W$41="","",IF(ROWS(W$43:W48)&gt;$AA$20,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$20,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(W$43:W48)))))</f>
-        <v/>
-      </c>
-      <c r="X48" s="31" t="str">
+      <c r="W48" s="27" t="str">
+        <f t="array" ref="W48">IF($W$44="","",IF(ROWS(W$46:W48)&gt;$AA$23,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$23,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(W$46:W48)))))</f>
+        <v/>
+      </c>
+      <c r="X48" s="28" t="str">
         <f>IF(W48="","",IF(COUNTIFS(MainTable[Module code],W48,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
         <v/>
       </c>
-      <c r="Y48" s="30" t="str">
-        <f t="array" ref="Y48">IF($Y$41="","",IF(ROWS(Y$43:Y48)&gt;$AA$21,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$21,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(Y$43:Y48)))))</f>
-        <v/>
-      </c>
-      <c r="Z48" s="31" t="str">
+      <c r="Y48" s="27" t="str">
+        <f t="array" ref="Y48">IF($Y$44="","",IF(ROWS(Y$46:Y48)&gt;$AA$24,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$24,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(Y$46:Y48)))))</f>
+        <v/>
+      </c>
+      <c r="Z48" s="28" t="str">
         <f>IF(Y48="","",IF(COUNTIFS(MainTable[Module code],Y48,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
         <v/>
       </c>
-      <c r="AA48" s="32" t="str">
-        <f t="array" ref="AA48">IF($AA$41="","",IF(ROWS(AA$43:AA48)&gt;$AA$22,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$22,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(AA$43:AA48)))))</f>
-        <v/>
-      </c>
-      <c r="AB48" s="37" t="str">
+      <c r="AA48" s="29" t="str">
+        <f t="array" ref="AA48">IF($AA$44="","",IF(ROWS(AA$46:AA48)&gt;$AA$25,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$25,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(AA$46:AA48)))))</f>
+        <v/>
+      </c>
+      <c r="AB48" s="36" t="str">
         <f>IF(AA48="","",IF(COUNTIFS(MainTable[Module code],AA48,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
         <v/>
       </c>
-      <c r="AC48" s="30" t="str">
-        <f t="array" ref="AC48">IF($AC$41="","",IF(ROWS(AC$43:AC48)&gt;$AA$23,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$23,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(AC$43:AC48)))))</f>
-        <v/>
-      </c>
-      <c r="AD48" s="31" t="str">
+      <c r="AC48" s="27" t="str">
+        <f t="array" ref="AC48">IF($AC$44="","",IF(ROWS(AC$46:AC48)&gt;$AA$26,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$26,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(AC$46:AC48)))))</f>
+        <v/>
+      </c>
+      <c r="AD48" s="28" t="str">
         <f>IF(AC48="","",IF(COUNTIFS(MainTable[Module code],AC48,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
         <v/>
       </c>
-      <c r="AE48" s="32" t="str">
-        <f t="array" ref="AE48">IF(AE46="","",IF(ROWS(AE$43:AE48)&gt;$AA$24,"",INDEX(B$5:B$64,SMALL(IF(MainTable[Type]=$Y$24,ROW(MainTable[Type])-ROW($B$5)+1),ROWS(AE$43:AE48)))))</f>
-        <v/>
-      </c>
-      <c r="AF48" s="31" t="str">
+      <c r="AE48" s="29" t="str">
+        <f t="array" ref="AE48">IF(AE46="","",IF(ROWS(AE$46:AE48)&gt;$AA$27,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$27,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(AE$46:AE48)))))</f>
+        <v/>
+      </c>
+      <c r="AF48" s="28" t="str">
         <f>IF(AE48="","",IF(COUNTIFS(MainTable[Module code],AE48,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
         <v/>
       </c>
@@ -6382,24 +5986,80 @@
       <c r="J49" s="98"/>
       <c r="K49" s="85"/>
       <c r="L49" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M49" s="82"/>
       <c r="N49" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(M49="N",SUM(D49:I49),IF(M49="Y",IF(L49&lt;2,0,SUM(D49:I49)),""))</f>
         <v/>
       </c>
       <c r="O49" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(M49="Y",0,N49)</f>
         <v/>
       </c>
       <c r="P49" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(OR(L49="",O49=""),"",O49*L49)</f>
+        <v/>
+      </c>
+      <c r="S49" s="27" t="str">
+        <f t="array" ref="S49">IF($S$30="","",IF(ROWS(S$33:S49)&gt;$AA$16,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$16,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(S$33:S49)))))</f>
+        <v/>
+      </c>
+      <c r="T49" s="28" t="str">
+        <f>IF(S49="","",IF(COUNTIFS(MainTable[Module code],S49,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <v/>
+      </c>
+      <c r="U49" s="29" t="str">
+        <f t="array" ref="U49">IF($U$30="","",IF(ROWS(U$33:U49)&gt;$AA$17,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$17,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(U$33:U49)))))</f>
+        <v/>
+      </c>
+      <c r="V49" s="34" t="str">
+        <f>IF(U49="","",IF(COUNTIFS(MainTable[Module code],U49,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <v/>
+      </c>
+      <c r="W49" s="27" t="str">
+        <f t="array" ref="W49">IF($W$44="","",IF(ROWS(W$46:W49)&gt;$AA$23,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$23,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(W$46:W49)))))</f>
+        <v/>
+      </c>
+      <c r="X49" s="28" t="str">
+        <f>IF(W49="","",IF(COUNTIFS(MainTable[Module code],W49,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <v/>
+      </c>
+      <c r="Y49" s="27" t="str">
+        <f t="array" ref="Y49">IF($Y$44="","",IF(ROWS(Y$46:Y49)&gt;$AA$24,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$24,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(Y$46:Y49)))))</f>
+        <v/>
+      </c>
+      <c r="Z49" s="28" t="str">
+        <f>IF(Y49="","",IF(COUNTIFS(MainTable[Module code],Y49,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <v/>
+      </c>
+      <c r="AA49" s="29" t="str">
+        <f t="array" ref="AA49">IF($AA$44="","",IF(ROWS(AA$46:AA49)&gt;$AA$25,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$25,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(AA$46:AA49)))))</f>
+        <v/>
+      </c>
+      <c r="AB49" s="36" t="str">
+        <f>IF(AA49="","",IF(COUNTIFS(MainTable[Module code],AA49,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <v/>
+      </c>
+      <c r="AC49" s="27" t="str">
+        <f t="array" ref="AC49">IF($AC$44="","",IF(ROWS(AC$46:AC49)&gt;$AA$26,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$26,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(AC$46:AC49)))))</f>
+        <v/>
+      </c>
+      <c r="AD49" s="28" t="str">
+        <f>IF(AC49="","",IF(COUNTIFS(MainTable[Module code],AC49,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <v/>
+      </c>
+      <c r="AE49" s="29" t="str">
+        <f t="array" ref="AE49">IF(AE47="","",IF(ROWS(AE$46:AE49)&gt;$AA$27,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$27,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(AE$46:AE49)))))</f>
+        <v/>
+      </c>
+      <c r="AF49" s="28" t="str">
+        <f>IF(AE49="","",IF(COUNTIFS(MainTable[Module code],AE49,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
         <v/>
       </c>
     </row>
-    <row r="50" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="90"/>
       <c r="C50" s="91"/>
       <c r="D50" s="92"/>
@@ -6411,24 +6071,80 @@
       <c r="J50" s="98"/>
       <c r="K50" s="85"/>
       <c r="L50" s="2" t="str">
-        <f t="shared" ref="L50:L51" si="9">IF(K50="A+",5,IF(K50="A",5,IF(K50="A-",4.5,IF(K50="B+",4,IF(K50="B",3.5,IF(K50="B-",3,IF(K50="C+",2.5,IF(K50="C",2,IF(K50="D+",1.5,IF(K50="D",1,IF(K50="F",0,"")))))))))))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M50" s="82"/>
       <c r="N50" s="3" t="str">
-        <f t="shared" ref="N50:N51" si="10">IF(M50="N",SUM(D50:I50),IF(M50="Y",IF(L50&lt;2,0,SUM(D50:I50)),""))</f>
+        <f>IF(M50="N",SUM(D50:I50),IF(M50="Y",IF(L50&lt;2,0,SUM(D50:I50)),""))</f>
         <v/>
       </c>
       <c r="O50" s="3" t="str">
-        <f t="shared" ref="O50:O51" si="11">IF(M50="Y",0,N50)</f>
+        <f>IF(M50="Y",0,N50)</f>
         <v/>
       </c>
       <c r="P50" s="13" t="str">
-        <f t="shared" ref="P50:P51" si="12">IF(OR(L50="",O50=""),"",O50*L50)</f>
+        <f>IF(OR(L50="",O50=""),"",O50*L50)</f>
+        <v/>
+      </c>
+      <c r="S50" s="27" t="str">
+        <f t="array" ref="S50">IF($S$30="","",IF(ROWS(S$33:S50)&gt;$AA$16,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$16,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(S$33:S50)))))</f>
+        <v/>
+      </c>
+      <c r="T50" s="28" t="str">
+        <f>IF(S50="","",IF(COUNTIFS(MainTable[Module code],S50,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <v/>
+      </c>
+      <c r="U50" s="29" t="str">
+        <f t="array" ref="U50">IF($U$30="","",IF(ROWS(U$33:U50)&gt;$AA$17,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$17,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(U$33:U50)))))</f>
+        <v/>
+      </c>
+      <c r="V50" s="34" t="str">
+        <f>IF(U50="","",IF(COUNTIFS(MainTable[Module code],U50,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <v/>
+      </c>
+      <c r="W50" s="27" t="str">
+        <f t="array" ref="W50">IF($W$44="","",IF(ROWS(W$46:W50)&gt;$AA$23,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$23,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(W$46:W50)))))</f>
+        <v/>
+      </c>
+      <c r="X50" s="28" t="str">
+        <f>IF(W50="","",IF(COUNTIFS(MainTable[Module code],W50,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <v/>
+      </c>
+      <c r="Y50" s="27" t="str">
+        <f t="array" ref="Y50">IF($Y$44="","",IF(ROWS(Y$46:Y50)&gt;$AA$24,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$24,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(Y$46:Y50)))))</f>
+        <v/>
+      </c>
+      <c r="Z50" s="28" t="str">
+        <f>IF(Y50="","",IF(COUNTIFS(MainTable[Module code],Y50,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <v/>
+      </c>
+      <c r="AA50" s="29" t="str">
+        <f t="array" ref="AA50">IF($AA$44="","",IF(ROWS(AA$46:AA50)&gt;$AA$25,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$25,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(AA$46:AA50)))))</f>
+        <v/>
+      </c>
+      <c r="AB50" s="36" t="str">
+        <f>IF(AA50="","",IF(COUNTIFS(MainTable[Module code],AA50,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <v/>
+      </c>
+      <c r="AC50" s="27" t="str">
+        <f t="array" ref="AC50">IF($AC$44="","",IF(ROWS(AC$46:AC50)&gt;$AA$26,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$26,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(AC$46:AC50)))))</f>
+        <v/>
+      </c>
+      <c r="AD50" s="28" t="str">
+        <f>IF(AC50="","",IF(COUNTIFS(MainTable[Module code],AC50,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <v/>
+      </c>
+      <c r="AE50" s="29" t="str">
+        <f t="array" ref="AE50">IF(AE48="","",IF(ROWS(AE$46:AE50)&gt;$AA$27,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$27,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(AE$46:AE50)))))</f>
+        <v/>
+      </c>
+      <c r="AF50" s="28" t="str">
+        <f>IF(AE50="","",IF(COUNTIFS(MainTable[Module code],AE50,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
         <v/>
       </c>
     </row>
-    <row r="51" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="90"/>
       <c r="C51" s="91"/>
       <c r="D51" s="92"/>
@@ -6440,20 +6156,76 @@
       <c r="J51" s="98"/>
       <c r="K51" s="85"/>
       <c r="L51" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M51" s="82"/>
       <c r="N51" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(M51="N",SUM(D51:I51),IF(M51="Y",IF(L51&lt;2,0,SUM(D51:I51)),""))</f>
         <v/>
       </c>
       <c r="O51" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(M51="Y",0,N51)</f>
         <v/>
       </c>
       <c r="P51" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(OR(L51="",O51=""),"",O51*L51)</f>
+        <v/>
+      </c>
+      <c r="S51" s="30" t="str">
+        <f t="array" ref="S51">IF($S$30="","",IF(ROWS(S$33:S51)&gt;$AA$16,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$16,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(S$33:S51)))))</f>
+        <v/>
+      </c>
+      <c r="T51" s="31" t="str">
+        <f>IF(S51="","",IF(COUNTIFS(MainTable[Module code],S51,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <v/>
+      </c>
+      <c r="U51" s="32" t="str">
+        <f t="array" ref="U51">IF($U$30="","",IF(ROWS(U$33:U51)&gt;$AA$17,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$17,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(U$33:U51)))))</f>
+        <v/>
+      </c>
+      <c r="V51" s="39" t="str">
+        <f>IF(U51="","",IF(COUNTIFS(MainTable[Module code],U51,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <v/>
+      </c>
+      <c r="W51" s="30" t="str">
+        <f t="array" ref="W51">IF($W$44="","",IF(ROWS(W$46:W51)&gt;$AA$23,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$23,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(W$46:W51)))))</f>
+        <v/>
+      </c>
+      <c r="X51" s="31" t="str">
+        <f>IF(W51="","",IF(COUNTIFS(MainTable[Module code],W51,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <v/>
+      </c>
+      <c r="Y51" s="30" t="str">
+        <f t="array" ref="Y51">IF($Y$44="","",IF(ROWS(Y$46:Y51)&gt;$AA$24,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$24,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(Y$46:Y51)))))</f>
+        <v/>
+      </c>
+      <c r="Z51" s="31" t="str">
+        <f>IF(Y51="","",IF(COUNTIFS(MainTable[Module code],Y51,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <v/>
+      </c>
+      <c r="AA51" s="32" t="str">
+        <f t="array" ref="AA51">IF($AA$44="","",IF(ROWS(AA$46:AA51)&gt;$AA$25,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$25,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(AA$46:AA51)))))</f>
+        <v/>
+      </c>
+      <c r="AB51" s="37" t="str">
+        <f>IF(AA51="","",IF(COUNTIFS(MainTable[Module code],AA51,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <v/>
+      </c>
+      <c r="AC51" s="30" t="str">
+        <f t="array" ref="AC51">IF($AC$44="","",IF(ROWS(AC$46:AC51)&gt;$AA$26,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$26,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(AC$46:AC51)))))</f>
+        <v/>
+      </c>
+      <c r="AD51" s="31" t="str">
+        <f>IF(AC51="","",IF(COUNTIFS(MainTable[Module code],AC51,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <v/>
+      </c>
+      <c r="AE51" s="32" t="str">
+        <f t="array" ref="AE51">IF(AE49="","",IF(ROWS(AE$46:AE51)&gt;$AA$27,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$27,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(AE$46:AE51)))))</f>
+        <v/>
+      </c>
+      <c r="AF51" s="31" t="str">
+        <f>IF(AE51="","",IF(COUNTIFS(MainTable[Module code],AE51,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
         <v/>
       </c>
     </row>
@@ -6469,38 +6241,22 @@
       <c r="J52" s="98"/>
       <c r="K52" s="85"/>
       <c r="L52" s="2" t="str">
-        <f t="shared" ref="L52:L53" si="13">IF(K52="A+",5,IF(K52="A",5,IF(K52="A-",4.5,IF(K52="B+",4,IF(K52="B",3.5,IF(K52="B-",3,IF(K52="C+",2.5,IF(K52="C",2,IF(K52="D+",1.5,IF(K52="D",1,IF(K52="F",0,"")))))))))))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M52" s="82"/>
       <c r="N52" s="3" t="str">
-        <f t="shared" ref="N52:N53" si="14">IF(M52="N",SUM(D52:I52),IF(M52="Y",IF(L52&lt;2,0,SUM(D52:I52)),""))</f>
+        <f>IF(M52="N",SUM(D52:I52),IF(M52="Y",IF(L52&lt;2,0,SUM(D52:I52)),""))</f>
         <v/>
       </c>
       <c r="O52" s="3" t="str">
-        <f t="shared" ref="O52:O53" si="15">IF(M52="Y",0,N52)</f>
+        <f>IF(M52="Y",0,N52)</f>
         <v/>
       </c>
       <c r="P52" s="13" t="str">
-        <f t="shared" ref="P52:P53" si="16">IF(OR(L52="",O52=""),"",O52*L52)</f>
-        <v/>
-      </c>
-      <c r="S52" s="81"/>
-      <c r="T52" s="160" t="s">
-        <v>101</v>
-      </c>
-      <c r="U52" s="160"/>
-      <c r="V52" s="81"/>
-      <c r="W52" s="81"/>
-      <c r="X52" s="81"/>
-      <c r="Y52" s="81"/>
-      <c r="Z52" s="81"/>
-      <c r="AA52" s="81"/>
-      <c r="AB52" s="81"/>
-      <c r="AC52" s="81"/>
-      <c r="AD52" s="81"/>
-      <c r="AE52" s="81"/>
-      <c r="AF52" s="81"/>
+        <f>IF(OR(L52="",O52=""),"",O52*L52)</f>
+        <v/>
+      </c>
     </row>
     <row r="53" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B53" s="90"/>
@@ -6514,36 +6270,22 @@
       <c r="J53" s="98"/>
       <c r="K53" s="85"/>
       <c r="L53" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M53" s="82"/>
       <c r="N53" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(M53="N",SUM(D53:I53),IF(M53="Y",IF(L53&lt;2,0,SUM(D53:I53)),""))</f>
         <v/>
       </c>
       <c r="O53" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f>IF(M53="Y",0,N53)</f>
         <v/>
       </c>
       <c r="P53" s="13" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="S53" s="81"/>
-      <c r="T53" s="160"/>
-      <c r="U53" s="160"/>
-      <c r="V53" s="81"/>
-      <c r="W53" s="81"/>
-      <c r="X53" s="81"/>
-      <c r="Y53" s="81"/>
-      <c r="Z53" s="81"/>
-      <c r="AA53" s="81"/>
-      <c r="AB53" s="81"/>
-      <c r="AC53" s="81"/>
-      <c r="AD53" s="81"/>
-      <c r="AE53" s="81"/>
-      <c r="AF53" s="81"/>
+        <f>IF(OR(L53="",O53=""),"",O53*L53)</f>
+        <v/>
+      </c>
     </row>
     <row r="54" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B54" s="90"/>
@@ -6557,7 +6299,7 @@
       <c r="J54" s="98"/>
       <c r="K54" s="85"/>
       <c r="L54" s="2" t="str">
-        <f>IF(K54="A+",5,IF(K54="A",5,IF(K54="A-",4.5,IF(K54="B+",4,IF(K54="B",3.5,IF(K54="B-",3,IF(K54="C+",2.5,IF(K54="C",2,IF(K54="D+",1.5,IF(K54="D",1,IF(K54="F",0,"")))))))))))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M54" s="82"/>
@@ -6573,22 +6315,6 @@
         <f>IF(OR(L54="",O54=""),"",O54*L54)</f>
         <v/>
       </c>
-      <c r="S54" s="81"/>
-      <c r="T54" s="81" t="s">
-        <v>104</v>
-      </c>
-      <c r="U54" s="81"/>
-      <c r="V54" s="81"/>
-      <c r="W54" s="81"/>
-      <c r="X54" s="81"/>
-      <c r="Y54" s="81"/>
-      <c r="Z54" s="81"/>
-      <c r="AA54" s="81"/>
-      <c r="AB54" s="81"/>
-      <c r="AC54" s="81"/>
-      <c r="AD54" s="81"/>
-      <c r="AE54" s="81"/>
-      <c r="AF54" s="81"/>
     </row>
     <row r="55" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B55" s="90"/>
@@ -6602,7 +6328,7 @@
       <c r="J55" s="98"/>
       <c r="K55" s="85"/>
       <c r="L55" s="2" t="str">
-        <f>IF(K55="A+",5,IF(K55="A",5,IF(K55="A-",4.5,IF(K55="B+",4,IF(K55="B",3.5,IF(K55="B-",3,IF(K55="C+",2.5,IF(K55="C",2,IF(K55="D+",1.5,IF(K55="D",1,IF(K55="F",0,"")))))))))))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M55" s="82"/>
@@ -6619,10 +6345,10 @@
         <v/>
       </c>
       <c r="S55" s="81"/>
-      <c r="T55" s="81" t="s">
-        <v>102</v>
-      </c>
-      <c r="U55" s="81"/>
+      <c r="T55" s="108" t="s">
+        <v>82</v>
+      </c>
+      <c r="U55" s="108"/>
       <c r="V55" s="81"/>
       <c r="W55" s="81"/>
       <c r="X55" s="81"/>
@@ -6647,27 +6373,25 @@
       <c r="J56" s="98"/>
       <c r="K56" s="85"/>
       <c r="L56" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M56" s="82"/>
       <c r="N56" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(M56="N",SUM(D56:I56),IF(M56="Y",IF(L56&lt;2,0,SUM(D56:I56)),""))</f>
         <v/>
       </c>
       <c r="O56" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(M56="Y",0,N56)</f>
         <v/>
       </c>
       <c r="P56" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(OR(L56="",O56=""),"",O56*L56)</f>
         <v/>
       </c>
       <c r="S56" s="81"/>
-      <c r="T56" s="81" t="s">
-        <v>103</v>
-      </c>
-      <c r="U56" s="81"/>
+      <c r="T56" s="108"/>
+      <c r="U56" s="108"/>
       <c r="V56" s="81"/>
       <c r="W56" s="81"/>
       <c r="X56" s="81"/>
@@ -6692,7 +6416,7 @@
       <c r="J57" s="98"/>
       <c r="K57" s="85"/>
       <c r="L57" s="2" t="str">
-        <f>IF(K57="A+",5,IF(K57="A",5,IF(K57="A-",4.5,IF(K57="B+",4,IF(K57="B",3.5,IF(K57="B-",3,IF(K57="C+",2.5,IF(K57="C",2,IF(K57="D+",1.5,IF(K57="D",1,IF(K57="F",0,"")))))))))))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M57" s="82"/>
@@ -6709,7 +6433,9 @@
         <v/>
       </c>
       <c r="S57" s="81"/>
-      <c r="T57" s="81"/>
+      <c r="T57" s="81" t="s">
+        <v>85</v>
+      </c>
       <c r="U57" s="81"/>
       <c r="V57" s="81"/>
       <c r="W57" s="81"/>
@@ -6735,24 +6461,26 @@
       <c r="J58" s="98"/>
       <c r="K58" s="85"/>
       <c r="L58" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M58" s="82"/>
       <c r="N58" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(M58="N",SUM(D58:I58),IF(M58="Y",IF(L58&lt;2,0,SUM(D58:I58)),""))</f>
         <v/>
       </c>
       <c r="O58" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(M58="Y",0,N58)</f>
         <v/>
       </c>
       <c r="P58" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(OR(L58="",O58=""),"",O58*L58)</f>
         <v/>
       </c>
       <c r="S58" s="81"/>
-      <c r="T58" s="81"/>
+      <c r="T58" s="81" t="s">
+        <v>83</v>
+      </c>
       <c r="U58" s="81"/>
       <c r="V58" s="81"/>
       <c r="W58" s="81"/>
@@ -6778,25 +6506,25 @@
       <c r="J59" s="98"/>
       <c r="K59" s="85"/>
       <c r="L59" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M59" s="82"/>
       <c r="N59" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(M59="N",SUM(D59:I59),IF(M59="Y",IF(L59&lt;2,0,SUM(D59:I59)),""))</f>
         <v/>
       </c>
       <c r="O59" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(M59="Y",0,N59)</f>
         <v/>
       </c>
       <c r="P59" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(OR(L59="",O59=""),"",O59*L59)</f>
         <v/>
       </c>
       <c r="S59" s="81"/>
       <c r="T59" s="81" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="U59" s="81"/>
       <c r="V59" s="81"/>
@@ -6823,26 +6551,24 @@
       <c r="J60" s="98"/>
       <c r="K60" s="85"/>
       <c r="L60" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M60" s="82"/>
       <c r="N60" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(M60="N",SUM(D60:I60),IF(M60="Y",IF(L60&lt;2,0,SUM(D60:I60)),""))</f>
         <v/>
       </c>
       <c r="O60" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(M60="Y",0,N60)</f>
         <v/>
       </c>
       <c r="P60" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(OR(L60="",O60=""),"",O60*L60)</f>
         <v/>
       </c>
       <c r="S60" s="81"/>
-      <c r="T60" s="81" t="s">
-        <v>111</v>
-      </c>
+      <c r="T60" s="81"/>
       <c r="U60" s="81"/>
       <c r="V60" s="81"/>
       <c r="W60" s="81"/>
@@ -6868,26 +6594,24 @@
       <c r="J61" s="98"/>
       <c r="K61" s="85"/>
       <c r="L61" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M61" s="82"/>
       <c r="N61" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(M61="N",SUM(D61:I61),IF(M61="Y",IF(L61&lt;2,0,SUM(D61:I61)),""))</f>
         <v/>
       </c>
       <c r="O61" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(M61="Y",0,N61)</f>
         <v/>
       </c>
       <c r="P61" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(OR(L61="",O61=""),"",O61*L61)</f>
         <v/>
       </c>
       <c r="S61" s="81"/>
-      <c r="T61" s="107" t="s">
-        <v>110</v>
-      </c>
+      <c r="T61" s="81"/>
       <c r="U61" s="81"/>
       <c r="V61" s="81"/>
       <c r="W61" s="81"/>
@@ -6897,9 +6621,7 @@
       <c r="AA61" s="81"/>
       <c r="AB61" s="81"/>
       <c r="AC61" s="81"/>
-      <c r="AD61" s="106" t="s">
-        <v>100</v>
-      </c>
+      <c r="AD61" s="81"/>
       <c r="AE61" s="81"/>
       <c r="AF61" s="81"/>
     </row>
@@ -6915,24 +6637,26 @@
       <c r="J62" s="98"/>
       <c r="K62" s="85"/>
       <c r="L62" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M62" s="82"/>
       <c r="N62" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(M62="N",SUM(D62:I62),IF(M62="Y",IF(L62&lt;2,0,SUM(D62:I62)),""))</f>
         <v/>
       </c>
       <c r="O62" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(M62="Y",0,N62)</f>
         <v/>
       </c>
       <c r="P62" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(OR(L62="",O62=""),"",O62*L62)</f>
         <v/>
       </c>
       <c r="S62" s="81"/>
-      <c r="T62" s="81"/>
+      <c r="T62" s="81" t="s">
+        <v>93</v>
+      </c>
       <c r="U62" s="81"/>
       <c r="V62" s="81"/>
       <c r="W62" s="81"/>
@@ -6958,200 +6682,336 @@
       <c r="J63" s="98"/>
       <c r="K63" s="85"/>
       <c r="L63" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M63" s="82"/>
       <c r="N63" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(M63="N",SUM(D63:I63),IF(M63="Y",IF(L63&lt;2,0,SUM(D63:I63)),""))</f>
         <v/>
       </c>
       <c r="O63" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(M63="Y",0,N63)</f>
         <v/>
       </c>
       <c r="P63" s="13" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
+        <f>IF(OR(L63="",O63=""),"",O63*L63)</f>
+        <v/>
+      </c>
+      <c r="S63" s="81"/>
+      <c r="T63" s="81" t="s">
+        <v>92</v>
+      </c>
+      <c r="U63" s="81"/>
+      <c r="V63" s="81"/>
+      <c r="W63" s="81"/>
+      <c r="X63" s="81"/>
+      <c r="Y63" s="81"/>
+      <c r="Z63" s="81"/>
+      <c r="AA63" s="81"/>
+      <c r="AB63" s="81"/>
+      <c r="AC63" s="81"/>
+      <c r="AD63" s="81"/>
+      <c r="AE63" s="81"/>
+      <c r="AF63" s="81"/>
     </row>
     <row r="64" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B64" s="94"/>
-      <c r="C64" s="95"/>
-      <c r="D64" s="96"/>
-      <c r="E64" s="96"/>
-      <c r="F64" s="96"/>
-      <c r="G64" s="96"/>
-      <c r="H64" s="96"/>
-      <c r="I64" s="96"/>
-      <c r="J64" s="99"/>
-      <c r="K64" s="86"/>
-      <c r="L64" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="M64" s="83"/>
-      <c r="N64" s="15" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O64" s="15" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="P64" s="16" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
+      <c r="B64" s="90"/>
+      <c r="C64" s="91"/>
+      <c r="D64" s="92"/>
+      <c r="E64" s="92"/>
+      <c r="F64" s="92"/>
+      <c r="G64" s="92"/>
+      <c r="H64" s="92"/>
+      <c r="I64" s="92"/>
+      <c r="J64" s="98"/>
+      <c r="K64" s="85"/>
+      <c r="L64" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M64" s="82"/>
+      <c r="N64" s="3" t="str">
+        <f>IF(M64="N",SUM(D64:I64),IF(M64="Y",IF(L64&lt;2,0,SUM(D64:I64)),""))</f>
+        <v/>
+      </c>
+      <c r="O64" s="3" t="str">
+        <f>IF(M64="Y",0,N64)</f>
+        <v/>
+      </c>
+      <c r="P64" s="13" t="str">
+        <f>IF(OR(L64="",O64=""),"",O64*L64)</f>
+        <v/>
+      </c>
+      <c r="S64" s="81"/>
+      <c r="T64" s="162" t="s">
+        <v>91</v>
+      </c>
+      <c r="U64" s="162"/>
+      <c r="V64" s="162"/>
+      <c r="W64" s="162"/>
+      <c r="X64" s="162"/>
+      <c r="Y64" s="162"/>
+      <c r="Z64" s="81"/>
+      <c r="AA64" s="81"/>
+      <c r="AB64" s="81"/>
+      <c r="AC64" s="81"/>
+      <c r="AD64" s="106" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE64" s="81"/>
+      <c r="AF64" s="81"/>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
-      <c r="B65" s="108"/>
-      <c r="C65" s="108"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
-      <c r="K65" s="4"/>
-      <c r="L65" s="4"/>
-      <c r="M65" s="4"/>
-      <c r="N65" s="4"/>
-      <c r="O65" s="4"/>
-      <c r="P65" s="4"/>
-      <c r="Q65" s="1"/>
+    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B65" s="90"/>
+      <c r="C65" s="91"/>
+      <c r="D65" s="92"/>
+      <c r="E65" s="92"/>
+      <c r="F65" s="92"/>
+      <c r="G65" s="92"/>
+      <c r="H65" s="92"/>
+      <c r="I65" s="92"/>
+      <c r="J65" s="98"/>
+      <c r="K65" s="85"/>
+      <c r="L65" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M65" s="82"/>
+      <c r="N65" s="3" t="str">
+        <f>IF(M65="N",SUM(D65:I65),IF(M65="Y",IF(L65&lt;2,0,SUM(D65:I65)),""))</f>
+        <v/>
+      </c>
+      <c r="O65" s="3" t="str">
+        <f>IF(M65="Y",0,N65)</f>
+        <v/>
+      </c>
+      <c r="P65" s="13" t="str">
+        <f>IF(OR(L65="",O65=""),"",O65*L65)</f>
+        <v/>
+      </c>
+      <c r="S65" s="81"/>
+      <c r="T65" s="81"/>
+      <c r="U65" s="81"/>
+      <c r="V65" s="81"/>
+      <c r="W65" s="81"/>
+      <c r="X65" s="81"/>
+      <c r="Y65" s="81"/>
+      <c r="Z65" s="81"/>
+      <c r="AA65" s="81"/>
+      <c r="AB65" s="81"/>
+      <c r="AC65" s="81"/>
+      <c r="AD65" s="81"/>
+      <c r="AE65" s="81"/>
+      <c r="AF65" s="81"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
-      <c r="B66" s="108"/>
-      <c r="C66" s="108"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
-      <c r="K66" s="5"/>
-      <c r="L66" s="5"/>
-      <c r="M66" s="5"/>
-      <c r="N66" s="5"/>
-      <c r="O66" s="5"/>
-      <c r="P66" s="5"/>
-      <c r="Q66" s="1"/>
+    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B66" s="90"/>
+      <c r="C66" s="91"/>
+      <c r="D66" s="92"/>
+      <c r="E66" s="92"/>
+      <c r="F66" s="92"/>
+      <c r="G66" s="92"/>
+      <c r="H66" s="92"/>
+      <c r="I66" s="92"/>
+      <c r="J66" s="98"/>
+      <c r="K66" s="85"/>
+      <c r="L66" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M66" s="82"/>
+      <c r="N66" s="3" t="str">
+        <f>IF(M66="N",SUM(D66:I66),IF(M66="Y",IF(L66&lt;2,0,SUM(D66:I66)),""))</f>
+        <v/>
+      </c>
+      <c r="O66" s="3" t="str">
+        <f>IF(M66="Y",0,N66)</f>
+        <v/>
+      </c>
+      <c r="P66" s="13" t="str">
+        <f>IF(OR(L66="",O66=""),"",O66*L66)</f>
+        <v/>
+      </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
-      <c r="M67" s="1"/>
-      <c r="N67" s="1"/>
-      <c r="O67" s="1"/>
-      <c r="P67" s="1"/>
-      <c r="Q67" s="1"/>
+    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B67" s="94"/>
+      <c r="C67" s="95"/>
+      <c r="D67" s="96"/>
+      <c r="E67" s="96"/>
+      <c r="F67" s="96"/>
+      <c r="G67" s="96"/>
+      <c r="H67" s="96"/>
+      <c r="I67" s="96"/>
+      <c r="J67" s="99"/>
+      <c r="K67" s="86"/>
+      <c r="L67" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M67" s="83"/>
+      <c r="N67" s="15" t="str">
+        <f>IF(M67="N",SUM(D67:I67),IF(M67="Y",IF(L67&lt;2,0,SUM(D67:I67)),""))</f>
+        <v/>
+      </c>
+      <c r="O67" s="15" t="str">
+        <f>IF(M67="Y",0,N67)</f>
+        <v/>
+      </c>
+      <c r="P67" s="16" t="str">
+        <f>IF(OR(L67="",O67=""),"",O67*L67)</f>
+        <v/>
+      </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
-      <c r="N68" s="1"/>
-      <c r="O68" s="1"/>
-      <c r="P68" s="1"/>
+      <c r="B68" s="107"/>
+      <c r="C68" s="107"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="4"/>
+      <c r="N68" s="4"/>
+      <c r="O68" s="4"/>
+      <c r="P68" s="4"/>
       <c r="Q68" s="1"/>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="1"/>
-      <c r="L69" s="1"/>
-      <c r="M69" s="1"/>
-      <c r="N69" s="1"/>
-      <c r="O69" s="1"/>
-      <c r="P69" s="1"/>
+      <c r="B69" s="107"/>
+      <c r="C69" s="107"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="5"/>
+      <c r="N69" s="5"/>
+      <c r="O69" s="5"/>
+      <c r="P69" s="5"/>
       <c r="Q69" s="1"/>
     </row>
+    <row r="70" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+    </row>
+    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+    </row>
+    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="T52:U53"/>
+  <mergeCells count="44">
+    <mergeCell ref="B2:I3"/>
+    <mergeCell ref="T64:Y64"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="AC30:AD31"/>
+    <mergeCell ref="AE30:AF31"/>
+    <mergeCell ref="AC21:AD21"/>
+    <mergeCell ref="Y44:Z45"/>
+    <mergeCell ref="AA44:AB45"/>
+    <mergeCell ref="AC44:AD45"/>
+    <mergeCell ref="AE44:AF45"/>
+    <mergeCell ref="S28:AF29"/>
+    <mergeCell ref="W44:X45"/>
+    <mergeCell ref="S30:T31"/>
+    <mergeCell ref="U30:V31"/>
+    <mergeCell ref="W30:X31"/>
+    <mergeCell ref="Y30:Z31"/>
+    <mergeCell ref="AA30:AB31"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AC18:AD18"/>
     <mergeCell ref="AC19:AD19"/>
     <mergeCell ref="AC20:AD20"/>
-    <mergeCell ref="AC21:AD21"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="AE8:AE14"/>
+    <mergeCell ref="AF8:AF14"/>
+    <mergeCell ref="S7:AF7"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="S10:AD11"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="T55:U56"/>
     <mergeCell ref="AC22:AD22"/>
     <mergeCell ref="AC23:AD23"/>
     <mergeCell ref="AC24:AD24"/>
-    <mergeCell ref="AE5:AE11"/>
-    <mergeCell ref="AF5:AF11"/>
-    <mergeCell ref="S4:AF4"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="S7:AD8"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="AC17:AD17"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="AC27:AD28"/>
-    <mergeCell ref="AE27:AF28"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="Y41:Z42"/>
-    <mergeCell ref="AA41:AB42"/>
-    <mergeCell ref="AC41:AD42"/>
-    <mergeCell ref="AE41:AF42"/>
-    <mergeCell ref="S25:AF26"/>
-    <mergeCell ref="W41:X42"/>
-    <mergeCell ref="S27:T28"/>
-    <mergeCell ref="U27:V28"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Z28"/>
-    <mergeCell ref="AA27:AB28"/>
+    <mergeCell ref="AC25:AD25"/>
+    <mergeCell ref="AC26:AD26"/>
+    <mergeCell ref="AC27:AD27"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="T61" r:id="rId1"/>
+    <hyperlink ref="T64" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId2"/>
   <ignoredErrors>
-    <ignoredError sqref="U30:AF48" formula="1"/>
-    <ignoredError sqref="N5:N42" formulaRange="1"/>
+    <ignoredError sqref="U33:AF51" formula="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId3"/>
   <tableParts count="1">

--- a/Moduleplanning-template.xlsx
+++ b/Moduleplanning-template.xlsx
@@ -1678,12 +1678,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1696,9 +1690,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1753,11 +1744,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1833,199 +1820,194 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="52" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="18">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -2094,6 +2076,24 @@
         <horizontal/>
       </border>
       <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -2435,17 +2435,17 @@
     <tableColumn id="8" name="Level 6000 MCs" dataDxfId="7"/>
     <tableColumn id="9" name="Semester" dataDxfId="6"/>
     <tableColumn id="10" name="Grade" dataDxfId="5"/>
-    <tableColumn id="11" name="Grade value" dataDxfId="0">
+    <tableColumn id="11" name="Grade value" dataDxfId="4">
       <calculatedColumnFormula>IF(K8="A+",5,IF(K8="A",5,IF(K8="A-",4.5,IF(K8="B+",4,IF(K8="B",3.5,IF(K8="B-",3,IF(K8="C+",2.5,IF(K8="C",2,IF(K8="D+",1.5,IF(K8="D",1,IF(K8="F",0,IF(K8="P",0,""))))))))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="S/U" dataDxfId="4"/>
-    <tableColumn id="13" name="Effective MCs" dataDxfId="3">
+    <tableColumn id="12" name="S/U" dataDxfId="3"/>
+    <tableColumn id="13" name="Effective MCs" dataDxfId="2">
       <calculatedColumnFormula>IF(M8="N",SUM(D8:I8),IF(M8="Y",IF(L8&lt;2,0,SUM(D8:I8)),""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="MC Footprint" dataDxfId="2">
+    <tableColumn id="14" name="MC Footprint" dataDxfId="1">
       <calculatedColumnFormula>IF(M8="Y",0,N8)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="Module Weight" dataDxfId="1">
+    <tableColumn id="15" name="Module Weight" dataDxfId="0">
       <calculatedColumnFormula>IF(OR(L8="",O8=""),"",O8*L8)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2743,8 +2743,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:AF72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R29" sqref="R29"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="R31" sqref="R31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2763,26 +2763,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B2" s="161" t="s">
+      <c r="B2" s="106" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="161"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
     </row>
     <row r="3" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B3" s="161"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="161"/>
-      <c r="I3" s="161"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
     </row>
     <row r="5" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -2840,352 +2840,352 @@
       <c r="P7" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="S7" s="117" t="s">
+      <c r="S7" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="T7" s="118"/>
-      <c r="U7" s="118"/>
-      <c r="V7" s="118"/>
-      <c r="W7" s="118"/>
-      <c r="X7" s="118"/>
-      <c r="Y7" s="118"/>
-      <c r="Z7" s="118"/>
-      <c r="AA7" s="118"/>
-      <c r="AB7" s="118"/>
-      <c r="AC7" s="118"/>
-      <c r="AD7" s="118"/>
-      <c r="AE7" s="118"/>
-      <c r="AF7" s="119"/>
+      <c r="T7" s="136"/>
+      <c r="U7" s="136"/>
+      <c r="V7" s="136"/>
+      <c r="W7" s="136"/>
+      <c r="X7" s="136"/>
+      <c r="Y7" s="136"/>
+      <c r="Z7" s="136"/>
+      <c r="AA7" s="136"/>
+      <c r="AB7" s="136"/>
+      <c r="AC7" s="136"/>
+      <c r="AD7" s="136"/>
+      <c r="AE7" s="136"/>
+      <c r="AF7" s="137"/>
     </row>
     <row r="8" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="87" t="s">
+      <c r="B8" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="88" t="s">
+      <c r="C8" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="89">
+      <c r="D8" s="84">
         <v>5</v>
       </c>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="97">
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="92">
         <v>1</v>
       </c>
-      <c r="K8" s="84" t="s">
+      <c r="K8" s="79" t="s">
         <v>28</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" ref="L8:L39" si="0">IF(K8="A+",5,IF(K8="A",5,IF(K8="A-",4.5,IF(K8="B+",4,IF(K8="B",3.5,IF(K8="B-",3,IF(K8="C+",2.5,IF(K8="C",2,IF(K8="D+",1.5,IF(K8="D",1,IF(K8="F",0,IF(K8="P",0,""))))))))))))</f>
         <v>5</v>
       </c>
-      <c r="M8" s="82" t="s">
+      <c r="M8" s="77" t="s">
         <v>90</v>
       </c>
       <c r="N8" s="3">
-        <f>IF(M8="N",SUM(D8:I8),IF(M8="Y",IF(L8&lt;2,0,SUM(D8:I8)),""))</f>
+        <f t="shared" ref="N8:N39" si="1">IF(M8="N",SUM(D8:I8),IF(M8="Y",IF(L8&lt;2,0,SUM(D8:I8)),""))</f>
         <v>5</v>
       </c>
       <c r="O8" s="3">
-        <f>IF(M8="Y",0,N8)</f>
+        <f t="shared" ref="O8:O39" si="2">IF(M8="Y",0,N8)</f>
         <v>5</v>
       </c>
       <c r="P8" s="3">
-        <f>IF(OR(L8="",O8=""),"",O8*L8)</f>
+        <f t="shared" ref="P8:P39" si="3">IF(OR(L8="",O8=""),"",O8*L8)</f>
         <v>25</v>
       </c>
-      <c r="S8" s="73" t="s">
+      <c r="S8" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="T8" s="74" t="s">
+      <c r="T8" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="U8" s="74" t="s">
+      <c r="U8" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="V8" s="74" t="s">
+      <c r="V8" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="W8" s="74" t="s">
+      <c r="W8" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="X8" s="74" t="s">
+      <c r="X8" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="Y8" s="74" t="s">
+      <c r="Y8" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="Z8" s="74" t="s">
+      <c r="Z8" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="AA8" s="74" t="s">
+      <c r="AA8" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="AB8" s="74" t="s">
+      <c r="AB8" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="AC8" s="74" t="s">
+      <c r="AC8" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="AD8" s="75" t="s">
+      <c r="AD8" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="AE8" s="111" t="s">
+      <c r="AE8" s="129" t="s">
         <v>43</v>
       </c>
-      <c r="AF8" s="114">
+      <c r="AF8" s="132">
         <f>IF(SUM(O8:O67)=0,0,ROUND(SUM(P8:P67)/SUM(O8:O67),2))</f>
-        <v>2.92</v>
+        <v>3.22</v>
       </c>
     </row>
     <row r="9" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="90" t="s">
+      <c r="B9" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="91" t="s">
+      <c r="C9" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="92">
+      <c r="D9" s="87">
         <v>4</v>
       </c>
-      <c r="E9" s="92"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="92"/>
-      <c r="J9" s="98">
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="93">
         <v>1</v>
       </c>
-      <c r="K9" s="85" t="s">
+      <c r="K9" s="80" t="s">
         <v>31</v>
       </c>
       <c r="L9" s="2">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="M9" s="82" t="s">
+      <c r="M9" s="77" t="s">
         <v>90</v>
       </c>
       <c r="N9" s="3">
-        <f>IF(M9="N",SUM(D9:I9),IF(M9="Y",IF(L9&lt;2,0,SUM(D9:I9)),""))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="O9" s="3">
-        <f>IF(M9="Y",0,N9)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="P9" s="13">
-        <f>IF(OR(L9="",O9=""),"",O9*L9)</f>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="S9" s="76">
+      <c r="S9" s="73">
         <f>COUNTIF(MainTable[Grade],S8)</f>
         <v>1</v>
       </c>
-      <c r="T9" s="77">
+      <c r="T9" s="74">
         <f>COUNTIF(MainTable[Grade],T8)</f>
         <v>1</v>
       </c>
-      <c r="U9" s="77">
+      <c r="U9" s="74">
         <f>COUNTIF(MainTable[Grade],U8)</f>
         <v>1</v>
       </c>
-      <c r="V9" s="77">
+      <c r="V9" s="74">
         <f>COUNTIF(MainTable[Grade],V8)</f>
         <v>1</v>
       </c>
-      <c r="W9" s="77">
+      <c r="W9" s="74">
         <f>COUNTIF(MainTable[Grade],W8)</f>
         <v>1</v>
       </c>
-      <c r="X9" s="77">
+      <c r="X9" s="74">
         <f>COUNTIF(MainTable[Grade],X8)</f>
         <v>1</v>
       </c>
-      <c r="Y9" s="77">
+      <c r="Y9" s="74">
         <f>COUNTIF(MainTable[Grade],Y8)</f>
         <v>1</v>
       </c>
-      <c r="Z9" s="77">
+      <c r="Z9" s="74">
         <f>COUNTIF(MainTable[Grade],Z8)</f>
         <v>1</v>
       </c>
-      <c r="AA9" s="77">
+      <c r="AA9" s="74">
         <f>COUNTIF(MainTable[Grade],AA8)</f>
         <v>1</v>
       </c>
-      <c r="AB9" s="77">
+      <c r="AB9" s="74">
         <f>COUNTIF(MainTable[Grade],AB8)</f>
         <v>1</v>
       </c>
-      <c r="AC9" s="77">
+      <c r="AC9" s="74">
         <f>COUNTIF(MainTable[Grade],AC8)</f>
         <v>1</v>
       </c>
-      <c r="AD9" s="78">
+      <c r="AD9" s="75">
         <f>COUNTIF(MainTable[Grade],AD8)</f>
         <v>1</v>
       </c>
-      <c r="AE9" s="112"/>
-      <c r="AF9" s="115"/>
+      <c r="AE9" s="130"/>
+      <c r="AF9" s="133"/>
     </row>
     <row r="10" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B10" s="90" t="s">
+      <c r="B10" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="91" t="s">
+      <c r="C10" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="92">
+      <c r="D10" s="87">
         <v>4</v>
       </c>
-      <c r="E10" s="92"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="92"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="98">
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="93">
         <v>1</v>
       </c>
-      <c r="K10" s="85" t="s">
+      <c r="K10" s="80" t="s">
         <v>38</v>
       </c>
       <c r="L10" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="M10" s="82" t="s">
+      <c r="M10" s="77" t="s">
         <v>90</v>
       </c>
       <c r="N10" s="3">
-        <f>IF(M10="N",SUM(D10:I10),IF(M10="Y",IF(L10&lt;2,0,SUM(D10:I10)),""))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="O10" s="3">
-        <f>IF(M10="Y",0,N10)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="P10" s="13">
-        <f>IF(OR(L10="",O10=""),"",O10*L10)</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="S10" s="125" t="s">
+      <c r="S10" s="143" t="s">
         <v>64</v>
       </c>
-      <c r="T10" s="126"/>
-      <c r="U10" s="126"/>
-      <c r="V10" s="126"/>
-      <c r="W10" s="126"/>
-      <c r="X10" s="126"/>
-      <c r="Y10" s="126"/>
-      <c r="Z10" s="126"/>
-      <c r="AA10" s="126"/>
-      <c r="AB10" s="126"/>
-      <c r="AC10" s="126"/>
-      <c r="AD10" s="127"/>
-      <c r="AE10" s="112"/>
-      <c r="AF10" s="115"/>
+      <c r="T10" s="144"/>
+      <c r="U10" s="144"/>
+      <c r="V10" s="144"/>
+      <c r="W10" s="144"/>
+      <c r="X10" s="144"/>
+      <c r="Y10" s="144"/>
+      <c r="Z10" s="144"/>
+      <c r="AA10" s="144"/>
+      <c r="AB10" s="144"/>
+      <c r="AC10" s="144"/>
+      <c r="AD10" s="145"/>
+      <c r="AE10" s="130"/>
+      <c r="AF10" s="133"/>
     </row>
     <row r="11" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="90" t="s">
+      <c r="B11" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="91" t="s">
+      <c r="C11" s="86" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="92">
+      <c r="D11" s="87">
         <v>4</v>
       </c>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="98">
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="93">
         <v>1</v>
       </c>
-      <c r="K11" s="85" t="s">
+      <c r="K11" s="80" t="s">
         <v>37</v>
       </c>
       <c r="L11" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="M11" s="82" t="s">
+      <c r="M11" s="77" t="s">
         <v>90</v>
       </c>
       <c r="N11" s="3">
-        <f>IF(M11="N",SUM(D11:I11),IF(M11="Y",IF(L11&lt;2,0,SUM(D11:I11)),""))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="O11" s="3">
-        <f>IF(M11="Y",0,N11)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="P11" s="13">
-        <f>IF(OR(L11="",O11=""),"",O11*L11)</f>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="S11" s="128"/>
-      <c r="T11" s="129"/>
-      <c r="U11" s="129"/>
-      <c r="V11" s="129"/>
-      <c r="W11" s="129"/>
-      <c r="X11" s="129"/>
-      <c r="Y11" s="129"/>
-      <c r="Z11" s="129"/>
-      <c r="AA11" s="129"/>
-      <c r="AB11" s="129"/>
-      <c r="AC11" s="129"/>
-      <c r="AD11" s="130"/>
-      <c r="AE11" s="112"/>
-      <c r="AF11" s="115"/>
+      <c r="S11" s="146"/>
+      <c r="T11" s="147"/>
+      <c r="U11" s="147"/>
+      <c r="V11" s="147"/>
+      <c r="W11" s="147"/>
+      <c r="X11" s="147"/>
+      <c r="Y11" s="147"/>
+      <c r="Z11" s="147"/>
+      <c r="AA11" s="147"/>
+      <c r="AB11" s="147"/>
+      <c r="AC11" s="147"/>
+      <c r="AD11" s="148"/>
+      <c r="AE11" s="130"/>
+      <c r="AF11" s="133"/>
     </row>
     <row r="12" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="90" t="s">
+      <c r="B12" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="91" t="s">
+      <c r="C12" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="92">
+      <c r="D12" s="87">
         <v>4</v>
       </c>
-      <c r="E12" s="92"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="92"/>
-      <c r="I12" s="92"/>
-      <c r="J12" s="98">
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="93">
         <v>1</v>
       </c>
-      <c r="K12" s="85" t="s">
+      <c r="K12" s="80" t="s">
         <v>32</v>
       </c>
       <c r="L12" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="M12" s="82" t="s">
+      <c r="M12" s="77" t="s">
         <v>90</v>
       </c>
       <c r="N12" s="3">
-        <f>IF(M12="N",SUM(D12:I12),IF(M12="Y",IF(L12&lt;2,0,SUM(D12:I12)),""))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="O12" s="3">
-        <f>IF(M12="Y",0,N12)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="P12" s="13">
-        <f>IF(OR(L12="",O12=""),"",O12*L12)</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="S12" s="131"/>
-      <c r="T12" s="132"/>
+      <c r="S12" s="149"/>
+      <c r="T12" s="150"/>
       <c r="U12" s="7">
         <v>1</v>
       </c>
@@ -3216,53 +3216,53 @@
       <c r="AD12" s="10">
         <v>10</v>
       </c>
-      <c r="AE12" s="112"/>
-      <c r="AF12" s="115"/>
+      <c r="AE12" s="130"/>
+      <c r="AF12" s="133"/>
     </row>
     <row r="13" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B13" s="90" t="s">
+      <c r="B13" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="91" t="s">
+      <c r="C13" s="86" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92">
+      <c r="D13" s="87"/>
+      <c r="E13" s="87">
         <v>4</v>
       </c>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="98">
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="93">
         <v>2</v>
       </c>
-      <c r="K13" s="85" t="s">
+      <c r="K13" s="80" t="s">
         <v>40</v>
       </c>
       <c r="L13" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M13" s="82" t="s">
+      <c r="M13" s="77" t="s">
         <v>90</v>
       </c>
       <c r="N13" s="3">
-        <f>IF(M13="N",SUM(D13:I13),IF(M13="Y",IF(L13&lt;2,0,SUM(D13:I13)),""))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="O13" s="3">
-        <f>IF(M13="Y",0,N13)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="P13" s="13">
-        <f>IF(OR(L13="",O13=""),"",O13*L13)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="S13" s="133" t="s">
+      <c r="S13" s="151" t="s">
         <v>60</v>
       </c>
-      <c r="T13" s="134"/>
+      <c r="T13" s="152"/>
       <c r="U13" s="8">
         <f>SUMIFS(MainTable[Effective MCs],MainTable[Semester],U12)</f>
         <v>21</v>
@@ -3273,7 +3273,7 @@
       </c>
       <c r="W13" s="8">
         <f>SUMIFS(MainTable[Effective MCs],MainTable[Semester],W12)</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="X13" s="8">
         <f>SUMIFS(MainTable[Effective MCs],MainTable[Semester],X12)</f>
@@ -3303,53 +3303,53 @@
         <f>SUMIFS(MainTable[Effective MCs],MainTable[Semester],AD12)</f>
         <v>0</v>
       </c>
-      <c r="AE13" s="112"/>
-      <c r="AF13" s="115"/>
+      <c r="AE13" s="130"/>
+      <c r="AF13" s="133"/>
     </row>
     <row r="14" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="90" t="s">
+      <c r="B14" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="91" t="s">
+      <c r="C14" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="92">
+      <c r="D14" s="87">
         <v>4</v>
       </c>
-      <c r="E14" s="92"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="98">
+      <c r="E14" s="87"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="93">
         <v>2</v>
       </c>
-      <c r="K14" s="85" t="s">
+      <c r="K14" s="80" t="s">
         <v>41</v>
       </c>
       <c r="L14" s="2">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="M14" s="82" t="s">
+      <c r="M14" s="77" t="s">
         <v>90</v>
       </c>
       <c r="N14" s="3">
-        <f>IF(M14="N",SUM(D14:I14),IF(M14="Y",IF(L14&lt;2,0,SUM(D14:I14)),""))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="O14" s="3">
-        <f>IF(M14="Y",0,N14)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="P14" s="13">
-        <f>IF(OR(L14="",O14=""),"",O14*L14)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="S14" s="135" t="s">
+      <c r="S14" s="153" t="s">
         <v>74</v>
       </c>
-      <c r="T14" s="136"/>
+      <c r="T14" s="154"/>
       <c r="U14" s="9">
         <f>IF(SUMIFS(MainTable[MC Footprint],MainTable[Semester],U12)=0,0,IF(U13=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Semester],U12)/SUMIFS(MainTable[MC Footprint],MainTable[Semester],U12),2)))</f>
         <v>4.33</v>
@@ -3360,7 +3360,7 @@
       </c>
       <c r="W14" s="9">
         <f>IF(SUMIFS(MainTable[MC Footprint],MainTable[Semester],W12)=0,0,IF(W13=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Semester],W12)/SUMIFS(MainTable[MC Footprint],MainTable[Semester],W12),2)))</f>
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="X14" s="9">
         <f>IF(SUMIFS(MainTable[MC Footprint],MainTable[Semester],X12)=0,0,IF(X13=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Semester],X12)/SUMIFS(MainTable[MC Footprint],MainTable[Semester],X12),2)))</f>
@@ -3390,47 +3390,47 @@
         <f>IF(SUMIFS(MainTable[MC Footprint],MainTable[Semester],AD12)=0,0,IF(AD13=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Semester],AD12)/SUMIFS(MainTable[MC Footprint],MainTable[Semester],AD12),2)))</f>
         <v>0</v>
       </c>
-      <c r="AE14" s="113"/>
-      <c r="AF14" s="116"/>
+      <c r="AE14" s="131"/>
+      <c r="AF14" s="134"/>
     </row>
     <row r="15" spans="2:32" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="90" t="s">
+      <c r="B15" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="91" t="s">
+      <c r="C15" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="93"/>
-      <c r="E15" s="92">
+      <c r="D15" s="88"/>
+      <c r="E15" s="87">
         <v>4</v>
       </c>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="92"/>
-      <c r="J15" s="98">
+      <c r="F15" s="87"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="93">
         <v>2</v>
       </c>
-      <c r="K15" s="85" t="s">
+      <c r="K15" s="80" t="s">
         <v>42</v>
       </c>
       <c r="L15" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M15" s="82" t="s">
+      <c r="M15" s="77" t="s">
         <v>73</v>
       </c>
       <c r="N15" s="3">
-        <f>IF(M15="N",SUM(D15:I15),IF(M15="Y",IF(L15&lt;2,0,SUM(D15:I15)),""))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O15" s="3">
-        <f>IF(M15="Y",0,N15)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P15" s="13">
-        <f>IF(OR(L15="",O15=""),"",O15*L15)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S15" s="6" t="s">
@@ -3442,1178 +3442,1178 @@
       <c r="U15" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="V15" s="137" t="s">
+      <c r="V15" s="155" t="s">
         <v>7</v>
       </c>
-      <c r="W15" s="138"/>
+      <c r="W15" s="156"/>
       <c r="X15" s="21"/>
-      <c r="Y15" s="124" t="s">
+      <c r="Y15" s="142" t="s">
         <v>47</v>
       </c>
-      <c r="Z15" s="123"/>
-      <c r="AA15" s="56" t="s">
+      <c r="Z15" s="141"/>
+      <c r="AA15" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="AB15" s="79" t="s">
+      <c r="AB15" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="AC15" s="122" t="s">
+      <c r="AC15" s="140" t="s">
         <v>89</v>
       </c>
-      <c r="AD15" s="123"/>
+      <c r="AD15" s="141"/>
       <c r="AE15" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="AF15" s="57" t="s">
+      <c r="AF15" s="54" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="16" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B16" s="90" t="s">
+      <c r="B16" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="91" t="s">
+      <c r="C16" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="93"/>
-      <c r="E16" s="92">
+      <c r="D16" s="88"/>
+      <c r="E16" s="87">
         <v>4</v>
       </c>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="98">
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="93">
         <v>2</v>
       </c>
-      <c r="K16" s="85" t="s">
+      <c r="K16" s="80" t="s">
         <v>35</v>
       </c>
       <c r="L16" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M16" s="82" t="s">
+      <c r="M16" s="77" t="s">
         <v>90</v>
       </c>
       <c r="N16" s="3">
-        <f>IF(M16="N",SUM(D16:I16),IF(M16="Y",IF(L16&lt;2,0,SUM(D16:I16)),""))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="O16" s="3">
-        <f>IF(M16="Y",0,N16)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="P16" s="13">
-        <f>IF(OR(L16="",O16=""),"",O16*L16)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="S16" s="65" t="s">
+      <c r="S16" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="T16" s="66">
+      <c r="T16" s="63">
         <f>SUM(MainTable[Level 1000 MCs])</f>
         <v>41</v>
       </c>
-      <c r="U16" s="68">
+      <c r="U16" s="65">
         <f>SUMIFS(MainTable[Level 1000 MCs],MainTable[Effective MCs],"&gt;0")</f>
         <v>29</v>
       </c>
-      <c r="V16" s="120" t="s">
+      <c r="V16" s="138" t="s">
         <v>60</v>
       </c>
-      <c r="W16" s="121"/>
-      <c r="X16" s="53">
+      <c r="W16" s="139"/>
+      <c r="X16" s="51">
         <f>SUM(MainTable[Effective MCs])</f>
-        <v>42</v>
-      </c>
-      <c r="Y16" s="51" t="str">
+        <v>38</v>
+      </c>
+      <c r="Y16" s="49" t="str">
         <f t="array" ref="Y16">IFERROR(INDEX(MainTable[Type], MATCH(MIN(_xlfn.MODE.MULT(IF((MainTable[Type]&lt;&gt;"")*NOT(COUNTIF($Y$15:$Y15, MainTable[Type])), (COUNTIF(MainTable[Type], "&lt;"&amp;MainTable[Type])+1)*{1,1}))), IF((MainTable[Type]&lt;&gt;""),COUNTIF(MainTable[Type], "&lt;"&amp;MainTable[Type])+{1}), 0)), "")</f>
         <v>Foundation</v>
       </c>
-      <c r="Z16" s="58"/>
-      <c r="AA16" s="63">
+      <c r="Z16" s="55"/>
+      <c r="AA16" s="60">
         <f>IF(Y16="","",COUNTIF(MainTable[Type],Y16))</f>
         <v>7</v>
       </c>
-      <c r="AB16" s="59">
+      <c r="AB16" s="56">
         <f>IF(AA16="","",COUNTIFS(MainTable[Type],Y16,MainTable[Effective MCs],"&gt;0"))</f>
         <v>3</v>
       </c>
-      <c r="AC16" s="139">
+      <c r="AC16" s="157">
         <f>IF(Y16="","",IF(SUM(MainTable[Module Weight])=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Type],Y16)/SUM(MainTable[Module Weight]),2)))</f>
         <v>0.4</v>
       </c>
-      <c r="AD16" s="139"/>
-      <c r="AE16" s="103">
+      <c r="AD16" s="157"/>
+      <c r="AE16" s="98">
         <f>IF(AA16="","",AB16/AA16)</f>
         <v>0.42857142857142855</v>
       </c>
-      <c r="AF16" s="57">
+      <c r="AF16" s="54">
         <f>IF(Y16="","",IF(SUMIFS(MainTable[MC Footprint],MainTable[Type],Y16)=0,"-",ROUND(SUMIFS(MainTable[Module Weight],MainTable[Type],Y16)/SUMIFS(MainTable[MC Footprint],MainTable[Type],Y16),2)))</f>
         <v>3.77</v>
       </c>
     </row>
     <row r="17" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B17" s="90" t="s">
+      <c r="B17" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="91" t="s">
+      <c r="C17" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92">
+      <c r="D17" s="87"/>
+      <c r="E17" s="87">
         <v>1</v>
       </c>
-      <c r="F17" s="92"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="92"/>
-      <c r="I17" s="92"/>
-      <c r="J17" s="98">
+      <c r="F17" s="87"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="93">
         <v>3</v>
       </c>
-      <c r="K17" s="85" t="s">
+      <c r="K17" s="80" t="s">
         <v>29</v>
       </c>
       <c r="L17" s="2">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="M17" s="82" t="s">
+      <c r="M17" s="77" t="s">
         <v>90</v>
       </c>
       <c r="N17" s="3">
-        <f>IF(M17="N",SUM(D17:I17),IF(M17="Y",IF(L17&lt;2,0,SUM(D17:I17)),""))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="O17" s="3">
-        <f>IF(M17="Y",0,N17)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P17" s="13">
-        <f>IF(OR(L17="",O17=""),"",O17*L17)</f>
+        <f t="shared" si="3"/>
         <v>3.5</v>
       </c>
-      <c r="S17" s="52" t="s">
+      <c r="S17" s="50" t="s">
         <v>52</v>
       </c>
       <c r="T17" s="20">
         <f>SUM(MainTable[Level 2000 MCs])</f>
         <v>29</v>
       </c>
-      <c r="U17" s="69">
+      <c r="U17" s="66">
         <f>SUMIFS(MainTable[Level 2000 MCs],MainTable[Effective MCs],"&gt;0")</f>
-        <v>13</v>
-      </c>
-      <c r="V17" s="140" t="s">
+        <v>9</v>
+      </c>
+      <c r="V17" s="107" t="s">
         <v>75</v>
       </c>
-      <c r="W17" s="141"/>
-      <c r="X17" s="53">
+      <c r="W17" s="108"/>
+      <c r="X17" s="51">
         <f>COUNTA(MainTable[Grade])</f>
         <v>12</v>
       </c>
-      <c r="Y17" s="50" t="str">
+      <c r="Y17" s="48" t="str">
         <f t="array" ref="Y17">IFERROR(INDEX(MainTable[Type], MATCH(MIN(_xlfn.MODE.MULT(IF((MainTable[Type]&lt;&gt;"")*NOT(COUNTIF($Y$15:$Y16, MainTable[Type])), (COUNTIF(MainTable[Type], "&lt;"&amp;MainTable[Type])+1)*{1,1}))), IF((MainTable[Type]&lt;&gt;""),COUNTIF(MainTable[Type], "&lt;"&amp;MainTable[Type])+{1}), 0)), "")</f>
         <v>Science</v>
       </c>
-      <c r="Z17" s="54"/>
+      <c r="Z17" s="52"/>
       <c r="AA17" s="22">
         <f>IF(Y17="","",COUNTIF(MainTable[Type],Y17))</f>
         <v>5</v>
       </c>
-      <c r="AB17" s="55">
+      <c r="AB17" s="53">
         <f>IF(AA17="","",COUNTIFS(MainTable[Type],Y17,MainTable[Effective MCs],"&gt;0"))</f>
         <v>5</v>
       </c>
-      <c r="AC17" s="109">
+      <c r="AC17" s="115">
         <f>IF(Y17="","",IF(SUM(MainTable[Module Weight])=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Type],Y17)/SUM(MainTable[Module Weight]),2)))</f>
         <v>0.47</v>
       </c>
-      <c r="AD17" s="109"/>
-      <c r="AE17" s="104">
-        <f t="shared" ref="AE17:AE27" si="1">IF(AA17="","",AB17/AA17)</f>
+      <c r="AD17" s="115"/>
+      <c r="AE17" s="99">
+        <f t="shared" ref="AE17:AE27" si="4">IF(AA17="","",AB17/AA17)</f>
         <v>1</v>
       </c>
-      <c r="AF17" s="100">
+      <c r="AF17" s="95">
         <f>IF(Y17="","",IF(SUMIFS(MainTable[MC Footprint],MainTable[Type],Y17)=0,"-",ROUND(SUMIFS(MainTable[Module Weight],MainTable[Type],Y17)/SUMIFS(MainTable[MC Footprint],MainTable[Type],Y17),2)))</f>
         <v>2.9</v>
       </c>
     </row>
     <row r="18" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B18" s="90" t="s">
+      <c r="B18" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="91" t="s">
+      <c r="C18" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="92">
+      <c r="D18" s="87">
         <v>4</v>
       </c>
-      <c r="E18" s="92"/>
-      <c r="F18" s="92"/>
-      <c r="G18" s="92"/>
-      <c r="H18" s="92"/>
-      <c r="I18" s="92"/>
-      <c r="J18" s="98">
+      <c r="E18" s="87"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="93">
         <v>3</v>
       </c>
-      <c r="K18" s="85" t="s">
+      <c r="K18" s="80" t="s">
         <v>39</v>
       </c>
       <c r="L18" s="2">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="M18" s="82" t="s">
+      <c r="M18" s="77" t="s">
         <v>90</v>
       </c>
       <c r="N18" s="3">
-        <f>IF(M18="N",SUM(D18:I18),IF(M18="Y",IF(L18&lt;2,0,SUM(D18:I18)),""))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="O18" s="3">
-        <f>IF(M18="Y",0,N18)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="P18" s="13">
-        <f>IF(OR(L18="",O18=""),"",O18*L18)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="S18" s="52" t="s">
+      <c r="S18" s="50" t="s">
         <v>53</v>
       </c>
       <c r="T18" s="20">
         <f>SUM(MainTable[Level 3000 MCs])</f>
         <v>12</v>
       </c>
-      <c r="U18" s="69">
+      <c r="U18" s="66">
         <f>SUMIFS(MainTable[Level 3000 MCs],MainTable[Effective MCs],"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="V18" s="140" t="s">
+      <c r="V18" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="W18" s="141"/>
-      <c r="X18" s="53">
+      <c r="W18" s="108"/>
+      <c r="X18" s="51">
         <f>SUM(T16:T29)</f>
         <v>82</v>
       </c>
-      <c r="Y18" s="50" t="str">
+      <c r="Y18" s="48" t="str">
         <f t="array" ref="Y18">IFERROR(INDEX(MainTable[Type], MATCH(MIN(_xlfn.MODE.MULT(IF((MainTable[Type]&lt;&gt;"")*NOT(COUNTIF($Y$15:$Y17, MainTable[Type])), (COUNTIF(MainTable[Type], "&lt;"&amp;MainTable[Type])+1)*{1,1}))), IF((MainTable[Type]&lt;&gt;""),COUNTIF(MainTable[Type], "&lt;"&amp;MainTable[Type])+{1}), 0)), "")</f>
         <v>Focus Area</v>
       </c>
-      <c r="Z18" s="54"/>
+      <c r="Z18" s="52"/>
       <c r="AA18" s="22">
         <f>IF(Y18="","",COUNTIF(MainTable[Type],Y18))</f>
         <v>2</v>
       </c>
-      <c r="AB18" s="55">
+      <c r="AB18" s="53">
         <f>IF(AA18="","",COUNTIFS(MainTable[Type],Y18,MainTable[Effective MCs],"&gt;0"))</f>
         <v>0</v>
       </c>
-      <c r="AC18" s="109">
+      <c r="AC18" s="115">
         <f>IF(Y18="","",IF(SUM(MainTable[Module Weight])=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Type],Y18)/SUM(MainTable[Module Weight]),2)))</f>
         <v>0</v>
       </c>
-      <c r="AD18" s="109"/>
-      <c r="AE18" s="104">
-        <f t="shared" si="1"/>
+      <c r="AD18" s="115"/>
+      <c r="AE18" s="99">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AF18" s="100" t="str">
+      <c r="AF18" s="95" t="str">
         <f>IF(Y18="","",IF(SUMIFS(MainTable[MC Footprint],MainTable[Type],Y18)=0,"-",ROUND(SUMIFS(MainTable[Module Weight],MainTable[Type],Y18)/SUMIFS(MainTable[MC Footprint],MainTable[Type],Y18),2)))</f>
         <v>-</v>
       </c>
     </row>
     <row r="19" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B19" s="90" t="s">
+      <c r="B19" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="91" t="s">
+      <c r="C19" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="92"/>
-      <c r="E19" s="92">
+      <c r="D19" s="87"/>
+      <c r="E19" s="87">
         <v>4</v>
       </c>
-      <c r="F19" s="92"/>
-      <c r="G19" s="92"/>
-      <c r="H19" s="92"/>
-      <c r="I19" s="92"/>
-      <c r="J19" s="98">
+      <c r="F19" s="87"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="93">
         <v>3</v>
       </c>
-      <c r="K19" s="85" t="s">
+      <c r="K19" s="80" t="s">
         <v>49</v>
       </c>
       <c r="L19" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M19" s="82" t="s">
-        <v>90</v>
+      <c r="M19" s="77" t="s">
+        <v>73</v>
       </c>
       <c r="N19" s="3">
-        <f>IF(M19="N",SUM(D19:I19),IF(M19="Y",IF(L19&lt;2,0,SUM(D19:I19)),""))</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O19" s="3">
-        <f>IF(M19="Y",0,N19)</f>
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="P19" s="13">
-        <f>IF(OR(L19="",O19=""),"",O19*L19)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S19" s="52" t="s">
+      <c r="S19" s="50" t="s">
         <v>54</v>
       </c>
       <c r="T19" s="20">
         <f>SUM(MainTable[Level 4000 MCs])</f>
         <v>0</v>
       </c>
-      <c r="U19" s="69">
+      <c r="U19" s="66">
         <f>SUMIFS(MainTable[Level 4000 MCs],MainTable[Effective MCs],"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="V19" s="140" t="s">
+      <c r="V19" s="107" t="s">
         <v>76</v>
       </c>
-      <c r="W19" s="141"/>
-      <c r="X19" s="53">
+      <c r="W19" s="108"/>
+      <c r="X19" s="51">
         <f>COUNTA(MainTable[Module code])</f>
         <v>21</v>
       </c>
-      <c r="Y19" s="50" t="str">
+      <c r="Y19" s="48" t="str">
         <f t="array" ref="Y19">IFERROR(INDEX(MainTable[Type], MATCH(MIN(_xlfn.MODE.MULT(IF((MainTable[Type]&lt;&gt;"")*NOT(COUNTIF($Y$15:$Y18, MainTable[Type])), (COUNTIF(MainTable[Type], "&lt;"&amp;MainTable[Type])+1)*{1,1}))), IF((MainTable[Type]&lt;&gt;""),COUNTIF(MainTable[Type], "&lt;"&amp;MainTable[Type])+{1}), 0)), "")</f>
         <v>GEM</v>
       </c>
-      <c r="Z19" s="54"/>
+      <c r="Z19" s="52"/>
       <c r="AA19" s="22">
         <f>IF(Y19="","",COUNTIF(MainTable[Type],Y19))</f>
         <v>2</v>
       </c>
-      <c r="AB19" s="55">
+      <c r="AB19" s="53">
         <f>IF(AA19="","",COUNTIFS(MainTable[Type],Y19,MainTable[Effective MCs],"&gt;0"))</f>
         <v>0</v>
       </c>
-      <c r="AC19" s="109">
+      <c r="AC19" s="115">
         <f>IF(Y19="","",IF(SUM(MainTable[Module Weight])=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Type],Y19)/SUM(MainTable[Module Weight]),2)))</f>
         <v>0</v>
       </c>
-      <c r="AD19" s="109"/>
-      <c r="AE19" s="104">
-        <f t="shared" si="1"/>
+      <c r="AD19" s="115"/>
+      <c r="AE19" s="99">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AF19" s="100" t="str">
+      <c r="AF19" s="95" t="str">
         <f>IF(Y19="","",IF(SUMIFS(MainTable[MC Footprint],MainTable[Type],Y19)=0,"-",ROUND(SUMIFS(MainTable[Module Weight],MainTable[Type],Y19)/SUMIFS(MainTable[MC Footprint],MainTable[Type],Y19),2)))</f>
         <v>-</v>
       </c>
     </row>
     <row r="20" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B20" s="90" t="s">
+      <c r="B20" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="91" t="s">
+      <c r="C20" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="92">
+      <c r="D20" s="87">
         <v>4</v>
       </c>
-      <c r="E20" s="92"/>
-      <c r="F20" s="92"/>
-      <c r="G20" s="92"/>
-      <c r="H20" s="92"/>
-      <c r="I20" s="92"/>
-      <c r="J20" s="98">
+      <c r="E20" s="87"/>
+      <c r="F20" s="87"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="93">
         <v>3</v>
       </c>
-      <c r="K20" s="85"/>
+      <c r="K20" s="80"/>
       <c r="L20" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M20" s="82"/>
+      <c r="M20" s="77"/>
       <c r="N20" s="3" t="str">
-        <f>IF(M20="N",SUM(D20:I20),IF(M20="Y",IF(L20&lt;2,0,SUM(D20:I20)),""))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O20" s="3" t="str">
-        <f>IF(M20="Y",0,N20)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="P20" s="13" t="str">
-        <f>IF(OR(L20="",O20=""),"",O20*L20)</f>
-        <v/>
-      </c>
-      <c r="S20" s="52" t="s">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="S20" s="50" t="s">
         <v>55</v>
       </c>
       <c r="T20" s="20">
         <f>SUM(MainTable[Level 5000 MCs])</f>
         <v>0</v>
       </c>
-      <c r="U20" s="69">
+      <c r="U20" s="66">
         <f>SUMIFS(MainTable[Level 5000 MCs],MainTable[Effective MCs],"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="V20" s="140" t="s">
+      <c r="V20" s="107" t="s">
         <v>86</v>
       </c>
-      <c r="W20" s="141"/>
-      <c r="X20" s="80">
+      <c r="W20" s="108"/>
+      <c r="X20" s="76">
         <f>COUNTIF(MainTable[S/U],"Y")</f>
-        <v>1</v>
-      </c>
-      <c r="Y20" s="50" t="str">
+        <v>2</v>
+      </c>
+      <c r="Y20" s="48" t="str">
         <f t="array" ref="Y20">IFERROR(INDEX(MainTable[Type], MATCH(MIN(_xlfn.MODE.MULT(IF((MainTable[Type]&lt;&gt;"")*NOT(COUNTIF($Y$15:$Y19, MainTable[Type])), (COUNTIF(MainTable[Type], "&lt;"&amp;MainTable[Type])+1)*{1,1}))), IF((MainTable[Type]&lt;&gt;""),COUNTIF(MainTable[Type], "&lt;"&amp;MainTable[Type])+{1}), 0)), "")</f>
         <v>UE</v>
       </c>
-      <c r="Z20" s="54"/>
+      <c r="Z20" s="52"/>
       <c r="AA20" s="22">
         <f>IF(Y20="","",COUNTIF(MainTable[Type],Y20))</f>
         <v>2</v>
       </c>
-      <c r="AB20" s="55">
+      <c r="AB20" s="53">
         <f>IF(AA20="","",COUNTIFS(MainTable[Type],Y20,MainTable[Effective MCs],"&gt;0"))</f>
         <v>1</v>
       </c>
-      <c r="AC20" s="109">
+      <c r="AC20" s="115">
         <f>IF(Y20="","",IF(SUM(MainTable[Module Weight])=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Type],Y20)/SUM(MainTable[Module Weight]),2)))</f>
         <v>0.03</v>
       </c>
-      <c r="AD20" s="109"/>
-      <c r="AE20" s="104">
-        <f t="shared" si="1"/>
+      <c r="AD20" s="115"/>
+      <c r="AE20" s="99">
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="AF20" s="100">
+      <c r="AF20" s="95">
         <f>IF(Y20="","",IF(SUMIFS(MainTable[MC Footprint],MainTable[Type],Y20)=0,"-",ROUND(SUMIFS(MainTable[Module Weight],MainTable[Type],Y20)/SUMIFS(MainTable[MC Footprint],MainTable[Type],Y20),2)))</f>
         <v>3.5</v>
       </c>
     </row>
     <row r="21" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B21" s="90" t="s">
+      <c r="B21" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="91" t="s">
+      <c r="C21" s="86" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92">
+      <c r="D21" s="87"/>
+      <c r="E21" s="87">
         <v>4</v>
       </c>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="98">
+      <c r="F21" s="87"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="87"/>
+      <c r="I21" s="87"/>
+      <c r="J21" s="93">
         <v>3</v>
       </c>
-      <c r="K21" s="85"/>
+      <c r="K21" s="80"/>
       <c r="L21" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M21" s="82"/>
+      <c r="M21" s="77"/>
       <c r="N21" s="3" t="str">
-        <f>IF(M21="N",SUM(D21:I21),IF(M21="Y",IF(L21&lt;2,0,SUM(D21:I21)),""))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O21" s="3" t="str">
-        <f>IF(M21="Y",0,N21)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="P21" s="13" t="str">
-        <f>IF(OR(L21="",O21=""),"",O21*L21)</f>
-        <v/>
-      </c>
-      <c r="S21" s="52" t="s">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="S21" s="50" t="s">
         <v>56</v>
       </c>
       <c r="T21" s="20">
         <f>SUM(MainTable[Level 6000 MCs])</f>
         <v>0</v>
       </c>
-      <c r="U21" s="69">
+      <c r="U21" s="66">
         <f>SUMIFS(MainTable[Level 6000 MCs],MainTable[Effective MCs],"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="V21" s="140"/>
-      <c r="W21" s="141"/>
-      <c r="X21" s="53"/>
-      <c r="Y21" s="50" t="str">
+      <c r="V21" s="107"/>
+      <c r="W21" s="108"/>
+      <c r="X21" s="51"/>
+      <c r="Y21" s="48" t="str">
         <f t="array" ref="Y21">IFERROR(INDEX(MainTable[Type], MATCH(MIN(_xlfn.MODE.MULT(IF((MainTable[Type]&lt;&gt;"")*NOT(COUNTIF($Y$15:$Y20, MainTable[Type])), (COUNTIF(MainTable[Type], "&lt;"&amp;MainTable[Type])+1)*{1,1}))), IF((MainTable[Type]&lt;&gt;""),COUNTIF(MainTable[Type], "&lt;"&amp;MainTable[Type])+{1}), 0)), "")</f>
         <v>Breadth</v>
       </c>
-      <c r="Z21" s="54"/>
+      <c r="Z21" s="52"/>
       <c r="AA21" s="22">
         <f>IF(Y21="","",COUNTIF(MainTable[Type],Y21))</f>
         <v>1</v>
       </c>
-      <c r="AB21" s="55">
+      <c r="AB21" s="53">
         <f>IF(AA21="","",COUNTIFS(MainTable[Type],Y21,MainTable[Effective MCs],"&gt;0"))</f>
         <v>1</v>
       </c>
-      <c r="AC21" s="109">
+      <c r="AC21" s="115">
         <f>IF(Y21="","",IF(SUM(MainTable[Module Weight])=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Type],Y21)/SUM(MainTable[Module Weight]),2)))</f>
         <v>0.1</v>
       </c>
-      <c r="AD21" s="109"/>
-      <c r="AE21" s="104">
-        <f t="shared" si="1"/>
+      <c r="AD21" s="115"/>
+      <c r="AE21" s="99">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AF21" s="100">
+      <c r="AF21" s="95">
         <f>IF(Y21="","",IF(SUMIFS(MainTable[MC Footprint],MainTable[Type],Y21)=0,"-",ROUND(SUMIFS(MainTable[Module Weight],MainTable[Type],Y21)/SUMIFS(MainTable[MC Footprint],MainTable[Type],Y21),2)))</f>
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B22" s="90" t="s">
+      <c r="B22" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="91" t="s">
+      <c r="C22" s="86" t="s">
         <v>77</v>
       </c>
-      <c r="D22" s="92"/>
-      <c r="E22" s="92">
+      <c r="D22" s="87"/>
+      <c r="E22" s="87">
         <v>4</v>
       </c>
-      <c r="F22" s="92"/>
-      <c r="G22" s="92"/>
-      <c r="H22" s="92"/>
-      <c r="I22" s="92"/>
-      <c r="J22" s="98">
+      <c r="F22" s="87"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="87"/>
+      <c r="J22" s="93">
         <v>3</v>
       </c>
-      <c r="K22" s="85"/>
+      <c r="K22" s="80"/>
       <c r="L22" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M22" s="82"/>
+      <c r="M22" s="77"/>
       <c r="N22" s="3" t="str">
-        <f>IF(M22="N",SUM(D22:I22),IF(M22="Y",IF(L22&lt;2,0,SUM(D22:I22)),""))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O22" s="3" t="str">
-        <f>IF(M22="Y",0,N22)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="P22" s="13" t="str">
-        <f>IF(OR(L22="",O22=""),"",O22*L22)</f>
-        <v/>
-      </c>
-      <c r="S22" s="52"/>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="S22" s="50"/>
       <c r="T22" s="20"/>
-      <c r="U22" s="69"/>
-      <c r="V22" s="48"/>
-      <c r="W22" s="49"/>
-      <c r="X22" s="53"/>
-      <c r="Y22" s="50" t="str">
+      <c r="U22" s="66"/>
+      <c r="V22" s="104"/>
+      <c r="W22" s="105"/>
+      <c r="X22" s="51"/>
+      <c r="Y22" s="48" t="str">
         <f t="array" ref="Y22">IFERROR(INDEX(MainTable[Type], MATCH(MIN(_xlfn.MODE.MULT(IF((MainTable[Type]&lt;&gt;"")*NOT(COUNTIF($Y$15:$Y21, MainTable[Type])), (COUNTIF(MainTable[Type], "&lt;"&amp;MainTable[Type])+1)*{1,1}))), IF((MainTable[Type]&lt;&gt;""),COUNTIF(MainTable[Type], "&lt;"&amp;MainTable[Type])+{1}), 0)), "")</f>
         <v>IT Professionalism</v>
       </c>
-      <c r="Z22" s="54"/>
+      <c r="Z22" s="52"/>
       <c r="AA22" s="22">
         <f>IF(Y22="","",COUNTIF(MainTable[Type],Y22))</f>
         <v>1</v>
       </c>
-      <c r="AB22" s="55">
+      <c r="AB22" s="53">
         <f>IF(AA22="","",COUNTIFS(MainTable[Type],Y22,MainTable[Effective MCs],"&gt;0"))</f>
-        <v>1</v>
-      </c>
-      <c r="AC22" s="109">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="115">
         <f>IF(Y22="","",IF(SUM(MainTable[Module Weight])=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Type],Y22)/SUM(MainTable[Module Weight]),2)))</f>
         <v>0</v>
       </c>
-      <c r="AD22" s="109"/>
-      <c r="AE22" s="104">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AF22" s="100">
+      <c r="AD22" s="115"/>
+      <c r="AE22" s="99">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF22" s="95" t="str">
         <f>IF(Y22="","",IF(SUMIFS(MainTable[MC Footprint],MainTable[Type],Y22)=0,"-",ROUND(SUMIFS(MainTable[Module Weight],MainTable[Type],Y22)/SUMIFS(MainTable[MC Footprint],MainTable[Type],Y22),2)))</f>
-        <v>0</v>
+        <v>-</v>
       </c>
     </row>
     <row r="23" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B23" s="90" t="s">
+      <c r="B23" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="91" t="s">
+      <c r="C23" s="86" t="s">
         <v>77</v>
       </c>
-      <c r="D23" s="92"/>
-      <c r="E23" s="92">
+      <c r="D23" s="87"/>
+      <c r="E23" s="87">
         <v>4</v>
       </c>
-      <c r="F23" s="92"/>
-      <c r="G23" s="92"/>
-      <c r="H23" s="92"/>
-      <c r="I23" s="92"/>
-      <c r="J23" s="98">
+      <c r="F23" s="87"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="87"/>
+      <c r="J23" s="93">
         <v>3</v>
       </c>
-      <c r="K23" s="85"/>
+      <c r="K23" s="80"/>
       <c r="L23" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M23" s="82"/>
+      <c r="M23" s="77"/>
       <c r="N23" s="3" t="str">
-        <f>IF(M23="N",SUM(D23:I23),IF(M23="Y",IF(L23&lt;2,0,SUM(D23:I23)),""))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O23" s="3" t="str">
-        <f>IF(M23="Y",0,N23)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="P23" s="13" t="str">
-        <f>IF(OR(L23="",O23=""),"",O23*L23)</f>
-        <v/>
-      </c>
-      <c r="S23" s="52"/>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="S23" s="50"/>
       <c r="T23" s="20"/>
-      <c r="U23" s="69"/>
-      <c r="V23" s="48"/>
-      <c r="W23" s="49"/>
-      <c r="X23" s="53"/>
-      <c r="Y23" s="50" t="str">
+      <c r="U23" s="66"/>
+      <c r="V23" s="104"/>
+      <c r="W23" s="105"/>
+      <c r="X23" s="51"/>
+      <c r="Y23" s="48" t="str">
         <f t="array" ref="Y23">IFERROR(INDEX(MainTable[Type], MATCH(MIN(_xlfn.MODE.MULT(IF((MainTable[Type]&lt;&gt;"")*NOT(COUNTIF($Y$15:$Y22, MainTable[Type])), (COUNTIF(MainTable[Type], "&lt;"&amp;MainTable[Type])+1)*{1,1}))), IF((MainTable[Type]&lt;&gt;""),COUNTIF(MainTable[Type], "&lt;"&amp;MainTable[Type])+{1}), 0)), "")</f>
         <v>Singapore Studies</v>
       </c>
-      <c r="Z23" s="54"/>
+      <c r="Z23" s="52"/>
       <c r="AA23" s="22">
         <f>IF(Y23="","",COUNTIF(MainTable[Type],Y23))</f>
         <v>1</v>
       </c>
-      <c r="AB23" s="55">
+      <c r="AB23" s="53">
         <f>IF(AA23="","",COUNTIFS(MainTable[Type],Y23,MainTable[Effective MCs],"&gt;0"))</f>
         <v>0</v>
       </c>
-      <c r="AC23" s="109">
+      <c r="AC23" s="115">
         <f>IF(Y23="","",IF(SUM(MainTable[Module Weight])=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Type],Y23)/SUM(MainTable[Module Weight]),2)))</f>
         <v>0</v>
       </c>
-      <c r="AD23" s="109"/>
-      <c r="AE23" s="104">
-        <f t="shared" si="1"/>
+      <c r="AD23" s="115"/>
+      <c r="AE23" s="99">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AF23" s="100" t="str">
+      <c r="AF23" s="95" t="str">
         <f>IF(Y23="","",IF(SUMIFS(MainTable[MC Footprint],MainTable[Type],Y23)=0,"-",ROUND(SUMIFS(MainTable[Module Weight],MainTable[Type],Y23)/SUMIFS(MainTable[MC Footprint],MainTable[Type],Y23),2)))</f>
         <v>-</v>
       </c>
     </row>
     <row r="24" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B24" s="90" t="s">
+      <c r="B24" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="91" t="s">
+      <c r="C24" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="92">
+      <c r="D24" s="87">
         <v>4</v>
       </c>
-      <c r="E24" s="92"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="92"/>
-      <c r="H24" s="92"/>
-      <c r="I24" s="92"/>
-      <c r="J24" s="98">
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="93">
         <v>4</v>
       </c>
-      <c r="K24" s="85"/>
+      <c r="K24" s="80"/>
       <c r="L24" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M24" s="82"/>
+      <c r="M24" s="77"/>
       <c r="N24" s="3" t="str">
-        <f>IF(M24="N",SUM(D24:I24),IF(M24="Y",IF(L24&lt;2,0,SUM(D24:I24)),""))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O24" s="3" t="str">
-        <f>IF(M24="Y",0,N24)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="P24" s="13" t="str">
-        <f>IF(OR(L24="",O24=""),"",O24*L24)</f>
-        <v/>
-      </c>
-      <c r="S24" s="52"/>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="S24" s="50"/>
       <c r="T24" s="20"/>
-      <c r="U24" s="69"/>
-      <c r="V24" s="48"/>
-      <c r="W24" s="49"/>
-      <c r="X24" s="53"/>
-      <c r="Y24" s="50" t="str">
+      <c r="U24" s="66"/>
+      <c r="V24" s="104"/>
+      <c r="W24" s="105"/>
+      <c r="X24" s="51"/>
+      <c r="Y24" s="48" t="str">
         <f t="array" ref="Y24">IFERROR(INDEX(MainTable[Type], MATCH(MIN(_xlfn.MODE.MULT(IF((MainTable[Type]&lt;&gt;"")*NOT(COUNTIF($Y$15:$Y23, MainTable[Type])), (COUNTIF(MainTable[Type], "&lt;"&amp;MainTable[Type])+1)*{1,1}))), IF((MainTable[Type]&lt;&gt;""),COUNTIF(MainTable[Type], "&lt;"&amp;MainTable[Type])+{1}), 0)), "")</f>
         <v/>
       </c>
-      <c r="Z24" s="54"/>
+      <c r="Z24" s="52"/>
       <c r="AA24" s="22" t="str">
         <f>IF(Y24="","",COUNTIF(MainTable[Type],Y24))</f>
         <v/>
       </c>
-      <c r="AB24" s="55" t="str">
+      <c r="AB24" s="53" t="str">
         <f>IF(AA24="","",COUNTIFS(MainTable[Type],Y24,MainTable[Effective MCs],"&gt;0"))</f>
         <v/>
       </c>
-      <c r="AC24" s="109" t="str">
+      <c r="AC24" s="115" t="str">
         <f>IF(Y24="","",IF(SUM(MainTable[Module Weight])=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Type],Y24)/SUM(MainTable[Module Weight]),2)))</f>
         <v/>
       </c>
-      <c r="AD24" s="109"/>
-      <c r="AE24" s="104" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AF24" s="100" t="str">
+      <c r="AD24" s="115"/>
+      <c r="AE24" s="99" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AF24" s="95" t="str">
         <f>IF(Y24="","",IF(SUMIFS(MainTable[MC Footprint],MainTable[Type],Y24)=0,"-",ROUND(SUMIFS(MainTable[Module Weight],MainTable[Type],Y24)/SUMIFS(MainTable[MC Footprint],MainTable[Type],Y24),2)))</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B25" s="90" t="s">
+      <c r="B25" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="91" t="s">
+      <c r="C25" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="92">
+      <c r="D25" s="87">
         <v>4</v>
       </c>
-      <c r="E25" s="92"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="92"/>
-      <c r="H25" s="92"/>
-      <c r="I25" s="92"/>
-      <c r="J25" s="98">
+      <c r="E25" s="87"/>
+      <c r="F25" s="87"/>
+      <c r="G25" s="87"/>
+      <c r="H25" s="87"/>
+      <c r="I25" s="87"/>
+      <c r="J25" s="93">
         <v>4</v>
       </c>
-      <c r="K25" s="85"/>
+      <c r="K25" s="80"/>
       <c r="L25" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M25" s="82"/>
+      <c r="M25" s="77"/>
       <c r="N25" s="3" t="str">
-        <f>IF(M25="N",SUM(D25:I25),IF(M25="Y",IF(L25&lt;2,0,SUM(D25:I25)),""))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O25" s="3" t="str">
-        <f>IF(M25="Y",0,N25)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="P25" s="13" t="str">
-        <f>IF(OR(L25="",O25=""),"",O25*L25)</f>
-        <v/>
-      </c>
-      <c r="S25" s="52"/>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="S25" s="50"/>
       <c r="T25" s="20"/>
-      <c r="U25" s="69"/>
-      <c r="V25" s="48"/>
-      <c r="W25" s="49"/>
-      <c r="X25" s="53"/>
-      <c r="Y25" s="50" t="str">
+      <c r="U25" s="66"/>
+      <c r="V25" s="104"/>
+      <c r="W25" s="105"/>
+      <c r="X25" s="51"/>
+      <c r="Y25" s="48" t="str">
         <f t="array" ref="Y25">IFERROR(INDEX(MainTable[Type], MATCH(MIN(_xlfn.MODE.MULT(IF((MainTable[Type]&lt;&gt;"")*NOT(COUNTIF($Y$15:$Y24, MainTable[Type])), (COUNTIF(MainTable[Type], "&lt;"&amp;MainTable[Type])+1)*{1,1}))), IF((MainTable[Type]&lt;&gt;""),COUNTIF(MainTable[Type], "&lt;"&amp;MainTable[Type])+{1}), 0)), "")</f>
         <v/>
       </c>
-      <c r="Z25" s="54"/>
+      <c r="Z25" s="52"/>
       <c r="AA25" s="22" t="str">
         <f>IF(Y25="","",COUNTIF(MainTable[Type],Y25))</f>
         <v/>
       </c>
-      <c r="AB25" s="55" t="str">
+      <c r="AB25" s="53" t="str">
         <f>IF(AA25="","",COUNTIFS(MainTable[Type],Y25,MainTable[Effective MCs],"&gt;0"))</f>
         <v/>
       </c>
-      <c r="AC25" s="109" t="str">
+      <c r="AC25" s="115" t="str">
         <f>IF(Y25="","",IF(SUM(MainTable[Module Weight])=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Type],Y25)/SUM(MainTable[Module Weight]),2)))</f>
         <v/>
       </c>
-      <c r="AD25" s="109"/>
-      <c r="AE25" s="104" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AF25" s="100" t="str">
+      <c r="AD25" s="115"/>
+      <c r="AE25" s="99" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AF25" s="95" t="str">
         <f>IF(Y25="","",IF(SUMIFS(MainTable[MC Footprint],MainTable[Type],Y25)=0,"-",ROUND(SUMIFS(MainTable[Module Weight],MainTable[Type],Y25)/SUMIFS(MainTable[MC Footprint],MainTable[Type],Y25),2)))</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B26" s="90" t="s">
+      <c r="B26" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="91" t="s">
+      <c r="C26" s="86" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="92"/>
-      <c r="E26" s="92"/>
-      <c r="F26" s="92">
+      <c r="D26" s="87"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="87">
         <v>4</v>
       </c>
-      <c r="G26" s="92"/>
-      <c r="H26" s="92"/>
-      <c r="I26" s="92"/>
-      <c r="J26" s="98">
+      <c r="G26" s="87"/>
+      <c r="H26" s="87"/>
+      <c r="I26" s="87"/>
+      <c r="J26" s="93">
         <v>4</v>
       </c>
-      <c r="K26" s="85"/>
+      <c r="K26" s="80"/>
       <c r="L26" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M26" s="82"/>
+      <c r="M26" s="77"/>
       <c r="N26" s="3" t="str">
-        <f>IF(M26="N",SUM(D26:I26),IF(M26="Y",IF(L26&lt;2,0,SUM(D26:I26)),""))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O26" s="3" t="str">
-        <f>IF(M26="Y",0,N26)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="P26" s="13" t="str">
-        <f>IF(OR(L26="",O26=""),"",O26*L26)</f>
-        <v/>
-      </c>
-      <c r="S26" s="52"/>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="S26" s="50"/>
       <c r="T26" s="20"/>
-      <c r="U26" s="69"/>
-      <c r="V26" s="48"/>
-      <c r="W26" s="49"/>
-      <c r="X26" s="53"/>
-      <c r="Y26" s="50" t="str">
+      <c r="U26" s="66"/>
+      <c r="V26" s="104"/>
+      <c r="W26" s="105"/>
+      <c r="X26" s="51"/>
+      <c r="Y26" s="48" t="str">
         <f t="array" ref="Y26">IFERROR(INDEX(MainTable[Type], MATCH(MIN(_xlfn.MODE.MULT(IF((MainTable[Type]&lt;&gt;"")*NOT(COUNTIF($Y$15:$Y25, MainTable[Type])), (COUNTIF(MainTable[Type], "&lt;"&amp;MainTable[Type])+1)*{1,1}))), IF((MainTable[Type]&lt;&gt;""),COUNTIF(MainTable[Type], "&lt;"&amp;MainTable[Type])+{1}), 0)), "")</f>
         <v/>
       </c>
-      <c r="Z26" s="54"/>
+      <c r="Z26" s="52"/>
       <c r="AA26" s="22" t="str">
         <f>IF(Y26="","",COUNTIF(MainTable[Type],Y26))</f>
         <v/>
       </c>
-      <c r="AB26" s="55" t="str">
+      <c r="AB26" s="53" t="str">
         <f>IF(AA26="","",COUNTIFS(MainTable[Type],Y26,MainTable[Effective MCs],"&gt;0"))</f>
         <v/>
       </c>
-      <c r="AC26" s="109" t="str">
+      <c r="AC26" s="115" t="str">
         <f>IF(Y26="","",IF(SUM(MainTable[Module Weight])=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Type],Y26)/SUM(MainTable[Module Weight]),2)))</f>
         <v/>
       </c>
-      <c r="AD26" s="109"/>
-      <c r="AE26" s="104" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AF26" s="100" t="str">
+      <c r="AD26" s="115"/>
+      <c r="AE26" s="99" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AF26" s="95" t="str">
         <f>IF(Y26="","",IF(SUMIFS(MainTable[MC Footprint],MainTable[Type],Y26)=0,"-",ROUND(SUMIFS(MainTable[Module Weight],MainTable[Type],Y26)/SUMIFS(MainTable[MC Footprint],MainTable[Type],Y26),2)))</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="2:32" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="90" t="s">
+      <c r="B27" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="91" t="s">
+      <c r="C27" s="86" t="s">
         <v>79</v>
       </c>
-      <c r="D27" s="92"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="92">
+      <c r="D27" s="87"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="87">
         <v>4</v>
       </c>
-      <c r="G27" s="92"/>
-      <c r="H27" s="92"/>
-      <c r="I27" s="92"/>
-      <c r="J27" s="98">
+      <c r="G27" s="87"/>
+      <c r="H27" s="87"/>
+      <c r="I27" s="87"/>
+      <c r="J27" s="93">
         <v>4</v>
       </c>
-      <c r="K27" s="85"/>
+      <c r="K27" s="80"/>
       <c r="L27" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M27" s="82"/>
+      <c r="M27" s="77"/>
       <c r="N27" s="3" t="str">
-        <f>IF(M27="N",SUM(D27:I27),IF(M27="Y",IF(L27&lt;2,0,SUM(D27:I27)),""))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O27" s="3" t="str">
-        <f>IF(M27="Y",0,N27)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="P27" s="13" t="str">
-        <f>IF(OR(L27="",O27=""),"",O27*L27)</f>
-        <v/>
-      </c>
-      <c r="S27" s="52"/>
-      <c r="T27" s="67"/>
-      <c r="U27" s="70"/>
-      <c r="V27" s="71"/>
-      <c r="W27" s="72"/>
-      <c r="X27" s="53"/>
-      <c r="Y27" s="60" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="S27" s="50"/>
+      <c r="T27" s="64"/>
+      <c r="U27" s="67"/>
+      <c r="V27" s="68"/>
+      <c r="W27" s="69"/>
+      <c r="X27" s="51"/>
+      <c r="Y27" s="57" t="str">
         <f t="array" ref="Y27">IFERROR(INDEX(MainTable[Type], MATCH(MIN(_xlfn.MODE.MULT(IF((MainTable[Type]&lt;&gt;"")*NOT(COUNTIF($Y$15:$Y26, MainTable[Type])), (COUNTIF(MainTable[Type], "&lt;"&amp;MainTable[Type])+1)*{1,1}))), IF((MainTable[Type]&lt;&gt;""),COUNTIF(MainTable[Type], "&lt;"&amp;MainTable[Type])+{1}), 0)), "")</f>
         <v/>
       </c>
-      <c r="Z27" s="61"/>
-      <c r="AA27" s="64" t="str">
+      <c r="Z27" s="58"/>
+      <c r="AA27" s="61" t="str">
         <f>IF(Y27="","",COUNTIF(MainTable[Type],Y27))</f>
         <v/>
       </c>
-      <c r="AB27" s="62" t="str">
+      <c r="AB27" s="59" t="str">
         <f>IF(AA27="","",COUNTIFS(MainTable[Type],Y27,MainTable[Effective MCs],"&gt;0"))</f>
         <v/>
       </c>
-      <c r="AC27" s="110" t="str">
+      <c r="AC27" s="158" t="str">
         <f>IF(Y27="","",IF(SUM(MainTable[Module Weight])=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Type],Y27)/SUM(MainTable[Module Weight]),2)))</f>
         <v/>
       </c>
-      <c r="AD27" s="110"/>
-      <c r="AE27" s="105" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AF27" s="101" t="str">
+      <c r="AD27" s="158"/>
+      <c r="AE27" s="100" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AF27" s="96" t="str">
         <f>IF(Y27="","",IF(SUMIFS(MainTable[MC Footprint],MainTable[Type],Y27)=0,"-",ROUND(SUMIFS(MainTable[Module Weight],MainTable[Type],Y27)/SUMIFS(MainTable[MC Footprint],MainTable[Type],Y27),2)))</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B28" s="90" t="s">
+      <c r="B28" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="91" t="s">
+      <c r="C28" s="86" t="s">
         <v>79</v>
       </c>
-      <c r="D28" s="92"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="92">
+      <c r="D28" s="87"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="87">
         <v>4</v>
       </c>
-      <c r="G28" s="92"/>
-      <c r="H28" s="92"/>
-      <c r="I28" s="92"/>
-      <c r="J28" s="98">
+      <c r="G28" s="87"/>
+      <c r="H28" s="87"/>
+      <c r="I28" s="87"/>
+      <c r="J28" s="93">
         <v>4</v>
       </c>
-      <c r="K28" s="85"/>
+      <c r="K28" s="80"/>
       <c r="L28" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M28" s="82"/>
+      <c r="M28" s="77"/>
       <c r="N28" s="3" t="str">
-        <f>IF(M28="N",SUM(D28:I28),IF(M28="Y",IF(L28&lt;2,0,SUM(D28:I28)),""))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O28" s="3" t="str">
-        <f>IF(M28="Y",0,N28)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="P28" s="13" t="str">
-        <f>IF(OR(L28="",O28=""),"",O28*L28)</f>
-        <v/>
-      </c>
-      <c r="S28" s="152" t="s">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="S28" s="120" t="s">
         <v>80</v>
       </c>
-      <c r="T28" s="153"/>
-      <c r="U28" s="153"/>
-      <c r="V28" s="154"/>
-      <c r="W28" s="154"/>
-      <c r="X28" s="153"/>
-      <c r="Y28" s="154"/>
-      <c r="Z28" s="154"/>
-      <c r="AA28" s="154"/>
-      <c r="AB28" s="154"/>
-      <c r="AC28" s="154"/>
-      <c r="AD28" s="154"/>
-      <c r="AE28" s="154"/>
-      <c r="AF28" s="155"/>
+      <c r="T28" s="121"/>
+      <c r="U28" s="121"/>
+      <c r="V28" s="122"/>
+      <c r="W28" s="122"/>
+      <c r="X28" s="121"/>
+      <c r="Y28" s="122"/>
+      <c r="Z28" s="122"/>
+      <c r="AA28" s="122"/>
+      <c r="AB28" s="122"/>
+      <c r="AC28" s="122"/>
+      <c r="AD28" s="122"/>
+      <c r="AE28" s="122"/>
+      <c r="AF28" s="123"/>
     </row>
     <row r="29" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="90"/>
-      <c r="C29" s="91"/>
-      <c r="D29" s="92"/>
-      <c r="E29" s="92"/>
-      <c r="F29" s="92"/>
-      <c r="G29" s="92"/>
-      <c r="H29" s="92"/>
-      <c r="I29" s="92"/>
-      <c r="J29" s="98"/>
-      <c r="K29" s="85"/>
+      <c r="B29" s="85"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="87"/>
+      <c r="H29" s="87"/>
+      <c r="I29" s="87"/>
+      <c r="J29" s="93"/>
+      <c r="K29" s="80"/>
       <c r="L29" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M29" s="82"/>
+      <c r="M29" s="77"/>
       <c r="N29" s="3" t="str">
-        <f>IF(M29="N",SUM(D29:I29),IF(M29="Y",IF(L29&lt;2,0,SUM(D29:I29)),""))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O29" s="3" t="str">
-        <f>IF(M29="Y",0,N29)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="P29" s="13" t="str">
-        <f>IF(OR(L29="",O29=""),"",O29*L29)</f>
-        <v/>
-      </c>
-      <c r="S29" s="156"/>
-      <c r="T29" s="157"/>
-      <c r="U29" s="157"/>
-      <c r="V29" s="157"/>
-      <c r="W29" s="157"/>
-      <c r="X29" s="157"/>
-      <c r="Y29" s="157"/>
-      <c r="Z29" s="157"/>
-      <c r="AA29" s="157"/>
-      <c r="AB29" s="157"/>
-      <c r="AC29" s="157"/>
-      <c r="AD29" s="157"/>
-      <c r="AE29" s="157"/>
-      <c r="AF29" s="158"/>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="S29" s="124"/>
+      <c r="T29" s="125"/>
+      <c r="U29" s="125"/>
+      <c r="V29" s="125"/>
+      <c r="W29" s="125"/>
+      <c r="X29" s="125"/>
+      <c r="Y29" s="125"/>
+      <c r="Z29" s="125"/>
+      <c r="AA29" s="125"/>
+      <c r="AB29" s="125"/>
+      <c r="AC29" s="125"/>
+      <c r="AD29" s="125"/>
+      <c r="AE29" s="125"/>
+      <c r="AF29" s="126"/>
     </row>
     <row r="30" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B30" s="90"/>
-      <c r="C30" s="91"/>
-      <c r="D30" s="92"/>
-      <c r="E30" s="92"/>
-      <c r="F30" s="92"/>
-      <c r="G30" s="92"/>
-      <c r="H30" s="92"/>
-      <c r="I30" s="92"/>
-      <c r="J30" s="98"/>
-      <c r="K30" s="85"/>
+      <c r="B30" s="85"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="87"/>
+      <c r="F30" s="87"/>
+      <c r="G30" s="87"/>
+      <c r="H30" s="87"/>
+      <c r="I30" s="87"/>
+      <c r="J30" s="93"/>
+      <c r="K30" s="80"/>
       <c r="L30" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M30" s="82"/>
+      <c r="M30" s="77"/>
       <c r="N30" s="3" t="str">
-        <f>IF(M30="N",SUM(D30:I30),IF(M30="Y",IF(L30&lt;2,0,SUM(D30:I30)),""))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O30" s="3" t="str">
-        <f>IF(M30="Y",0,N30)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="P30" s="13" t="str">
-        <f>IF(OR(L30="",O30=""),"",O30*L30)</f>
-        <v/>
-      </c>
-      <c r="S30" s="142" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="S30" s="109" t="str">
         <f>IF(Y16="","",Y16)</f>
         <v>Foundation</v>
       </c>
-      <c r="T30" s="143"/>
-      <c r="U30" s="142" t="str">
+      <c r="T30" s="110"/>
+      <c r="U30" s="109" t="str">
         <f>IF(Y17="","",Y17)</f>
         <v>Science</v>
       </c>
-      <c r="V30" s="143"/>
-      <c r="W30" s="142" t="str">
+      <c r="V30" s="110"/>
+      <c r="W30" s="109" t="str">
         <f>IF(Y18="","",Y18)</f>
         <v>Focus Area</v>
       </c>
-      <c r="X30" s="159"/>
-      <c r="Y30" s="142" t="str">
+      <c r="X30" s="127"/>
+      <c r="Y30" s="109" t="str">
         <f>IF(Y19="","",Y19)</f>
         <v>GEM</v>
       </c>
-      <c r="Z30" s="143"/>
-      <c r="AA30" s="146" t="str">
+      <c r="Z30" s="110"/>
+      <c r="AA30" s="113" t="str">
         <f>IF(Y20="","",Y20)</f>
         <v>UE</v>
       </c>
-      <c r="AB30" s="159"/>
-      <c r="AC30" s="142" t="str">
+      <c r="AB30" s="127"/>
+      <c r="AC30" s="109" t="str">
         <f>IF(Y21="","",Y21)</f>
         <v>Breadth</v>
       </c>
-      <c r="AD30" s="143"/>
-      <c r="AE30" s="146" t="str">
+      <c r="AD30" s="110"/>
+      <c r="AE30" s="113" t="str">
         <f>IF(Y22="","",Y22)</f>
         <v>IT Professionalism</v>
       </c>
-      <c r="AF30" s="143"/>
+      <c r="AF30" s="110"/>
     </row>
     <row r="31" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="90"/>
-      <c r="C31" s="91"/>
-      <c r="D31" s="92"/>
-      <c r="E31" s="92"/>
-      <c r="F31" s="92"/>
-      <c r="G31" s="92"/>
-      <c r="H31" s="92"/>
-      <c r="I31" s="92"/>
-      <c r="J31" s="98"/>
-      <c r="K31" s="85"/>
+      <c r="B31" s="85"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="87"/>
+      <c r="E31" s="87"/>
+      <c r="F31" s="87"/>
+      <c r="G31" s="87"/>
+      <c r="H31" s="87"/>
+      <c r="I31" s="87"/>
+      <c r="J31" s="93"/>
+      <c r="K31" s="80"/>
       <c r="L31" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M31" s="82"/>
+      <c r="M31" s="77"/>
       <c r="N31" s="3" t="str">
-        <f>IF(M31="N",SUM(D31:I31),IF(M31="Y",IF(L31&lt;2,0,SUM(D31:I31)),""))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O31" s="3" t="str">
-        <f>IF(M31="Y",0,N31)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="P31" s="13" t="str">
-        <f>IF(OR(L31="",O31=""),"",O31*L31)</f>
-        <v/>
-      </c>
-      <c r="S31" s="144"/>
-      <c r="T31" s="145"/>
-      <c r="U31" s="144"/>
-      <c r="V31" s="145"/>
-      <c r="W31" s="144"/>
-      <c r="X31" s="160"/>
-      <c r="Y31" s="144"/>
-      <c r="Z31" s="145"/>
-      <c r="AA31" s="147"/>
-      <c r="AB31" s="160"/>
-      <c r="AC31" s="144"/>
-      <c r="AD31" s="145"/>
-      <c r="AE31" s="147"/>
-      <c r="AF31" s="145"/>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="S31" s="111"/>
+      <c r="T31" s="112"/>
+      <c r="U31" s="111"/>
+      <c r="V31" s="112"/>
+      <c r="W31" s="111"/>
+      <c r="X31" s="128"/>
+      <c r="Y31" s="111"/>
+      <c r="Z31" s="112"/>
+      <c r="AA31" s="114"/>
+      <c r="AB31" s="128"/>
+      <c r="AC31" s="111"/>
+      <c r="AD31" s="112"/>
+      <c r="AE31" s="114"/>
+      <c r="AF31" s="112"/>
     </row>
     <row r="32" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B32" s="90"/>
-      <c r="C32" s="91"/>
-      <c r="D32" s="92"/>
-      <c r="E32" s="92"/>
-      <c r="F32" s="92"/>
-      <c r="G32" s="92"/>
-      <c r="H32" s="92"/>
-      <c r="I32" s="92"/>
-      <c r="J32" s="98"/>
-      <c r="K32" s="85"/>
+      <c r="B32" s="85"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="87"/>
+      <c r="E32" s="87"/>
+      <c r="F32" s="87"/>
+      <c r="G32" s="87"/>
+      <c r="H32" s="87"/>
+      <c r="I32" s="87"/>
+      <c r="J32" s="93"/>
+      <c r="K32" s="80"/>
       <c r="L32" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M32" s="82"/>
+      <c r="M32" s="77"/>
       <c r="N32" s="3" t="str">
-        <f>IF(M32="N",SUM(D32:I32),IF(M32="Y",IF(L32&lt;2,0,SUM(D32:I32)),""))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O32" s="3" t="str">
-        <f>IF(M32="Y",0,N32)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="P32" s="13" t="str">
-        <f>IF(OR(L32="",O32=""),"",O32*L32)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S32" s="23" t="s">
@@ -4660,39 +4660,39 @@
       </c>
     </row>
     <row r="33" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B33" s="90"/>
-      <c r="C33" s="91"/>
-      <c r="D33" s="92"/>
-      <c r="E33" s="92"/>
-      <c r="F33" s="92"/>
-      <c r="G33" s="92"/>
-      <c r="H33" s="92"/>
-      <c r="I33" s="92"/>
-      <c r="J33" s="98"/>
-      <c r="K33" s="85"/>
+      <c r="B33" s="85"/>
+      <c r="C33" s="86"/>
+      <c r="D33" s="87"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="87"/>
+      <c r="G33" s="87"/>
+      <c r="H33" s="87"/>
+      <c r="I33" s="87"/>
+      <c r="J33" s="93"/>
+      <c r="K33" s="80"/>
       <c r="L33" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M33" s="82"/>
+      <c r="M33" s="77"/>
       <c r="N33" s="3" t="str">
-        <f>IF(M33="N",SUM(D33:I33),IF(M33="Y",IF(L33&lt;2,0,SUM(D33:I33)),""))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O33" s="3" t="str">
-        <f>IF(M33="Y",0,N33)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="P33" s="13" t="str">
-        <f>IF(OR(L33="",O33=""),"",O33*L33)</f>
-        <v/>
-      </c>
-      <c r="S33" s="102" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="S33" s="97" t="str">
         <f t="array" ref="S33">IF($S$30="","",IF(ROWS(S$33:S33)&gt;$AA$16,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$16,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(S$33:S33)))))</f>
         <v>CS1101S</v>
       </c>
       <c r="T33" s="28" t="str">
-        <f>IF(S33="","",IF(COUNTIFS(MainTable[Module code],S33,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(S33="","",IF(OR(COUNTIFS(MainTable[Module code],S33,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],S33,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v>Yes</v>
       </c>
       <c r="U33" s="29" t="str">
@@ -4700,7 +4700,7 @@
         <v>MA1521</v>
       </c>
       <c r="V33" s="34" t="str">
-        <f>IF(U33="","",IF(COUNTIFS(MainTable[Module code],U33,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(U33="","",IF(OR(COUNTIFS(MainTable[Module code],U33,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],U33,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v>Yes</v>
       </c>
       <c r="W33" s="27" t="str">
@@ -4708,7 +4708,7 @@
         <v>CS3241</v>
       </c>
       <c r="X33" s="36" t="str">
-        <f>IF(W33="","",IF(COUNTIFS(MainTable[Module code],W33,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(W33="","",IF(OR(COUNTIFS(MainTable[Module code],W33,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],W33,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v>No</v>
       </c>
       <c r="Y33" s="27" t="str">
@@ -4716,7 +4716,7 @@
         <v>GEK1508</v>
       </c>
       <c r="Z33" s="28" t="str">
-        <f>IF(Y33="","",IF(COUNTIFS(MainTable[Module code],Y33,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(Y33="","",IF(OR(COUNTIFS(MainTable[Module code],Y33,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],Y33,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v>No</v>
       </c>
       <c r="AA33" s="29" t="str">
@@ -4724,7 +4724,7 @@
         <v>CS2010R</v>
       </c>
       <c r="AB33" s="36" t="str">
-        <f>IF(AA33="","",IF(COUNTIFS(MainTable[Module code],AA33,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(AA33="","",IF(OR(COUNTIFS(MainTable[Module code],AA33,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],AA33,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v>Yes</v>
       </c>
       <c r="AC33" s="27" t="str">
@@ -4732,7 +4732,7 @@
         <v>SC1101E</v>
       </c>
       <c r="AD33" s="28" t="str">
-        <f>IF(AC33="","",IF(COUNTIFS(MainTable[Module code],AC33,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(AC33="","",IF(OR(COUNTIFS(MainTable[Module code],AC33,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],AC33,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v>Yes</v>
       </c>
       <c r="AE33" s="29" t="str">
@@ -4740,36 +4740,36 @@
         <v>CS2101</v>
       </c>
       <c r="AF33" s="28" t="str">
-        <f>IF(AE33="","",IF(COUNTIFS(MainTable[Module code],AE33,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(AE33="","",IF(OR(COUNTIFS(MainTable[Module code],AE33,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],AE33,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v>Yes</v>
       </c>
     </row>
     <row r="34" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B34" s="90"/>
-      <c r="C34" s="91"/>
-      <c r="D34" s="92"/>
-      <c r="E34" s="92"/>
-      <c r="F34" s="92"/>
-      <c r="G34" s="92"/>
-      <c r="H34" s="92"/>
-      <c r="I34" s="92"/>
-      <c r="J34" s="98"/>
-      <c r="K34" s="85"/>
+      <c r="B34" s="85"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="87"/>
+      <c r="G34" s="87"/>
+      <c r="H34" s="87"/>
+      <c r="I34" s="87"/>
+      <c r="J34" s="93"/>
+      <c r="K34" s="80"/>
       <c r="L34" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M34" s="82"/>
+      <c r="M34" s="77"/>
       <c r="N34" s="3" t="str">
-        <f>IF(M34="N",SUM(D34:I34),IF(M34="Y",IF(L34&lt;2,0,SUM(D34:I34)),""))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O34" s="3" t="str">
-        <f>IF(M34="Y",0,N34)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="P34" s="13" t="str">
-        <f>IF(OR(L34="",O34=""),"",O34*L34)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S34" s="27" t="str">
@@ -4777,7 +4777,7 @@
         <v>CS1231</v>
       </c>
       <c r="T34" s="28" t="str">
-        <f>IF(S34="","",IF(COUNTIFS(MainTable[Module code],S34,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(S34="","",IF(OR(COUNTIFS(MainTable[Module code],S34,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],S34,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v>Yes</v>
       </c>
       <c r="U34" s="29" t="str">
@@ -4785,7 +4785,7 @@
         <v>PC1432</v>
       </c>
       <c r="V34" s="34" t="str">
-        <f>IF(U34="","",IF(COUNTIFS(MainTable[Module code],U34,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(U34="","",IF(OR(COUNTIFS(MainTable[Module code],U34,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],U34,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v>Yes</v>
       </c>
       <c r="W34" s="27" t="str">
@@ -4793,7 +4793,7 @@
         <v>CS3343</v>
       </c>
       <c r="X34" s="36" t="str">
-        <f>IF(W34="","",IF(COUNTIFS(MainTable[Module code],W34,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(W34="","",IF(OR(COUNTIFS(MainTable[Module code],W34,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],W34,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v>No</v>
       </c>
       <c r="Y34" s="27" t="str">
@@ -4801,7 +4801,7 @@
         <v>GEK1055</v>
       </c>
       <c r="Z34" s="28" t="str">
-        <f>IF(Y34="","",IF(COUNTIFS(MainTable[Module code],Y34,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(Y34="","",IF(OR(COUNTIFS(MainTable[Module code],Y34,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],Y34,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v>No</v>
       </c>
       <c r="AA34" s="29" t="str">
@@ -4809,7 +4809,7 @@
         <v>LSM1302</v>
       </c>
       <c r="AB34" s="36" t="str">
-        <f>IF(AA34="","",IF(COUNTIFS(MainTable[Module code],AA34,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(AA34="","",IF(OR(COUNTIFS(MainTable[Module code],AA34,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],AA34,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v>No</v>
       </c>
       <c r="AC34" s="27" t="str">
@@ -4817,7 +4817,7 @@
         <v/>
       </c>
       <c r="AD34" s="28" t="str">
-        <f>IF(AC34="","",IF(COUNTIFS(MainTable[Module code],AC34,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(AC34="","",IF(OR(COUNTIFS(MainTable[Module code],AC34,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],AC34,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="AE34" s="29" t="str">
@@ -4825,36 +4825,36 @@
         <v/>
       </c>
       <c r="AF34" s="28" t="str">
-        <f>IF(AE34="","",IF(COUNTIFS(MainTable[Module code],AE34,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(AE34="","",IF(OR(COUNTIFS(MainTable[Module code],AE34,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],AE34,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B35" s="90"/>
-      <c r="C35" s="91"/>
-      <c r="D35" s="92"/>
-      <c r="E35" s="92"/>
-      <c r="F35" s="92"/>
-      <c r="G35" s="92"/>
-      <c r="H35" s="92"/>
-      <c r="I35" s="92"/>
-      <c r="J35" s="98"/>
-      <c r="K35" s="85"/>
+      <c r="B35" s="85"/>
+      <c r="C35" s="86"/>
+      <c r="D35" s="87"/>
+      <c r="E35" s="87"/>
+      <c r="F35" s="87"/>
+      <c r="G35" s="87"/>
+      <c r="H35" s="87"/>
+      <c r="I35" s="87"/>
+      <c r="J35" s="93"/>
+      <c r="K35" s="80"/>
       <c r="L35" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M35" s="82"/>
+      <c r="M35" s="77"/>
       <c r="N35" s="3" t="str">
-        <f>IF(M35="N",SUM(D35:I35),IF(M35="Y",IF(L35&lt;2,0,SUM(D35:I35)),""))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O35" s="3" t="str">
-        <f>IF(M35="Y",0,N35)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="P35" s="13" t="str">
-        <f>IF(OR(L35="",O35=""),"",O35*L35)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S35" s="27" t="str">
@@ -4862,7 +4862,7 @@
         <v>CS2100</v>
       </c>
       <c r="T35" s="28" t="str">
-        <f>IF(S35="","",IF(COUNTIFS(MainTable[Module code],S35,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(S35="","",IF(OR(COUNTIFS(MainTable[Module code],S35,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],S35,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v>Yes</v>
       </c>
       <c r="U35" s="29" t="str">
@@ -4870,7 +4870,7 @@
         <v>MA1101R</v>
       </c>
       <c r="V35" s="34" t="str">
-        <f>IF(U35="","",IF(COUNTIFS(MainTable[Module code],U35,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(U35="","",IF(OR(COUNTIFS(MainTable[Module code],U35,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],U35,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v>Yes</v>
       </c>
       <c r="W35" s="27" t="str">
@@ -4878,7 +4878,7 @@
         <v/>
       </c>
       <c r="X35" s="36" t="str">
-        <f>IF(W35="","",IF(COUNTIFS(MainTable[Module code],W35,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(W35="","",IF(OR(COUNTIFS(MainTable[Module code],W35,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],W35,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="Y35" s="27" t="str">
@@ -4886,7 +4886,7 @@
         <v/>
       </c>
       <c r="Z35" s="28" t="str">
-        <f>IF(Y35="","",IF(COUNTIFS(MainTable[Module code],Y35,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(Y35="","",IF(OR(COUNTIFS(MainTable[Module code],Y35,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],Y35,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="AA35" s="29" t="str">
@@ -4894,7 +4894,7 @@
         <v/>
       </c>
       <c r="AB35" s="36" t="str">
-        <f>IF(AA35="","",IF(COUNTIFS(MainTable[Module code],AA35,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(AA35="","",IF(OR(COUNTIFS(MainTable[Module code],AA35,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],AA35,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="AC35" s="27" t="str">
@@ -4902,7 +4902,7 @@
         <v/>
       </c>
       <c r="AD35" s="28" t="str">
-        <f>IF(AC35="","",IF(COUNTIFS(MainTable[Module code],AC35,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(AC35="","",IF(OR(COUNTIFS(MainTable[Module code],AC35,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],AC35,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="AE35" s="29" t="str">
@@ -4910,36 +4910,36 @@
         <v/>
       </c>
       <c r="AF35" s="28" t="str">
-        <f>IF(AE35="","",IF(COUNTIFS(MainTable[Module code],AE35,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(AE35="","",IF(OR(COUNTIFS(MainTable[Module code],AE35,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],AE35,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
     </row>
     <row r="36" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B36" s="90"/>
-      <c r="C36" s="91"/>
-      <c r="D36" s="92"/>
-      <c r="E36" s="92"/>
-      <c r="F36" s="92"/>
-      <c r="G36" s="92"/>
-      <c r="H36" s="92"/>
-      <c r="I36" s="92"/>
-      <c r="J36" s="98"/>
-      <c r="K36" s="85"/>
+      <c r="B36" s="85"/>
+      <c r="C36" s="86"/>
+      <c r="D36" s="87"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="87"/>
+      <c r="G36" s="87"/>
+      <c r="H36" s="87"/>
+      <c r="I36" s="87"/>
+      <c r="J36" s="93"/>
+      <c r="K36" s="80"/>
       <c r="L36" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M36" s="82"/>
+      <c r="M36" s="77"/>
       <c r="N36" s="3" t="str">
-        <f>IF(M36="N",SUM(D36:I36),IF(M36="Y",IF(L36&lt;2,0,SUM(D36:I36)),""))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O36" s="3" t="str">
-        <f>IF(M36="Y",0,N36)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="P36" s="13" t="str">
-        <f>IF(OR(L36="",O36=""),"",O36*L36)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S36" s="27" t="str">
@@ -4947,7 +4947,7 @@
         <v>CS2103T</v>
       </c>
       <c r="T36" s="28" t="str">
-        <f>IF(S36="","",IF(COUNTIFS(MainTable[Module code],S36,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(S36="","",IF(OR(COUNTIFS(MainTable[Module code],S36,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],S36,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v>No</v>
       </c>
       <c r="U36" s="29" t="str">
@@ -4955,7 +4955,7 @@
         <v>ST2334</v>
       </c>
       <c r="V36" s="34" t="str">
-        <f>IF(U36="","",IF(COUNTIFS(MainTable[Module code],U36,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(U36="","",IF(OR(COUNTIFS(MainTable[Module code],U36,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],U36,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v>Yes</v>
       </c>
       <c r="W36" s="27" t="str">
@@ -4963,7 +4963,7 @@
         <v/>
       </c>
       <c r="X36" s="36" t="str">
-        <f>IF(W36="","",IF(COUNTIFS(MainTable[Module code],W36,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(W36="","",IF(OR(COUNTIFS(MainTable[Module code],W36,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],W36,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="Y36" s="27" t="str">
@@ -4971,7 +4971,7 @@
         <v/>
       </c>
       <c r="Z36" s="28" t="str">
-        <f>IF(Y36="","",IF(COUNTIFS(MainTable[Module code],Y36,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(Y36="","",IF(OR(COUNTIFS(MainTable[Module code],Y36,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],Y36,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="AA36" s="29" t="str">
@@ -4979,7 +4979,7 @@
         <v/>
       </c>
       <c r="AB36" s="36" t="str">
-        <f>IF(AA36="","",IF(COUNTIFS(MainTable[Module code],AA36,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(AA36="","",IF(OR(COUNTIFS(MainTable[Module code],AA36,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],AA36,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="AC36" s="27" t="str">
@@ -4987,7 +4987,7 @@
         <v/>
       </c>
       <c r="AD36" s="28" t="str">
-        <f>IF(AC36="","",IF(COUNTIFS(MainTable[Module code],AC36,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(AC36="","",IF(OR(COUNTIFS(MainTable[Module code],AC36,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],AC36,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="AE36" s="29" t="str">
@@ -4995,36 +4995,36 @@
         <v/>
       </c>
       <c r="AF36" s="28" t="str">
-        <f>IF(AE36="","",IF(COUNTIFS(MainTable[Module code],AE36,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(AE36="","",IF(OR(COUNTIFS(MainTable[Module code],AE36,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],AE36,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
     </row>
     <row r="37" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B37" s="90"/>
-      <c r="C37" s="91"/>
-      <c r="D37" s="92"/>
-      <c r="E37" s="92"/>
-      <c r="F37" s="92"/>
-      <c r="G37" s="92"/>
-      <c r="H37" s="92"/>
-      <c r="I37" s="92"/>
-      <c r="J37" s="98"/>
-      <c r="K37" s="85"/>
+      <c r="B37" s="85"/>
+      <c r="C37" s="86"/>
+      <c r="D37" s="87"/>
+      <c r="E37" s="87"/>
+      <c r="F37" s="87"/>
+      <c r="G37" s="87"/>
+      <c r="H37" s="87"/>
+      <c r="I37" s="87"/>
+      <c r="J37" s="93"/>
+      <c r="K37" s="80"/>
       <c r="L37" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M37" s="82"/>
+      <c r="M37" s="77"/>
       <c r="N37" s="3" t="str">
-        <f>IF(M37="N",SUM(D37:I37),IF(M37="Y",IF(L37&lt;2,0,SUM(D37:I37)),""))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O37" s="3" t="str">
-        <f>IF(M37="Y",0,N37)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="P37" s="13" t="str">
-        <f>IF(OR(L37="",O37=""),"",O37*L37)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S37" s="27" t="str">
@@ -5032,7 +5032,7 @@
         <v>CS2105</v>
       </c>
       <c r="T37" s="28" t="str">
-        <f>IF(S37="","",IF(COUNTIFS(MainTable[Module code],S37,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(S37="","",IF(OR(COUNTIFS(MainTable[Module code],S37,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],S37,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v>No</v>
       </c>
       <c r="U37" s="29" t="str">
@@ -5040,7 +5040,7 @@
         <v>PC1431</v>
       </c>
       <c r="V37" s="34" t="str">
-        <f>IF(U37="","",IF(COUNTIFS(MainTable[Module code],U37,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(U37="","",IF(OR(COUNTIFS(MainTable[Module code],U37,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],U37,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v>Yes</v>
       </c>
       <c r="W37" s="27" t="str">
@@ -5048,7 +5048,7 @@
         <v/>
       </c>
       <c r="X37" s="36" t="str">
-        <f>IF(W37="","",IF(COUNTIFS(MainTable[Module code],W37,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(W37="","",IF(OR(COUNTIFS(MainTable[Module code],W37,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],W37,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="Y37" s="27" t="str">
@@ -5056,7 +5056,7 @@
         <v/>
       </c>
       <c r="Z37" s="28" t="str">
-        <f>IF(Y37="","",IF(COUNTIFS(MainTable[Module code],Y37,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(Y37="","",IF(OR(COUNTIFS(MainTable[Module code],Y37,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],Y37,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="AA37" s="29" t="str">
@@ -5064,7 +5064,7 @@
         <v/>
       </c>
       <c r="AB37" s="36" t="str">
-        <f>IF(AA37="","",IF(COUNTIFS(MainTable[Module code],AA37,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(AA37="","",IF(OR(COUNTIFS(MainTable[Module code],AA37,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],AA37,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="AC37" s="27" t="str">
@@ -5072,7 +5072,7 @@
         <v/>
       </c>
       <c r="AD37" s="28" t="str">
-        <f>IF(AC37="","",IF(COUNTIFS(MainTable[Module code],AC37,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(AC37="","",IF(OR(COUNTIFS(MainTable[Module code],AC37,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],AC37,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="AE37" s="29" t="str">
@@ -5080,36 +5080,36 @@
         <v/>
       </c>
       <c r="AF37" s="28" t="str">
-        <f>IF(AE37="","",IF(COUNTIFS(MainTable[Module code],AE37,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(AE37="","",IF(OR(COUNTIFS(MainTable[Module code],AE37,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],AE37,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
     </row>
     <row r="38" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B38" s="90"/>
-      <c r="C38" s="91"/>
-      <c r="D38" s="92"/>
-      <c r="E38" s="92"/>
-      <c r="F38" s="92"/>
-      <c r="G38" s="92"/>
-      <c r="H38" s="92"/>
-      <c r="I38" s="92"/>
-      <c r="J38" s="98"/>
-      <c r="K38" s="85"/>
+      <c r="B38" s="85"/>
+      <c r="C38" s="86"/>
+      <c r="D38" s="87"/>
+      <c r="E38" s="87"/>
+      <c r="F38" s="87"/>
+      <c r="G38" s="87"/>
+      <c r="H38" s="87"/>
+      <c r="I38" s="87"/>
+      <c r="J38" s="93"/>
+      <c r="K38" s="80"/>
       <c r="L38" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M38" s="82"/>
+      <c r="M38" s="77"/>
       <c r="N38" s="3" t="str">
-        <f>IF(M38="N",SUM(D38:I38),IF(M38="Y",IF(L38&lt;2,0,SUM(D38:I38)),""))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O38" s="3" t="str">
-        <f>IF(M38="Y",0,N38)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="P38" s="13" t="str">
-        <f>IF(OR(L38="",O38=""),"",O38*L38)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S38" s="27" t="str">
@@ -5117,7 +5117,7 @@
         <v>CS2106</v>
       </c>
       <c r="T38" s="28" t="str">
-        <f>IF(S38="","",IF(COUNTIFS(MainTable[Module code],S38,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(S38="","",IF(OR(COUNTIFS(MainTable[Module code],S38,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],S38,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v>No</v>
       </c>
       <c r="U38" s="29" t="str">
@@ -5125,7 +5125,7 @@
         <v/>
       </c>
       <c r="V38" s="34" t="str">
-        <f>IF(U38="","",IF(COUNTIFS(MainTable[Module code],U38,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(U38="","",IF(OR(COUNTIFS(MainTable[Module code],U38,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],U38,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="W38" s="27" t="str">
@@ -5133,7 +5133,7 @@
         <v/>
       </c>
       <c r="X38" s="36" t="str">
-        <f>IF(W38="","",IF(COUNTIFS(MainTable[Module code],W38,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(W38="","",IF(OR(COUNTIFS(MainTable[Module code],W38,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],W38,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="Y38" s="27" t="str">
@@ -5141,7 +5141,7 @@
         <v/>
       </c>
       <c r="Z38" s="28" t="str">
-        <f>IF(Y38="","",IF(COUNTIFS(MainTable[Module code],Y38,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(Y38="","",IF(OR(COUNTIFS(MainTable[Module code],Y38,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],Y38,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="AA38" s="29" t="str">
@@ -5149,7 +5149,7 @@
         <v/>
       </c>
       <c r="AB38" s="36" t="str">
-        <f>IF(AA38="","",IF(COUNTIFS(MainTable[Module code],AA38,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(AA38="","",IF(OR(COUNTIFS(MainTable[Module code],AA38,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],AA38,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="AC38" s="27" t="str">
@@ -5157,7 +5157,7 @@
         <v/>
       </c>
       <c r="AD38" s="28" t="str">
-        <f>IF(AC38="","",IF(COUNTIFS(MainTable[Module code],AC38,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(AC38="","",IF(OR(COUNTIFS(MainTable[Module code],AC38,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],AC38,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="AE38" s="29" t="str">
@@ -5165,36 +5165,36 @@
         <v/>
       </c>
       <c r="AF38" s="28" t="str">
-        <f>IF(AE38="","",IF(COUNTIFS(MainTable[Module code],AE38,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(AE38="","",IF(OR(COUNTIFS(MainTable[Module code],AE38,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],AE38,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
     </row>
     <row r="39" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B39" s="90"/>
-      <c r="C39" s="91"/>
-      <c r="D39" s="92"/>
-      <c r="E39" s="92"/>
-      <c r="F39" s="92"/>
-      <c r="G39" s="92"/>
-      <c r="H39" s="92"/>
-      <c r="I39" s="92"/>
-      <c r="J39" s="98"/>
-      <c r="K39" s="85"/>
+      <c r="B39" s="85"/>
+      <c r="C39" s="86"/>
+      <c r="D39" s="87"/>
+      <c r="E39" s="87"/>
+      <c r="F39" s="87"/>
+      <c r="G39" s="87"/>
+      <c r="H39" s="87"/>
+      <c r="I39" s="87"/>
+      <c r="J39" s="93"/>
+      <c r="K39" s="80"/>
       <c r="L39" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M39" s="82"/>
+      <c r="M39" s="77"/>
       <c r="N39" s="3" t="str">
-        <f>IF(M39="N",SUM(D39:I39),IF(M39="Y",IF(L39&lt;2,0,SUM(D39:I39)),""))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O39" s="3" t="str">
-        <f>IF(M39="Y",0,N39)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="P39" s="13" t="str">
-        <f>IF(OR(L39="",O39=""),"",O39*L39)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S39" s="27" t="str">
@@ -5202,7 +5202,7 @@
         <v>CS3230</v>
       </c>
       <c r="T39" s="28" t="str">
-        <f>IF(S39="","",IF(COUNTIFS(MainTable[Module code],S39,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(S39="","",IF(OR(COUNTIFS(MainTable[Module code],S39,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],S39,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v>No</v>
       </c>
       <c r="U39" s="29" t="str">
@@ -5210,7 +5210,7 @@
         <v/>
       </c>
       <c r="V39" s="34" t="str">
-        <f>IF(U39="","",IF(COUNTIFS(MainTable[Module code],U39,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(U39="","",IF(OR(COUNTIFS(MainTable[Module code],U39,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],U39,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="W39" s="27" t="str">
@@ -5218,7 +5218,7 @@
         <v/>
       </c>
       <c r="X39" s="36" t="str">
-        <f>IF(W39="","",IF(COUNTIFS(MainTable[Module code],W39,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(W39="","",IF(OR(COUNTIFS(MainTable[Module code],W39,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],W39,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="Y39" s="27" t="str">
@@ -5226,7 +5226,7 @@
         <v/>
       </c>
       <c r="Z39" s="28" t="str">
-        <f>IF(Y39="","",IF(COUNTIFS(MainTable[Module code],Y39,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(Y39="","",IF(OR(COUNTIFS(MainTable[Module code],Y39,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],Y39,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="AA39" s="29" t="str">
@@ -5234,7 +5234,7 @@
         <v/>
       </c>
       <c r="AB39" s="36" t="str">
-        <f>IF(AA39="","",IF(COUNTIFS(MainTable[Module code],AA39,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(AA39="","",IF(OR(COUNTIFS(MainTable[Module code],AA39,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],AA39,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="AC39" s="27" t="str">
@@ -5242,7 +5242,7 @@
         <v/>
       </c>
       <c r="AD39" s="28" t="str">
-        <f>IF(AC39="","",IF(COUNTIFS(MainTable[Module code],AC39,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(AC39="","",IF(OR(COUNTIFS(MainTable[Module code],AC39,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],AC39,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="AE39" s="29" t="str">
@@ -5250,36 +5250,36 @@
         <v/>
       </c>
       <c r="AF39" s="28" t="str">
-        <f>IF(AE39="","",IF(COUNTIFS(MainTable[Module code],AE39,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(AE39="","",IF(OR(COUNTIFS(MainTable[Module code],AE39,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],AE39,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
     </row>
     <row r="40" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B40" s="90"/>
-      <c r="C40" s="91"/>
-      <c r="D40" s="92"/>
-      <c r="E40" s="92"/>
-      <c r="F40" s="92"/>
-      <c r="G40" s="92"/>
-      <c r="H40" s="92"/>
-      <c r="I40" s="92"/>
-      <c r="J40" s="98"/>
-      <c r="K40" s="85"/>
+      <c r="B40" s="85"/>
+      <c r="C40" s="86"/>
+      <c r="D40" s="87"/>
+      <c r="E40" s="87"/>
+      <c r="F40" s="87"/>
+      <c r="G40" s="87"/>
+      <c r="H40" s="87"/>
+      <c r="I40" s="87"/>
+      <c r="J40" s="93"/>
+      <c r="K40" s="80"/>
       <c r="L40" s="2" t="str">
-        <f t="shared" ref="L40:L71" si="2">IF(K40="A+",5,IF(K40="A",5,IF(K40="A-",4.5,IF(K40="B+",4,IF(K40="B",3.5,IF(K40="B-",3,IF(K40="C+",2.5,IF(K40="C",2,IF(K40="D+",1.5,IF(K40="D",1,IF(K40="F",0,IF(K40="P",0,""))))))))))))</f>
-        <v/>
-      </c>
-      <c r="M40" s="82"/>
+        <f t="shared" ref="L40:L67" si="5">IF(K40="A+",5,IF(K40="A",5,IF(K40="A-",4.5,IF(K40="B+",4,IF(K40="B",3.5,IF(K40="B-",3,IF(K40="C+",2.5,IF(K40="C",2,IF(K40="D+",1.5,IF(K40="D",1,IF(K40="F",0,IF(K40="P",0,""))))))))))))</f>
+        <v/>
+      </c>
+      <c r="M40" s="77"/>
       <c r="N40" s="3" t="str">
-        <f>IF(M40="N",SUM(D40:I40),IF(M40="Y",IF(L40&lt;2,0,SUM(D40:I40)),""))</f>
+        <f t="shared" ref="N40:N71" si="6">IF(M40="N",SUM(D40:I40),IF(M40="Y",IF(L40&lt;2,0,SUM(D40:I40)),""))</f>
         <v/>
       </c>
       <c r="O40" s="3" t="str">
-        <f>IF(M40="Y",0,N40)</f>
+        <f t="shared" ref="O40:O71" si="7">IF(M40="Y",0,N40)</f>
         <v/>
       </c>
       <c r="P40" s="13" t="str">
-        <f>IF(OR(L40="",O40=""),"",O40*L40)</f>
+        <f t="shared" ref="P40:P71" si="8">IF(OR(L40="",O40=""),"",O40*L40)</f>
         <v/>
       </c>
       <c r="S40" s="27" t="str">
@@ -5287,7 +5287,7 @@
         <v/>
       </c>
       <c r="T40" s="28" t="str">
-        <f>IF(S40="","",IF(COUNTIFS(MainTable[Module code],S40,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(S40="","",IF(OR(COUNTIFS(MainTable[Module code],S40,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],S40,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="U40" s="29" t="str">
@@ -5295,15 +5295,15 @@
         <v/>
       </c>
       <c r="V40" s="34" t="str">
-        <f>IF(U40="","",IF(COUNTIFS(MainTable[Module code],U40,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(U40="","",IF(OR(COUNTIFS(MainTable[Module code],U40,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],U40,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="W40" s="27" t="str">
         <f t="array" ref="W40">IF($W$30="","",IF(ROWS(W$33:W40)&gt;$AA$18,"",INDEX(B$8:B$67,SMALL(IF(MainTable[Type]=$Y$18,ROW(MainTable[Type])-ROW($B$8)+1),ROWS(W$33:W40)))))</f>
         <v/>
       </c>
-      <c r="X40" s="28" t="str">
-        <f>IF(W40="","",IF(COUNTIFS(MainTable[Module code],W40,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+      <c r="X40" s="36" t="str">
+        <f>IF(W40="","",IF(OR(COUNTIFS(MainTable[Module code],W40,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],W40,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="Y40" s="27" t="str">
@@ -5311,7 +5311,7 @@
         <v/>
       </c>
       <c r="Z40" s="28" t="str">
-        <f>IF(Y40="","",IF(COUNTIFS(MainTable[Module code],Y40,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(Y40="","",IF(OR(COUNTIFS(MainTable[Module code],Y40,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],Y40,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="AA40" s="29" t="str">
@@ -5319,7 +5319,7 @@
         <v/>
       </c>
       <c r="AB40" s="36" t="str">
-        <f>IF(AA40="","",IF(COUNTIFS(MainTable[Module code],AA40,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(AA40="","",IF(OR(COUNTIFS(MainTable[Module code],AA40,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],AA40,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="AC40" s="27" t="str">
@@ -5327,7 +5327,7 @@
         <v/>
       </c>
       <c r="AD40" s="28" t="str">
-        <f>IF(AC40="","",IF(COUNTIFS(MainTable[Module code],AC40,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(AC40="","",IF(OR(COUNTIFS(MainTable[Module code],AC40,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],AC40,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="AE40" s="29" t="str">
@@ -5335,36 +5335,36 @@
         <v/>
       </c>
       <c r="AF40" s="28" t="str">
-        <f>IF(AE40="","",IF(COUNTIFS(MainTable[Module code],AE40,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(AE40="","",IF(OR(COUNTIFS(MainTable[Module code],AE40,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],AE40,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
     </row>
     <row r="41" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B41" s="90"/>
-      <c r="C41" s="91"/>
-      <c r="D41" s="92"/>
-      <c r="E41" s="92"/>
-      <c r="F41" s="92"/>
-      <c r="G41" s="92"/>
-      <c r="H41" s="92"/>
-      <c r="I41" s="92"/>
-      <c r="J41" s="98"/>
-      <c r="K41" s="85"/>
+      <c r="B41" s="85"/>
+      <c r="C41" s="86"/>
+      <c r="D41" s="87"/>
+      <c r="E41" s="87"/>
+      <c r="F41" s="87"/>
+      <c r="G41" s="87"/>
+      <c r="H41" s="87"/>
+      <c r="I41" s="87"/>
+      <c r="J41" s="93"/>
+      <c r="K41" s="80"/>
       <c r="L41" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M41" s="82"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M41" s="77"/>
       <c r="N41" s="3" t="str">
-        <f>IF(M41="N",SUM(D41:I41),IF(M41="Y",IF(L41&lt;2,0,SUM(D41:I41)),""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O41" s="3" t="str">
-        <f>IF(M41="Y",0,N41)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="P41" s="13" t="str">
-        <f>IF(OR(L41="",O41=""),"",O41*L41)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S41" s="27" t="str">
@@ -5372,7 +5372,7 @@
         <v/>
       </c>
       <c r="T41" s="28" t="str">
-        <f>IF(S41="","",IF(COUNTIFS(MainTable[Module code],S41,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(S41="","",IF(OR(COUNTIFS(MainTable[Module code],S41,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],S41,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="U41" s="29" t="str">
@@ -5380,7 +5380,7 @@
         <v/>
       </c>
       <c r="V41" s="34" t="str">
-        <f>IF(U41="","",IF(COUNTIFS(MainTable[Module code],U41,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(U41="","",IF(OR(COUNTIFS(MainTable[Module code],U41,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],U41,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="W41" s="27" t="str">
@@ -5388,7 +5388,7 @@
         <v/>
       </c>
       <c r="X41" s="36" t="str">
-        <f>IF(W41="","",IF(COUNTIFS(MainTable[Module code],W41,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(W41="","",IF(OR(COUNTIFS(MainTable[Module code],W41,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],W41,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="Y41" s="27" t="str">
@@ -5396,7 +5396,7 @@
         <v/>
       </c>
       <c r="Z41" s="28" t="str">
-        <f>IF(Y41="","",IF(COUNTIFS(MainTable[Module code],Y41,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(Y41="","",IF(OR(COUNTIFS(MainTable[Module code],Y41,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],Y41,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="AA41" s="29" t="str">
@@ -5404,7 +5404,7 @@
         <v/>
       </c>
       <c r="AB41" s="36" t="str">
-        <f>IF(AA41="","",IF(COUNTIFS(MainTable[Module code],AA41,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(AA41="","",IF(OR(COUNTIFS(MainTable[Module code],AA41,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],AA41,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="AC41" s="27" t="str">
@@ -5412,7 +5412,7 @@
         <v/>
       </c>
       <c r="AD41" s="28" t="str">
-        <f>IF(AC41="","",IF(COUNTIFS(MainTable[Module code],AC41,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(AC41="","",IF(OR(COUNTIFS(MainTable[Module code],AC41,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],AC41,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="AE41" s="29" t="str">
@@ -5420,36 +5420,36 @@
         <v/>
       </c>
       <c r="AF41" s="28" t="str">
-        <f>IF(AE41="","",IF(COUNTIFS(MainTable[Module code],AE41,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(AE41="","",IF(OR(COUNTIFS(MainTable[Module code],AE41,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],AE41,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
     </row>
     <row r="42" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B42" s="90"/>
-      <c r="C42" s="91"/>
-      <c r="D42" s="92"/>
-      <c r="E42" s="92"/>
-      <c r="F42" s="92"/>
-      <c r="G42" s="92"/>
-      <c r="H42" s="92"/>
-      <c r="I42" s="92"/>
-      <c r="J42" s="98"/>
-      <c r="K42" s="85"/>
+      <c r="B42" s="85"/>
+      <c r="C42" s="86"/>
+      <c r="D42" s="87"/>
+      <c r="E42" s="87"/>
+      <c r="F42" s="87"/>
+      <c r="G42" s="87"/>
+      <c r="H42" s="87"/>
+      <c r="I42" s="87"/>
+      <c r="J42" s="93"/>
+      <c r="K42" s="80"/>
       <c r="L42" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M42" s="82"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M42" s="77"/>
       <c r="N42" s="3" t="str">
-        <f>IF(M42="N",SUM(D42:I42),IF(M42="Y",IF(L42&lt;2,0,SUM(D42:I42)),""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O42" s="3" t="str">
-        <f>IF(M42="Y",0,N42)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="P42" s="13" t="str">
-        <f>IF(OR(L42="",O42=""),"",O42*L42)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S42" s="27" t="str">
@@ -5457,7 +5457,7 @@
         <v/>
       </c>
       <c r="T42" s="28" t="str">
-        <f>IF(S42="","",IF(COUNTIFS(MainTable[Module code],S42,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(S42="","",IF(OR(COUNTIFS(MainTable[Module code],S42,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],S42,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="U42" s="29" t="str">
@@ -5465,7 +5465,7 @@
         <v/>
       </c>
       <c r="V42" s="34" t="str">
-        <f>IF(U42="","",IF(COUNTIFS(MainTable[Module code],U42,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(U42="","",IF(OR(COUNTIFS(MainTable[Module code],U42,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],U42,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="W42" s="27" t="str">
@@ -5473,7 +5473,7 @@
         <v/>
       </c>
       <c r="X42" s="36" t="str">
-        <f>IF(W42="","",IF(COUNTIFS(MainTable[Module code],W42,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(W42="","",IF(OR(COUNTIFS(MainTable[Module code],W42,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],W42,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="Y42" s="27" t="str">
@@ -5481,7 +5481,7 @@
         <v/>
       </c>
       <c r="Z42" s="28" t="str">
-        <f>IF(Y42="","",IF(COUNTIFS(MainTable[Module code],Y42,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(Y42="","",IF(OR(COUNTIFS(MainTable[Module code],Y42,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],Y42,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="AA42" s="29" t="str">
@@ -5489,7 +5489,7 @@
         <v/>
       </c>
       <c r="AB42" s="36" t="str">
-        <f>IF(AA42="","",IF(COUNTIFS(MainTable[Module code],AA42,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(AA42="","",IF(OR(COUNTIFS(MainTable[Module code],AA42,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],AA42,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="AC42" s="27" t="str">
@@ -5497,7 +5497,7 @@
         <v/>
       </c>
       <c r="AD42" s="28" t="str">
-        <f>IF(AC42="","",IF(COUNTIFS(MainTable[Module code],AC42,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(AC42="","",IF(OR(COUNTIFS(MainTable[Module code],AC42,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],AC42,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="AE42" s="29" t="str">
@@ -5505,36 +5505,36 @@
         <v/>
       </c>
       <c r="AF42" s="28" t="str">
-        <f>IF(AE42="","",IF(COUNTIFS(MainTable[Module code],AE42,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(AE42="","",IF(OR(COUNTIFS(MainTable[Module code],AE42,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],AE42,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
     </row>
     <row r="43" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="90"/>
-      <c r="C43" s="91"/>
-      <c r="D43" s="92"/>
-      <c r="E43" s="92"/>
-      <c r="F43" s="92"/>
-      <c r="G43" s="92"/>
-      <c r="H43" s="92"/>
-      <c r="I43" s="92"/>
-      <c r="J43" s="98"/>
-      <c r="K43" s="85"/>
+      <c r="B43" s="85"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="87"/>
+      <c r="E43" s="87"/>
+      <c r="F43" s="87"/>
+      <c r="G43" s="87"/>
+      <c r="H43" s="87"/>
+      <c r="I43" s="87"/>
+      <c r="J43" s="93"/>
+      <c r="K43" s="80"/>
       <c r="L43" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M43" s="82"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M43" s="77"/>
       <c r="N43" s="3" t="str">
-        <f>IF(M43="N",SUM(D43:I43),IF(M43="Y",IF(L43&lt;2,0,SUM(D43:I43)),""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O43" s="3" t="str">
-        <f>IF(M43="Y",0,N43)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="P43" s="13" t="str">
-        <f>IF(OR(L43="",O43=""),"",O43*L43)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S43" s="27" t="str">
@@ -5542,7 +5542,7 @@
         <v/>
       </c>
       <c r="T43" s="28" t="str">
-        <f>IF(S43="","",IF(COUNTIFS(MainTable[Module code],S43,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(S43="","",IF(OR(COUNTIFS(MainTable[Module code],S43,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],S43,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="U43" s="29" t="str">
@@ -5550,7 +5550,7 @@
         <v/>
       </c>
       <c r="V43" s="34" t="str">
-        <f>IF(U43="","",IF(COUNTIFS(MainTable[Module code],U43,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(U43="","",IF(OR(COUNTIFS(MainTable[Module code],U43,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],U43,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="W43" s="27" t="str">
@@ -5558,7 +5558,7 @@
         <v/>
       </c>
       <c r="X43" s="36" t="str">
-        <f>IF(W43="","",IF(COUNTIFS(MainTable[Module code],W43,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(W43="","",IF(OR(COUNTIFS(MainTable[Module code],W43,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],W43,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="Y43" s="27" t="str">
@@ -5566,7 +5566,7 @@
         <v/>
       </c>
       <c r="Z43" s="28" t="str">
-        <f>IF(Y43="","",IF(COUNTIFS(MainTable[Module code],Y43,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(Y43="","",IF(OR(COUNTIFS(MainTable[Module code],Y43,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],Y43,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="AA43" s="29" t="str">
@@ -5574,7 +5574,7 @@
         <v/>
       </c>
       <c r="AB43" s="36" t="str">
-        <f>IF(AA43="","",IF(COUNTIFS(MainTable[Module code],AA43,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(AA43="","",IF(OR(COUNTIFS(MainTable[Module code],AA43,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],AA43,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="AC43" s="27" t="str">
@@ -5582,7 +5582,7 @@
         <v/>
       </c>
       <c r="AD43" s="28" t="str">
-        <f>IF(AC43="","",IF(COUNTIFS(MainTable[Module code],AC43,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(AC43="","",IF(OR(COUNTIFS(MainTable[Module code],AC43,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],AC43,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="AE43" s="29" t="str">
@@ -5590,36 +5590,36 @@
         <v/>
       </c>
       <c r="AF43" s="28" t="str">
-        <f>IF(AE43="","",IF(COUNTIFS(MainTable[Module code],AE43,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(AE43="","",IF(OR(COUNTIFS(MainTable[Module code],AE43,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],AE43,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
     </row>
     <row r="44" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B44" s="90"/>
-      <c r="C44" s="91"/>
-      <c r="D44" s="92"/>
-      <c r="E44" s="92"/>
-      <c r="F44" s="92"/>
-      <c r="G44" s="92"/>
-      <c r="H44" s="92"/>
-      <c r="I44" s="92"/>
-      <c r="J44" s="98"/>
-      <c r="K44" s="85"/>
+      <c r="B44" s="85"/>
+      <c r="C44" s="86"/>
+      <c r="D44" s="87"/>
+      <c r="E44" s="87"/>
+      <c r="F44" s="87"/>
+      <c r="G44" s="87"/>
+      <c r="H44" s="87"/>
+      <c r="I44" s="87"/>
+      <c r="J44" s="93"/>
+      <c r="K44" s="80"/>
       <c r="L44" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M44" s="82"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M44" s="77"/>
       <c r="N44" s="3" t="str">
-        <f>IF(M44="N",SUM(D44:I44),IF(M44="Y",IF(L44&lt;2,0,SUM(D44:I44)),""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O44" s="3" t="str">
-        <f>IF(M44="Y",0,N44)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="P44" s="13" t="str">
-        <f>IF(OR(L44="",O44=""),"",O44*L44)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S44" s="27" t="str">
@@ -5627,7 +5627,7 @@
         <v/>
       </c>
       <c r="T44" s="28" t="str">
-        <f>IF(S44="","",IF(COUNTIFS(MainTable[Module code],S44,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(S44="","",IF(OR(COUNTIFS(MainTable[Module code],S44,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],S44,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="U44" s="29" t="str">
@@ -5635,61 +5635,61 @@
         <v/>
       </c>
       <c r="V44" s="34" t="str">
-        <f>IF(U44="","",IF(COUNTIFS(MainTable[Module code],U44,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
-        <v/>
-      </c>
-      <c r="W44" s="148" t="str">
+        <f>IF(U44="","",IF(OR(COUNTIFS(MainTable[Module code],U44,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],U44,MainTable[Grade],"P")),"Yes", "No"))</f>
+        <v/>
+      </c>
+      <c r="W44" s="116" t="str">
         <f>IF(Y23="","",Y23)</f>
         <v>Singapore Studies</v>
       </c>
-      <c r="X44" s="149"/>
-      <c r="Y44" s="148" t="str">
+      <c r="X44" s="117"/>
+      <c r="Y44" s="116" t="str">
         <f>IF(Y24="","",Y24)</f>
         <v/>
       </c>
-      <c r="Z44" s="149"/>
-      <c r="AA44" s="148" t="str">
+      <c r="Z44" s="117"/>
+      <c r="AA44" s="116" t="str">
         <f>IF(Y25="","",Y25)</f>
         <v/>
       </c>
-      <c r="AB44" s="149"/>
-      <c r="AC44" s="148" t="str">
+      <c r="AB44" s="117"/>
+      <c r="AC44" s="116" t="str">
         <f>IF(Y26="","",Y26)</f>
         <v/>
       </c>
-      <c r="AD44" s="149"/>
-      <c r="AE44" s="148" t="str">
+      <c r="AD44" s="117"/>
+      <c r="AE44" s="116" t="str">
         <f>IF(Y27="","",Y27)</f>
         <v/>
       </c>
-      <c r="AF44" s="149"/>
+      <c r="AF44" s="117"/>
     </row>
     <row r="45" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="90"/>
-      <c r="C45" s="91"/>
-      <c r="D45" s="92"/>
-      <c r="E45" s="92"/>
-      <c r="F45" s="92"/>
-      <c r="G45" s="92"/>
-      <c r="H45" s="92"/>
-      <c r="I45" s="92"/>
-      <c r="J45" s="98"/>
-      <c r="K45" s="85"/>
+      <c r="B45" s="85"/>
+      <c r="C45" s="86"/>
+      <c r="D45" s="87"/>
+      <c r="E45" s="87"/>
+      <c r="F45" s="87"/>
+      <c r="G45" s="87"/>
+      <c r="H45" s="87"/>
+      <c r="I45" s="87"/>
+      <c r="J45" s="93"/>
+      <c r="K45" s="80"/>
       <c r="L45" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M45" s="82"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M45" s="77"/>
       <c r="N45" s="3" t="str">
-        <f>IF(M45="N",SUM(D45:I45),IF(M45="Y",IF(L45&lt;2,0,SUM(D45:I45)),""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O45" s="3" t="str">
-        <f>IF(M45="Y",0,N45)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="P45" s="13" t="str">
-        <f>IF(OR(L45="",O45=""),"",O45*L45)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S45" s="27" t="str">
@@ -5697,7 +5697,7 @@
         <v/>
       </c>
       <c r="T45" s="28" t="str">
-        <f>IF(S45="","",IF(COUNTIFS(MainTable[Module code],S45,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(S45="","",IF(OR(COUNTIFS(MainTable[Module code],S45,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],S45,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="U45" s="29" t="str">
@@ -5705,46 +5705,46 @@
         <v/>
       </c>
       <c r="V45" s="34" t="str">
-        <f>IF(U45="","",IF(COUNTIFS(MainTable[Module code],U45,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
-        <v/>
-      </c>
-      <c r="W45" s="150"/>
-      <c r="X45" s="151"/>
-      <c r="Y45" s="150"/>
-      <c r="Z45" s="151"/>
-      <c r="AA45" s="150"/>
-      <c r="AB45" s="151"/>
-      <c r="AC45" s="150"/>
-      <c r="AD45" s="151"/>
-      <c r="AE45" s="150"/>
-      <c r="AF45" s="151"/>
+        <f>IF(U45="","",IF(OR(COUNTIFS(MainTable[Module code],U45,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],U45,MainTable[Grade],"P")),"Yes", "No"))</f>
+        <v/>
+      </c>
+      <c r="W45" s="118"/>
+      <c r="X45" s="119"/>
+      <c r="Y45" s="118"/>
+      <c r="Z45" s="119"/>
+      <c r="AA45" s="118"/>
+      <c r="AB45" s="119"/>
+      <c r="AC45" s="118"/>
+      <c r="AD45" s="119"/>
+      <c r="AE45" s="118"/>
+      <c r="AF45" s="119"/>
     </row>
     <row r="46" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B46" s="90"/>
-      <c r="C46" s="91"/>
-      <c r="D46" s="92"/>
-      <c r="E46" s="92"/>
-      <c r="F46" s="92"/>
-      <c r="G46" s="92"/>
-      <c r="H46" s="92"/>
-      <c r="I46" s="92"/>
-      <c r="J46" s="98"/>
-      <c r="K46" s="85"/>
+      <c r="B46" s="85"/>
+      <c r="C46" s="86"/>
+      <c r="D46" s="87"/>
+      <c r="E46" s="87"/>
+      <c r="F46" s="87"/>
+      <c r="G46" s="87"/>
+      <c r="H46" s="87"/>
+      <c r="I46" s="87"/>
+      <c r="J46" s="93"/>
+      <c r="K46" s="80"/>
       <c r="L46" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M46" s="82"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M46" s="77"/>
       <c r="N46" s="3" t="str">
-        <f>IF(M46="N",SUM(D46:I46),IF(M46="Y",IF(L46&lt;2,0,SUM(D46:I46)),""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O46" s="3" t="str">
-        <f>IF(M46="Y",0,N46)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="P46" s="13" t="str">
-        <f>IF(OR(L46="",O46=""),"",O46*L46)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S46" s="27" t="str">
@@ -5752,7 +5752,7 @@
         <v/>
       </c>
       <c r="T46" s="28" t="str">
-        <f>IF(S46="","",IF(COUNTIFS(MainTable[Module code],S46,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(S46="","",IF(OR(COUNTIFS(MainTable[Module code],S46,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],S46,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="U46" s="29" t="str">
@@ -5760,7 +5760,7 @@
         <v/>
       </c>
       <c r="V46" s="34" t="str">
-        <f>IF(U46="","",IF(COUNTIFS(MainTable[Module code],U46,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(U46="","",IF(OR(COUNTIFS(MainTable[Module code],U46,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],U46,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="W46" s="27" t="str">
@@ -5768,7 +5768,7 @@
         <v>SSB2216</v>
       </c>
       <c r="X46" s="28" t="str">
-        <f>IF(W46="","",IF(COUNTIFS(MainTable[Module code],W46,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(W46="","",IF(OR(COUNTIFS(MainTable[Module code],W46,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],W46,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v>No</v>
       </c>
       <c r="Y46" s="27" t="str">
@@ -5776,7 +5776,7 @@
         <v/>
       </c>
       <c r="Z46" s="28" t="str">
-        <f>IF(Y46="","",IF(COUNTIFS(MainTable[Module code],Y46,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(Y46="","",IF(OR(COUNTIFS(MainTable[Module code],Y46,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],Y46,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="AA46" s="29" t="str">
@@ -5784,7 +5784,7 @@
         <v/>
       </c>
       <c r="AB46" s="36" t="str">
-        <f>IF(AA46="","",IF(COUNTIFS(MainTable[Module code],AA46,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(AA46="","",IF(OR(COUNTIFS(MainTable[Module code],AA46,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],AA46,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="AC46" s="27" t="str">
@@ -5792,7 +5792,7 @@
         <v/>
       </c>
       <c r="AD46" s="28" t="str">
-        <f>IF(AC46="","",IF(COUNTIFS(MainTable[Module code],AC46,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(AC46="","",IF(OR(COUNTIFS(MainTable[Module code],AC46,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],AC46,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="AE46" s="29" t="str">
@@ -5800,36 +5800,36 @@
         <v/>
       </c>
       <c r="AF46" s="28" t="str">
-        <f>IF(AE46="","",IF(COUNTIFS(MainTable[Module code],AE46,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(AE46="","",IF(OR(COUNTIFS(MainTable[Module code],AE46,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],AE46,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="90"/>
-      <c r="C47" s="91"/>
-      <c r="D47" s="92"/>
-      <c r="E47" s="92"/>
-      <c r="F47" s="92"/>
-      <c r="G47" s="92"/>
-      <c r="H47" s="92"/>
-      <c r="I47" s="92"/>
-      <c r="J47" s="98"/>
-      <c r="K47" s="85"/>
+      <c r="B47" s="85"/>
+      <c r="C47" s="86"/>
+      <c r="D47" s="87"/>
+      <c r="E47" s="87"/>
+      <c r="F47" s="87"/>
+      <c r="G47" s="87"/>
+      <c r="H47" s="87"/>
+      <c r="I47" s="87"/>
+      <c r="J47" s="93"/>
+      <c r="K47" s="80"/>
       <c r="L47" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M47" s="82"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M47" s="77"/>
       <c r="N47" s="3" t="str">
-        <f>IF(M47="N",SUM(D47:I47),IF(M47="Y",IF(L47&lt;2,0,SUM(D47:I47)),""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O47" s="3" t="str">
-        <f>IF(M47="Y",0,N47)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="P47" s="13" t="str">
-        <f>IF(OR(L47="",O47=""),"",O47*L47)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S47" s="27" t="str">
@@ -5837,7 +5837,7 @@
         <v/>
       </c>
       <c r="T47" s="28" t="str">
-        <f>IF(S47="","",IF(COUNTIFS(MainTable[Module code],S47,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(S47="","",IF(OR(COUNTIFS(MainTable[Module code],S47,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],S47,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="U47" s="29" t="str">
@@ -5845,7 +5845,7 @@
         <v/>
       </c>
       <c r="V47" s="34" t="str">
-        <f>IF(U47="","",IF(COUNTIFS(MainTable[Module code],U47,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(U47="","",IF(OR(COUNTIFS(MainTable[Module code],U47,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],U47,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="W47" s="27" t="str">
@@ -5853,7 +5853,7 @@
         <v/>
       </c>
       <c r="X47" s="28" t="str">
-        <f>IF(W47="","",IF(COUNTIFS(MainTable[Module code],W47,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(W47="","",IF(OR(COUNTIFS(MainTable[Module code],W47,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],W47,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="Y47" s="27" t="str">
@@ -5861,7 +5861,7 @@
         <v/>
       </c>
       <c r="Z47" s="28" t="str">
-        <f>IF(Y47="","",IF(COUNTIFS(MainTable[Module code],Y47,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(Y47="","",IF(OR(COUNTIFS(MainTable[Module code],Y47,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],Y47,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="AA47" s="29" t="str">
@@ -5869,7 +5869,7 @@
         <v/>
       </c>
       <c r="AB47" s="36" t="str">
-        <f>IF(AA47="","",IF(COUNTIFS(MainTable[Module code],AA47,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(AA47="","",IF(OR(COUNTIFS(MainTable[Module code],AA47,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],AA47,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="AC47" s="27" t="str">
@@ -5877,7 +5877,7 @@
         <v/>
       </c>
       <c r="AD47" s="28" t="str">
-        <f>IF(AC47="","",IF(COUNTIFS(MainTable[Module code],AC47,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(AC47="","",IF(OR(COUNTIFS(MainTable[Module code],AC47,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],AC47,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="AE47" s="29" t="str">
@@ -5885,36 +5885,36 @@
         <v/>
       </c>
       <c r="AF47" s="28" t="str">
-        <f>IF(AE47="","",IF(COUNTIFS(MainTable[Module code],AE47,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(AE47="","",IF(OR(COUNTIFS(MainTable[Module code],AE47,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],AE47,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
     </row>
     <row r="48" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B48" s="90"/>
-      <c r="C48" s="91"/>
-      <c r="D48" s="92"/>
-      <c r="E48" s="92"/>
-      <c r="F48" s="92"/>
-      <c r="G48" s="92"/>
-      <c r="H48" s="92"/>
-      <c r="I48" s="92"/>
-      <c r="J48" s="98"/>
-      <c r="K48" s="85"/>
+      <c r="B48" s="85"/>
+      <c r="C48" s="86"/>
+      <c r="D48" s="87"/>
+      <c r="E48" s="87"/>
+      <c r="F48" s="87"/>
+      <c r="G48" s="87"/>
+      <c r="H48" s="87"/>
+      <c r="I48" s="87"/>
+      <c r="J48" s="93"/>
+      <c r="K48" s="80"/>
       <c r="L48" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M48" s="82"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M48" s="77"/>
       <c r="N48" s="3" t="str">
-        <f>IF(M48="N",SUM(D48:I48),IF(M48="Y",IF(L48&lt;2,0,SUM(D48:I48)),""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O48" s="3" t="str">
-        <f>IF(M48="Y",0,N48)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="P48" s="13" t="str">
-        <f>IF(OR(L48="",O48=""),"",O48*L48)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S48" s="27" t="str">
@@ -5922,7 +5922,7 @@
         <v/>
       </c>
       <c r="T48" s="28" t="str">
-        <f>IF(S48="","",IF(COUNTIFS(MainTable[Module code],S48,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(S48="","",IF(OR(COUNTIFS(MainTable[Module code],S48,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],S48,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="U48" s="29" t="str">
@@ -5930,7 +5930,7 @@
         <v/>
       </c>
       <c r="V48" s="34" t="str">
-        <f>IF(U48="","",IF(COUNTIFS(MainTable[Module code],U48,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(U48="","",IF(OR(COUNTIFS(MainTable[Module code],U48,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],U48,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="W48" s="27" t="str">
@@ -5938,7 +5938,7 @@
         <v/>
       </c>
       <c r="X48" s="28" t="str">
-        <f>IF(W48="","",IF(COUNTIFS(MainTable[Module code],W48,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(W48="","",IF(OR(COUNTIFS(MainTable[Module code],W48,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],W48,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="Y48" s="27" t="str">
@@ -5946,7 +5946,7 @@
         <v/>
       </c>
       <c r="Z48" s="28" t="str">
-        <f>IF(Y48="","",IF(COUNTIFS(MainTable[Module code],Y48,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(Y48="","",IF(OR(COUNTIFS(MainTable[Module code],Y48,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],Y48,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="AA48" s="29" t="str">
@@ -5954,7 +5954,7 @@
         <v/>
       </c>
       <c r="AB48" s="36" t="str">
-        <f>IF(AA48="","",IF(COUNTIFS(MainTable[Module code],AA48,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(AA48="","",IF(OR(COUNTIFS(MainTable[Module code],AA48,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],AA48,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="AC48" s="27" t="str">
@@ -5962,7 +5962,7 @@
         <v/>
       </c>
       <c r="AD48" s="28" t="str">
-        <f>IF(AC48="","",IF(COUNTIFS(MainTable[Module code],AC48,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(AC48="","",IF(OR(COUNTIFS(MainTable[Module code],AC48,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],AC48,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="AE48" s="29" t="str">
@@ -5970,36 +5970,36 @@
         <v/>
       </c>
       <c r="AF48" s="28" t="str">
-        <f>IF(AE48="","",IF(COUNTIFS(MainTable[Module code],AE48,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(AE48="","",IF(OR(COUNTIFS(MainTable[Module code],AE48,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],AE48,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
     </row>
     <row r="49" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B49" s="90"/>
-      <c r="C49" s="91"/>
-      <c r="D49" s="92"/>
-      <c r="E49" s="92"/>
-      <c r="F49" s="92"/>
-      <c r="G49" s="92"/>
-      <c r="H49" s="92"/>
-      <c r="I49" s="92"/>
-      <c r="J49" s="98"/>
-      <c r="K49" s="85"/>
+      <c r="B49" s="85"/>
+      <c r="C49" s="86"/>
+      <c r="D49" s="87"/>
+      <c r="E49" s="87"/>
+      <c r="F49" s="87"/>
+      <c r="G49" s="87"/>
+      <c r="H49" s="87"/>
+      <c r="I49" s="87"/>
+      <c r="J49" s="93"/>
+      <c r="K49" s="80"/>
       <c r="L49" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M49" s="82"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M49" s="77"/>
       <c r="N49" s="3" t="str">
-        <f>IF(M49="N",SUM(D49:I49),IF(M49="Y",IF(L49&lt;2,0,SUM(D49:I49)),""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O49" s="3" t="str">
-        <f>IF(M49="Y",0,N49)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="P49" s="13" t="str">
-        <f>IF(OR(L49="",O49=""),"",O49*L49)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S49" s="27" t="str">
@@ -6007,7 +6007,7 @@
         <v/>
       </c>
       <c r="T49" s="28" t="str">
-        <f>IF(S49="","",IF(COUNTIFS(MainTable[Module code],S49,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(S49="","",IF(OR(COUNTIFS(MainTable[Module code],S49,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],S49,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="U49" s="29" t="str">
@@ -6015,7 +6015,7 @@
         <v/>
       </c>
       <c r="V49" s="34" t="str">
-        <f>IF(U49="","",IF(COUNTIFS(MainTable[Module code],U49,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(U49="","",IF(OR(COUNTIFS(MainTable[Module code],U49,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],U49,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="W49" s="27" t="str">
@@ -6023,7 +6023,7 @@
         <v/>
       </c>
       <c r="X49" s="28" t="str">
-        <f>IF(W49="","",IF(COUNTIFS(MainTable[Module code],W49,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(W49="","",IF(OR(COUNTIFS(MainTable[Module code],W49,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],W49,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="Y49" s="27" t="str">
@@ -6031,7 +6031,7 @@
         <v/>
       </c>
       <c r="Z49" s="28" t="str">
-        <f>IF(Y49="","",IF(COUNTIFS(MainTable[Module code],Y49,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(Y49="","",IF(OR(COUNTIFS(MainTable[Module code],Y49,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],Y49,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="AA49" s="29" t="str">
@@ -6039,7 +6039,7 @@
         <v/>
       </c>
       <c r="AB49" s="36" t="str">
-        <f>IF(AA49="","",IF(COUNTIFS(MainTable[Module code],AA49,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(AA49="","",IF(OR(COUNTIFS(MainTable[Module code],AA49,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],AA49,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="AC49" s="27" t="str">
@@ -6047,7 +6047,7 @@
         <v/>
       </c>
       <c r="AD49" s="28" t="str">
-        <f>IF(AC49="","",IF(COUNTIFS(MainTable[Module code],AC49,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(AC49="","",IF(OR(COUNTIFS(MainTable[Module code],AC49,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],AC49,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="AE49" s="29" t="str">
@@ -6055,36 +6055,36 @@
         <v/>
       </c>
       <c r="AF49" s="28" t="str">
-        <f>IF(AE49="","",IF(COUNTIFS(MainTable[Module code],AE49,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(AE49="","",IF(OR(COUNTIFS(MainTable[Module code],AE49,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],AE49,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
     </row>
     <row r="50" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="90"/>
-      <c r="C50" s="91"/>
-      <c r="D50" s="92"/>
-      <c r="E50" s="92"/>
-      <c r="F50" s="92"/>
-      <c r="G50" s="92"/>
-      <c r="H50" s="92"/>
-      <c r="I50" s="92"/>
-      <c r="J50" s="98"/>
-      <c r="K50" s="85"/>
+      <c r="B50" s="85"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="87"/>
+      <c r="E50" s="87"/>
+      <c r="F50" s="87"/>
+      <c r="G50" s="87"/>
+      <c r="H50" s="87"/>
+      <c r="I50" s="87"/>
+      <c r="J50" s="93"/>
+      <c r="K50" s="80"/>
       <c r="L50" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M50" s="82"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M50" s="77"/>
       <c r="N50" s="3" t="str">
-        <f>IF(M50="N",SUM(D50:I50),IF(M50="Y",IF(L50&lt;2,0,SUM(D50:I50)),""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O50" s="3" t="str">
-        <f>IF(M50="Y",0,N50)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="P50" s="13" t="str">
-        <f>IF(OR(L50="",O50=""),"",O50*L50)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S50" s="27" t="str">
@@ -6092,7 +6092,7 @@
         <v/>
       </c>
       <c r="T50" s="28" t="str">
-        <f>IF(S50="","",IF(COUNTIFS(MainTable[Module code],S50,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(S50="","",IF(OR(COUNTIFS(MainTable[Module code],S50,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],S50,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="U50" s="29" t="str">
@@ -6100,7 +6100,7 @@
         <v/>
       </c>
       <c r="V50" s="34" t="str">
-        <f>IF(U50="","",IF(COUNTIFS(MainTable[Module code],U50,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(U50="","",IF(OR(COUNTIFS(MainTable[Module code],U50,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],U50,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="W50" s="27" t="str">
@@ -6108,7 +6108,7 @@
         <v/>
       </c>
       <c r="X50" s="28" t="str">
-        <f>IF(W50="","",IF(COUNTIFS(MainTable[Module code],W50,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(W50="","",IF(OR(COUNTIFS(MainTable[Module code],W50,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],W50,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="Y50" s="27" t="str">
@@ -6116,7 +6116,7 @@
         <v/>
       </c>
       <c r="Z50" s="28" t="str">
-        <f>IF(Y50="","",IF(COUNTIFS(MainTable[Module code],Y50,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(Y50="","",IF(OR(COUNTIFS(MainTable[Module code],Y50,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],Y50,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="AA50" s="29" t="str">
@@ -6124,7 +6124,7 @@
         <v/>
       </c>
       <c r="AB50" s="36" t="str">
-        <f>IF(AA50="","",IF(COUNTIFS(MainTable[Module code],AA50,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(AA50="","",IF(OR(COUNTIFS(MainTable[Module code],AA50,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],AA50,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="AC50" s="27" t="str">
@@ -6132,7 +6132,7 @@
         <v/>
       </c>
       <c r="AD50" s="28" t="str">
-        <f>IF(AC50="","",IF(COUNTIFS(MainTable[Module code],AC50,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(AC50="","",IF(OR(COUNTIFS(MainTable[Module code],AC50,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],AC50,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="AE50" s="29" t="str">
@@ -6140,36 +6140,36 @@
         <v/>
       </c>
       <c r="AF50" s="28" t="str">
-        <f>IF(AE50="","",IF(COUNTIFS(MainTable[Module code],AE50,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(AE50="","",IF(OR(COUNTIFS(MainTable[Module code],AE50,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],AE50,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
     </row>
     <row r="51" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="90"/>
-      <c r="C51" s="91"/>
-      <c r="D51" s="92"/>
-      <c r="E51" s="92"/>
-      <c r="F51" s="92"/>
-      <c r="G51" s="92"/>
-      <c r="H51" s="92"/>
-      <c r="I51" s="92"/>
-      <c r="J51" s="98"/>
-      <c r="K51" s="85"/>
+      <c r="B51" s="85"/>
+      <c r="C51" s="86"/>
+      <c r="D51" s="87"/>
+      <c r="E51" s="87"/>
+      <c r="F51" s="87"/>
+      <c r="G51" s="87"/>
+      <c r="H51" s="87"/>
+      <c r="I51" s="87"/>
+      <c r="J51" s="93"/>
+      <c r="K51" s="80"/>
       <c r="L51" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M51" s="82"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M51" s="77"/>
       <c r="N51" s="3" t="str">
-        <f>IF(M51="N",SUM(D51:I51),IF(M51="Y",IF(L51&lt;2,0,SUM(D51:I51)),""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O51" s="3" t="str">
-        <f>IF(M51="Y",0,N51)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="P51" s="13" t="str">
-        <f>IF(OR(L51="",O51=""),"",O51*L51)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S51" s="30" t="str">
@@ -6177,7 +6177,7 @@
         <v/>
       </c>
       <c r="T51" s="31" t="str">
-        <f>IF(S51="","",IF(COUNTIFS(MainTable[Module code],S51,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(S51="","",IF(OR(COUNTIFS(MainTable[Module code],S51,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],S51,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="U51" s="32" t="str">
@@ -6185,7 +6185,7 @@
         <v/>
       </c>
       <c r="V51" s="39" t="str">
-        <f>IF(U51="","",IF(COUNTIFS(MainTable[Module code],U51,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(U51="","",IF(OR(COUNTIFS(MainTable[Module code],U51,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],U51,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="W51" s="30" t="str">
@@ -6193,7 +6193,7 @@
         <v/>
       </c>
       <c r="X51" s="31" t="str">
-        <f>IF(W51="","",IF(COUNTIFS(MainTable[Module code],W51,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(W51="","",IF(OR(COUNTIFS(MainTable[Module code],W51,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],W51,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="Y51" s="30" t="str">
@@ -6201,7 +6201,7 @@
         <v/>
       </c>
       <c r="Z51" s="31" t="str">
-        <f>IF(Y51="","",IF(COUNTIFS(MainTable[Module code],Y51,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(Y51="","",IF(OR(COUNTIFS(MainTable[Module code],Y51,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],Y51,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="AA51" s="32" t="str">
@@ -6209,7 +6209,7 @@
         <v/>
       </c>
       <c r="AB51" s="37" t="str">
-        <f>IF(AA51="","",IF(COUNTIFS(MainTable[Module code],AA51,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(AA51="","",IF(OR(COUNTIFS(MainTable[Module code],AA51,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],AA51,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="AC51" s="30" t="str">
@@ -6217,7 +6217,7 @@
         <v/>
       </c>
       <c r="AD51" s="31" t="str">
-        <f>IF(AC51="","",IF(COUNTIFS(MainTable[Module code],AC51,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(AC51="","",IF(OR(COUNTIFS(MainTable[Module code],AC51,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],AC51,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
       <c r="AE51" s="32" t="str">
@@ -6225,648 +6225,648 @@
         <v/>
       </c>
       <c r="AF51" s="31" t="str">
-        <f>IF(AE51="","",IF(COUNTIFS(MainTable[Module code],AE51,MainTable[Effective MCs],"&gt;0"),"Yes", "No"))</f>
+        <f>IF(AE51="","",IF(OR(COUNTIFS(MainTable[Module code],AE51,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],AE51,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
     </row>
     <row r="52" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B52" s="90"/>
-      <c r="C52" s="91"/>
-      <c r="D52" s="92"/>
-      <c r="E52" s="92"/>
-      <c r="F52" s="92"/>
-      <c r="G52" s="92"/>
-      <c r="H52" s="92"/>
-      <c r="I52" s="92"/>
-      <c r="J52" s="98"/>
-      <c r="K52" s="85"/>
+      <c r="B52" s="85"/>
+      <c r="C52" s="86"/>
+      <c r="D52" s="87"/>
+      <c r="E52" s="87"/>
+      <c r="F52" s="87"/>
+      <c r="G52" s="87"/>
+      <c r="H52" s="87"/>
+      <c r="I52" s="87"/>
+      <c r="J52" s="93"/>
+      <c r="K52" s="80"/>
       <c r="L52" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M52" s="82"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M52" s="77"/>
       <c r="N52" s="3" t="str">
-        <f>IF(M52="N",SUM(D52:I52),IF(M52="Y",IF(L52&lt;2,0,SUM(D52:I52)),""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O52" s="3" t="str">
-        <f>IF(M52="Y",0,N52)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="P52" s="13" t="str">
-        <f>IF(OR(L52="",O52=""),"",O52*L52)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="53" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B53" s="90"/>
-      <c r="C53" s="91"/>
-      <c r="D53" s="92"/>
-      <c r="E53" s="92"/>
-      <c r="F53" s="92"/>
-      <c r="G53" s="92"/>
-      <c r="H53" s="92"/>
-      <c r="I53" s="92"/>
-      <c r="J53" s="98"/>
-      <c r="K53" s="85"/>
+      <c r="B53" s="85"/>
+      <c r="C53" s="86"/>
+      <c r="D53" s="87"/>
+      <c r="E53" s="87"/>
+      <c r="F53" s="87"/>
+      <c r="G53" s="87"/>
+      <c r="H53" s="87"/>
+      <c r="I53" s="87"/>
+      <c r="J53" s="93"/>
+      <c r="K53" s="80"/>
       <c r="L53" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M53" s="82"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M53" s="77"/>
       <c r="N53" s="3" t="str">
-        <f>IF(M53="N",SUM(D53:I53),IF(M53="Y",IF(L53&lt;2,0,SUM(D53:I53)),""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O53" s="3" t="str">
-        <f>IF(M53="Y",0,N53)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="P53" s="13" t="str">
-        <f>IF(OR(L53="",O53=""),"",O53*L53)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B54" s="90"/>
-      <c r="C54" s="91"/>
-      <c r="D54" s="92"/>
-      <c r="E54" s="92"/>
-      <c r="F54" s="92"/>
-      <c r="G54" s="92"/>
-      <c r="H54" s="92"/>
-      <c r="I54" s="92"/>
-      <c r="J54" s="98"/>
-      <c r="K54" s="85"/>
+      <c r="B54" s="85"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="87"/>
+      <c r="E54" s="87"/>
+      <c r="F54" s="87"/>
+      <c r="G54" s="87"/>
+      <c r="H54" s="87"/>
+      <c r="I54" s="87"/>
+      <c r="J54" s="93"/>
+      <c r="K54" s="80"/>
       <c r="L54" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M54" s="82"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M54" s="77"/>
       <c r="N54" s="3" t="str">
-        <f>IF(M54="N",SUM(D54:I54),IF(M54="Y",IF(L54&lt;2,0,SUM(D54:I54)),""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O54" s="3" t="str">
-        <f>IF(M54="Y",0,N54)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="P54" s="13" t="str">
-        <f>IF(OR(L54="",O54=""),"",O54*L54)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B55" s="90"/>
-      <c r="C55" s="91"/>
-      <c r="D55" s="92"/>
-      <c r="E55" s="92"/>
-      <c r="F55" s="92"/>
-      <c r="G55" s="92"/>
-      <c r="H55" s="92"/>
-      <c r="I55" s="92"/>
-      <c r="J55" s="98"/>
-      <c r="K55" s="85"/>
+      <c r="B55" s="85"/>
+      <c r="C55" s="86"/>
+      <c r="D55" s="87"/>
+      <c r="E55" s="87"/>
+      <c r="F55" s="87"/>
+      <c r="G55" s="87"/>
+      <c r="H55" s="87"/>
+      <c r="I55" s="87"/>
+      <c r="J55" s="93"/>
+      <c r="K55" s="80"/>
       <c r="L55" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M55" s="82"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M55" s="77"/>
       <c r="N55" s="3" t="str">
-        <f>IF(M55="N",SUM(D55:I55),IF(M55="Y",IF(L55&lt;2,0,SUM(D55:I55)),""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O55" s="3" t="str">
-        <f>IF(M55="Y",0,N55)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="P55" s="13" t="str">
-        <f>IF(OR(L55="",O55=""),"",O55*L55)</f>
-        <v/>
-      </c>
-      <c r="S55" s="81"/>
-      <c r="T55" s="108" t="s">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="S55" s="159"/>
+      <c r="T55" s="160" t="s">
         <v>82</v>
       </c>
-      <c r="U55" s="108"/>
-      <c r="V55" s="81"/>
-      <c r="W55" s="81"/>
-      <c r="X55" s="81"/>
-      <c r="Y55" s="81"/>
-      <c r="Z55" s="81"/>
-      <c r="AA55" s="81"/>
-      <c r="AB55" s="81"/>
-      <c r="AC55" s="81"/>
-      <c r="AD55" s="81"/>
-      <c r="AE55" s="81"/>
-      <c r="AF55" s="81"/>
+      <c r="U55" s="160"/>
+      <c r="V55" s="159"/>
+      <c r="W55" s="159"/>
+      <c r="X55" s="159"/>
+      <c r="Y55" s="159"/>
+      <c r="Z55" s="159"/>
+      <c r="AA55" s="159"/>
+      <c r="AB55" s="159"/>
+      <c r="AC55" s="159"/>
+      <c r="AD55" s="159"/>
+      <c r="AE55" s="159"/>
+      <c r="AF55" s="159"/>
     </row>
     <row r="56" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B56" s="90"/>
-      <c r="C56" s="91"/>
-      <c r="D56" s="92"/>
-      <c r="E56" s="92"/>
-      <c r="F56" s="92"/>
-      <c r="G56" s="92"/>
-      <c r="H56" s="92"/>
-      <c r="I56" s="92"/>
-      <c r="J56" s="98"/>
-      <c r="K56" s="85"/>
+      <c r="B56" s="85"/>
+      <c r="C56" s="86"/>
+      <c r="D56" s="87"/>
+      <c r="E56" s="87"/>
+      <c r="F56" s="87"/>
+      <c r="G56" s="87"/>
+      <c r="H56" s="87"/>
+      <c r="I56" s="87"/>
+      <c r="J56" s="93"/>
+      <c r="K56" s="80"/>
       <c r="L56" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M56" s="82"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M56" s="77"/>
       <c r="N56" s="3" t="str">
-        <f>IF(M56="N",SUM(D56:I56),IF(M56="Y",IF(L56&lt;2,0,SUM(D56:I56)),""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O56" s="3" t="str">
-        <f>IF(M56="Y",0,N56)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="P56" s="13" t="str">
-        <f>IF(OR(L56="",O56=""),"",O56*L56)</f>
-        <v/>
-      </c>
-      <c r="S56" s="81"/>
-      <c r="T56" s="108"/>
-      <c r="U56" s="108"/>
-      <c r="V56" s="81"/>
-      <c r="W56" s="81"/>
-      <c r="X56" s="81"/>
-      <c r="Y56" s="81"/>
-      <c r="Z56" s="81"/>
-      <c r="AA56" s="81"/>
-      <c r="AB56" s="81"/>
-      <c r="AC56" s="81"/>
-      <c r="AD56" s="81"/>
-      <c r="AE56" s="81"/>
-      <c r="AF56" s="81"/>
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="S56" s="159"/>
+      <c r="T56" s="160"/>
+      <c r="U56" s="160"/>
+      <c r="V56" s="159"/>
+      <c r="W56" s="159"/>
+      <c r="X56" s="159"/>
+      <c r="Y56" s="159"/>
+      <c r="Z56" s="159"/>
+      <c r="AA56" s="159"/>
+      <c r="AB56" s="159"/>
+      <c r="AC56" s="159"/>
+      <c r="AD56" s="159"/>
+      <c r="AE56" s="159"/>
+      <c r="AF56" s="159"/>
     </row>
     <row r="57" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B57" s="90"/>
-      <c r="C57" s="91"/>
-      <c r="D57" s="92"/>
-      <c r="E57" s="92"/>
-      <c r="F57" s="92"/>
-      <c r="G57" s="92"/>
-      <c r="H57" s="92"/>
-      <c r="I57" s="92"/>
-      <c r="J57" s="98"/>
-      <c r="K57" s="85"/>
+      <c r="B57" s="85"/>
+      <c r="C57" s="86"/>
+      <c r="D57" s="87"/>
+      <c r="E57" s="87"/>
+      <c r="F57" s="87"/>
+      <c r="G57" s="87"/>
+      <c r="H57" s="87"/>
+      <c r="I57" s="87"/>
+      <c r="J57" s="93"/>
+      <c r="K57" s="80"/>
       <c r="L57" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M57" s="82"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M57" s="77"/>
       <c r="N57" s="3" t="str">
-        <f>IF(M57="N",SUM(D57:I57),IF(M57="Y",IF(L57&lt;2,0,SUM(D57:I57)),""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O57" s="3" t="str">
-        <f>IF(M57="Y",0,N57)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="P57" s="13" t="str">
-        <f>IF(OR(L57="",O57=""),"",O57*L57)</f>
-        <v/>
-      </c>
-      <c r="S57" s="81"/>
-      <c r="T57" s="81" t="s">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="S57" s="159"/>
+      <c r="T57" s="159" t="s">
         <v>85</v>
       </c>
-      <c r="U57" s="81"/>
-      <c r="V57" s="81"/>
-      <c r="W57" s="81"/>
-      <c r="X57" s="81"/>
-      <c r="Y57" s="81"/>
-      <c r="Z57" s="81"/>
-      <c r="AA57" s="81"/>
-      <c r="AB57" s="81"/>
-      <c r="AC57" s="81"/>
-      <c r="AD57" s="81"/>
-      <c r="AE57" s="81"/>
-      <c r="AF57" s="81"/>
+      <c r="U57" s="159"/>
+      <c r="V57" s="159"/>
+      <c r="W57" s="159"/>
+      <c r="X57" s="159"/>
+      <c r="Y57" s="159"/>
+      <c r="Z57" s="159"/>
+      <c r="AA57" s="159"/>
+      <c r="AB57" s="159"/>
+      <c r="AC57" s="159"/>
+      <c r="AD57" s="159"/>
+      <c r="AE57" s="159"/>
+      <c r="AF57" s="159"/>
     </row>
     <row r="58" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B58" s="90"/>
-      <c r="C58" s="91"/>
-      <c r="D58" s="92"/>
-      <c r="E58" s="92"/>
-      <c r="F58" s="92"/>
-      <c r="G58" s="92"/>
-      <c r="H58" s="92"/>
-      <c r="I58" s="92"/>
-      <c r="J58" s="98"/>
-      <c r="K58" s="85"/>
+      <c r="B58" s="85"/>
+      <c r="C58" s="86"/>
+      <c r="D58" s="87"/>
+      <c r="E58" s="87"/>
+      <c r="F58" s="87"/>
+      <c r="G58" s="87"/>
+      <c r="H58" s="87"/>
+      <c r="I58" s="87"/>
+      <c r="J58" s="93"/>
+      <c r="K58" s="80"/>
       <c r="L58" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M58" s="82"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M58" s="77"/>
       <c r="N58" s="3" t="str">
-        <f>IF(M58="N",SUM(D58:I58),IF(M58="Y",IF(L58&lt;2,0,SUM(D58:I58)),""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O58" s="3" t="str">
-        <f>IF(M58="Y",0,N58)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="P58" s="13" t="str">
-        <f>IF(OR(L58="",O58=""),"",O58*L58)</f>
-        <v/>
-      </c>
-      <c r="S58" s="81"/>
-      <c r="T58" s="81" t="s">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="S58" s="159"/>
+      <c r="T58" s="159" t="s">
         <v>83</v>
       </c>
-      <c r="U58" s="81"/>
-      <c r="V58" s="81"/>
-      <c r="W58" s="81"/>
-      <c r="X58" s="81"/>
-      <c r="Y58" s="81"/>
-      <c r="Z58" s="81"/>
-      <c r="AA58" s="81"/>
-      <c r="AB58" s="81"/>
-      <c r="AC58" s="81"/>
-      <c r="AD58" s="81"/>
-      <c r="AE58" s="81"/>
-      <c r="AF58" s="81"/>
+      <c r="U58" s="159"/>
+      <c r="V58" s="159"/>
+      <c r="W58" s="159"/>
+      <c r="X58" s="159"/>
+      <c r="Y58" s="159"/>
+      <c r="Z58" s="159"/>
+      <c r="AA58" s="159"/>
+      <c r="AB58" s="159"/>
+      <c r="AC58" s="159"/>
+      <c r="AD58" s="159"/>
+      <c r="AE58" s="159"/>
+      <c r="AF58" s="159"/>
     </row>
     <row r="59" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B59" s="90"/>
-      <c r="C59" s="91"/>
-      <c r="D59" s="92"/>
-      <c r="E59" s="92"/>
-      <c r="F59" s="92"/>
-      <c r="G59" s="92"/>
-      <c r="H59" s="92"/>
-      <c r="I59" s="92"/>
-      <c r="J59" s="98"/>
-      <c r="K59" s="85"/>
+      <c r="B59" s="85"/>
+      <c r="C59" s="86"/>
+      <c r="D59" s="87"/>
+      <c r="E59" s="87"/>
+      <c r="F59" s="87"/>
+      <c r="G59" s="87"/>
+      <c r="H59" s="87"/>
+      <c r="I59" s="87"/>
+      <c r="J59" s="93"/>
+      <c r="K59" s="80"/>
       <c r="L59" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M59" s="82"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M59" s="77"/>
       <c r="N59" s="3" t="str">
-        <f>IF(M59="N",SUM(D59:I59),IF(M59="Y",IF(L59&lt;2,0,SUM(D59:I59)),""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O59" s="3" t="str">
-        <f>IF(M59="Y",0,N59)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="P59" s="13" t="str">
-        <f>IF(OR(L59="",O59=""),"",O59*L59)</f>
-        <v/>
-      </c>
-      <c r="S59" s="81"/>
-      <c r="T59" s="81" t="s">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="S59" s="159"/>
+      <c r="T59" s="159" t="s">
         <v>84</v>
       </c>
-      <c r="U59" s="81"/>
-      <c r="V59" s="81"/>
-      <c r="W59" s="81"/>
-      <c r="X59" s="81"/>
-      <c r="Y59" s="81"/>
-      <c r="Z59" s="81"/>
-      <c r="AA59" s="81"/>
-      <c r="AB59" s="81"/>
-      <c r="AC59" s="81"/>
-      <c r="AD59" s="81"/>
-      <c r="AE59" s="81"/>
-      <c r="AF59" s="81"/>
+      <c r="U59" s="159"/>
+      <c r="V59" s="159"/>
+      <c r="W59" s="159"/>
+      <c r="X59" s="159"/>
+      <c r="Y59" s="159"/>
+      <c r="Z59" s="159"/>
+      <c r="AA59" s="159"/>
+      <c r="AB59" s="159"/>
+      <c r="AC59" s="159"/>
+      <c r="AD59" s="159"/>
+      <c r="AE59" s="159"/>
+      <c r="AF59" s="159"/>
     </row>
     <row r="60" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B60" s="90"/>
-      <c r="C60" s="91"/>
-      <c r="D60" s="92"/>
-      <c r="E60" s="92"/>
-      <c r="F60" s="92"/>
-      <c r="G60" s="92"/>
-      <c r="H60" s="92"/>
-      <c r="I60" s="92"/>
-      <c r="J60" s="98"/>
-      <c r="K60" s="85"/>
+      <c r="B60" s="85"/>
+      <c r="C60" s="86"/>
+      <c r="D60" s="87"/>
+      <c r="E60" s="87"/>
+      <c r="F60" s="87"/>
+      <c r="G60" s="87"/>
+      <c r="H60" s="87"/>
+      <c r="I60" s="87"/>
+      <c r="J60" s="93"/>
+      <c r="K60" s="80"/>
       <c r="L60" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M60" s="82"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M60" s="77"/>
       <c r="N60" s="3" t="str">
-        <f>IF(M60="N",SUM(D60:I60),IF(M60="Y",IF(L60&lt;2,0,SUM(D60:I60)),""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O60" s="3" t="str">
-        <f>IF(M60="Y",0,N60)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="P60" s="13" t="str">
-        <f>IF(OR(L60="",O60=""),"",O60*L60)</f>
-        <v/>
-      </c>
-      <c r="S60" s="81"/>
-      <c r="T60" s="81"/>
-      <c r="U60" s="81"/>
-      <c r="V60" s="81"/>
-      <c r="W60" s="81"/>
-      <c r="X60" s="81"/>
-      <c r="Y60" s="81"/>
-      <c r="Z60" s="81"/>
-      <c r="AA60" s="81"/>
-      <c r="AB60" s="81"/>
-      <c r="AC60" s="81"/>
-      <c r="AD60" s="81"/>
-      <c r="AE60" s="81"/>
-      <c r="AF60" s="81"/>
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="S60" s="159"/>
+      <c r="T60" s="159"/>
+      <c r="U60" s="159"/>
+      <c r="V60" s="159"/>
+      <c r="W60" s="159"/>
+      <c r="X60" s="159"/>
+      <c r="Y60" s="159"/>
+      <c r="Z60" s="159"/>
+      <c r="AA60" s="159"/>
+      <c r="AB60" s="159"/>
+      <c r="AC60" s="159"/>
+      <c r="AD60" s="159"/>
+      <c r="AE60" s="159"/>
+      <c r="AF60" s="159"/>
     </row>
     <row r="61" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B61" s="90"/>
-      <c r="C61" s="91"/>
-      <c r="D61" s="92"/>
-      <c r="E61" s="92"/>
-      <c r="F61" s="92"/>
-      <c r="G61" s="92"/>
-      <c r="H61" s="92"/>
-      <c r="I61" s="92"/>
-      <c r="J61" s="98"/>
-      <c r="K61" s="85"/>
+      <c r="B61" s="85"/>
+      <c r="C61" s="86"/>
+      <c r="D61" s="87"/>
+      <c r="E61" s="87"/>
+      <c r="F61" s="87"/>
+      <c r="G61" s="87"/>
+      <c r="H61" s="87"/>
+      <c r="I61" s="87"/>
+      <c r="J61" s="93"/>
+      <c r="K61" s="80"/>
       <c r="L61" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M61" s="82"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M61" s="77"/>
       <c r="N61" s="3" t="str">
-        <f>IF(M61="N",SUM(D61:I61),IF(M61="Y",IF(L61&lt;2,0,SUM(D61:I61)),""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O61" s="3" t="str">
-        <f>IF(M61="Y",0,N61)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="P61" s="13" t="str">
-        <f>IF(OR(L61="",O61=""),"",O61*L61)</f>
-        <v/>
-      </c>
-      <c r="S61" s="81"/>
-      <c r="T61" s="81"/>
-      <c r="U61" s="81"/>
-      <c r="V61" s="81"/>
-      <c r="W61" s="81"/>
-      <c r="X61" s="81"/>
-      <c r="Y61" s="81"/>
-      <c r="Z61" s="81"/>
-      <c r="AA61" s="81"/>
-      <c r="AB61" s="81"/>
-      <c r="AC61" s="81"/>
-      <c r="AD61" s="81"/>
-      <c r="AE61" s="81"/>
-      <c r="AF61" s="81"/>
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="S61" s="159"/>
+      <c r="T61" s="159"/>
+      <c r="U61" s="159"/>
+      <c r="V61" s="159"/>
+      <c r="W61" s="159"/>
+      <c r="X61" s="159"/>
+      <c r="Y61" s="159"/>
+      <c r="Z61" s="159"/>
+      <c r="AA61" s="159"/>
+      <c r="AB61" s="159"/>
+      <c r="AC61" s="159"/>
+      <c r="AD61" s="159"/>
+      <c r="AE61" s="159"/>
+      <c r="AF61" s="159"/>
     </row>
     <row r="62" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B62" s="90"/>
-      <c r="C62" s="91"/>
-      <c r="D62" s="92"/>
-      <c r="E62" s="92"/>
-      <c r="F62" s="92"/>
-      <c r="G62" s="92"/>
-      <c r="H62" s="92"/>
-      <c r="I62" s="92"/>
-      <c r="J62" s="98"/>
-      <c r="K62" s="85"/>
+      <c r="B62" s="85"/>
+      <c r="C62" s="86"/>
+      <c r="D62" s="87"/>
+      <c r="E62" s="87"/>
+      <c r="F62" s="87"/>
+      <c r="G62" s="87"/>
+      <c r="H62" s="87"/>
+      <c r="I62" s="87"/>
+      <c r="J62" s="93"/>
+      <c r="K62" s="80"/>
       <c r="L62" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M62" s="82"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M62" s="77"/>
       <c r="N62" s="3" t="str">
-        <f>IF(M62="N",SUM(D62:I62),IF(M62="Y",IF(L62&lt;2,0,SUM(D62:I62)),""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O62" s="3" t="str">
-        <f>IF(M62="Y",0,N62)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="P62" s="13" t="str">
-        <f>IF(OR(L62="",O62=""),"",O62*L62)</f>
-        <v/>
-      </c>
-      <c r="S62" s="81"/>
-      <c r="T62" s="81" t="s">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="S62" s="159"/>
+      <c r="T62" s="159" t="s">
         <v>93</v>
       </c>
-      <c r="U62" s="81"/>
-      <c r="V62" s="81"/>
-      <c r="W62" s="81"/>
-      <c r="X62" s="81"/>
-      <c r="Y62" s="81"/>
-      <c r="Z62" s="81"/>
-      <c r="AA62" s="81"/>
-      <c r="AB62" s="81"/>
-      <c r="AC62" s="81"/>
-      <c r="AD62" s="81"/>
-      <c r="AE62" s="81"/>
-      <c r="AF62" s="81"/>
+      <c r="U62" s="159"/>
+      <c r="V62" s="159"/>
+      <c r="W62" s="159"/>
+      <c r="X62" s="159"/>
+      <c r="Y62" s="159"/>
+      <c r="Z62" s="159"/>
+      <c r="AA62" s="159"/>
+      <c r="AB62" s="159"/>
+      <c r="AC62" s="159"/>
+      <c r="AD62" s="159"/>
+      <c r="AE62" s="159"/>
+      <c r="AF62" s="159"/>
     </row>
     <row r="63" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B63" s="90"/>
-      <c r="C63" s="91"/>
-      <c r="D63" s="92"/>
-      <c r="E63" s="92"/>
-      <c r="F63" s="92"/>
-      <c r="G63" s="92"/>
-      <c r="H63" s="92"/>
-      <c r="I63" s="92"/>
-      <c r="J63" s="98"/>
-      <c r="K63" s="85"/>
+      <c r="B63" s="85"/>
+      <c r="C63" s="86"/>
+      <c r="D63" s="87"/>
+      <c r="E63" s="87"/>
+      <c r="F63" s="87"/>
+      <c r="G63" s="87"/>
+      <c r="H63" s="87"/>
+      <c r="I63" s="87"/>
+      <c r="J63" s="93"/>
+      <c r="K63" s="80"/>
       <c r="L63" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M63" s="82"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M63" s="77"/>
       <c r="N63" s="3" t="str">
-        <f>IF(M63="N",SUM(D63:I63),IF(M63="Y",IF(L63&lt;2,0,SUM(D63:I63)),""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O63" s="3" t="str">
-        <f>IF(M63="Y",0,N63)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="P63" s="13" t="str">
-        <f>IF(OR(L63="",O63=""),"",O63*L63)</f>
-        <v/>
-      </c>
-      <c r="S63" s="81"/>
-      <c r="T63" s="81" t="s">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="S63" s="159"/>
+      <c r="T63" s="159" t="s">
         <v>92</v>
       </c>
-      <c r="U63" s="81"/>
-      <c r="V63" s="81"/>
-      <c r="W63" s="81"/>
-      <c r="X63" s="81"/>
-      <c r="Y63" s="81"/>
-      <c r="Z63" s="81"/>
-      <c r="AA63" s="81"/>
-      <c r="AB63" s="81"/>
-      <c r="AC63" s="81"/>
-      <c r="AD63" s="81"/>
-      <c r="AE63" s="81"/>
-      <c r="AF63" s="81"/>
+      <c r="U63" s="159"/>
+      <c r="V63" s="159"/>
+      <c r="W63" s="159"/>
+      <c r="X63" s="159"/>
+      <c r="Y63" s="159"/>
+      <c r="Z63" s="159"/>
+      <c r="AA63" s="159"/>
+      <c r="AB63" s="159"/>
+      <c r="AC63" s="159"/>
+      <c r="AD63" s="159"/>
+      <c r="AE63" s="159"/>
+      <c r="AF63" s="159"/>
     </row>
     <row r="64" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B64" s="90"/>
-      <c r="C64" s="91"/>
-      <c r="D64" s="92"/>
-      <c r="E64" s="92"/>
-      <c r="F64" s="92"/>
-      <c r="G64" s="92"/>
-      <c r="H64" s="92"/>
-      <c r="I64" s="92"/>
-      <c r="J64" s="98"/>
-      <c r="K64" s="85"/>
+      <c r="B64" s="85"/>
+      <c r="C64" s="86"/>
+      <c r="D64" s="87"/>
+      <c r="E64" s="87"/>
+      <c r="F64" s="87"/>
+      <c r="G64" s="87"/>
+      <c r="H64" s="87"/>
+      <c r="I64" s="87"/>
+      <c r="J64" s="93"/>
+      <c r="K64" s="80"/>
       <c r="L64" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M64" s="82"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M64" s="77"/>
       <c r="N64" s="3" t="str">
-        <f>IF(M64="N",SUM(D64:I64),IF(M64="Y",IF(L64&lt;2,0,SUM(D64:I64)),""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O64" s="3" t="str">
-        <f>IF(M64="Y",0,N64)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="P64" s="13" t="str">
-        <f>IF(OR(L64="",O64=""),"",O64*L64)</f>
-        <v/>
-      </c>
-      <c r="S64" s="81"/>
-      <c r="T64" s="162" t="s">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="S64" s="159"/>
+      <c r="T64" s="161" t="s">
         <v>91</v>
       </c>
-      <c r="U64" s="162"/>
-      <c r="V64" s="162"/>
-      <c r="W64" s="162"/>
-      <c r="X64" s="162"/>
-      <c r="Y64" s="162"/>
-      <c r="Z64" s="81"/>
-      <c r="AA64" s="81"/>
-      <c r="AB64" s="81"/>
-      <c r="AC64" s="81"/>
-      <c r="AD64" s="106" t="s">
+      <c r="U64" s="161"/>
+      <c r="V64" s="161"/>
+      <c r="W64" s="161"/>
+      <c r="X64" s="161"/>
+      <c r="Y64" s="161"/>
+      <c r="Z64" s="159"/>
+      <c r="AA64" s="159"/>
+      <c r="AB64" s="159"/>
+      <c r="AC64" s="159"/>
+      <c r="AD64" s="162" t="s">
         <v>81</v>
       </c>
-      <c r="AE64" s="81"/>
-      <c r="AF64" s="81"/>
+      <c r="AE64" s="159"/>
+      <c r="AF64" s="159"/>
     </row>
     <row r="65" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B65" s="90"/>
-      <c r="C65" s="91"/>
-      <c r="D65" s="92"/>
-      <c r="E65" s="92"/>
-      <c r="F65" s="92"/>
-      <c r="G65" s="92"/>
-      <c r="H65" s="92"/>
-      <c r="I65" s="92"/>
-      <c r="J65" s="98"/>
-      <c r="K65" s="85"/>
+      <c r="B65" s="85"/>
+      <c r="C65" s="86"/>
+      <c r="D65" s="87"/>
+      <c r="E65" s="87"/>
+      <c r="F65" s="87"/>
+      <c r="G65" s="87"/>
+      <c r="H65" s="87"/>
+      <c r="I65" s="87"/>
+      <c r="J65" s="93"/>
+      <c r="K65" s="80"/>
       <c r="L65" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M65" s="82"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M65" s="77"/>
       <c r="N65" s="3" t="str">
-        <f>IF(M65="N",SUM(D65:I65),IF(M65="Y",IF(L65&lt;2,0,SUM(D65:I65)),""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O65" s="3" t="str">
-        <f>IF(M65="Y",0,N65)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="P65" s="13" t="str">
-        <f>IF(OR(L65="",O65=""),"",O65*L65)</f>
-        <v/>
-      </c>
-      <c r="S65" s="81"/>
-      <c r="T65" s="81"/>
-      <c r="U65" s="81"/>
-      <c r="V65" s="81"/>
-      <c r="W65" s="81"/>
-      <c r="X65" s="81"/>
-      <c r="Y65" s="81"/>
-      <c r="Z65" s="81"/>
-      <c r="AA65" s="81"/>
-      <c r="AB65" s="81"/>
-      <c r="AC65" s="81"/>
-      <c r="AD65" s="81"/>
-      <c r="AE65" s="81"/>
-      <c r="AF65" s="81"/>
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="S65" s="159"/>
+      <c r="T65" s="159"/>
+      <c r="U65" s="159"/>
+      <c r="V65" s="159"/>
+      <c r="W65" s="159"/>
+      <c r="X65" s="159"/>
+      <c r="Y65" s="159"/>
+      <c r="Z65" s="159"/>
+      <c r="AA65" s="159"/>
+      <c r="AB65" s="159"/>
+      <c r="AC65" s="159"/>
+      <c r="AD65" s="159"/>
+      <c r="AE65" s="159"/>
+      <c r="AF65" s="159"/>
     </row>
     <row r="66" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B66" s="90"/>
-      <c r="C66" s="91"/>
-      <c r="D66" s="92"/>
-      <c r="E66" s="92"/>
-      <c r="F66" s="92"/>
-      <c r="G66" s="92"/>
-      <c r="H66" s="92"/>
-      <c r="I66" s="92"/>
-      <c r="J66" s="98"/>
-      <c r="K66" s="85"/>
+      <c r="B66" s="85"/>
+      <c r="C66" s="86"/>
+      <c r="D66" s="87"/>
+      <c r="E66" s="87"/>
+      <c r="F66" s="87"/>
+      <c r="G66" s="87"/>
+      <c r="H66" s="87"/>
+      <c r="I66" s="87"/>
+      <c r="J66" s="93"/>
+      <c r="K66" s="80"/>
       <c r="L66" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M66" s="82"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M66" s="77"/>
       <c r="N66" s="3" t="str">
-        <f>IF(M66="N",SUM(D66:I66),IF(M66="Y",IF(L66&lt;2,0,SUM(D66:I66)),""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O66" s="3" t="str">
-        <f>IF(M66="Y",0,N66)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="P66" s="13" t="str">
-        <f>IF(OR(L66="",O66=""),"",O66*L66)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="67" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B67" s="94"/>
-      <c r="C67" s="95"/>
-      <c r="D67" s="96"/>
-      <c r="E67" s="96"/>
-      <c r="F67" s="96"/>
-      <c r="G67" s="96"/>
-      <c r="H67" s="96"/>
-      <c r="I67" s="96"/>
-      <c r="J67" s="99"/>
-      <c r="K67" s="86"/>
+      <c r="B67" s="89"/>
+      <c r="C67" s="90"/>
+      <c r="D67" s="91"/>
+      <c r="E67" s="91"/>
+      <c r="F67" s="91"/>
+      <c r="G67" s="91"/>
+      <c r="H67" s="91"/>
+      <c r="I67" s="91"/>
+      <c r="J67" s="94"/>
+      <c r="K67" s="81"/>
       <c r="L67" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M67" s="83"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M67" s="78"/>
       <c r="N67" s="15" t="str">
-        <f>IF(M67="N",SUM(D67:I67),IF(M67="Y",IF(L67&lt;2,0,SUM(D67:I67)),""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O67" s="15" t="str">
-        <f>IF(M67="Y",0,N67)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="P67" s="16" t="str">
-        <f>IF(OR(L67="",O67=""),"",O67*L67)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="68" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
-      <c r="B68" s="107"/>
-      <c r="C68" s="107"/>
+      <c r="B68" s="101"/>
+      <c r="C68" s="101"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
@@ -6884,8 +6884,8 @@
     </row>
     <row r="69" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
-      <c r="B69" s="107"/>
-      <c r="C69" s="107"/>
+      <c r="B69" s="101"/>
+      <c r="C69" s="101"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
@@ -6960,6 +6960,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="T55:U56"/>
+    <mergeCell ref="AC22:AD22"/>
+    <mergeCell ref="AC23:AD23"/>
+    <mergeCell ref="AC24:AD24"/>
+    <mergeCell ref="AC25:AD25"/>
+    <mergeCell ref="AC26:AD26"/>
+    <mergeCell ref="AC27:AD27"/>
+    <mergeCell ref="AF8:AF14"/>
+    <mergeCell ref="S7:AF7"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="S10:AD11"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="AE8:AE14"/>
+    <mergeCell ref="AA30:AB31"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="AC20:AD20"/>
     <mergeCell ref="B2:I3"/>
     <mergeCell ref="T64:Y64"/>
     <mergeCell ref="V21:W21"/>
@@ -6976,34 +7004,6 @@
     <mergeCell ref="U30:V31"/>
     <mergeCell ref="W30:X31"/>
     <mergeCell ref="Y30:Z31"/>
-    <mergeCell ref="AA30:AB31"/>
-    <mergeCell ref="AC17:AD17"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="AC19:AD19"/>
-    <mergeCell ref="AC20:AD20"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="AE8:AE14"/>
-    <mergeCell ref="AF8:AF14"/>
-    <mergeCell ref="S7:AF7"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="S10:AD11"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="T55:U56"/>
-    <mergeCell ref="AC22:AD22"/>
-    <mergeCell ref="AC23:AD23"/>
-    <mergeCell ref="AC24:AD24"/>
-    <mergeCell ref="AC25:AD25"/>
-    <mergeCell ref="AC26:AD26"/>
-    <mergeCell ref="AC27:AD27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="T64" r:id="rId1"/>
@@ -7011,7 +7011,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId2"/>
   <ignoredErrors>
-    <ignoredError sqref="U33:AF51" formula="1"/>
+    <ignoredError sqref="U34:U51 U33 W33 W44:AF45 Y33 W34:W43 Y34:Y43 AA33 AA34:AA43 AC33 AC34:AC43 AE33 AE34:AE43 W47:W51 W46 Y46 Y47:Y51 AA46 AA47:AA51 AC46 AC47:AC51 AE46 AE47:AE51" formula="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId3"/>
   <tableParts count="1">

--- a/Moduleplanning-template.xlsx
+++ b/Moduleplanning-template.xlsx
@@ -1835,13 +1835,126 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1856,15 +1969,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1898,110 +2002,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2744,7 +2744,7 @@
   <dimension ref="A2:AF72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R31" sqref="R31"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2763,26 +2763,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="146" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
     </row>
     <row r="3" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B3" s="106"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
+      <c r="B3" s="146"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="146"/>
     </row>
     <row r="5" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -2840,22 +2840,22 @@
       <c r="P7" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="S7" s="135" t="s">
+      <c r="S7" s="114" t="s">
         <v>36</v>
       </c>
-      <c r="T7" s="136"/>
-      <c r="U7" s="136"/>
-      <c r="V7" s="136"/>
-      <c r="W7" s="136"/>
-      <c r="X7" s="136"/>
-      <c r="Y7" s="136"/>
-      <c r="Z7" s="136"/>
-      <c r="AA7" s="136"/>
-      <c r="AB7" s="136"/>
-      <c r="AC7" s="136"/>
-      <c r="AD7" s="136"/>
-      <c r="AE7" s="136"/>
-      <c r="AF7" s="137"/>
+      <c r="T7" s="115"/>
+      <c r="U7" s="115"/>
+      <c r="V7" s="115"/>
+      <c r="W7" s="115"/>
+      <c r="X7" s="115"/>
+      <c r="Y7" s="115"/>
+      <c r="Z7" s="115"/>
+      <c r="AA7" s="115"/>
+      <c r="AB7" s="115"/>
+      <c r="AC7" s="115"/>
+      <c r="AD7" s="115"/>
+      <c r="AE7" s="115"/>
+      <c r="AF7" s="116"/>
     </row>
     <row r="8" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="82" t="s">
@@ -2933,10 +2933,10 @@
       <c r="AD8" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="AE8" s="129" t="s">
+      <c r="AE8" s="139" t="s">
         <v>43</v>
       </c>
-      <c r="AF8" s="132">
+      <c r="AF8" s="111">
         <f>IF(SUM(O8:O67)=0,0,ROUND(SUM(P8:P67)/SUM(O8:O67),2))</f>
         <v>3.22</v>
       </c>
@@ -3029,8 +3029,8 @@
         <f>COUNTIF(MainTable[Grade],AD8)</f>
         <v>1</v>
       </c>
-      <c r="AE9" s="130"/>
-      <c r="AF9" s="133"/>
+      <c r="AE9" s="140"/>
+      <c r="AF9" s="112"/>
     </row>
     <row r="10" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B10" s="85" t="s">
@@ -3072,22 +3072,22 @@
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="S10" s="143" t="s">
+      <c r="S10" s="122" t="s">
         <v>64</v>
       </c>
-      <c r="T10" s="144"/>
-      <c r="U10" s="144"/>
-      <c r="V10" s="144"/>
-      <c r="W10" s="144"/>
-      <c r="X10" s="144"/>
-      <c r="Y10" s="144"/>
-      <c r="Z10" s="144"/>
-      <c r="AA10" s="144"/>
-      <c r="AB10" s="144"/>
-      <c r="AC10" s="144"/>
-      <c r="AD10" s="145"/>
-      <c r="AE10" s="130"/>
-      <c r="AF10" s="133"/>
+      <c r="T10" s="123"/>
+      <c r="U10" s="123"/>
+      <c r="V10" s="123"/>
+      <c r="W10" s="123"/>
+      <c r="X10" s="123"/>
+      <c r="Y10" s="123"/>
+      <c r="Z10" s="123"/>
+      <c r="AA10" s="123"/>
+      <c r="AB10" s="123"/>
+      <c r="AC10" s="123"/>
+      <c r="AD10" s="124"/>
+      <c r="AE10" s="140"/>
+      <c r="AF10" s="112"/>
     </row>
     <row r="11" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="85" t="s">
@@ -3129,20 +3129,20 @@
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="S11" s="146"/>
-      <c r="T11" s="147"/>
-      <c r="U11" s="147"/>
-      <c r="V11" s="147"/>
-      <c r="W11" s="147"/>
-      <c r="X11" s="147"/>
-      <c r="Y11" s="147"/>
-      <c r="Z11" s="147"/>
-      <c r="AA11" s="147"/>
-      <c r="AB11" s="147"/>
-      <c r="AC11" s="147"/>
-      <c r="AD11" s="148"/>
-      <c r="AE11" s="130"/>
-      <c r="AF11" s="133"/>
+      <c r="S11" s="125"/>
+      <c r="T11" s="126"/>
+      <c r="U11" s="126"/>
+      <c r="V11" s="126"/>
+      <c r="W11" s="126"/>
+      <c r="X11" s="126"/>
+      <c r="Y11" s="126"/>
+      <c r="Z11" s="126"/>
+      <c r="AA11" s="126"/>
+      <c r="AB11" s="126"/>
+      <c r="AC11" s="126"/>
+      <c r="AD11" s="127"/>
+      <c r="AE11" s="140"/>
+      <c r="AF11" s="112"/>
     </row>
     <row r="12" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="85" t="s">
@@ -3184,8 +3184,8 @@
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="S12" s="149"/>
-      <c r="T12" s="150"/>
+      <c r="S12" s="128"/>
+      <c r="T12" s="129"/>
       <c r="U12" s="7">
         <v>1</v>
       </c>
@@ -3216,8 +3216,8 @@
       <c r="AD12" s="10">
         <v>10</v>
       </c>
-      <c r="AE12" s="130"/>
-      <c r="AF12" s="133"/>
+      <c r="AE12" s="140"/>
+      <c r="AF12" s="112"/>
     </row>
     <row r="13" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B13" s="85" t="s">
@@ -3259,10 +3259,10 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="S13" s="151" t="s">
+      <c r="S13" s="130" t="s">
         <v>60</v>
       </c>
-      <c r="T13" s="152"/>
+      <c r="T13" s="131"/>
       <c r="U13" s="8">
         <f>SUMIFS(MainTable[Effective MCs],MainTable[Semester],U12)</f>
         <v>21</v>
@@ -3303,8 +3303,8 @@
         <f>SUMIFS(MainTable[Effective MCs],MainTable[Semester],AD12)</f>
         <v>0</v>
       </c>
-      <c r="AE13" s="130"/>
-      <c r="AF13" s="133"/>
+      <c r="AE13" s="140"/>
+      <c r="AF13" s="112"/>
     </row>
     <row r="14" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="85" t="s">
@@ -3346,10 +3346,10 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="S14" s="153" t="s">
+      <c r="S14" s="132" t="s">
         <v>74</v>
       </c>
-      <c r="T14" s="154"/>
+      <c r="T14" s="133"/>
       <c r="U14" s="9">
         <f>IF(SUMIFS(MainTable[MC Footprint],MainTable[Semester],U12)=0,0,IF(U13=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Semester],U12)/SUMIFS(MainTable[MC Footprint],MainTable[Semester],U12),2)))</f>
         <v>4.33</v>
@@ -3390,8 +3390,8 @@
         <f>IF(SUMIFS(MainTable[MC Footprint],MainTable[Semester],AD12)=0,0,IF(AD13=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Semester],AD12)/SUMIFS(MainTable[MC Footprint],MainTable[Semester],AD12),2)))</f>
         <v>0</v>
       </c>
-      <c r="AE14" s="131"/>
-      <c r="AF14" s="134"/>
+      <c r="AE14" s="141"/>
+      <c r="AF14" s="113"/>
     </row>
     <row r="15" spans="2:32" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="85" t="s">
@@ -3442,25 +3442,25 @@
       <c r="U15" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="V15" s="155" t="s">
+      <c r="V15" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="W15" s="156"/>
+      <c r="W15" s="135"/>
       <c r="X15" s="21"/>
-      <c r="Y15" s="142" t="s">
+      <c r="Y15" s="121" t="s">
         <v>47</v>
       </c>
-      <c r="Z15" s="141"/>
+      <c r="Z15" s="120"/>
       <c r="AA15" s="103" t="s">
         <v>48</v>
       </c>
       <c r="AB15" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="AC15" s="140" t="s">
+      <c r="AC15" s="119" t="s">
         <v>89</v>
       </c>
-      <c r="AD15" s="141"/>
+      <c r="AD15" s="120"/>
       <c r="AE15" s="17" t="s">
         <v>87</v>
       </c>
@@ -3519,10 +3519,10 @@
         <f>SUMIFS(MainTable[Level 1000 MCs],MainTable[Effective MCs],"&gt;0")</f>
         <v>29</v>
       </c>
-      <c r="V16" s="138" t="s">
+      <c r="V16" s="117" t="s">
         <v>60</v>
       </c>
-      <c r="W16" s="139"/>
+      <c r="W16" s="118"/>
       <c r="X16" s="51">
         <f>SUM(MainTable[Effective MCs])</f>
         <v>38</v>
@@ -3540,11 +3540,11 @@
         <f>IF(AA16="","",COUNTIFS(MainTable[Type],Y16,MainTable[Effective MCs],"&gt;0"))</f>
         <v>3</v>
       </c>
-      <c r="AC16" s="157">
+      <c r="AC16" s="136">
         <f>IF(Y16="","",IF(SUM(MainTable[Module Weight])=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Type],Y16)/SUM(MainTable[Module Weight]),2)))</f>
         <v>0.4</v>
       </c>
-      <c r="AD16" s="157"/>
+      <c r="AD16" s="136"/>
       <c r="AE16" s="98">
         <f>IF(AA16="","",AB16/AA16)</f>
         <v>0.42857142857142855</v>
@@ -3605,10 +3605,10 @@
         <f>SUMIFS(MainTable[Level 2000 MCs],MainTable[Effective MCs],"&gt;0")</f>
         <v>9</v>
       </c>
-      <c r="V17" s="107" t="s">
+      <c r="V17" s="137" t="s">
         <v>75</v>
       </c>
-      <c r="W17" s="108"/>
+      <c r="W17" s="138"/>
       <c r="X17" s="51">
         <f>COUNTA(MainTable[Grade])</f>
         <v>12</v>
@@ -3626,11 +3626,11 @@
         <f>IF(AA17="","",COUNTIFS(MainTable[Type],Y17,MainTable[Effective MCs],"&gt;0"))</f>
         <v>5</v>
       </c>
-      <c r="AC17" s="115">
+      <c r="AC17" s="109">
         <f>IF(Y17="","",IF(SUM(MainTable[Module Weight])=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Type],Y17)/SUM(MainTable[Module Weight]),2)))</f>
         <v>0.47</v>
       </c>
-      <c r="AD17" s="115"/>
+      <c r="AD17" s="109"/>
       <c r="AE17" s="99">
         <f t="shared" ref="AE17:AE27" si="4">IF(AA17="","",AB17/AA17)</f>
         <v>1</v>
@@ -3691,10 +3691,10 @@
         <f>SUMIFS(MainTable[Level 3000 MCs],MainTable[Effective MCs],"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="V18" s="107" t="s">
+      <c r="V18" s="137" t="s">
         <v>61</v>
       </c>
-      <c r="W18" s="108"/>
+      <c r="W18" s="138"/>
       <c r="X18" s="51">
         <f>SUM(T16:T29)</f>
         <v>82</v>
@@ -3712,11 +3712,11 @@
         <f>IF(AA18="","",COUNTIFS(MainTable[Type],Y18,MainTable[Effective MCs],"&gt;0"))</f>
         <v>0</v>
       </c>
-      <c r="AC18" s="115">
+      <c r="AC18" s="109">
         <f>IF(Y18="","",IF(SUM(MainTable[Module Weight])=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Type],Y18)/SUM(MainTable[Module Weight]),2)))</f>
         <v>0</v>
       </c>
-      <c r="AD18" s="115"/>
+      <c r="AD18" s="109"/>
       <c r="AE18" s="99">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3777,10 +3777,10 @@
         <f>SUMIFS(MainTable[Level 4000 MCs],MainTable[Effective MCs],"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="V19" s="107" t="s">
+      <c r="V19" s="137" t="s">
         <v>76</v>
       </c>
-      <c r="W19" s="108"/>
+      <c r="W19" s="138"/>
       <c r="X19" s="51">
         <f>COUNTA(MainTable[Module code])</f>
         <v>21</v>
@@ -3798,11 +3798,11 @@
         <f>IF(AA19="","",COUNTIFS(MainTable[Type],Y19,MainTable[Effective MCs],"&gt;0"))</f>
         <v>0</v>
       </c>
-      <c r="AC19" s="115">
+      <c r="AC19" s="109">
         <f>IF(Y19="","",IF(SUM(MainTable[Module Weight])=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Type],Y19)/SUM(MainTable[Module Weight]),2)))</f>
         <v>0</v>
       </c>
-      <c r="AD19" s="115"/>
+      <c r="AD19" s="109"/>
       <c r="AE19" s="99">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3859,10 +3859,10 @@
         <f>SUMIFS(MainTable[Level 5000 MCs],MainTable[Effective MCs],"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="V20" s="107" t="s">
+      <c r="V20" s="137" t="s">
         <v>86</v>
       </c>
-      <c r="W20" s="108"/>
+      <c r="W20" s="138"/>
       <c r="X20" s="76">
         <f>COUNTIF(MainTable[S/U],"Y")</f>
         <v>2</v>
@@ -3880,11 +3880,11 @@
         <f>IF(AA20="","",COUNTIFS(MainTable[Type],Y20,MainTable[Effective MCs],"&gt;0"))</f>
         <v>1</v>
       </c>
-      <c r="AC20" s="115">
+      <c r="AC20" s="109">
         <f>IF(Y20="","",IF(SUM(MainTable[Module Weight])=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Type],Y20)/SUM(MainTable[Module Weight]),2)))</f>
         <v>0.03</v>
       </c>
-      <c r="AD20" s="115"/>
+      <c r="AD20" s="109"/>
       <c r="AE20" s="99">
         <f t="shared" si="4"/>
         <v>0.5</v>
@@ -3941,8 +3941,8 @@
         <f>SUMIFS(MainTable[Level 6000 MCs],MainTable[Effective MCs],"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="V21" s="107"/>
-      <c r="W21" s="108"/>
+      <c r="V21" s="137"/>
+      <c r="W21" s="138"/>
       <c r="X21" s="51"/>
       <c r="Y21" s="48" t="str">
         <f t="array" ref="Y21">IFERROR(INDEX(MainTable[Type], MATCH(MIN(_xlfn.MODE.MULT(IF((MainTable[Type]&lt;&gt;"")*NOT(COUNTIF($Y$15:$Y20, MainTable[Type])), (COUNTIF(MainTable[Type], "&lt;"&amp;MainTable[Type])+1)*{1,1}))), IF((MainTable[Type]&lt;&gt;""),COUNTIF(MainTable[Type], "&lt;"&amp;MainTable[Type])+{1}), 0)), "")</f>
@@ -3957,11 +3957,11 @@
         <f>IF(AA21="","",COUNTIFS(MainTable[Type],Y21,MainTable[Effective MCs],"&gt;0"))</f>
         <v>1</v>
       </c>
-      <c r="AC21" s="115">
+      <c r="AC21" s="109">
         <f>IF(Y21="","",IF(SUM(MainTable[Module Weight])=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Type],Y21)/SUM(MainTable[Module Weight]),2)))</f>
         <v>0.1</v>
       </c>
-      <c r="AD21" s="115"/>
+      <c r="AD21" s="109"/>
       <c r="AE21" s="99">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -4026,11 +4026,11 @@
         <f>IF(AA22="","",COUNTIFS(MainTable[Type],Y22,MainTable[Effective MCs],"&gt;0"))</f>
         <v>0</v>
       </c>
-      <c r="AC22" s="115">
+      <c r="AC22" s="109">
         <f>IF(Y22="","",IF(SUM(MainTable[Module Weight])=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Type],Y22)/SUM(MainTable[Module Weight]),2)))</f>
         <v>0</v>
       </c>
-      <c r="AD22" s="115"/>
+      <c r="AD22" s="109"/>
       <c r="AE22" s="99">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4095,11 +4095,11 @@
         <f>IF(AA23="","",COUNTIFS(MainTable[Type],Y23,MainTable[Effective MCs],"&gt;0"))</f>
         <v>0</v>
       </c>
-      <c r="AC23" s="115">
+      <c r="AC23" s="109">
         <f>IF(Y23="","",IF(SUM(MainTable[Module Weight])=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Type],Y23)/SUM(MainTable[Module Weight]),2)))</f>
         <v>0</v>
       </c>
-      <c r="AD23" s="115"/>
+      <c r="AD23" s="109"/>
       <c r="AE23" s="99">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4164,11 +4164,11 @@
         <f>IF(AA24="","",COUNTIFS(MainTable[Type],Y24,MainTable[Effective MCs],"&gt;0"))</f>
         <v/>
       </c>
-      <c r="AC24" s="115" t="str">
+      <c r="AC24" s="109" t="str">
         <f>IF(Y24="","",IF(SUM(MainTable[Module Weight])=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Type],Y24)/SUM(MainTable[Module Weight]),2)))</f>
         <v/>
       </c>
-      <c r="AD24" s="115"/>
+      <c r="AD24" s="109"/>
       <c r="AE24" s="99" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4233,11 +4233,11 @@
         <f>IF(AA25="","",COUNTIFS(MainTable[Type],Y25,MainTable[Effective MCs],"&gt;0"))</f>
         <v/>
       </c>
-      <c r="AC25" s="115" t="str">
+      <c r="AC25" s="109" t="str">
         <f>IF(Y25="","",IF(SUM(MainTable[Module Weight])=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Type],Y25)/SUM(MainTable[Module Weight]),2)))</f>
         <v/>
       </c>
-      <c r="AD25" s="115"/>
+      <c r="AD25" s="109"/>
       <c r="AE25" s="99" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4302,11 +4302,11 @@
         <f>IF(AA26="","",COUNTIFS(MainTable[Type],Y26,MainTable[Effective MCs],"&gt;0"))</f>
         <v/>
       </c>
-      <c r="AC26" s="115" t="str">
+      <c r="AC26" s="109" t="str">
         <f>IF(Y26="","",IF(SUM(MainTable[Module Weight])=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Type],Y26)/SUM(MainTable[Module Weight]),2)))</f>
         <v/>
       </c>
-      <c r="AD26" s="115"/>
+      <c r="AD26" s="109"/>
       <c r="AE26" s="99" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4371,11 +4371,11 @@
         <f>IF(AA27="","",COUNTIFS(MainTable[Type],Y27,MainTable[Effective MCs],"&gt;0"))</f>
         <v/>
       </c>
-      <c r="AC27" s="158" t="str">
+      <c r="AC27" s="110" t="str">
         <f>IF(Y27="","",IF(SUM(MainTable[Module Weight])=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Type],Y27)/SUM(MainTable[Module Weight]),2)))</f>
         <v/>
       </c>
-      <c r="AD27" s="158"/>
+      <c r="AD27" s="110"/>
       <c r="AE27" s="100" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4421,22 +4421,22 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="S28" s="120" t="s">
+      <c r="S28" s="156" t="s">
         <v>80</v>
       </c>
-      <c r="T28" s="121"/>
-      <c r="U28" s="121"/>
-      <c r="V28" s="122"/>
-      <c r="W28" s="122"/>
-      <c r="X28" s="121"/>
-      <c r="Y28" s="122"/>
-      <c r="Z28" s="122"/>
-      <c r="AA28" s="122"/>
-      <c r="AB28" s="122"/>
-      <c r="AC28" s="122"/>
-      <c r="AD28" s="122"/>
-      <c r="AE28" s="122"/>
-      <c r="AF28" s="123"/>
+      <c r="T28" s="157"/>
+      <c r="U28" s="157"/>
+      <c r="V28" s="158"/>
+      <c r="W28" s="158"/>
+      <c r="X28" s="157"/>
+      <c r="Y28" s="158"/>
+      <c r="Z28" s="158"/>
+      <c r="AA28" s="158"/>
+      <c r="AB28" s="158"/>
+      <c r="AC28" s="158"/>
+      <c r="AD28" s="158"/>
+      <c r="AE28" s="158"/>
+      <c r="AF28" s="159"/>
     </row>
     <row r="29" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="85"/>
@@ -4466,20 +4466,20 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="S29" s="124"/>
-      <c r="T29" s="125"/>
-      <c r="U29" s="125"/>
-      <c r="V29" s="125"/>
-      <c r="W29" s="125"/>
-      <c r="X29" s="125"/>
-      <c r="Y29" s="125"/>
-      <c r="Z29" s="125"/>
-      <c r="AA29" s="125"/>
-      <c r="AB29" s="125"/>
-      <c r="AC29" s="125"/>
-      <c r="AD29" s="125"/>
-      <c r="AE29" s="125"/>
-      <c r="AF29" s="126"/>
+      <c r="S29" s="160"/>
+      <c r="T29" s="161"/>
+      <c r="U29" s="161"/>
+      <c r="V29" s="161"/>
+      <c r="W29" s="161"/>
+      <c r="X29" s="161"/>
+      <c r="Y29" s="161"/>
+      <c r="Z29" s="161"/>
+      <c r="AA29" s="161"/>
+      <c r="AB29" s="161"/>
+      <c r="AC29" s="161"/>
+      <c r="AD29" s="161"/>
+      <c r="AE29" s="161"/>
+      <c r="AF29" s="162"/>
     </row>
     <row r="30" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B30" s="85"/>
@@ -4509,41 +4509,41 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="S30" s="109" t="str">
+      <c r="S30" s="148" t="str">
         <f>IF(Y16="","",Y16)</f>
         <v>Foundation</v>
       </c>
-      <c r="T30" s="110"/>
-      <c r="U30" s="109" t="str">
+      <c r="T30" s="149"/>
+      <c r="U30" s="148" t="str">
         <f>IF(Y17="","",Y17)</f>
         <v>Science</v>
       </c>
-      <c r="V30" s="110"/>
-      <c r="W30" s="109" t="str">
+      <c r="V30" s="149"/>
+      <c r="W30" s="148" t="str">
         <f>IF(Y18="","",Y18)</f>
         <v>Focus Area</v>
       </c>
-      <c r="X30" s="127"/>
-      <c r="Y30" s="109" t="str">
+      <c r="X30" s="143"/>
+      <c r="Y30" s="148" t="str">
         <f>IF(Y19="","",Y19)</f>
         <v>GEM</v>
       </c>
-      <c r="Z30" s="110"/>
-      <c r="AA30" s="113" t="str">
+      <c r="Z30" s="149"/>
+      <c r="AA30" s="142" t="str">
         <f>IF(Y20="","",Y20)</f>
         <v>UE</v>
       </c>
-      <c r="AB30" s="127"/>
-      <c r="AC30" s="109" t="str">
+      <c r="AB30" s="143"/>
+      <c r="AC30" s="148" t="str">
         <f>IF(Y21="","",Y21)</f>
         <v>Breadth</v>
       </c>
-      <c r="AD30" s="110"/>
-      <c r="AE30" s="113" t="str">
+      <c r="AD30" s="149"/>
+      <c r="AE30" s="142" t="str">
         <f>IF(Y22="","",Y22)</f>
         <v>IT Professionalism</v>
       </c>
-      <c r="AF30" s="110"/>
+      <c r="AF30" s="149"/>
     </row>
     <row r="31" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="85"/>
@@ -4573,20 +4573,20 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="S31" s="111"/>
-      <c r="T31" s="112"/>
-      <c r="U31" s="111"/>
-      <c r="V31" s="112"/>
-      <c r="W31" s="111"/>
-      <c r="X31" s="128"/>
-      <c r="Y31" s="111"/>
-      <c r="Z31" s="112"/>
-      <c r="AA31" s="114"/>
-      <c r="AB31" s="128"/>
-      <c r="AC31" s="111"/>
-      <c r="AD31" s="112"/>
-      <c r="AE31" s="114"/>
-      <c r="AF31" s="112"/>
+      <c r="S31" s="150"/>
+      <c r="T31" s="151"/>
+      <c r="U31" s="150"/>
+      <c r="V31" s="151"/>
+      <c r="W31" s="150"/>
+      <c r="X31" s="145"/>
+      <c r="Y31" s="150"/>
+      <c r="Z31" s="151"/>
+      <c r="AA31" s="144"/>
+      <c r="AB31" s="145"/>
+      <c r="AC31" s="150"/>
+      <c r="AD31" s="151"/>
+      <c r="AE31" s="144"/>
+      <c r="AF31" s="151"/>
     </row>
     <row r="32" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B32" s="85"/>
@@ -5271,15 +5271,15 @@
       </c>
       <c r="M40" s="77"/>
       <c r="N40" s="3" t="str">
-        <f t="shared" ref="N40:N71" si="6">IF(M40="N",SUM(D40:I40),IF(M40="Y",IF(L40&lt;2,0,SUM(D40:I40)),""))</f>
+        <f t="shared" ref="N40:N67" si="6">IF(M40="N",SUM(D40:I40),IF(M40="Y",IF(L40&lt;2,0,SUM(D40:I40)),""))</f>
         <v/>
       </c>
       <c r="O40" s="3" t="str">
-        <f t="shared" ref="O40:O71" si="7">IF(M40="Y",0,N40)</f>
+        <f t="shared" ref="O40:O67" si="7">IF(M40="Y",0,N40)</f>
         <v/>
       </c>
       <c r="P40" s="13" t="str">
-        <f t="shared" ref="P40:P71" si="8">IF(OR(L40="",O40=""),"",O40*L40)</f>
+        <f t="shared" ref="P40:P67" si="8">IF(OR(L40="",O40=""),"",O40*L40)</f>
         <v/>
       </c>
       <c r="S40" s="27" t="str">
@@ -5638,31 +5638,31 @@
         <f>IF(U44="","",IF(OR(COUNTIFS(MainTable[Module code],U44,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],U44,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
-      <c r="W44" s="116" t="str">
+      <c r="W44" s="152" t="str">
         <f>IF(Y23="","",Y23)</f>
         <v>Singapore Studies</v>
       </c>
-      <c r="X44" s="117"/>
-      <c r="Y44" s="116" t="str">
+      <c r="X44" s="153"/>
+      <c r="Y44" s="152" t="str">
         <f>IF(Y24="","",Y24)</f>
         <v/>
       </c>
-      <c r="Z44" s="117"/>
-      <c r="AA44" s="116" t="str">
+      <c r="Z44" s="153"/>
+      <c r="AA44" s="152" t="str">
         <f>IF(Y25="","",Y25)</f>
         <v/>
       </c>
-      <c r="AB44" s="117"/>
-      <c r="AC44" s="116" t="str">
+      <c r="AB44" s="153"/>
+      <c r="AC44" s="152" t="str">
         <f>IF(Y26="","",Y26)</f>
         <v/>
       </c>
-      <c r="AD44" s="117"/>
-      <c r="AE44" s="116" t="str">
+      <c r="AD44" s="153"/>
+      <c r="AE44" s="152" t="str">
         <f>IF(Y27="","",Y27)</f>
         <v/>
       </c>
-      <c r="AF44" s="117"/>
+      <c r="AF44" s="153"/>
     </row>
     <row r="45" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="85"/>
@@ -5708,16 +5708,16 @@
         <f>IF(U45="","",IF(OR(COUNTIFS(MainTable[Module code],U45,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],U45,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
-      <c r="W45" s="118"/>
-      <c r="X45" s="119"/>
-      <c r="Y45" s="118"/>
-      <c r="Z45" s="119"/>
-      <c r="AA45" s="118"/>
-      <c r="AB45" s="119"/>
-      <c r="AC45" s="118"/>
-      <c r="AD45" s="119"/>
-      <c r="AE45" s="118"/>
-      <c r="AF45" s="119"/>
+      <c r="W45" s="154"/>
+      <c r="X45" s="155"/>
+      <c r="Y45" s="154"/>
+      <c r="Z45" s="155"/>
+      <c r="AA45" s="154"/>
+      <c r="AB45" s="155"/>
+      <c r="AC45" s="154"/>
+      <c r="AD45" s="155"/>
+      <c r="AE45" s="154"/>
+      <c r="AF45" s="155"/>
     </row>
     <row r="46" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B46" s="85"/>
@@ -6344,22 +6344,22 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="S55" s="159"/>
-      <c r="T55" s="160" t="s">
+      <c r="S55" s="106"/>
+      <c r="T55" s="108" t="s">
         <v>82</v>
       </c>
-      <c r="U55" s="160"/>
-      <c r="V55" s="159"/>
-      <c r="W55" s="159"/>
-      <c r="X55" s="159"/>
-      <c r="Y55" s="159"/>
-      <c r="Z55" s="159"/>
-      <c r="AA55" s="159"/>
-      <c r="AB55" s="159"/>
-      <c r="AC55" s="159"/>
-      <c r="AD55" s="159"/>
-      <c r="AE55" s="159"/>
-      <c r="AF55" s="159"/>
+      <c r="U55" s="108"/>
+      <c r="V55" s="106"/>
+      <c r="W55" s="106"/>
+      <c r="X55" s="106"/>
+      <c r="Y55" s="106"/>
+      <c r="Z55" s="106"/>
+      <c r="AA55" s="106"/>
+      <c r="AB55" s="106"/>
+      <c r="AC55" s="106"/>
+      <c r="AD55" s="106"/>
+      <c r="AE55" s="106"/>
+      <c r="AF55" s="106"/>
     </row>
     <row r="56" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B56" s="85"/>
@@ -6389,20 +6389,20 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="S56" s="159"/>
-      <c r="T56" s="160"/>
-      <c r="U56" s="160"/>
-      <c r="V56" s="159"/>
-      <c r="W56" s="159"/>
-      <c r="X56" s="159"/>
-      <c r="Y56" s="159"/>
-      <c r="Z56" s="159"/>
-      <c r="AA56" s="159"/>
-      <c r="AB56" s="159"/>
-      <c r="AC56" s="159"/>
-      <c r="AD56" s="159"/>
-      <c r="AE56" s="159"/>
-      <c r="AF56" s="159"/>
+      <c r="S56" s="106"/>
+      <c r="T56" s="108"/>
+      <c r="U56" s="108"/>
+      <c r="V56" s="106"/>
+      <c r="W56" s="106"/>
+      <c r="X56" s="106"/>
+      <c r="Y56" s="106"/>
+      <c r="Z56" s="106"/>
+      <c r="AA56" s="106"/>
+      <c r="AB56" s="106"/>
+      <c r="AC56" s="106"/>
+      <c r="AD56" s="106"/>
+      <c r="AE56" s="106"/>
+      <c r="AF56" s="106"/>
     </row>
     <row r="57" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B57" s="85"/>
@@ -6432,22 +6432,22 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="S57" s="159"/>
-      <c r="T57" s="159" t="s">
+      <c r="S57" s="106"/>
+      <c r="T57" s="106" t="s">
         <v>85</v>
       </c>
-      <c r="U57" s="159"/>
-      <c r="V57" s="159"/>
-      <c r="W57" s="159"/>
-      <c r="X57" s="159"/>
-      <c r="Y57" s="159"/>
-      <c r="Z57" s="159"/>
-      <c r="AA57" s="159"/>
-      <c r="AB57" s="159"/>
-      <c r="AC57" s="159"/>
-      <c r="AD57" s="159"/>
-      <c r="AE57" s="159"/>
-      <c r="AF57" s="159"/>
+      <c r="U57" s="106"/>
+      <c r="V57" s="106"/>
+      <c r="W57" s="106"/>
+      <c r="X57" s="106"/>
+      <c r="Y57" s="106"/>
+      <c r="Z57" s="106"/>
+      <c r="AA57" s="106"/>
+      <c r="AB57" s="106"/>
+      <c r="AC57" s="106"/>
+      <c r="AD57" s="106"/>
+      <c r="AE57" s="106"/>
+      <c r="AF57" s="106"/>
     </row>
     <row r="58" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B58" s="85"/>
@@ -6477,22 +6477,22 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="S58" s="159"/>
-      <c r="T58" s="159" t="s">
+      <c r="S58" s="106"/>
+      <c r="T58" s="106" t="s">
         <v>83</v>
       </c>
-      <c r="U58" s="159"/>
-      <c r="V58" s="159"/>
-      <c r="W58" s="159"/>
-      <c r="X58" s="159"/>
-      <c r="Y58" s="159"/>
-      <c r="Z58" s="159"/>
-      <c r="AA58" s="159"/>
-      <c r="AB58" s="159"/>
-      <c r="AC58" s="159"/>
-      <c r="AD58" s="159"/>
-      <c r="AE58" s="159"/>
-      <c r="AF58" s="159"/>
+      <c r="U58" s="106"/>
+      <c r="V58" s="106"/>
+      <c r="W58" s="106"/>
+      <c r="X58" s="106"/>
+      <c r="Y58" s="106"/>
+      <c r="Z58" s="106"/>
+      <c r="AA58" s="106"/>
+      <c r="AB58" s="106"/>
+      <c r="AC58" s="106"/>
+      <c r="AD58" s="106"/>
+      <c r="AE58" s="106"/>
+      <c r="AF58" s="106"/>
     </row>
     <row r="59" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B59" s="85"/>
@@ -6522,22 +6522,22 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="S59" s="159"/>
-      <c r="T59" s="159" t="s">
+      <c r="S59" s="106"/>
+      <c r="T59" s="106" t="s">
         <v>84</v>
       </c>
-      <c r="U59" s="159"/>
-      <c r="V59" s="159"/>
-      <c r="W59" s="159"/>
-      <c r="X59" s="159"/>
-      <c r="Y59" s="159"/>
-      <c r="Z59" s="159"/>
-      <c r="AA59" s="159"/>
-      <c r="AB59" s="159"/>
-      <c r="AC59" s="159"/>
-      <c r="AD59" s="159"/>
-      <c r="AE59" s="159"/>
-      <c r="AF59" s="159"/>
+      <c r="U59" s="106"/>
+      <c r="V59" s="106"/>
+      <c r="W59" s="106"/>
+      <c r="X59" s="106"/>
+      <c r="Y59" s="106"/>
+      <c r="Z59" s="106"/>
+      <c r="AA59" s="106"/>
+      <c r="AB59" s="106"/>
+      <c r="AC59" s="106"/>
+      <c r="AD59" s="106"/>
+      <c r="AE59" s="106"/>
+      <c r="AF59" s="106"/>
     </row>
     <row r="60" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B60" s="85"/>
@@ -6567,20 +6567,20 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="S60" s="159"/>
-      <c r="T60" s="159"/>
-      <c r="U60" s="159"/>
-      <c r="V60" s="159"/>
-      <c r="W60" s="159"/>
-      <c r="X60" s="159"/>
-      <c r="Y60" s="159"/>
-      <c r="Z60" s="159"/>
-      <c r="AA60" s="159"/>
-      <c r="AB60" s="159"/>
-      <c r="AC60" s="159"/>
-      <c r="AD60" s="159"/>
-      <c r="AE60" s="159"/>
-      <c r="AF60" s="159"/>
+      <c r="S60" s="106"/>
+      <c r="T60" s="106"/>
+      <c r="U60" s="106"/>
+      <c r="V60" s="106"/>
+      <c r="W60" s="106"/>
+      <c r="X60" s="106"/>
+      <c r="Y60" s="106"/>
+      <c r="Z60" s="106"/>
+      <c r="AA60" s="106"/>
+      <c r="AB60" s="106"/>
+      <c r="AC60" s="106"/>
+      <c r="AD60" s="106"/>
+      <c r="AE60" s="106"/>
+      <c r="AF60" s="106"/>
     </row>
     <row r="61" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B61" s="85"/>
@@ -6610,20 +6610,20 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="S61" s="159"/>
-      <c r="T61" s="159"/>
-      <c r="U61" s="159"/>
-      <c r="V61" s="159"/>
-      <c r="W61" s="159"/>
-      <c r="X61" s="159"/>
-      <c r="Y61" s="159"/>
-      <c r="Z61" s="159"/>
-      <c r="AA61" s="159"/>
-      <c r="AB61" s="159"/>
-      <c r="AC61" s="159"/>
-      <c r="AD61" s="159"/>
-      <c r="AE61" s="159"/>
-      <c r="AF61" s="159"/>
+      <c r="S61" s="106"/>
+      <c r="T61" s="106"/>
+      <c r="U61" s="106"/>
+      <c r="V61" s="106"/>
+      <c r="W61" s="106"/>
+      <c r="X61" s="106"/>
+      <c r="Y61" s="106"/>
+      <c r="Z61" s="106"/>
+      <c r="AA61" s="106"/>
+      <c r="AB61" s="106"/>
+      <c r="AC61" s="106"/>
+      <c r="AD61" s="106"/>
+      <c r="AE61" s="106"/>
+      <c r="AF61" s="106"/>
     </row>
     <row r="62" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B62" s="85"/>
@@ -6653,22 +6653,22 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="S62" s="159"/>
-      <c r="T62" s="159" t="s">
+      <c r="S62" s="106"/>
+      <c r="T62" s="106" t="s">
         <v>93</v>
       </c>
-      <c r="U62" s="159"/>
-      <c r="V62" s="159"/>
-      <c r="W62" s="159"/>
-      <c r="X62" s="159"/>
-      <c r="Y62" s="159"/>
-      <c r="Z62" s="159"/>
-      <c r="AA62" s="159"/>
-      <c r="AB62" s="159"/>
-      <c r="AC62" s="159"/>
-      <c r="AD62" s="159"/>
-      <c r="AE62" s="159"/>
-      <c r="AF62" s="159"/>
+      <c r="U62" s="106"/>
+      <c r="V62" s="106"/>
+      <c r="W62" s="106"/>
+      <c r="X62" s="106"/>
+      <c r="Y62" s="106"/>
+      <c r="Z62" s="106"/>
+      <c r="AA62" s="106"/>
+      <c r="AB62" s="106"/>
+      <c r="AC62" s="106"/>
+      <c r="AD62" s="106"/>
+      <c r="AE62" s="106"/>
+      <c r="AF62" s="106"/>
     </row>
     <row r="63" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B63" s="85"/>
@@ -6698,22 +6698,22 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="S63" s="159"/>
-      <c r="T63" s="159" t="s">
+      <c r="S63" s="106"/>
+      <c r="T63" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="U63" s="159"/>
-      <c r="V63" s="159"/>
-      <c r="W63" s="159"/>
-      <c r="X63" s="159"/>
-      <c r="Y63" s="159"/>
-      <c r="Z63" s="159"/>
-      <c r="AA63" s="159"/>
-      <c r="AB63" s="159"/>
-      <c r="AC63" s="159"/>
-      <c r="AD63" s="159"/>
-      <c r="AE63" s="159"/>
-      <c r="AF63" s="159"/>
+      <c r="U63" s="106"/>
+      <c r="V63" s="106"/>
+      <c r="W63" s="106"/>
+      <c r="X63" s="106"/>
+      <c r="Y63" s="106"/>
+      <c r="Z63" s="106"/>
+      <c r="AA63" s="106"/>
+      <c r="AB63" s="106"/>
+      <c r="AC63" s="106"/>
+      <c r="AD63" s="106"/>
+      <c r="AE63" s="106"/>
+      <c r="AF63" s="106"/>
     </row>
     <row r="64" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B64" s="85"/>
@@ -6743,24 +6743,24 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="S64" s="159"/>
-      <c r="T64" s="161" t="s">
+      <c r="S64" s="106"/>
+      <c r="T64" s="147" t="s">
         <v>91</v>
       </c>
-      <c r="U64" s="161"/>
-      <c r="V64" s="161"/>
-      <c r="W64" s="161"/>
-      <c r="X64" s="161"/>
-      <c r="Y64" s="161"/>
-      <c r="Z64" s="159"/>
-      <c r="AA64" s="159"/>
-      <c r="AB64" s="159"/>
-      <c r="AC64" s="159"/>
-      <c r="AD64" s="162" t="s">
+      <c r="U64" s="147"/>
+      <c r="V64" s="147"/>
+      <c r="W64" s="147"/>
+      <c r="X64" s="147"/>
+      <c r="Y64" s="147"/>
+      <c r="Z64" s="106"/>
+      <c r="AA64" s="106"/>
+      <c r="AB64" s="106"/>
+      <c r="AC64" s="106"/>
+      <c r="AD64" s="107" t="s">
         <v>81</v>
       </c>
-      <c r="AE64" s="159"/>
-      <c r="AF64" s="159"/>
+      <c r="AE64" s="106"/>
+      <c r="AF64" s="106"/>
     </row>
     <row r="65" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B65" s="85"/>
@@ -6790,20 +6790,20 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="S65" s="159"/>
-      <c r="T65" s="159"/>
-      <c r="U65" s="159"/>
-      <c r="V65" s="159"/>
-      <c r="W65" s="159"/>
-      <c r="X65" s="159"/>
-      <c r="Y65" s="159"/>
-      <c r="Z65" s="159"/>
-      <c r="AA65" s="159"/>
-      <c r="AB65" s="159"/>
-      <c r="AC65" s="159"/>
-      <c r="AD65" s="159"/>
-      <c r="AE65" s="159"/>
-      <c r="AF65" s="159"/>
+      <c r="S65" s="106"/>
+      <c r="T65" s="106"/>
+      <c r="U65" s="106"/>
+      <c r="V65" s="106"/>
+      <c r="W65" s="106"/>
+      <c r="X65" s="106"/>
+      <c r="Y65" s="106"/>
+      <c r="Z65" s="106"/>
+      <c r="AA65" s="106"/>
+      <c r="AB65" s="106"/>
+      <c r="AC65" s="106"/>
+      <c r="AD65" s="106"/>
+      <c r="AE65" s="106"/>
+      <c r="AF65" s="106"/>
     </row>
     <row r="66" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B66" s="85"/>
@@ -6959,35 +6959,8 @@
       <c r="Q72" s="1"/>
     </row>
   </sheetData>
+  <sheetProtection password="E4CB" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="44">
-    <mergeCell ref="T55:U56"/>
-    <mergeCell ref="AC22:AD22"/>
-    <mergeCell ref="AC23:AD23"/>
-    <mergeCell ref="AC24:AD24"/>
-    <mergeCell ref="AC25:AD25"/>
-    <mergeCell ref="AC26:AD26"/>
-    <mergeCell ref="AC27:AD27"/>
-    <mergeCell ref="AF8:AF14"/>
-    <mergeCell ref="S7:AF7"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="S10:AD11"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="AE8:AE14"/>
-    <mergeCell ref="AA30:AB31"/>
-    <mergeCell ref="AC17:AD17"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="AC19:AD19"/>
-    <mergeCell ref="AC20:AD20"/>
     <mergeCell ref="B2:I3"/>
     <mergeCell ref="T64:Y64"/>
     <mergeCell ref="V21:W21"/>
@@ -7004,6 +6977,34 @@
     <mergeCell ref="U30:V31"/>
     <mergeCell ref="W30:X31"/>
     <mergeCell ref="Y30:Z31"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="AE8:AE14"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="AC20:AD20"/>
+    <mergeCell ref="AF8:AF14"/>
+    <mergeCell ref="S7:AF7"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="S10:AD11"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="T55:U56"/>
+    <mergeCell ref="AC22:AD22"/>
+    <mergeCell ref="AC23:AD23"/>
+    <mergeCell ref="AC24:AD24"/>
+    <mergeCell ref="AC25:AD25"/>
+    <mergeCell ref="AC26:AD26"/>
+    <mergeCell ref="AC27:AD27"/>
+    <mergeCell ref="AA30:AB31"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="T64" r:id="rId1"/>

--- a/Moduleplanning-template.xlsx
+++ b/Moduleplanning-template.xlsx
@@ -1837,170 +1837,170 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2743,8 +2743,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:AF72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2763,26 +2763,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B2" s="146" t="s">
+      <c r="B2" s="108" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
     </row>
     <row r="3" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B3" s="146"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
     </row>
     <row r="5" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -2840,22 +2840,22 @@
       <c r="P7" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="S7" s="114" t="s">
+      <c r="S7" s="138" t="s">
         <v>36</v>
       </c>
-      <c r="T7" s="115"/>
-      <c r="U7" s="115"/>
-      <c r="V7" s="115"/>
-      <c r="W7" s="115"/>
-      <c r="X7" s="115"/>
-      <c r="Y7" s="115"/>
-      <c r="Z7" s="115"/>
-      <c r="AA7" s="115"/>
-      <c r="AB7" s="115"/>
-      <c r="AC7" s="115"/>
-      <c r="AD7" s="115"/>
-      <c r="AE7" s="115"/>
-      <c r="AF7" s="116"/>
+      <c r="T7" s="139"/>
+      <c r="U7" s="139"/>
+      <c r="V7" s="139"/>
+      <c r="W7" s="139"/>
+      <c r="X7" s="139"/>
+      <c r="Y7" s="139"/>
+      <c r="Z7" s="139"/>
+      <c r="AA7" s="139"/>
+      <c r="AB7" s="139"/>
+      <c r="AC7" s="139"/>
+      <c r="AD7" s="139"/>
+      <c r="AE7" s="139"/>
+      <c r="AF7" s="140"/>
     </row>
     <row r="8" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="82" t="s">
@@ -2933,10 +2933,10 @@
       <c r="AD8" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="AE8" s="139" t="s">
+      <c r="AE8" s="132" t="s">
         <v>43</v>
       </c>
-      <c r="AF8" s="111">
+      <c r="AF8" s="135">
         <f>IF(SUM(O8:O67)=0,0,ROUND(SUM(P8:P67)/SUM(O8:O67),2))</f>
         <v>3.22</v>
       </c>
@@ -3029,8 +3029,8 @@
         <f>COUNTIF(MainTable[Grade],AD8)</f>
         <v>1</v>
       </c>
-      <c r="AE9" s="140"/>
-      <c r="AF9" s="112"/>
+      <c r="AE9" s="133"/>
+      <c r="AF9" s="136"/>
     </row>
     <row r="10" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B10" s="85" t="s">
@@ -3072,22 +3072,22 @@
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="S10" s="122" t="s">
+      <c r="S10" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="T10" s="123"/>
-      <c r="U10" s="123"/>
-      <c r="V10" s="123"/>
-      <c r="W10" s="123"/>
-      <c r="X10" s="123"/>
-      <c r="Y10" s="123"/>
-      <c r="Z10" s="123"/>
-      <c r="AA10" s="123"/>
-      <c r="AB10" s="123"/>
-      <c r="AC10" s="123"/>
-      <c r="AD10" s="124"/>
-      <c r="AE10" s="140"/>
-      <c r="AF10" s="112"/>
+      <c r="T10" s="147"/>
+      <c r="U10" s="147"/>
+      <c r="V10" s="147"/>
+      <c r="W10" s="147"/>
+      <c r="X10" s="147"/>
+      <c r="Y10" s="147"/>
+      <c r="Z10" s="147"/>
+      <c r="AA10" s="147"/>
+      <c r="AB10" s="147"/>
+      <c r="AC10" s="147"/>
+      <c r="AD10" s="148"/>
+      <c r="AE10" s="133"/>
+      <c r="AF10" s="136"/>
     </row>
     <row r="11" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="85" t="s">
@@ -3129,20 +3129,20 @@
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="S11" s="125"/>
-      <c r="T11" s="126"/>
-      <c r="U11" s="126"/>
-      <c r="V11" s="126"/>
-      <c r="W11" s="126"/>
-      <c r="X11" s="126"/>
-      <c r="Y11" s="126"/>
-      <c r="Z11" s="126"/>
-      <c r="AA11" s="126"/>
-      <c r="AB11" s="126"/>
-      <c r="AC11" s="126"/>
-      <c r="AD11" s="127"/>
-      <c r="AE11" s="140"/>
-      <c r="AF11" s="112"/>
+      <c r="S11" s="149"/>
+      <c r="T11" s="150"/>
+      <c r="U11" s="150"/>
+      <c r="V11" s="150"/>
+      <c r="W11" s="150"/>
+      <c r="X11" s="150"/>
+      <c r="Y11" s="150"/>
+      <c r="Z11" s="150"/>
+      <c r="AA11" s="150"/>
+      <c r="AB11" s="150"/>
+      <c r="AC11" s="150"/>
+      <c r="AD11" s="151"/>
+      <c r="AE11" s="133"/>
+      <c r="AF11" s="136"/>
     </row>
     <row r="12" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="85" t="s">
@@ -3184,8 +3184,8 @@
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="S12" s="128"/>
-      <c r="T12" s="129"/>
+      <c r="S12" s="152"/>
+      <c r="T12" s="153"/>
       <c r="U12" s="7">
         <v>1</v>
       </c>
@@ -3216,8 +3216,8 @@
       <c r="AD12" s="10">
         <v>10</v>
       </c>
-      <c r="AE12" s="140"/>
-      <c r="AF12" s="112"/>
+      <c r="AE12" s="133"/>
+      <c r="AF12" s="136"/>
     </row>
     <row r="13" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B13" s="85" t="s">
@@ -3259,10 +3259,10 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="S13" s="130" t="s">
+      <c r="S13" s="154" t="s">
         <v>60</v>
       </c>
-      <c r="T13" s="131"/>
+      <c r="T13" s="155"/>
       <c r="U13" s="8">
         <f>SUMIFS(MainTable[Effective MCs],MainTable[Semester],U12)</f>
         <v>21</v>
@@ -3303,8 +3303,8 @@
         <f>SUMIFS(MainTable[Effective MCs],MainTable[Semester],AD12)</f>
         <v>0</v>
       </c>
-      <c r="AE13" s="140"/>
-      <c r="AF13" s="112"/>
+      <c r="AE13" s="133"/>
+      <c r="AF13" s="136"/>
     </row>
     <row r="14" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="85" t="s">
@@ -3346,10 +3346,10 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="S14" s="132" t="s">
+      <c r="S14" s="156" t="s">
         <v>74</v>
       </c>
-      <c r="T14" s="133"/>
+      <c r="T14" s="157"/>
       <c r="U14" s="9">
         <f>IF(SUMIFS(MainTable[MC Footprint],MainTable[Semester],U12)=0,0,IF(U13=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Semester],U12)/SUMIFS(MainTable[MC Footprint],MainTable[Semester],U12),2)))</f>
         <v>4.33</v>
@@ -3390,8 +3390,8 @@
         <f>IF(SUMIFS(MainTable[MC Footprint],MainTable[Semester],AD12)=0,0,IF(AD13=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Semester],AD12)/SUMIFS(MainTable[MC Footprint],MainTable[Semester],AD12),2)))</f>
         <v>0</v>
       </c>
-      <c r="AE14" s="141"/>
-      <c r="AF14" s="113"/>
+      <c r="AE14" s="134"/>
+      <c r="AF14" s="137"/>
     </row>
     <row r="15" spans="2:32" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="85" t="s">
@@ -3442,25 +3442,25 @@
       <c r="U15" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="V15" s="134" t="s">
+      <c r="V15" s="158" t="s">
         <v>7</v>
       </c>
-      <c r="W15" s="135"/>
+      <c r="W15" s="159"/>
       <c r="X15" s="21"/>
-      <c r="Y15" s="121" t="s">
+      <c r="Y15" s="145" t="s">
         <v>47</v>
       </c>
-      <c r="Z15" s="120"/>
+      <c r="Z15" s="144"/>
       <c r="AA15" s="103" t="s">
         <v>48</v>
       </c>
       <c r="AB15" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="AC15" s="119" t="s">
+      <c r="AC15" s="143" t="s">
         <v>89</v>
       </c>
-      <c r="AD15" s="120"/>
+      <c r="AD15" s="144"/>
       <c r="AE15" s="17" t="s">
         <v>87</v>
       </c>
@@ -3519,10 +3519,10 @@
         <f>SUMIFS(MainTable[Level 1000 MCs],MainTable[Effective MCs],"&gt;0")</f>
         <v>29</v>
       </c>
-      <c r="V16" s="117" t="s">
+      <c r="V16" s="141" t="s">
         <v>60</v>
       </c>
-      <c r="W16" s="118"/>
+      <c r="W16" s="142"/>
       <c r="X16" s="51">
         <f>SUM(MainTable[Effective MCs])</f>
         <v>38</v>
@@ -3540,11 +3540,11 @@
         <f>IF(AA16="","",COUNTIFS(MainTable[Type],Y16,MainTable[Effective MCs],"&gt;0"))</f>
         <v>3</v>
       </c>
-      <c r="AC16" s="136">
+      <c r="AC16" s="160">
         <f>IF(Y16="","",IF(SUM(MainTable[Module Weight])=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Type],Y16)/SUM(MainTable[Module Weight]),2)))</f>
         <v>0.4</v>
       </c>
-      <c r="AD16" s="136"/>
+      <c r="AD16" s="160"/>
       <c r="AE16" s="98">
         <f>IF(AA16="","",AB16/AA16)</f>
         <v>0.42857142857142855</v>
@@ -3605,10 +3605,10 @@
         <f>SUMIFS(MainTable[Level 2000 MCs],MainTable[Effective MCs],"&gt;0")</f>
         <v>9</v>
       </c>
-      <c r="V17" s="137" t="s">
+      <c r="V17" s="110" t="s">
         <v>75</v>
       </c>
-      <c r="W17" s="138"/>
+      <c r="W17" s="111"/>
       <c r="X17" s="51">
         <f>COUNTA(MainTable[Grade])</f>
         <v>12</v>
@@ -3626,11 +3626,11 @@
         <f>IF(AA17="","",COUNTIFS(MainTable[Type],Y17,MainTable[Effective MCs],"&gt;0"))</f>
         <v>5</v>
       </c>
-      <c r="AC17" s="109">
+      <c r="AC17" s="118">
         <f>IF(Y17="","",IF(SUM(MainTable[Module Weight])=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Type],Y17)/SUM(MainTable[Module Weight]),2)))</f>
         <v>0.47</v>
       </c>
-      <c r="AD17" s="109"/>
+      <c r="AD17" s="118"/>
       <c r="AE17" s="99">
         <f t="shared" ref="AE17:AE27" si="4">IF(AA17="","",AB17/AA17)</f>
         <v>1</v>
@@ -3691,10 +3691,10 @@
         <f>SUMIFS(MainTable[Level 3000 MCs],MainTable[Effective MCs],"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="V18" s="137" t="s">
+      <c r="V18" s="110" t="s">
         <v>61</v>
       </c>
-      <c r="W18" s="138"/>
+      <c r="W18" s="111"/>
       <c r="X18" s="51">
         <f>SUM(T16:T29)</f>
         <v>82</v>
@@ -3712,11 +3712,11 @@
         <f>IF(AA18="","",COUNTIFS(MainTable[Type],Y18,MainTable[Effective MCs],"&gt;0"))</f>
         <v>0</v>
       </c>
-      <c r="AC18" s="109">
+      <c r="AC18" s="118">
         <f>IF(Y18="","",IF(SUM(MainTable[Module Weight])=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Type],Y18)/SUM(MainTable[Module Weight]),2)))</f>
         <v>0</v>
       </c>
-      <c r="AD18" s="109"/>
+      <c r="AD18" s="118"/>
       <c r="AE18" s="99">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3777,10 +3777,10 @@
         <f>SUMIFS(MainTable[Level 4000 MCs],MainTable[Effective MCs],"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="V19" s="137" t="s">
+      <c r="V19" s="110" t="s">
         <v>76</v>
       </c>
-      <c r="W19" s="138"/>
+      <c r="W19" s="111"/>
       <c r="X19" s="51">
         <f>COUNTA(MainTable[Module code])</f>
         <v>21</v>
@@ -3798,11 +3798,11 @@
         <f>IF(AA19="","",COUNTIFS(MainTable[Type],Y19,MainTable[Effective MCs],"&gt;0"))</f>
         <v>0</v>
       </c>
-      <c r="AC19" s="109">
+      <c r="AC19" s="118">
         <f>IF(Y19="","",IF(SUM(MainTable[Module Weight])=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Type],Y19)/SUM(MainTable[Module Weight]),2)))</f>
         <v>0</v>
       </c>
-      <c r="AD19" s="109"/>
+      <c r="AD19" s="118"/>
       <c r="AE19" s="99">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3859,10 +3859,10 @@
         <f>SUMIFS(MainTable[Level 5000 MCs],MainTable[Effective MCs],"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="V20" s="137" t="s">
+      <c r="V20" s="110" t="s">
         <v>86</v>
       </c>
-      <c r="W20" s="138"/>
+      <c r="W20" s="111"/>
       <c r="X20" s="76">
         <f>COUNTIF(MainTable[S/U],"Y")</f>
         <v>2</v>
@@ -3880,11 +3880,11 @@
         <f>IF(AA20="","",COUNTIFS(MainTable[Type],Y20,MainTable[Effective MCs],"&gt;0"))</f>
         <v>1</v>
       </c>
-      <c r="AC20" s="109">
+      <c r="AC20" s="118">
         <f>IF(Y20="","",IF(SUM(MainTable[Module Weight])=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Type],Y20)/SUM(MainTable[Module Weight]),2)))</f>
         <v>0.03</v>
       </c>
-      <c r="AD20" s="109"/>
+      <c r="AD20" s="118"/>
       <c r="AE20" s="99">
         <f t="shared" si="4"/>
         <v>0.5</v>
@@ -3941,8 +3941,8 @@
         <f>SUMIFS(MainTable[Level 6000 MCs],MainTable[Effective MCs],"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="V21" s="137"/>
-      <c r="W21" s="138"/>
+      <c r="V21" s="110"/>
+      <c r="W21" s="111"/>
       <c r="X21" s="51"/>
       <c r="Y21" s="48" t="str">
         <f t="array" ref="Y21">IFERROR(INDEX(MainTable[Type], MATCH(MIN(_xlfn.MODE.MULT(IF((MainTable[Type]&lt;&gt;"")*NOT(COUNTIF($Y$15:$Y20, MainTable[Type])), (COUNTIF(MainTable[Type], "&lt;"&amp;MainTable[Type])+1)*{1,1}))), IF((MainTable[Type]&lt;&gt;""),COUNTIF(MainTable[Type], "&lt;"&amp;MainTable[Type])+{1}), 0)), "")</f>
@@ -3957,11 +3957,11 @@
         <f>IF(AA21="","",COUNTIFS(MainTable[Type],Y21,MainTable[Effective MCs],"&gt;0"))</f>
         <v>1</v>
       </c>
-      <c r="AC21" s="109">
+      <c r="AC21" s="118">
         <f>IF(Y21="","",IF(SUM(MainTable[Module Weight])=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Type],Y21)/SUM(MainTable[Module Weight]),2)))</f>
         <v>0.1</v>
       </c>
-      <c r="AD21" s="109"/>
+      <c r="AD21" s="118"/>
       <c r="AE21" s="99">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -4026,11 +4026,11 @@
         <f>IF(AA22="","",COUNTIFS(MainTable[Type],Y22,MainTable[Effective MCs],"&gt;0"))</f>
         <v>0</v>
       </c>
-      <c r="AC22" s="109">
+      <c r="AC22" s="118">
         <f>IF(Y22="","",IF(SUM(MainTable[Module Weight])=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Type],Y22)/SUM(MainTable[Module Weight]),2)))</f>
         <v>0</v>
       </c>
-      <c r="AD22" s="109"/>
+      <c r="AD22" s="118"/>
       <c r="AE22" s="99">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4095,11 +4095,11 @@
         <f>IF(AA23="","",COUNTIFS(MainTable[Type],Y23,MainTable[Effective MCs],"&gt;0"))</f>
         <v>0</v>
       </c>
-      <c r="AC23" s="109">
+      <c r="AC23" s="118">
         <f>IF(Y23="","",IF(SUM(MainTable[Module Weight])=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Type],Y23)/SUM(MainTable[Module Weight]),2)))</f>
         <v>0</v>
       </c>
-      <c r="AD23" s="109"/>
+      <c r="AD23" s="118"/>
       <c r="AE23" s="99">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4164,11 +4164,11 @@
         <f>IF(AA24="","",COUNTIFS(MainTable[Type],Y24,MainTable[Effective MCs],"&gt;0"))</f>
         <v/>
       </c>
-      <c r="AC24" s="109" t="str">
+      <c r="AC24" s="118" t="str">
         <f>IF(Y24="","",IF(SUM(MainTable[Module Weight])=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Type],Y24)/SUM(MainTable[Module Weight]),2)))</f>
         <v/>
       </c>
-      <c r="AD24" s="109"/>
+      <c r="AD24" s="118"/>
       <c r="AE24" s="99" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4233,11 +4233,11 @@
         <f>IF(AA25="","",COUNTIFS(MainTable[Type],Y25,MainTable[Effective MCs],"&gt;0"))</f>
         <v/>
       </c>
-      <c r="AC25" s="109" t="str">
+      <c r="AC25" s="118" t="str">
         <f>IF(Y25="","",IF(SUM(MainTable[Module Weight])=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Type],Y25)/SUM(MainTable[Module Weight]),2)))</f>
         <v/>
       </c>
-      <c r="AD25" s="109"/>
+      <c r="AD25" s="118"/>
       <c r="AE25" s="99" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4302,11 +4302,11 @@
         <f>IF(AA26="","",COUNTIFS(MainTable[Type],Y26,MainTable[Effective MCs],"&gt;0"))</f>
         <v/>
       </c>
-      <c r="AC26" s="109" t="str">
+      <c r="AC26" s="118" t="str">
         <f>IF(Y26="","",IF(SUM(MainTable[Module Weight])=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Type],Y26)/SUM(MainTable[Module Weight]),2)))</f>
         <v/>
       </c>
-      <c r="AD26" s="109"/>
+      <c r="AD26" s="118"/>
       <c r="AE26" s="99" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4371,11 +4371,11 @@
         <f>IF(AA27="","",COUNTIFS(MainTable[Type],Y27,MainTable[Effective MCs],"&gt;0"))</f>
         <v/>
       </c>
-      <c r="AC27" s="110" t="str">
+      <c r="AC27" s="162" t="str">
         <f>IF(Y27="","",IF(SUM(MainTable[Module Weight])=0,0,ROUND(SUMIFS(MainTable[Module Weight],MainTable[Type],Y27)/SUM(MainTable[Module Weight]),2)))</f>
         <v/>
       </c>
-      <c r="AD27" s="110"/>
+      <c r="AD27" s="162"/>
       <c r="AE27" s="100" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4421,22 +4421,22 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="S28" s="156" t="s">
+      <c r="S28" s="123" t="s">
         <v>80</v>
       </c>
-      <c r="T28" s="157"/>
-      <c r="U28" s="157"/>
-      <c r="V28" s="158"/>
-      <c r="W28" s="158"/>
-      <c r="X28" s="157"/>
-      <c r="Y28" s="158"/>
-      <c r="Z28" s="158"/>
-      <c r="AA28" s="158"/>
-      <c r="AB28" s="158"/>
-      <c r="AC28" s="158"/>
-      <c r="AD28" s="158"/>
-      <c r="AE28" s="158"/>
-      <c r="AF28" s="159"/>
+      <c r="T28" s="124"/>
+      <c r="U28" s="124"/>
+      <c r="V28" s="125"/>
+      <c r="W28" s="125"/>
+      <c r="X28" s="124"/>
+      <c r="Y28" s="125"/>
+      <c r="Z28" s="125"/>
+      <c r="AA28" s="125"/>
+      <c r="AB28" s="125"/>
+      <c r="AC28" s="125"/>
+      <c r="AD28" s="125"/>
+      <c r="AE28" s="125"/>
+      <c r="AF28" s="126"/>
     </row>
     <row r="29" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="85"/>
@@ -4466,20 +4466,20 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="S29" s="160"/>
-      <c r="T29" s="161"/>
-      <c r="U29" s="161"/>
-      <c r="V29" s="161"/>
-      <c r="W29" s="161"/>
-      <c r="X29" s="161"/>
-      <c r="Y29" s="161"/>
-      <c r="Z29" s="161"/>
-      <c r="AA29" s="161"/>
-      <c r="AB29" s="161"/>
-      <c r="AC29" s="161"/>
-      <c r="AD29" s="161"/>
-      <c r="AE29" s="161"/>
-      <c r="AF29" s="162"/>
+      <c r="S29" s="127"/>
+      <c r="T29" s="128"/>
+      <c r="U29" s="128"/>
+      <c r="V29" s="128"/>
+      <c r="W29" s="128"/>
+      <c r="X29" s="128"/>
+      <c r="Y29" s="128"/>
+      <c r="Z29" s="128"/>
+      <c r="AA29" s="128"/>
+      <c r="AB29" s="128"/>
+      <c r="AC29" s="128"/>
+      <c r="AD29" s="128"/>
+      <c r="AE29" s="128"/>
+      <c r="AF29" s="129"/>
     </row>
     <row r="30" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B30" s="85"/>
@@ -4509,41 +4509,41 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="S30" s="148" t="str">
+      <c r="S30" s="112" t="str">
         <f>IF(Y16="","",Y16)</f>
         <v>Foundation</v>
       </c>
-      <c r="T30" s="149"/>
-      <c r="U30" s="148" t="str">
+      <c r="T30" s="113"/>
+      <c r="U30" s="112" t="str">
         <f>IF(Y17="","",Y17)</f>
         <v>Science</v>
       </c>
-      <c r="V30" s="149"/>
-      <c r="W30" s="148" t="str">
+      <c r="V30" s="113"/>
+      <c r="W30" s="112" t="str">
         <f>IF(Y18="","",Y18)</f>
         <v>Focus Area</v>
       </c>
-      <c r="X30" s="143"/>
-      <c r="Y30" s="148" t="str">
+      <c r="X30" s="130"/>
+      <c r="Y30" s="112" t="str">
         <f>IF(Y19="","",Y19)</f>
         <v>GEM</v>
       </c>
-      <c r="Z30" s="149"/>
-      <c r="AA30" s="142" t="str">
+      <c r="Z30" s="113"/>
+      <c r="AA30" s="116" t="str">
         <f>IF(Y20="","",Y20)</f>
         <v>UE</v>
       </c>
-      <c r="AB30" s="143"/>
-      <c r="AC30" s="148" t="str">
+      <c r="AB30" s="130"/>
+      <c r="AC30" s="112" t="str">
         <f>IF(Y21="","",Y21)</f>
         <v>Breadth</v>
       </c>
-      <c r="AD30" s="149"/>
-      <c r="AE30" s="142" t="str">
+      <c r="AD30" s="113"/>
+      <c r="AE30" s="116" t="str">
         <f>IF(Y22="","",Y22)</f>
         <v>IT Professionalism</v>
       </c>
-      <c r="AF30" s="149"/>
+      <c r="AF30" s="113"/>
     </row>
     <row r="31" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="85"/>
@@ -4573,20 +4573,20 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="S31" s="150"/>
-      <c r="T31" s="151"/>
-      <c r="U31" s="150"/>
-      <c r="V31" s="151"/>
-      <c r="W31" s="150"/>
-      <c r="X31" s="145"/>
-      <c r="Y31" s="150"/>
-      <c r="Z31" s="151"/>
-      <c r="AA31" s="144"/>
-      <c r="AB31" s="145"/>
-      <c r="AC31" s="150"/>
-      <c r="AD31" s="151"/>
-      <c r="AE31" s="144"/>
-      <c r="AF31" s="151"/>
+      <c r="S31" s="114"/>
+      <c r="T31" s="115"/>
+      <c r="U31" s="114"/>
+      <c r="V31" s="115"/>
+      <c r="W31" s="114"/>
+      <c r="X31" s="131"/>
+      <c r="Y31" s="114"/>
+      <c r="Z31" s="115"/>
+      <c r="AA31" s="117"/>
+      <c r="AB31" s="131"/>
+      <c r="AC31" s="114"/>
+      <c r="AD31" s="115"/>
+      <c r="AE31" s="117"/>
+      <c r="AF31" s="115"/>
     </row>
     <row r="32" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B32" s="85"/>
@@ -5638,31 +5638,31 @@
         <f>IF(U44="","",IF(OR(COUNTIFS(MainTable[Module code],U44,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],U44,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
-      <c r="W44" s="152" t="str">
+      <c r="W44" s="119" t="str">
         <f>IF(Y23="","",Y23)</f>
         <v>Singapore Studies</v>
       </c>
-      <c r="X44" s="153"/>
-      <c r="Y44" s="152" t="str">
+      <c r="X44" s="120"/>
+      <c r="Y44" s="119" t="str">
         <f>IF(Y24="","",Y24)</f>
         <v/>
       </c>
-      <c r="Z44" s="153"/>
-      <c r="AA44" s="152" t="str">
+      <c r="Z44" s="120"/>
+      <c r="AA44" s="119" t="str">
         <f>IF(Y25="","",Y25)</f>
         <v/>
       </c>
-      <c r="AB44" s="153"/>
-      <c r="AC44" s="152" t="str">
+      <c r="AB44" s="120"/>
+      <c r="AC44" s="119" t="str">
         <f>IF(Y26="","",Y26)</f>
         <v/>
       </c>
-      <c r="AD44" s="153"/>
-      <c r="AE44" s="152" t="str">
+      <c r="AD44" s="120"/>
+      <c r="AE44" s="119" t="str">
         <f>IF(Y27="","",Y27)</f>
         <v/>
       </c>
-      <c r="AF44" s="153"/>
+      <c r="AF44" s="120"/>
     </row>
     <row r="45" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="85"/>
@@ -5708,16 +5708,16 @@
         <f>IF(U45="","",IF(OR(COUNTIFS(MainTable[Module code],U45,MainTable[Effective MCs],"&gt;0"),COUNTIFS(MainTable[Module code],U45,MainTable[Grade],"P")),"Yes", "No"))</f>
         <v/>
       </c>
-      <c r="W45" s="154"/>
-      <c r="X45" s="155"/>
-      <c r="Y45" s="154"/>
-      <c r="Z45" s="155"/>
-      <c r="AA45" s="154"/>
-      <c r="AB45" s="155"/>
-      <c r="AC45" s="154"/>
-      <c r="AD45" s="155"/>
-      <c r="AE45" s="154"/>
-      <c r="AF45" s="155"/>
+      <c r="W45" s="121"/>
+      <c r="X45" s="122"/>
+      <c r="Y45" s="121"/>
+      <c r="Z45" s="122"/>
+      <c r="AA45" s="121"/>
+      <c r="AB45" s="122"/>
+      <c r="AC45" s="121"/>
+      <c r="AD45" s="122"/>
+      <c r="AE45" s="121"/>
+      <c r="AF45" s="122"/>
     </row>
     <row r="46" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B46" s="85"/>
@@ -6345,10 +6345,10 @@
         <v/>
       </c>
       <c r="S55" s="106"/>
-      <c r="T55" s="108" t="s">
+      <c r="T55" s="161" t="s">
         <v>82</v>
       </c>
-      <c r="U55" s="108"/>
+      <c r="U55" s="161"/>
       <c r="V55" s="106"/>
       <c r="W55" s="106"/>
       <c r="X55" s="106"/>
@@ -6390,8 +6390,8 @@
         <v/>
       </c>
       <c r="S56" s="106"/>
-      <c r="T56" s="108"/>
-      <c r="U56" s="108"/>
+      <c r="T56" s="161"/>
+      <c r="U56" s="161"/>
       <c r="V56" s="106"/>
       <c r="W56" s="106"/>
       <c r="X56" s="106"/>
@@ -6744,14 +6744,14 @@
         <v/>
       </c>
       <c r="S64" s="106"/>
-      <c r="T64" s="147" t="s">
+      <c r="T64" s="109" t="s">
         <v>91</v>
       </c>
-      <c r="U64" s="147"/>
-      <c r="V64" s="147"/>
-      <c r="W64" s="147"/>
-      <c r="X64" s="147"/>
-      <c r="Y64" s="147"/>
+      <c r="U64" s="109"/>
+      <c r="V64" s="109"/>
+      <c r="W64" s="109"/>
+      <c r="X64" s="109"/>
+      <c r="Y64" s="109"/>
       <c r="Z64" s="106"/>
       <c r="AA64" s="106"/>
       <c r="AB64" s="106"/>
@@ -6961,6 +6961,34 @@
   </sheetData>
   <sheetProtection password="E4CB" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="44">
+    <mergeCell ref="T55:U56"/>
+    <mergeCell ref="AC22:AD22"/>
+    <mergeCell ref="AC23:AD23"/>
+    <mergeCell ref="AC24:AD24"/>
+    <mergeCell ref="AC25:AD25"/>
+    <mergeCell ref="AC26:AD26"/>
+    <mergeCell ref="AC27:AD27"/>
+    <mergeCell ref="AA30:AB31"/>
+    <mergeCell ref="AF8:AF14"/>
+    <mergeCell ref="S7:AF7"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="S10:AD11"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="AE8:AE14"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="AC20:AD20"/>
     <mergeCell ref="B2:I3"/>
     <mergeCell ref="T64:Y64"/>
     <mergeCell ref="V21:W21"/>
@@ -6977,34 +7005,6 @@
     <mergeCell ref="U30:V31"/>
     <mergeCell ref="W30:X31"/>
     <mergeCell ref="Y30:Z31"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="AE8:AE14"/>
-    <mergeCell ref="AC17:AD17"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="AC19:AD19"/>
-    <mergeCell ref="AC20:AD20"/>
-    <mergeCell ref="AF8:AF14"/>
-    <mergeCell ref="S7:AF7"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="S10:AD11"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="T55:U56"/>
-    <mergeCell ref="AC22:AD22"/>
-    <mergeCell ref="AC23:AD23"/>
-    <mergeCell ref="AC24:AD24"/>
-    <mergeCell ref="AC25:AD25"/>
-    <mergeCell ref="AC26:AD26"/>
-    <mergeCell ref="AC27:AD27"/>
-    <mergeCell ref="AA30:AB31"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="T64" r:id="rId1"/>
